--- a/Iceland Premier League/Iceland Premier League.xlsx
+++ b/Iceland Premier League/Iceland Premier League.xlsx
@@ -109,13 +109,13 @@
     <t>Fylkir Reykjavik</t>
   </si>
   <si>
-    <t>Stjarnan</t>
-  </si>
-  <si>
     <t>Fram Reykjavik</t>
   </si>
   <si>
     <t>Valur Reykjavik</t>
+  </si>
+  <si>
+    <t>Stjarnan</t>
   </si>
   <si>
     <t>Breidablik</t>
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6102128</v>
+        <v>6102129</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4">
+        <v>2.6</v>
+      </c>
+      <c r="L4">
+        <v>3.75</v>
+      </c>
+      <c r="M4">
+        <v>2.15</v>
+      </c>
+      <c r="N4">
+        <v>2.5</v>
+      </c>
+      <c r="O4">
+        <v>3.25</v>
+      </c>
+      <c r="P4">
+        <v>2.4</v>
+      </c>
+      <c r="Q4">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4">
-        <v>3.75</v>
-      </c>
-      <c r="L4">
-        <v>4</v>
-      </c>
-      <c r="M4">
-        <v>1.666</v>
-      </c>
-      <c r="N4">
-        <v>3.4</v>
-      </c>
-      <c r="O4">
-        <v>3.8</v>
-      </c>
-      <c r="P4">
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
         <v>1.8</v>
-      </c>
-      <c r="Q4">
-        <v>0.5</v>
-      </c>
-      <c r="R4">
-        <v>1.95</v>
-      </c>
-      <c r="S4">
-        <v>1.85</v>
       </c>
       <c r="T4">
         <v>3</v>
       </c>
       <c r="U4">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y4">
+        <v>-1</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>-0</v>
+      </c>
+      <c r="AB4">
         <v>0.8</v>
       </c>
-      <c r="Z4">
-        <v>-1</v>
-      </c>
-      <c r="AA4">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB4">
-        <v>-1</v>
-      </c>
       <c r="AC4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6102129</v>
+        <v>6102338</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,40 +886,40 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K5">
-        <v>2.6</v>
+        <v>1.625</v>
       </c>
       <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>1.666</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
         <v>3.75</v>
       </c>
-      <c r="M5">
-        <v>2.15</v>
-      </c>
-      <c r="N5">
-        <v>2.5</v>
-      </c>
-      <c r="O5">
-        <v>3.25</v>
-      </c>
-      <c r="P5">
-        <v>2.4</v>
-      </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S5">
         <v>1.8</v>
@@ -928,16 +928,16 @@
         <v>3</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X5">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
@@ -949,10 +949,10 @@
         <v>-0</v>
       </c>
       <c r="AB5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6102338</v>
+        <v>6102128</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,73 +975,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>1.625</v>
+        <v>3.75</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="N6">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P6">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S6">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T6">
         <v>3</v>
       </c>
       <c r="U6">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V6">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W6">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1242,7 +1242,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1420,7 +1420,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1506,7 +1506,7 @@
         <v>45032.67708333334</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
         <v>34</v>
@@ -1773,10 +1773,10 @@
         <v>45039.67708333334</v>
       </c>
       <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
         <v>32</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6102140</v>
+        <v>6560010</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,76 +1862,76 @@
         <v>45040.67708333334</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>43</v>
       </c>
       <c r="K16">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="L16">
         <v>3.8</v>
       </c>
       <c r="M16">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O16">
         <v>3.8</v>
       </c>
       <c r="P16">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T16">
         <v>3</v>
       </c>
       <c r="U16">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W16">
+        <v>0.909</v>
+      </c>
+      <c r="X16">
+        <v>-1</v>
+      </c>
+      <c r="Y16">
+        <v>-1</v>
+      </c>
+      <c r="Z16">
         <v>1</v>
       </c>
-      <c r="X16">
-        <v>-1</v>
-      </c>
-      <c r="Y16">
-        <v>-1</v>
-      </c>
-      <c r="Z16">
-        <v>0.8</v>
-      </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6560010</v>
+        <v>6102140</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,58 +2040,58 @@
         <v>45040.67708333334</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J18" t="s">
         <v>43</v>
       </c>
       <c r="K18">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L18">
         <v>3.8</v>
       </c>
       <c r="M18">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N18">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O18">
         <v>3.8</v>
       </c>
       <c r="P18">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q18">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S18">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T18">
         <v>3</v>
       </c>
       <c r="U18">
+        <v>1.75</v>
+      </c>
+      <c r="V18">
         <v>1.95</v>
       </c>
-      <c r="V18">
-        <v>1.9</v>
-      </c>
       <c r="W18">
-        <v>0.909</v>
+        <v>1</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2100,16 +2100,16 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA18">
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC18">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2132,7 +2132,7 @@
         <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -2574,10 +2574,10 @@
         <v>45045.67708333334</v>
       </c>
       <c r="F24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" t="s">
         <v>33</v>
-      </c>
-      <c r="G24" t="s">
-        <v>31</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2663,7 +2663,7 @@
         <v>45049.625</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
         <v>39</v>
@@ -2933,7 +2933,7 @@
         <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3108,7 +3108,7 @@
         <v>45050.67708333334</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
         <v>34</v>
@@ -3286,7 +3286,7 @@
         <v>45053.67708333334</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6102156</v>
+        <v>6102340</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,10 +3464,10 @@
         <v>45054.67708333334</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3479,25 +3479,25 @@
         <v>43</v>
       </c>
       <c r="K34">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="L34">
+        <v>3.75</v>
+      </c>
+      <c r="M34">
         <v>3.6</v>
       </c>
-      <c r="M34">
-        <v>2.5</v>
-      </c>
       <c r="N34">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="O34">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P34">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="Q34">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R34">
         <v>1.8</v>
@@ -3509,13 +3509,13 @@
         <v>3.25</v>
       </c>
       <c r="U34">
+        <v>1.975</v>
+      </c>
+      <c r="V34">
         <v>1.825</v>
       </c>
-      <c r="V34">
-        <v>1.975</v>
-      </c>
       <c r="W34">
-        <v>2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3524,16 +3524,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB34">
         <v>-0.5</v>
       </c>
       <c r="AC34">
-        <v>0.4875</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3541,7 +3541,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6102340</v>
+        <v>6102156</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3553,10 +3553,10 @@
         <v>45054.67708333334</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3568,25 +3568,25 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="L35">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M35">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="N35">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="O35">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P35">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="Q35">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R35">
         <v>1.8</v>
@@ -3598,13 +3598,13 @@
         <v>3.25</v>
       </c>
       <c r="U35">
+        <v>1.825</v>
+      </c>
+      <c r="V35">
         <v>1.975</v>
       </c>
-      <c r="V35">
-        <v>1.825</v>
-      </c>
       <c r="W35">
-        <v>0.6000000000000001</v>
+        <v>2</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3613,16 +3613,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AA35">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
         <v>-0.5</v>
       </c>
       <c r="AC35">
-        <v>0.4125</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3731,7 +3731,7 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
         <v>39</v>
@@ -3823,7 +3823,7 @@
         <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6102161</v>
+        <v>6102160</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4087,58 +4087,58 @@
         <v>45060.67708333334</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
         <v>43</v>
       </c>
       <c r="K41">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="L41">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M41">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="N41">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="O41">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P41">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R41">
+        <v>1.925</v>
+      </c>
+      <c r="S41">
         <v>1.875</v>
       </c>
-      <c r="S41">
-        <v>1.925</v>
-      </c>
       <c r="T41">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U41">
+        <v>1.825</v>
+      </c>
+      <c r="V41">
         <v>1.975</v>
       </c>
-      <c r="V41">
-        <v>1.825</v>
-      </c>
       <c r="W41">
-        <v>1.375</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4147,16 +4147,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA41">
         <v>-1</v>
       </c>
       <c r="AB41">
+        <v>-1</v>
+      </c>
+      <c r="AC41">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC41">
-        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6102160</v>
+        <v>6102161</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,58 +4176,58 @@
         <v>45060.67708333334</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
         <v>43</v>
       </c>
       <c r="K42">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M42">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="N42">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="O42">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P42">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="Q42">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R42">
+        <v>1.875</v>
+      </c>
+      <c r="S42">
         <v>1.925</v>
       </c>
-      <c r="S42">
-        <v>1.875</v>
-      </c>
       <c r="T42">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U42">
+        <v>1.975</v>
+      </c>
+      <c r="V42">
         <v>1.825</v>
       </c>
-      <c r="V42">
-        <v>1.975</v>
-      </c>
       <c r="W42">
-        <v>0.3999999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4236,16 +4236,16 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA42">
         <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC42">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4354,7 +4354,7 @@
         <v>45067.67708333334</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G44" t="s">
         <v>35</v>
@@ -4621,7 +4621,7 @@
         <v>45068.67708333334</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
         <v>30</v>
@@ -4710,7 +4710,7 @@
         <v>45068.67708333334</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4891,7 +4891,7 @@
         <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5158,7 +5158,7 @@
         <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5247,7 +5247,7 @@
         <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H54">
         <v>4</v>
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6102171</v>
+        <v>6102170</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,76 +5333,76 @@
         <v>45075.67708333334</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K55">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="L55">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M55">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="N55">
-        <v>1.833</v>
+        <v>6</v>
       </c>
       <c r="O55">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P55">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="Q55">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R55">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S55">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T55">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U55">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y55">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA55">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6102170</v>
+        <v>6102171</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,76 +5422,76 @@
         <v>45075.67708333334</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K56">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="L56">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M56">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="N56">
-        <v>6</v>
+        <v>1.833</v>
       </c>
       <c r="O56">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P56">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q56">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R56">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S56">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T56">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U56">
+        <v>1.75</v>
+      </c>
+      <c r="V56">
         <v>1.95</v>
       </c>
-      <c r="V56">
-        <v>1.85</v>
-      </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z56">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC56">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>45079.625</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G59" t="s">
         <v>29</v>
@@ -5778,7 +5778,7 @@
         <v>45079.67708333334</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
         <v>35</v>
@@ -5867,7 +5867,7 @@
         <v>45079.67708333334</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
         <v>36</v>
@@ -6315,7 +6315,7 @@
         <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>37</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -6493,7 +6493,7 @@
         <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6102182</v>
+        <v>6102181</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,76 +6579,76 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K69">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L69">
+        <v>3.75</v>
+      </c>
+      <c r="M69">
         <v>3.6</v>
       </c>
-      <c r="M69">
-        <v>2.625</v>
-      </c>
       <c r="N69">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="O69">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P69">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q69">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R69">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S69">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T69">
         <v>3</v>
       </c>
       <c r="U69">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V69">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X69">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC69">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6102181</v>
+        <v>6102183</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,58 +6668,58 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
         <v>43</v>
       </c>
       <c r="K70">
-        <v>1.833</v>
+        <v>5.25</v>
       </c>
       <c r="L70">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M70">
-        <v>3.6</v>
+        <v>1.45</v>
       </c>
       <c r="N70">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="O70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P70">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="Q70">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R70">
+        <v>2.025</v>
+      </c>
+      <c r="S70">
+        <v>1.825</v>
+      </c>
+      <c r="T70">
+        <v>3.25</v>
+      </c>
+      <c r="U70">
         <v>1.975</v>
       </c>
-      <c r="S70">
+      <c r="V70">
         <v>1.875</v>
       </c>
-      <c r="T70">
-        <v>3</v>
-      </c>
-      <c r="U70">
-        <v>1.85</v>
-      </c>
-      <c r="V70">
-        <v>2</v>
-      </c>
       <c r="W70">
-        <v>0.7270000000000001</v>
+        <v>5</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6728,13 +6728,13 @@
         <v>-1</v>
       </c>
       <c r="Z70">
+        <v>1.025</v>
+      </c>
+      <c r="AA70">
+        <v>-1</v>
+      </c>
+      <c r="AB70">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA70">
-        <v>-1</v>
-      </c>
-      <c r="AB70">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6102183</v>
+        <v>6102182</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,76 +6757,76 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H71">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K71">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="L71">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M71">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="N71">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="O71">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P71">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="Q71">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R71">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S71">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T71">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U71">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V71">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W71">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB71">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6849,7 +6849,7 @@
         <v>39</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -7027,7 +7027,7 @@
         <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6102191</v>
+        <v>6102188</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,40 +7202,40 @@
         <v>45105.67708333334</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
         <v>43</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L76">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M76">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N76">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O76">
         <v>3.75</v>
       </c>
       <c r="P76">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q76">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R76">
         <v>1.875</v>
@@ -7244,7 +7244,7 @@
         <v>1.975</v>
       </c>
       <c r="T76">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
         <v>2</v>
@@ -7253,7 +7253,7 @@
         <v>1.85</v>
       </c>
       <c r="W76">
-        <v>0.833</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7268,10 +7268,10 @@
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6102188</v>
+        <v>6102191</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,40 +7291,40 @@
         <v>45105.67708333334</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
         <v>43</v>
       </c>
       <c r="K77">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M77">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N77">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O77">
         <v>3.75</v>
       </c>
       <c r="P77">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R77">
         <v>1.875</v>
@@ -7333,7 +7333,7 @@
         <v>1.975</v>
       </c>
       <c r="T77">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U77">
         <v>2</v>
@@ -7342,7 +7342,7 @@
         <v>1.85</v>
       </c>
       <c r="W77">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7357,10 +7357,10 @@
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC77">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>45106.67708333334</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
         <v>36</v>
@@ -7650,7 +7650,7 @@
         <v>39</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7825,7 +7825,7 @@
         <v>45119.67708333334</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
         <v>30</v>
@@ -8003,7 +8003,7 @@
         <v>45121.71875</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
         <v>34</v>
@@ -8181,10 +8181,10 @@
         <v>45124.67708333334</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6542524</v>
+        <v>6102206</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,76 +8537,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K91">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="L91">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M91">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N91">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="O91">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P91">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="Q91">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R91">
+        <v>1.925</v>
+      </c>
+      <c r="S91">
         <v>1.775</v>
       </c>
-      <c r="S91">
-        <v>2.025</v>
-      </c>
       <c r="T91">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U91">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V91">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB91">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8629,7 +8629,7 @@
         <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6102206</v>
+        <v>6542524</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,76 +8715,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K93">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="L93">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M93">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N93">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="O93">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P93">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="Q93">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S93">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T93">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W93">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC93">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8982,10 +8982,10 @@
         <v>45133.67708333334</v>
       </c>
       <c r="F96" t="s">
+        <v>33</v>
+      </c>
+      <c r="G96" t="s">
         <v>31</v>
-      </c>
-      <c r="G96" t="s">
-        <v>32</v>
       </c>
       <c r="H96">
         <v>4</v>
@@ -9074,7 +9074,7 @@
         <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6102213</v>
+        <v>6102350</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,43 +9338,43 @@
         <v>45138.67708333334</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J100" t="s">
         <v>42</v>
       </c>
       <c r="K100">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="L100">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M100">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N100">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="O100">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P100">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S100">
         <v>1.85</v>
@@ -9383,10 +9383,10 @@
         <v>3</v>
       </c>
       <c r="U100">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V100">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9395,7 +9395,7 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z100">
         <v>-1</v>
@@ -9404,7 +9404,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB100">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6102350</v>
+        <v>6102213</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,43 +9427,43 @@
         <v>45138.67708333334</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J101" t="s">
         <v>42</v>
       </c>
       <c r="K101">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="L101">
+        <v>3.5</v>
+      </c>
+      <c r="M101">
+        <v>2.3</v>
+      </c>
+      <c r="N101">
+        <v>2.7</v>
+      </c>
+      <c r="O101">
         <v>3.6</v>
       </c>
-      <c r="M101">
-        <v>1.909</v>
-      </c>
-      <c r="N101">
-        <v>3.8</v>
-      </c>
-      <c r="O101">
-        <v>3.75</v>
-      </c>
       <c r="P101">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="Q101">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R101">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S101">
         <v>1.85</v>
@@ -9472,10 +9472,10 @@
         <v>3</v>
       </c>
       <c r="U101">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V101">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9484,7 +9484,7 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>0.8500000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="Z101">
         <v>-1</v>
@@ -9493,7 +9493,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB101">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9519,7 +9519,7 @@
         <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9694,7 +9694,7 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
         <v>29</v>
@@ -9872,7 +9872,7 @@
         <v>45146.67708333334</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G106" t="s">
         <v>30</v>
@@ -10142,7 +10142,7 @@
         <v>35</v>
       </c>
       <c r="G109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10320,7 +10320,7 @@
         <v>40</v>
       </c>
       <c r="G111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H111">
         <v>3</v>
@@ -10498,7 +10498,7 @@
         <v>30</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10673,7 +10673,7 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G115" t="s">
         <v>29</v>
@@ -10839,7 +10839,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6102354</v>
+        <v>6102225</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10851,40 +10851,40 @@
         <v>45158.67708333334</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K117">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="L117">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M117">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="N117">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="O117">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P117">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="Q117">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R117">
         <v>1.9</v>
@@ -10893,31 +10893,31 @@
         <v>1.9</v>
       </c>
       <c r="T117">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U117">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V117">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z117">
+        <v>-1</v>
+      </c>
+      <c r="AA117">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA117">
-        <v>-1</v>
-      </c>
       <c r="AB117">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10928,7 +10928,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6102225</v>
+        <v>6102354</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10940,40 +10940,40 @@
         <v>45158.67708333334</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118">
+        <v>2</v>
+      </c>
+      <c r="J118" t="s">
+        <v>41</v>
+      </c>
+      <c r="K118">
+        <v>2.75</v>
+      </c>
+      <c r="L118">
+        <v>3.75</v>
+      </c>
+      <c r="M118">
+        <v>2.25</v>
+      </c>
+      <c r="N118">
+        <v>3.3</v>
+      </c>
+      <c r="O118">
         <v>4</v>
       </c>
-      <c r="J118" t="s">
-        <v>42</v>
-      </c>
-      <c r="K118">
-        <v>2.45</v>
-      </c>
-      <c r="L118">
-        <v>3.6</v>
-      </c>
-      <c r="M118">
-        <v>2.45</v>
-      </c>
-      <c r="N118">
-        <v>2.9</v>
-      </c>
-      <c r="O118">
-        <v>3.6</v>
-      </c>
       <c r="P118">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q118">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R118">
         <v>1.9</v>
@@ -10982,31 +10982,31 @@
         <v>1.9</v>
       </c>
       <c r="T118">
+        <v>3.25</v>
+      </c>
+      <c r="U118">
+        <v>1.95</v>
+      </c>
+      <c r="V118">
+        <v>1.85</v>
+      </c>
+      <c r="W118">
+        <v>-1</v>
+      </c>
+      <c r="X118">
         <v>3</v>
       </c>
-      <c r="U118">
-        <v>1.875</v>
-      </c>
-      <c r="V118">
-        <v>1.925</v>
-      </c>
-      <c r="W118">
-        <v>-1</v>
-      </c>
-      <c r="X118">
-        <v>-1</v>
-      </c>
       <c r="Y118">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA118">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11029,7 +11029,7 @@
         <v>45159.67708333334</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
         <v>40</v>
@@ -11121,7 +11121,7 @@
         <v>29</v>
       </c>
       <c r="G120" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11210,7 +11210,7 @@
         <v>36</v>
       </c>
       <c r="G121" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H121">
         <v>3</v>
@@ -11388,7 +11388,7 @@
         <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11830,7 +11830,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G128" t="s">
         <v>35</v>
@@ -12097,7 +12097,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
         <v>38</v>
@@ -12186,7 +12186,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
         <v>37</v>
@@ -12453,10 +12453,10 @@
         <v>45186.67708333334</v>
       </c>
       <c r="F135" t="s">
+        <v>32</v>
+      </c>
+      <c r="G135" t="s">
         <v>33</v>
-      </c>
-      <c r="G135" t="s">
-        <v>31</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12545,7 +12545,7 @@
         <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12812,7 +12812,7 @@
         <v>39</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -12886,7 +12886,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7173179</v>
+        <v>7173164</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12898,76 +12898,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H140">
         <v>2</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K140">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L140">
         <v>3.6</v>
       </c>
       <c r="M140">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="N140">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O140">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P140">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S140">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T140">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U140">
+        <v>1.825</v>
+      </c>
+      <c r="V140">
         <v>1.975</v>
       </c>
-      <c r="V140">
-        <v>1.825</v>
-      </c>
       <c r="W140">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB140">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC140">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12975,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7173164</v>
+        <v>7173163</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12987,22 +12987,22 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G141" t="s">
         <v>33</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K141">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="L141">
         <v>3.6</v>
@@ -13011,25 +13011,25 @@
         <v>2.375</v>
       </c>
       <c r="N141">
+        <v>2.7</v>
+      </c>
+      <c r="O141">
+        <v>3.5</v>
+      </c>
+      <c r="P141">
         <v>2.25</v>
       </c>
-      <c r="O141">
-        <v>3.8</v>
-      </c>
-      <c r="P141">
-        <v>2.6</v>
-      </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S141">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T141">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U141">
         <v>1.825</v>
@@ -13041,16 +13041,16 @@
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.375</v>
+        <v>1.025</v>
       </c>
       <c r="AB141">
         <v>0.825</v>
@@ -13064,7 +13064,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7173163</v>
+        <v>7173179</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13076,76 +13076,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H142">
+        <v>2</v>
+      </c>
+      <c r="I142">
         <v>1</v>
       </c>
-      <c r="I142">
-        <v>3</v>
-      </c>
       <c r="J142" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K142">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="L142">
         <v>3.6</v>
       </c>
       <c r="M142">
+        <v>2.45</v>
+      </c>
+      <c r="N142">
         <v>2.375</v>
       </c>
-      <c r="N142">
-        <v>2.7</v>
-      </c>
       <c r="O142">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P142">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q142">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R142">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T142">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U142">
+        <v>1.975</v>
+      </c>
+      <c r="V142">
         <v>1.825</v>
       </c>
-      <c r="V142">
-        <v>1.975</v>
-      </c>
       <c r="W142">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA142">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13420,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7173168</v>
+        <v>7173183</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13432,76 +13432,76 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G146" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H146">
         <v>2</v>
       </c>
       <c r="I146">
+        <v>2</v>
+      </c>
+      <c r="J146" t="s">
+        <v>41</v>
+      </c>
+      <c r="K146">
+        <v>2.2</v>
+      </c>
+      <c r="L146">
+        <v>3.6</v>
+      </c>
+      <c r="M146">
+        <v>2.7</v>
+      </c>
+      <c r="N146">
+        <v>2.45</v>
+      </c>
+      <c r="O146">
+        <v>3.6</v>
+      </c>
+      <c r="P146">
+        <v>2.4</v>
+      </c>
+      <c r="Q146">
         <v>0</v>
       </c>
-      <c r="J146" t="s">
-        <v>43</v>
-      </c>
-      <c r="K146">
-        <v>1.95</v>
-      </c>
-      <c r="L146">
-        <v>3.75</v>
-      </c>
-      <c r="M146">
-        <v>3.2</v>
-      </c>
-      <c r="N146">
-        <v>1.85</v>
-      </c>
-      <c r="O146">
-        <v>3.8</v>
-      </c>
-      <c r="P146">
-        <v>3.4</v>
-      </c>
-      <c r="Q146">
-        <v>-0.5</v>
-      </c>
       <c r="R146">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S146">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T146">
         <v>3.25</v>
       </c>
       <c r="U146">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V146">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W146">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC146">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13509,7 +13509,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7173167</v>
+        <v>7173166</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13521,58 +13521,58 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
         <v>43</v>
       </c>
       <c r="K147">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="L147">
+        <v>3.6</v>
+      </c>
+      <c r="M147">
+        <v>2.6</v>
+      </c>
+      <c r="N147">
+        <v>2.7</v>
+      </c>
+      <c r="O147">
         <v>4</v>
       </c>
-      <c r="M147">
-        <v>4.333</v>
-      </c>
-      <c r="N147">
-        <v>1.571</v>
-      </c>
-      <c r="O147">
-        <v>4.2</v>
-      </c>
       <c r="P147">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q147">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R147">
+        <v>1.925</v>
+      </c>
+      <c r="S147">
         <v>1.875</v>
       </c>
-      <c r="S147">
+      <c r="T147">
+        <v>3.75</v>
+      </c>
+      <c r="U147">
         <v>1.925</v>
       </c>
-      <c r="T147">
-        <v>3.25</v>
-      </c>
-      <c r="U147">
+      <c r="V147">
         <v>1.775</v>
       </c>
-      <c r="V147">
-        <v>1.925</v>
-      </c>
       <c r="W147">
-        <v>0.571</v>
+        <v>1.7</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13581,16 +13581,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA147">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC147">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13598,7 +13598,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7173166</v>
+        <v>7173167</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13610,58 +13610,58 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H148">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
         <v>43</v>
       </c>
       <c r="K148">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="L148">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M148">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="N148">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="O148">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P148">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q148">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R148">
+        <v>1.875</v>
+      </c>
+      <c r="S148">
         <v>1.925</v>
       </c>
-      <c r="S148">
-        <v>1.875</v>
-      </c>
       <c r="T148">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U148">
+        <v>1.775</v>
+      </c>
+      <c r="V148">
         <v>1.925</v>
       </c>
-      <c r="V148">
-        <v>1.775</v>
-      </c>
       <c r="W148">
-        <v>1.7</v>
+        <v>0.571</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13670,16 +13670,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB148">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13687,7 +13687,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7173183</v>
+        <v>7173182</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13699,73 +13699,73 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K149">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L149">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M149">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N149">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="O149">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P149">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q149">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R149">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S149">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T149">
         <v>3.25</v>
       </c>
       <c r="U149">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V149">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X149">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA149">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13776,7 +13776,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7173182</v>
+        <v>7173168</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13788,37 +13788,37 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
         <v>43</v>
       </c>
       <c r="K150">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L150">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M150">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N150">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="O150">
         <v>3.8</v>
       </c>
       <c r="P150">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q150">
         <v>-0.5</v>
@@ -13833,13 +13833,13 @@
         <v>3.25</v>
       </c>
       <c r="U150">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V150">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W150">
-        <v>0.833</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13854,10 +13854,10 @@
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14043,7 +14043,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7173186</v>
+        <v>7173185</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14055,76 +14055,76 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G153" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
         <v>1</v>
       </c>
-      <c r="I153">
-        <v>0</v>
-      </c>
       <c r="J153" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K153">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="L153">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M153">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="N153">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="O153">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P153">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R153">
         <v>1.825</v>
       </c>
       <c r="S153">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T153">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U153">
         <v>1.925</v>
       </c>
       <c r="V153">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W153">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z153">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB153">
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14132,7 +14132,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7173185</v>
+        <v>7173186</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14144,76 +14144,76 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F154" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
         <v>0</v>
       </c>
-      <c r="I154">
-        <v>1</v>
-      </c>
       <c r="J154" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K154">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="L154">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M154">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="N154">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="O154">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P154">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q154">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R154">
         <v>1.825</v>
       </c>
       <c r="S154">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T154">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U154">
         <v>1.925</v>
       </c>
       <c r="V154">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA154">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
         <v>-1</v>
       </c>
       <c r="AC154">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14233,7 +14233,7 @@
         <v>45200.67708333334</v>
       </c>
       <c r="F155" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G155" t="s">
         <v>36</v>
@@ -14322,7 +14322,7 @@
         <v>45201.67708333334</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G156" t="s">
         <v>37</v>
@@ -14414,7 +14414,7 @@
         <v>30</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H157">
         <v>5</v>
@@ -14503,7 +14503,7 @@
         <v>37</v>
       </c>
       <c r="G158" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H158">
         <v>5</v>
@@ -14859,7 +14859,7 @@
         <v>34</v>
       </c>
       <c r="G162" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H162">
         <v>0</v>

--- a/Iceland Premier League/Iceland Premier League.xlsx
+++ b/Iceland Premier League/Iceland Premier League.xlsx
@@ -109,13 +109,13 @@
     <t>Fylkir Reykjavik</t>
   </si>
   <si>
+    <t>Stjarnan</t>
+  </si>
+  <si>
     <t>Fram Reykjavik</t>
   </si>
   <si>
     <t>Valur Reykjavik</t>
-  </si>
-  <si>
-    <t>Stjarnan</t>
   </si>
   <si>
     <t>Breidablik</t>
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6102129</v>
+        <v>6102128</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="L4">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="N4">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="O4">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P4">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S4">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T4">
         <v>3</v>
       </c>
       <c r="U4">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB4">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6102338</v>
+        <v>6102129</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,40 +886,40 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>1.625</v>
+        <v>2.6</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="N5">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P5">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S5">
         <v>1.8</v>
@@ -928,16 +928,16 @@
         <v>3</v>
       </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y5">
         <v>-1</v>
@@ -949,10 +949,10 @@
         <v>-0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC5">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6102128</v>
+        <v>6102338</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,73 +975,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>3.75</v>
+        <v>1.625</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
       <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
         <v>1.666</v>
       </c>
-      <c r="N6">
-        <v>3.4</v>
-      </c>
       <c r="O6">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P6">
+        <v>3.75</v>
+      </c>
+      <c r="Q6">
+        <v>-1</v>
+      </c>
+      <c r="R6">
+        <v>1.9</v>
+      </c>
+      <c r="S6">
         <v>1.8</v>
-      </c>
-      <c r="Q6">
-        <v>0.5</v>
-      </c>
-      <c r="R6">
-        <v>1.95</v>
-      </c>
-      <c r="S6">
-        <v>1.85</v>
       </c>
       <c r="T6">
         <v>3</v>
       </c>
       <c r="U6">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V6">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1242,7 +1242,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1420,7 +1420,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1506,7 +1506,7 @@
         <v>45032.67708333334</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
         <v>34</v>
@@ -1773,10 +1773,10 @@
         <v>45039.67708333334</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6560010</v>
+        <v>6102140</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,58 +1862,58 @@
         <v>45040.67708333334</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J16" t="s">
         <v>43</v>
       </c>
       <c r="K16">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L16">
         <v>3.8</v>
       </c>
       <c r="M16">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N16">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O16">
         <v>3.8</v>
       </c>
       <c r="P16">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T16">
         <v>3</v>
       </c>
       <c r="U16">
+        <v>1.75</v>
+      </c>
+      <c r="V16">
         <v>1.95</v>
       </c>
-      <c r="V16">
-        <v>1.9</v>
-      </c>
       <c r="W16">
-        <v>0.909</v>
+        <v>1</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1922,16 +1922,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC16">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6102140</v>
+        <v>6560010</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,76 +2040,76 @@
         <v>45040.67708333334</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>43</v>
       </c>
       <c r="K18">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="L18">
         <v>3.8</v>
       </c>
       <c r="M18">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N18">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O18">
         <v>3.8</v>
       </c>
       <c r="P18">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q18">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T18">
         <v>3</v>
       </c>
       <c r="U18">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W18">
+        <v>0.909</v>
+      </c>
+      <c r="X18">
+        <v>-1</v>
+      </c>
+      <c r="Y18">
+        <v>-1</v>
+      </c>
+      <c r="Z18">
         <v>1</v>
       </c>
-      <c r="X18">
-        <v>-1</v>
-      </c>
-      <c r="Y18">
-        <v>-1</v>
-      </c>
-      <c r="Z18">
-        <v>0.8</v>
-      </c>
       <c r="AA18">
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2132,7 +2132,7 @@
         <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -2574,10 +2574,10 @@
         <v>45045.67708333334</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2663,7 +2663,7 @@
         <v>45049.625</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
         <v>39</v>
@@ -2933,7 +2933,7 @@
         <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3108,7 +3108,7 @@
         <v>45050.67708333334</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
         <v>34</v>
@@ -3286,7 +3286,7 @@
         <v>45053.67708333334</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
@@ -3553,10 +3553,10 @@
         <v>45054.67708333334</v>
       </c>
       <c r="F35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" t="s">
         <v>31</v>
-      </c>
-      <c r="G35" t="s">
-        <v>33</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3731,7 +3731,7 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
         <v>39</v>
@@ -3823,7 +3823,7 @@
         <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H42">
         <v>3</v>
@@ -4354,7 +4354,7 @@
         <v>45067.67708333334</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
         <v>35</v>
@@ -4609,7 +4609,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6102165</v>
+        <v>6102166</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4621,40 +4621,40 @@
         <v>45068.67708333334</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K47">
+        <v>2.75</v>
+      </c>
+      <c r="L47">
+        <v>3.4</v>
+      </c>
+      <c r="M47">
+        <v>2.2</v>
+      </c>
+      <c r="N47">
+        <v>3</v>
+      </c>
+      <c r="O47">
+        <v>3.3</v>
+      </c>
+      <c r="P47">
         <v>2.1</v>
       </c>
-      <c r="L47">
-        <v>3.6</v>
-      </c>
-      <c r="M47">
-        <v>2.9</v>
-      </c>
-      <c r="N47">
-        <v>1.45</v>
-      </c>
-      <c r="O47">
-        <v>4.75</v>
-      </c>
-      <c r="P47">
-        <v>5.5</v>
-      </c>
       <c r="Q47">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
         <v>1.975</v>
@@ -4663,22 +4663,22 @@
         <v>1.825</v>
       </c>
       <c r="T47">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U47">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V47">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z47">
         <v>-1</v>
@@ -4687,10 +4687,10 @@
         <v>0.825</v>
       </c>
       <c r="AB47">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4698,7 +4698,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6102166</v>
+        <v>6102165</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4713,37 +4713,37 @@
         <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48">
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K48">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L48">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M48">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="N48">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="O48">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P48">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q48">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R48">
         <v>1.975</v>
@@ -4752,22 +4752,22 @@
         <v>1.825</v>
       </c>
       <c r="T48">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U48">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V48">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y48">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
         <v>-1</v>
@@ -4776,10 +4776,10 @@
         <v>0.825</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC48">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4891,7 +4891,7 @@
         <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6102344</v>
+        <v>6102168</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5066,28 +5066,28 @@
         <v>45074.67708333334</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>43</v>
       </c>
       <c r="K52">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L52">
         <v>3.5</v>
       </c>
       <c r="M52">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N52">
         <v>1.909</v>
@@ -5096,25 +5096,25 @@
         <v>3.4</v>
       </c>
       <c r="P52">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q52">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S52">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U52">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V52">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
         <v>0.909</v>
@@ -5126,16 +5126,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5143,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6102168</v>
+        <v>6102344</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5155,28 +5155,28 @@
         <v>45074.67708333334</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J53" t="s">
         <v>43</v>
       </c>
       <c r="K53">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L53">
         <v>3.5</v>
       </c>
       <c r="M53">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N53">
         <v>1.909</v>
@@ -5185,25 +5185,25 @@
         <v>3.4</v>
       </c>
       <c r="P53">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q53">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S53">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T53">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U53">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V53">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W53">
         <v>0.909</v>
@@ -5215,16 +5215,16 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC53">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5247,7 +5247,7 @@
         <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H54">
         <v>4</v>
@@ -5425,7 +5425,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5689,7 +5689,7 @@
         <v>45079.625</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
         <v>29</v>
@@ -5778,7 +5778,7 @@
         <v>45079.67708333334</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
         <v>35</v>
@@ -5867,7 +5867,7 @@
         <v>45079.67708333334</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
         <v>36</v>
@@ -6315,7 +6315,7 @@
         <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>37</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -6493,7 +6493,7 @@
         <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6102181</v>
+        <v>6102183</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,58 +6579,58 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
         <v>43</v>
       </c>
       <c r="K69">
-        <v>1.833</v>
+        <v>5.25</v>
       </c>
       <c r="L69">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M69">
-        <v>3.6</v>
+        <v>1.45</v>
       </c>
       <c r="N69">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="O69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P69">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="Q69">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R69">
+        <v>2.025</v>
+      </c>
+      <c r="S69">
+        <v>1.825</v>
+      </c>
+      <c r="T69">
+        <v>3.25</v>
+      </c>
+      <c r="U69">
         <v>1.975</v>
       </c>
-      <c r="S69">
+      <c r="V69">
         <v>1.875</v>
       </c>
-      <c r="T69">
-        <v>3</v>
-      </c>
-      <c r="U69">
-        <v>1.85</v>
-      </c>
-      <c r="V69">
-        <v>2</v>
-      </c>
       <c r="W69">
-        <v>0.7270000000000001</v>
+        <v>5</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6639,13 +6639,13 @@
         <v>-1</v>
       </c>
       <c r="Z69">
+        <v>1.025</v>
+      </c>
+      <c r="AA69">
+        <v>-1</v>
+      </c>
+      <c r="AB69">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA69">
-        <v>-1</v>
-      </c>
-      <c r="AB69">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC69">
         <v>-1</v>
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6102183</v>
+        <v>6102182</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,76 +6668,76 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H70">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K70">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="L70">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M70">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="N70">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="O70">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P70">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="Q70">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R70">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S70">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T70">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U70">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V70">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W70">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB70">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6102182</v>
+        <v>6102181</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,76 +6757,76 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K71">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L71">
+        <v>3.75</v>
+      </c>
+      <c r="M71">
         <v>3.6</v>
       </c>
-      <c r="M71">
-        <v>2.625</v>
-      </c>
       <c r="N71">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="O71">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P71">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q71">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R71">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S71">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T71">
         <v>3</v>
       </c>
       <c r="U71">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V71">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X71">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA71">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC71">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6849,7 +6849,7 @@
         <v>39</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -7027,7 +7027,7 @@
         <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6102188</v>
+        <v>6102191</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,40 +7202,40 @@
         <v>45105.67708333334</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
         <v>43</v>
       </c>
       <c r="K76">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M76">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N76">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O76">
         <v>3.75</v>
       </c>
       <c r="P76">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q76">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R76">
         <v>1.875</v>
@@ -7244,7 +7244,7 @@
         <v>1.975</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U76">
         <v>2</v>
@@ -7253,7 +7253,7 @@
         <v>1.85</v>
       </c>
       <c r="W76">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7268,10 +7268,10 @@
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC76">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6102191</v>
+        <v>6102188</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,40 +7291,40 @@
         <v>45105.67708333334</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G77" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
         <v>43</v>
       </c>
       <c r="K77">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L77">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M77">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N77">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O77">
         <v>3.75</v>
       </c>
       <c r="P77">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q77">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R77">
         <v>1.875</v>
@@ -7333,7 +7333,7 @@
         <v>1.975</v>
       </c>
       <c r="T77">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
         <v>2</v>
@@ -7342,7 +7342,7 @@
         <v>1.85</v>
       </c>
       <c r="W77">
-        <v>0.833</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7357,10 +7357,10 @@
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>45106.67708333334</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
         <v>36</v>
@@ -7650,7 +7650,7 @@
         <v>39</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7825,7 +7825,7 @@
         <v>45119.67708333334</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
         <v>30</v>
@@ -8003,7 +8003,7 @@
         <v>45121.71875</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
         <v>34</v>
@@ -8181,10 +8181,10 @@
         <v>45124.67708333334</v>
       </c>
       <c r="F87" t="s">
+        <v>31</v>
+      </c>
+      <c r="G87" t="s">
         <v>33</v>
-      </c>
-      <c r="G87" t="s">
-        <v>32</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6102206</v>
+        <v>6542524</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,76 +8537,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K91">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="L91">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M91">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N91">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="O91">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P91">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="Q91">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R91">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S91">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T91">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V91">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W91">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC91">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8629,7 +8629,7 @@
         <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6542524</v>
+        <v>6102206</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,76 +8715,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K93">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="L93">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M93">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N93">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="O93">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P93">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R93">
+        <v>1.925</v>
+      </c>
+      <c r="S93">
         <v>1.775</v>
       </c>
-      <c r="S93">
-        <v>2.025</v>
-      </c>
       <c r="T93">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB93">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8982,10 +8982,10 @@
         <v>45133.67708333334</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H96">
         <v>4</v>
@@ -9074,7 +9074,7 @@
         <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6102350</v>
+        <v>6102213</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,43 +9338,43 @@
         <v>45138.67708333334</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J100" t="s">
         <v>42</v>
       </c>
       <c r="K100">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="L100">
+        <v>3.5</v>
+      </c>
+      <c r="M100">
+        <v>2.3</v>
+      </c>
+      <c r="N100">
+        <v>2.7</v>
+      </c>
+      <c r="O100">
         <v>3.6</v>
       </c>
-      <c r="M100">
-        <v>1.909</v>
-      </c>
-      <c r="N100">
-        <v>3.8</v>
-      </c>
-      <c r="O100">
-        <v>3.75</v>
-      </c>
       <c r="P100">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="Q100">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S100">
         <v>1.85</v>
@@ -9383,10 +9383,10 @@
         <v>3</v>
       </c>
       <c r="U100">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9395,7 +9395,7 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.8500000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="Z100">
         <v>-1</v>
@@ -9404,7 +9404,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB100">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6102213</v>
+        <v>6102350</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,43 +9427,43 @@
         <v>45138.67708333334</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J101" t="s">
         <v>42</v>
       </c>
       <c r="K101">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M101">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N101">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="O101">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P101">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S101">
         <v>1.85</v>
@@ -9472,10 +9472,10 @@
         <v>3</v>
       </c>
       <c r="U101">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V101">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9484,7 +9484,7 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z101">
         <v>-1</v>
@@ -9493,7 +9493,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB101">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9519,7 +9519,7 @@
         <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9694,7 +9694,7 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
         <v>29</v>
@@ -9872,7 +9872,7 @@
         <v>45146.67708333334</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G106" t="s">
         <v>30</v>
@@ -10142,7 +10142,7 @@
         <v>35</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10320,7 +10320,7 @@
         <v>40</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H111">
         <v>3</v>
@@ -10498,7 +10498,7 @@
         <v>30</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10673,7 +10673,7 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G115" t="s">
         <v>29</v>
@@ -10851,7 +10851,7 @@
         <v>45158.67708333334</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G117" t="s">
         <v>37</v>
@@ -11029,7 +11029,7 @@
         <v>45159.67708333334</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
         <v>40</v>
@@ -11121,7 +11121,7 @@
         <v>29</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11210,7 +11210,7 @@
         <v>36</v>
       </c>
       <c r="G121" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H121">
         <v>3</v>
@@ -11388,7 +11388,7 @@
         <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11830,7 +11830,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G128" t="s">
         <v>35</v>
@@ -12097,7 +12097,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
         <v>38</v>
@@ -12186,7 +12186,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G132" t="s">
         <v>37</v>
@@ -12453,10 +12453,10 @@
         <v>45186.67708333334</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12545,7 +12545,7 @@
         <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12812,7 +12812,7 @@
         <v>39</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -12886,7 +12886,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7173164</v>
+        <v>7173179</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12898,76 +12898,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H140">
         <v>2</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K140">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L140">
         <v>3.6</v>
       </c>
       <c r="M140">
+        <v>2.45</v>
+      </c>
+      <c r="N140">
         <v>2.375</v>
       </c>
-      <c r="N140">
-        <v>2.25</v>
-      </c>
       <c r="O140">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P140">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R140">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S140">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T140">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U140">
+        <v>1.975</v>
+      </c>
+      <c r="V140">
         <v>1.825</v>
       </c>
-      <c r="V140">
-        <v>1.975</v>
-      </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X140">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
+        <v>0.8</v>
+      </c>
+      <c r="AA140">
+        <v>-1</v>
+      </c>
+      <c r="AB140">
         <v>-0.5</v>
       </c>
-      <c r="AA140">
-        <v>0.375</v>
-      </c>
-      <c r="AB140">
-        <v>0.825</v>
-      </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12975,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7173163</v>
+        <v>7173164</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12987,22 +12987,22 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
         <v>33</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K141">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="L141">
         <v>3.6</v>
@@ -13011,25 +13011,25 @@
         <v>2.375</v>
       </c>
       <c r="N141">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="O141">
+        <v>3.8</v>
+      </c>
+      <c r="P141">
+        <v>2.6</v>
+      </c>
+      <c r="Q141">
+        <v>-0.25</v>
+      </c>
+      <c r="R141">
+        <v>1.95</v>
+      </c>
+      <c r="S141">
+        <v>1.75</v>
+      </c>
+      <c r="T141">
         <v>3.5</v>
-      </c>
-      <c r="P141">
-        <v>2.25</v>
-      </c>
-      <c r="Q141">
-        <v>0.25</v>
-      </c>
-      <c r="R141">
-        <v>1.775</v>
-      </c>
-      <c r="S141">
-        <v>2.025</v>
-      </c>
-      <c r="T141">
-        <v>3</v>
       </c>
       <c r="U141">
         <v>1.825</v>
@@ -13041,16 +13041,16 @@
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y141">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA141">
-        <v>1.025</v>
+        <v>0.375</v>
       </c>
       <c r="AB141">
         <v>0.825</v>
@@ -13064,7 +13064,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7173179</v>
+        <v>7173163</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13076,76 +13076,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G142" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K142">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="L142">
         <v>3.6</v>
       </c>
       <c r="M142">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="N142">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="O142">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P142">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="Q142">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S142">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T142">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U142">
+        <v>1.825</v>
+      </c>
+      <c r="V142">
         <v>1.975</v>
       </c>
-      <c r="V142">
-        <v>1.825</v>
-      </c>
       <c r="W142">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z142">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB142">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC142">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13521,7 +13521,7 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
         <v>34</v>
@@ -13699,7 +13699,7 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G149" t="s">
         <v>35</v>
@@ -13788,7 +13788,7 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
         <v>40</v>
@@ -14043,7 +14043,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7173185</v>
+        <v>7173186</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14055,76 +14055,76 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G153" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153">
         <v>0</v>
       </c>
-      <c r="I153">
-        <v>1</v>
-      </c>
       <c r="J153" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K153">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="L153">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M153">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="N153">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="O153">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P153">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q153">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R153">
         <v>1.825</v>
       </c>
       <c r="S153">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T153">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U153">
         <v>1.925</v>
       </c>
       <c r="V153">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA153">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14132,7 +14132,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7173186</v>
+        <v>7173185</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14144,76 +14144,76 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G154" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
         <v>1</v>
       </c>
-      <c r="I154">
-        <v>0</v>
-      </c>
       <c r="J154" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K154">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="L154">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M154">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="N154">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="O154">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P154">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q154">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R154">
         <v>1.825</v>
       </c>
       <c r="S154">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T154">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U154">
         <v>1.925</v>
       </c>
       <c r="V154">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W154">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z154">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB154">
         <v>-1</v>
       </c>
       <c r="AC154">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14233,7 +14233,7 @@
         <v>45200.67708333334</v>
       </c>
       <c r="F155" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G155" t="s">
         <v>36</v>
@@ -14322,7 +14322,7 @@
         <v>45201.67708333334</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G156" t="s">
         <v>37</v>
@@ -14414,7 +14414,7 @@
         <v>30</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H157">
         <v>5</v>
@@ -14503,7 +14503,7 @@
         <v>37</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H158">
         <v>5</v>
@@ -14577,7 +14577,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7173172</v>
+        <v>7173188</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14589,76 +14589,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G159" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I159">
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K159">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L159">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M159">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="N159">
-        <v>2.25</v>
+        <v>1.222</v>
       </c>
       <c r="O159">
+        <v>5.5</v>
+      </c>
+      <c r="P159">
+        <v>9</v>
+      </c>
+      <c r="Q159">
+        <v>-2</v>
+      </c>
+      <c r="R159">
+        <v>1.975</v>
+      </c>
+      <c r="S159">
+        <v>1.825</v>
+      </c>
+      <c r="T159">
         <v>3.75</v>
       </c>
-      <c r="P159">
-        <v>2.55</v>
-      </c>
-      <c r="Q159">
-        <v>0</v>
-      </c>
-      <c r="R159">
-        <v>1.775</v>
-      </c>
-      <c r="S159">
-        <v>2.025</v>
-      </c>
-      <c r="T159">
-        <v>3.5</v>
-      </c>
       <c r="U159">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V159">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W159">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB159">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14666,7 +14666,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7173188</v>
+        <v>7173172</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14678,76 +14678,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G160" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I160">
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K160">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L160">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M160">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="N160">
-        <v>1.222</v>
+        <v>2.25</v>
       </c>
       <c r="O160">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="P160">
-        <v>9</v>
+        <v>2.55</v>
       </c>
       <c r="Q160">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R160">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S160">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T160">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U160">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V160">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X160">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA160">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC160">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14859,7 +14859,7 @@
         <v>34</v>
       </c>
       <c r="G162" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H162">
         <v>0</v>

--- a/Iceland Premier League/Iceland Premier League.xlsx
+++ b/Iceland Premier League/Iceland Premier League.xlsx
@@ -103,19 +103,19 @@
     <t>Iceland Premier League</t>
   </si>
   <si>
+    <t>Fylkir Reykjavik</t>
+  </si>
+  <si>
     <t>KA Akureyri</t>
   </si>
   <si>
-    <t>Fylkir Reykjavik</t>
+    <t>Valur Reykjavik</t>
   </si>
   <si>
     <t>Stjarnan</t>
   </si>
   <si>
     <t>Fram Reykjavik</t>
-  </si>
-  <si>
-    <t>Valur Reykjavik</t>
   </si>
   <si>
     <t>Breidablik</t>
@@ -139,10 +139,10 @@
     <t>KR Reykjavik</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
     <t>H</t>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6102126</v>
+        <v>6102127</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -619,73 +619,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
       </c>
       <c r="K2">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L2">
         <v>3.6</v>
       </c>
       <c r="M2">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N2">
         <v>1.909</v>
       </c>
       <c r="O2">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P2">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q2">
         <v>-0.5</v>
       </c>
       <c r="R2">
+        <v>1.925</v>
+      </c>
+      <c r="S2">
+        <v>1.875</v>
+      </c>
+      <c r="T2">
+        <v>3.25</v>
+      </c>
+      <c r="U2">
+        <v>1.85</v>
+      </c>
+      <c r="V2">
         <v>1.95</v>
       </c>
-      <c r="S2">
-        <v>1.85</v>
-      </c>
-      <c r="T2">
-        <v>3</v>
-      </c>
-      <c r="U2">
-        <v>1.925</v>
-      </c>
-      <c r="V2">
-        <v>1.875</v>
-      </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z2">
         <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC2">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6102127</v>
+        <v>6102126</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,73 +708,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>42</v>
       </c>
       <c r="K3">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="L3">
         <v>3.6</v>
       </c>
       <c r="M3">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N3">
         <v>1.909</v>
       </c>
       <c r="O3">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P3">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q3">
         <v>-0.5</v>
       </c>
       <c r="R3">
+        <v>1.95</v>
+      </c>
+      <c r="S3">
+        <v>1.85</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3">
         <v>1.925</v>
       </c>
-      <c r="S3">
+      <c r="V3">
         <v>1.875</v>
       </c>
-      <c r="T3">
-        <v>3.25</v>
-      </c>
-      <c r="U3">
-        <v>1.85</v>
-      </c>
-      <c r="V3">
-        <v>1.95</v>
-      </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y3">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB3">
+        <v>-1</v>
+      </c>
+      <c r="AC3">
         <v>0.875</v>
-      </c>
-      <c r="AB3">
-        <v>-0.5</v>
-      </c>
-      <c r="AC3">
-        <v>0.475</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6102128</v>
+        <v>6102338</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>3.75</v>
+        <v>1.625</v>
       </c>
       <c r="L4">
         <v>4</v>
       </c>
       <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
         <v>1.666</v>
       </c>
-      <c r="N4">
-        <v>3.4</v>
-      </c>
       <c r="O4">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P4">
+        <v>3.75</v>
+      </c>
+      <c r="Q4">
+        <v>-1</v>
+      </c>
+      <c r="R4">
+        <v>1.9</v>
+      </c>
+      <c r="S4">
         <v>1.8</v>
-      </c>
-      <c r="Q4">
-        <v>0.5</v>
-      </c>
-      <c r="R4">
-        <v>1.95</v>
-      </c>
-      <c r="S4">
-        <v>1.85</v>
       </c>
       <c r="T4">
         <v>3</v>
       </c>
       <c r="U4">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6102129</v>
+        <v>6102128</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,10 +886,10 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -898,61 +898,61 @@
         <v>41</v>
       </c>
       <c r="K5">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="L5">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="N5">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="O5">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P5">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S5">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T5">
         <v>3</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB5">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6102338</v>
+        <v>6102129</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,40 +975,40 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>1.625</v>
+        <v>2.6</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="N6">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P6">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S6">
         <v>1.8</v>
@@ -1017,16 +1017,16 @@
         <v>3</v>
       </c>
       <c r="U6">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y6">
         <v>-1</v>
@@ -1038,10 +1038,10 @@
         <v>-0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC6">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1073,7 +1073,7 @@
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K7">
         <v>1.181</v>
@@ -1162,7 +1162,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1242,7 +1242,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1331,7 +1331,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6102135</v>
+        <v>6102134</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1417,76 +1417,76 @@
         <v>45032.67708333334</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
         <v>41</v>
       </c>
       <c r="K11">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="L11">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M11">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="N11">
+        <v>2.6</v>
+      </c>
+      <c r="O11">
+        <v>4</v>
+      </c>
+      <c r="P11">
         <v>2.2</v>
       </c>
-      <c r="O11">
-        <v>3.75</v>
-      </c>
-      <c r="P11">
-        <v>2.75</v>
-      </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S11">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U11">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V11">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6102134</v>
+        <v>6102135</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1506,76 +1506,76 @@
         <v>45032.67708333334</v>
       </c>
       <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
         <v>33</v>
       </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>42</v>
       </c>
       <c r="K12">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="L12">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M12">
+        <v>2.625</v>
+      </c>
+      <c r="N12">
+        <v>2.2</v>
+      </c>
+      <c r="O12">
+        <v>3.75</v>
+      </c>
+      <c r="P12">
+        <v>2.75</v>
+      </c>
+      <c r="Q12">
+        <v>-0.25</v>
+      </c>
+      <c r="R12">
+        <v>2.05</v>
+      </c>
+      <c r="S12">
+        <v>1.8</v>
+      </c>
+      <c r="T12">
+        <v>3</v>
+      </c>
+      <c r="U12">
         <v>1.85</v>
       </c>
-      <c r="N12">
-        <v>2.6</v>
-      </c>
-      <c r="O12">
-        <v>4</v>
-      </c>
-      <c r="P12">
-        <v>2.2</v>
-      </c>
-      <c r="Q12">
-        <v>0.25</v>
-      </c>
-      <c r="R12">
-        <v>1.825</v>
-      </c>
-      <c r="S12">
-        <v>1.975</v>
-      </c>
-      <c r="T12">
-        <v>3.25</v>
-      </c>
-      <c r="U12">
-        <v>1.9</v>
-      </c>
       <c r="V12">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y12">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1684,7 +1684,7 @@
         <v>45039.54166666666</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K14">
         <v>1.55</v>
@@ -1773,10 +1773,10 @@
         <v>45039.67708333334</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1785,7 +1785,7 @@
         <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15">
         <v>3.2</v>
@@ -1862,7 +1862,7 @@
         <v>45040.67708333334</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
         <v>38</v>
@@ -1951,7 +1951,7 @@
         <v>45040.67708333334</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
         <v>36</v>
@@ -2132,7 +2132,7 @@
         <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6102144</v>
+        <v>6102142</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,13 +2218,13 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2233,43 +2233,43 @@
         <v>43</v>
       </c>
       <c r="K20">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="L20">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M20">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="N20">
+        <v>2.625</v>
+      </c>
+      <c r="O20">
+        <v>3.5</v>
+      </c>
+      <c r="P20">
         <v>2.375</v>
-      </c>
-      <c r="O20">
-        <v>3.75</v>
-      </c>
-      <c r="P20">
-        <v>2.55</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T20">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V20">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W20">
-        <v>1.375</v>
+        <v>1.625</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2278,16 +2278,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC20">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6102142</v>
+        <v>6102144</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,13 +2307,13 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2322,43 +2322,43 @@
         <v>43</v>
       </c>
       <c r="K21">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="L21">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21">
         <v>2.375</v>
       </c>
-      <c r="N21">
-        <v>2.625</v>
-      </c>
       <c r="O21">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P21">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S21">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
-        <v>1.625</v>
+        <v>1.375</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2367,16 +2367,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2408,7 +2408,7 @@
         <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K22">
         <v>2.25</v>
@@ -2488,7 +2488,7 @@
         <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2574,10 +2574,10 @@
         <v>45045.67708333334</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6102147</v>
+        <v>6102148</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,58 +2663,58 @@
         <v>45049.625</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
         <v>43</v>
       </c>
       <c r="K25">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L25">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M25">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="N25">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="O25">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P25">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q25">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R25">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S25">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T25">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V25">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W25">
-        <v>1.875</v>
+        <v>0.833</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2723,13 +2723,13 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC25">
         <v>-1</v>
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6102148</v>
+        <v>6102147</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,59 +2752,59 @@
         <v>45049.625</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
         <v>43</v>
       </c>
       <c r="K26">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L26">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M26">
+        <v>2.55</v>
+      </c>
+      <c r="N26">
+        <v>2.875</v>
+      </c>
+      <c r="O26">
+        <v>3.6</v>
+      </c>
+      <c r="P26">
+        <v>2.15</v>
+      </c>
+      <c r="Q26">
+        <v>0.25</v>
+      </c>
+      <c r="R26">
+        <v>1.9</v>
+      </c>
+      <c r="S26">
+        <v>1.9</v>
+      </c>
+      <c r="T26">
         <v>3.25</v>
       </c>
-      <c r="N26">
-        <v>1.833</v>
-      </c>
-      <c r="O26">
-        <v>3.5</v>
-      </c>
-      <c r="P26">
-        <v>3.5</v>
-      </c>
-      <c r="Q26">
-        <v>-0.5</v>
-      </c>
-      <c r="R26">
-        <v>1.925</v>
-      </c>
-      <c r="S26">
+      <c r="U26">
+        <v>1.9</v>
+      </c>
+      <c r="V26">
+        <v>1.9</v>
+      </c>
+      <c r="W26">
         <v>1.875</v>
       </c>
-      <c r="T26">
-        <v>2.75</v>
-      </c>
-      <c r="U26">
-        <v>1.8</v>
-      </c>
-      <c r="V26">
-        <v>2</v>
-      </c>
-      <c r="W26">
-        <v>0.833</v>
-      </c>
       <c r="X26">
         <v>-1</v>
       </c>
@@ -2812,13 +2812,13 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2853,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K27">
         <v>1.6</v>
@@ -2930,10 +2930,10 @@
         <v>45049.71875</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -2942,7 +2942,7 @@
         <v>6</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K28">
         <v>3.6</v>
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6102152</v>
+        <v>6102151</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,40 +3019,40 @@
         <v>45050.67708333334</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29">
+        <v>3.8</v>
+      </c>
+      <c r="L29">
+        <v>3.75</v>
+      </c>
+      <c r="M29">
+        <v>1.727</v>
+      </c>
+      <c r="N29">
+        <v>3.6</v>
+      </c>
+      <c r="O29">
         <v>4</v>
       </c>
-      <c r="I29">
+      <c r="P29">
+        <v>1.727</v>
+      </c>
+      <c r="Q29">
         <v>1</v>
-      </c>
-      <c r="J29" t="s">
-        <v>43</v>
-      </c>
-      <c r="K29">
-        <v>1.363</v>
-      </c>
-      <c r="L29">
-        <v>4.75</v>
-      </c>
-      <c r="M29">
-        <v>6</v>
-      </c>
-      <c r="N29">
-        <v>1.222</v>
-      </c>
-      <c r="O29">
-        <v>5.75</v>
-      </c>
-      <c r="P29">
-        <v>8</v>
-      </c>
-      <c r="Q29">
-        <v>-1.75</v>
       </c>
       <c r="R29">
         <v>1.825</v>
@@ -3061,34 +3061,34 @@
         <v>2.025</v>
       </c>
       <c r="T29">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U29">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W29">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z29">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6102151</v>
+        <v>6102152</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,40 +3108,40 @@
         <v>45050.67708333334</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="L30">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M30">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="N30">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="O30">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P30">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R30">
         <v>1.825</v>
@@ -3150,34 +3150,34 @@
         <v>2.025</v>
       </c>
       <c r="T30">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U30">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V30">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA30">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC30">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3200,7 +3200,7 @@
         <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3209,7 +3209,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K31">
         <v>2.6</v>
@@ -3286,7 +3286,7 @@
         <v>45053.67708333334</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
@@ -3387,7 +3387,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K33">
         <v>3.3</v>
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6102340</v>
+        <v>6102156</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,10 +3464,10 @@
         <v>45054.67708333334</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3479,25 +3479,25 @@
         <v>43</v>
       </c>
       <c r="K34">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="L34">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M34">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="N34">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="O34">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P34">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="Q34">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R34">
         <v>1.8</v>
@@ -3509,13 +3509,13 @@
         <v>3.25</v>
       </c>
       <c r="U34">
+        <v>1.825</v>
+      </c>
+      <c r="V34">
         <v>1.975</v>
       </c>
-      <c r="V34">
-        <v>1.825</v>
-      </c>
       <c r="W34">
-        <v>0.6000000000000001</v>
+        <v>2</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3524,16 +3524,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AA34">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
         <v>-0.5</v>
       </c>
       <c r="AC34">
-        <v>0.4125</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3541,7 +3541,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6102156</v>
+        <v>6102340</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3553,10 +3553,10 @@
         <v>45054.67708333334</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3568,25 +3568,25 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="L35">
+        <v>3.75</v>
+      </c>
+      <c r="M35">
         <v>3.6</v>
       </c>
-      <c r="M35">
-        <v>2.5</v>
-      </c>
       <c r="N35">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="O35">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P35">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="Q35">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R35">
         <v>1.8</v>
@@ -3598,13 +3598,13 @@
         <v>3.25</v>
       </c>
       <c r="U35">
+        <v>1.975</v>
+      </c>
+      <c r="V35">
         <v>1.825</v>
       </c>
-      <c r="V35">
-        <v>1.975</v>
-      </c>
       <c r="W35">
-        <v>2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3613,16 +3613,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB35">
         <v>-0.5</v>
       </c>
       <c r="AC35">
-        <v>0.4875</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3642,7 +3642,7 @@
         <v>45054.71875</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
         <v>34</v>
@@ -3654,7 +3654,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K36">
         <v>3.6</v>
@@ -3731,7 +3731,7 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
         <v>39</v>
@@ -3820,10 +3820,10 @@
         <v>45059.54166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3832,7 +3832,7 @@
         <v>4</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K38">
         <v>2.375</v>
@@ -3921,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K39">
         <v>3.2</v>
@@ -4010,7 +4010,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K40">
         <v>2.55</v>
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6102160</v>
+        <v>6102161</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4087,58 +4087,58 @@
         <v>45060.67708333334</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
         <v>43</v>
       </c>
       <c r="K41">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M41">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="N41">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="O41">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P41">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="Q41">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R41">
+        <v>1.875</v>
+      </c>
+      <c r="S41">
         <v>1.925</v>
       </c>
-      <c r="S41">
-        <v>1.875</v>
-      </c>
       <c r="T41">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U41">
+        <v>1.975</v>
+      </c>
+      <c r="V41">
         <v>1.825</v>
       </c>
-      <c r="V41">
-        <v>1.975</v>
-      </c>
       <c r="W41">
-        <v>0.3999999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4147,16 +4147,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA41">
         <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC41">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6102161</v>
+        <v>6102160</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,58 +4176,58 @@
         <v>45060.67708333334</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
         <v>43</v>
       </c>
       <c r="K42">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="L42">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M42">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="N42">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="O42">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P42">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R42">
+        <v>1.925</v>
+      </c>
+      <c r="S42">
         <v>1.875</v>
       </c>
-      <c r="S42">
-        <v>1.925</v>
-      </c>
       <c r="T42">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U42">
+        <v>1.825</v>
+      </c>
+      <c r="V42">
         <v>1.975</v>
       </c>
-      <c r="V42">
-        <v>1.825</v>
-      </c>
       <c r="W42">
-        <v>1.375</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4236,16 +4236,16 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA42">
         <v>-1</v>
       </c>
       <c r="AB42">
+        <v>-1</v>
+      </c>
+      <c r="AC42">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC42">
-        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4268,7 +4268,7 @@
         <v>34</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4354,7 +4354,7 @@
         <v>45067.67708333334</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
         <v>35</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K44">
         <v>1.363</v>
@@ -4455,7 +4455,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K45">
         <v>4.5</v>
@@ -4544,7 +4544,7 @@
         <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K46">
         <v>2.45</v>
@@ -4621,7 +4621,7 @@
         <v>45068.67708333334</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
         <v>40</v>
@@ -4633,7 +4633,7 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K47">
         <v>2.75</v>
@@ -4710,10 +4710,10 @@
         <v>45068.67708333334</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4722,7 +4722,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K48">
         <v>2.1</v>
@@ -4799,7 +4799,7 @@
         <v>45071.625</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
         <v>37</v>
@@ -4811,7 +4811,7 @@
         <v>4</v>
       </c>
       <c r="J49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K49">
         <v>3</v>
@@ -4891,7 +4891,7 @@
         <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4977,7 +4977,7 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G51" t="s">
         <v>39</v>
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6102168</v>
+        <v>6102344</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5066,28 +5066,28 @@
         <v>45074.67708333334</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
         <v>43</v>
       </c>
       <c r="K52">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L52">
         <v>3.5</v>
       </c>
       <c r="M52">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N52">
         <v>1.909</v>
@@ -5096,25 +5096,25 @@
         <v>3.4</v>
       </c>
       <c r="P52">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q52">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R52">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S52">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W52">
         <v>0.909</v>
@@ -5126,16 +5126,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC52">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5143,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6102344</v>
+        <v>6102168</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5155,28 +5155,28 @@
         <v>45074.67708333334</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
         <v>43</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L53">
         <v>3.5</v>
       </c>
       <c r="M53">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N53">
         <v>1.909</v>
@@ -5185,25 +5185,25 @@
         <v>3.4</v>
       </c>
       <c r="P53">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q53">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S53">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T53">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U53">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V53">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W53">
         <v>0.909</v>
@@ -5215,16 +5215,16 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5244,10 +5244,10 @@
         <v>45075.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H54">
         <v>4</v>
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K55">
         <v>5.25</v>
@@ -5425,7 +5425,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5434,7 +5434,7 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -5600,7 +5600,7 @@
         <v>45078.67708333334</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
         <v>40</v>
@@ -5612,7 +5612,7 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K58">
         <v>2.9</v>
@@ -5689,10 +5689,10 @@
         <v>45079.625</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H59">
         <v>4</v>
@@ -5778,7 +5778,7 @@
         <v>45079.67708333334</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
         <v>35</v>
@@ -5867,7 +5867,7 @@
         <v>45079.67708333334</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
         <v>36</v>
@@ -5879,7 +5879,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K61">
         <v>1.666</v>
@@ -5968,7 +5968,7 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6102176</v>
+        <v>6102177</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,76 +6045,76 @@
         <v>45087.45833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K63">
-        <v>1.6</v>
+        <v>1.833</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M63">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N63">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O63">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P63">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q63">
         <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S63">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T63">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V63">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W63">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB63">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6102177</v>
+        <v>6102176</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,76 +6134,76 @@
         <v>45087.45833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K64">
-        <v>1.833</v>
+        <v>1.6</v>
       </c>
       <c r="L64">
+        <v>4</v>
+      </c>
+      <c r="M64">
+        <v>4.333</v>
+      </c>
+      <c r="N64">
+        <v>1.8</v>
+      </c>
+      <c r="O64">
+        <v>3.8</v>
+      </c>
+      <c r="P64">
         <v>3.6</v>
-      </c>
-      <c r="M64">
-        <v>3.4</v>
-      </c>
-      <c r="N64">
-        <v>1.85</v>
-      </c>
-      <c r="O64">
-        <v>3.6</v>
-      </c>
-      <c r="P64">
-        <v>3.5</v>
       </c>
       <c r="Q64">
         <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S64">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T64">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U64">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V64">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X64">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA64">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC64">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6235,7 +6235,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K65">
         <v>3.4</v>
@@ -6315,7 +6315,7 @@
         <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6324,7 +6324,7 @@
         <v>5</v>
       </c>
       <c r="J66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K66">
         <v>3.4</v>
@@ -6389,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6102179</v>
+        <v>6102180</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6401,76 +6401,76 @@
         <v>45088.67708333334</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G67" t="s">
         <v>32</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K67">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="L67">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M67">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="N67">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="O67">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P67">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q67">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R67">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S67">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T67">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V67">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W67">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA67">
         <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6102180</v>
+        <v>6102179</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,76 +6490,76 @@
         <v>45088.67708333334</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K68">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="L68">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M68">
+        <v>5.5</v>
+      </c>
+      <c r="N68">
+        <v>1.3</v>
+      </c>
+      <c r="O68">
+        <v>5.25</v>
+      </c>
+      <c r="P68">
+        <v>6.5</v>
+      </c>
+      <c r="Q68">
+        <v>-1.5</v>
+      </c>
+      <c r="R68">
         <v>1.85</v>
       </c>
-      <c r="N68">
-        <v>4.2</v>
-      </c>
-      <c r="O68">
+      <c r="S68">
+        <v>1.95</v>
+      </c>
+      <c r="T68">
         <v>3.5</v>
       </c>
-      <c r="P68">
-        <v>1.727</v>
-      </c>
-      <c r="Q68">
-        <v>0.75</v>
-      </c>
-      <c r="R68">
-        <v>1.8</v>
-      </c>
-      <c r="S68">
-        <v>2</v>
-      </c>
-      <c r="T68">
-        <v>2.75</v>
-      </c>
       <c r="U68">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V68">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X68">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA68">
         <v>-1</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC68">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6102183</v>
+        <v>6102182</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,76 +6579,76 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H69">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K69">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="L69">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M69">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="N69">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="O69">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P69">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="Q69">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R69">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S69">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T69">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U69">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V69">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W69">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB69">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6102182</v>
+        <v>6102183</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,76 +6668,76 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K70">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="L70">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M70">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="N70">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="O70">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P70">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="Q70">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R70">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S70">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T70">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U70">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V70">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X70">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.4</v>
+        <v>1.025</v>
       </c>
       <c r="AA70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC70">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6760,7 +6760,7 @@
         <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H71">
         <v>4</v>
@@ -6849,7 +6849,7 @@
         <v>39</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6858,7 +6858,7 @@
         <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K72">
         <v>3.5</v>
@@ -6938,7 +6938,7 @@
         <v>40</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7027,7 +7027,7 @@
         <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7116,7 +7116,7 @@
         <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7202,7 +7202,7 @@
         <v>45105.67708333334</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G76" t="s">
         <v>38</v>
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6102189</v>
+        <v>6102190</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,49 +7380,49 @@
         <v>45106.67708333334</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H78">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K78">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="L78">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M78">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="N78">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="O78">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P78">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R78">
+        <v>1.875</v>
+      </c>
+      <c r="S78">
         <v>1.925</v>
       </c>
-      <c r="S78">
-        <v>1.875</v>
-      </c>
       <c r="T78">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U78">
         <v>1.925</v>
@@ -7431,19 +7431,19 @@
         <v>1.875</v>
       </c>
       <c r="W78">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z78">
+        <v>-1</v>
+      </c>
+      <c r="AA78">
         <v>0.925</v>
-      </c>
-      <c r="AA78">
-        <v>-1</v>
       </c>
       <c r="AB78">
         <v>0.925</v>
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6102190</v>
+        <v>6102189</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,49 +7469,49 @@
         <v>45106.67708333334</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79" t="s">
+        <v>43</v>
+      </c>
+      <c r="K79">
+        <v>2.1</v>
+      </c>
+      <c r="L79">
+        <v>3.4</v>
+      </c>
+      <c r="M79">
         <v>3</v>
       </c>
-      <c r="J79" t="s">
-        <v>42</v>
-      </c>
-      <c r="K79">
-        <v>5.25</v>
-      </c>
-      <c r="L79">
-        <v>4.333</v>
-      </c>
-      <c r="M79">
-        <v>1.45</v>
-      </c>
       <c r="N79">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="O79">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P79">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q79">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
+        <v>1.925</v>
+      </c>
+      <c r="S79">
         <v>1.875</v>
       </c>
-      <c r="S79">
-        <v>1.925</v>
-      </c>
       <c r="T79">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U79">
         <v>1.925</v>
@@ -7520,19 +7520,19 @@
         <v>1.875</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA79">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
         <v>0.925</v>
@@ -7561,7 +7561,7 @@
         <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H80">
         <v>5</v>
@@ -7650,7 +7650,7 @@
         <v>39</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7748,7 +7748,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K82">
         <v>5.25</v>
@@ -7825,10 +7825,10 @@
         <v>45119.67708333334</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7926,7 +7926,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K84">
         <v>3.4</v>
@@ -8003,7 +8003,7 @@
         <v>45121.71875</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
         <v>34</v>
@@ -8015,7 +8015,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K85">
         <v>4.5</v>
@@ -8104,7 +8104,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K86">
         <v>1.666</v>
@@ -8181,10 +8181,10 @@
         <v>45124.67708333334</v>
       </c>
       <c r="F87" t="s">
+        <v>32</v>
+      </c>
+      <c r="G87" t="s">
         <v>31</v>
-      </c>
-      <c r="G87" t="s">
-        <v>33</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6102200</v>
+        <v>6922578</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,76 +8270,76 @@
         <v>45125.70833333334</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K88">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L88">
         <v>3.6</v>
       </c>
       <c r="M88">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N88">
         <v>2.05</v>
       </c>
       <c r="O88">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P88">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q88">
         <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S88">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U88">
         <v>1.925</v>
       </c>
       <c r="V88">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W88">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6922578</v>
+        <v>6102200</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,76 +8359,76 @@
         <v>45125.70833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K89">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L89">
         <v>3.6</v>
       </c>
       <c r="M89">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N89">
         <v>2.05</v>
       </c>
       <c r="O89">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P89">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q89">
         <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S89">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T89">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
         <v>1.925</v>
       </c>
       <c r="V89">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X89">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA89">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6542524</v>
+        <v>6102206</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,76 +8537,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K91">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="L91">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M91">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N91">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="O91">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P91">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="Q91">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R91">
+        <v>1.925</v>
+      </c>
+      <c r="S91">
         <v>1.775</v>
       </c>
-      <c r="S91">
-        <v>2.025</v>
-      </c>
       <c r="T91">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U91">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V91">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB91">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6102207</v>
+        <v>6542524</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,76 +8626,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J92" t="s">
         <v>41</v>
       </c>
       <c r="K92">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L92">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M92">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="N92">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="O92">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P92">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="Q92">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S92">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T92">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U92">
+        <v>1.825</v>
+      </c>
+      <c r="V92">
         <v>1.975</v>
       </c>
-      <c r="V92">
-        <v>1.825</v>
-      </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z92">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC92">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6102206</v>
+        <v>6102207</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,7 +8715,7 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G93" t="s">
         <v>32</v>
@@ -8724,67 +8724,67 @@
         <v>1</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K93">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="L93">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M93">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="N93">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="O93">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P93">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="Q93">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R93">
         <v>1.925</v>
       </c>
       <c r="S93">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T93">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V93">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W93">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA93">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
         <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8807,7 +8807,7 @@
         <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -8816,7 +8816,7 @@
         <v>4</v>
       </c>
       <c r="J94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K94">
         <v>3.3</v>
@@ -8896,7 +8896,7 @@
         <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -8905,7 +8905,7 @@
         <v>4</v>
       </c>
       <c r="J95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K95">
         <v>1.666</v>
@@ -8982,10 +8982,10 @@
         <v>45133.67708333334</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H96">
         <v>4</v>
@@ -9074,7 +9074,7 @@
         <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9083,7 +9083,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K97">
         <v>1.533</v>
@@ -9160,7 +9160,7 @@
         <v>45137.54166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s">
         <v>38</v>
@@ -9172,7 +9172,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K98">
         <v>1.666</v>
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6102213</v>
+        <v>6102350</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,43 +9338,43 @@
         <v>45138.67708333334</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K100">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="L100">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M100">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N100">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="O100">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P100">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S100">
         <v>1.85</v>
@@ -9383,10 +9383,10 @@
         <v>3</v>
       </c>
       <c r="U100">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V100">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9395,7 +9395,7 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z100">
         <v>-1</v>
@@ -9404,7 +9404,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB100">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6102350</v>
+        <v>6102213</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,43 +9427,43 @@
         <v>45138.67708333334</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K101">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="L101">
+        <v>3.5</v>
+      </c>
+      <c r="M101">
+        <v>2.3</v>
+      </c>
+      <c r="N101">
+        <v>2.7</v>
+      </c>
+      <c r="O101">
         <v>3.6</v>
       </c>
-      <c r="M101">
-        <v>1.909</v>
-      </c>
-      <c r="N101">
-        <v>3.8</v>
-      </c>
-      <c r="O101">
-        <v>3.75</v>
-      </c>
       <c r="P101">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="Q101">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R101">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S101">
         <v>1.85</v>
@@ -9472,10 +9472,10 @@
         <v>3</v>
       </c>
       <c r="U101">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V101">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9484,7 +9484,7 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>0.8500000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="Z101">
         <v>-1</v>
@@ -9493,7 +9493,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB101">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9519,7 +9519,7 @@
         <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K102">
         <v>2.6</v>
@@ -9617,7 +9617,7 @@
         <v>4</v>
       </c>
       <c r="J103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K103">
         <v>1.615</v>
@@ -9694,10 +9694,10 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H104">
         <v>4</v>
@@ -9795,7 +9795,7 @@
         <v>3</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K105">
         <v>3.6</v>
@@ -9872,10 +9872,10 @@
         <v>45146.67708333334</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9884,7 +9884,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K106">
         <v>2.05</v>
@@ -10050,7 +10050,7 @@
         <v>45151.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
         <v>34</v>
@@ -10062,7 +10062,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K108">
         <v>3.4</v>
@@ -10127,7 +10127,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6102352</v>
+        <v>6102353</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10139,76 +10139,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G109" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109">
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K109">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="L109">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M109">
-        <v>1.363</v>
+        <v>4.333</v>
       </c>
       <c r="N109">
-        <v>5.25</v>
+        <v>1.727</v>
       </c>
       <c r="O109">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P109">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q109">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R109">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S109">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T109">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V109">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X109">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC109">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6102353</v>
+        <v>6102352</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,76 +10228,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110">
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K110">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="L110">
+        <v>4.75</v>
+      </c>
+      <c r="M110">
+        <v>1.363</v>
+      </c>
+      <c r="N110">
+        <v>5.25</v>
+      </c>
+      <c r="O110">
+        <v>4.75</v>
+      </c>
+      <c r="P110">
+        <v>1.4</v>
+      </c>
+      <c r="Q110">
+        <v>1.25</v>
+      </c>
+      <c r="R110">
+        <v>1.9</v>
+      </c>
+      <c r="S110">
+        <v>1.9</v>
+      </c>
+      <c r="T110">
+        <v>3.25</v>
+      </c>
+      <c r="U110">
+        <v>1.85</v>
+      </c>
+      <c r="V110">
+        <v>1.95</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
         <v>3.75</v>
       </c>
-      <c r="M110">
-        <v>4.333</v>
-      </c>
-      <c r="N110">
-        <v>1.727</v>
-      </c>
-      <c r="O110">
-        <v>3.6</v>
-      </c>
-      <c r="P110">
-        <v>4.2</v>
-      </c>
-      <c r="Q110">
-        <v>-0.75</v>
-      </c>
-      <c r="R110">
-        <v>1.975</v>
-      </c>
-      <c r="S110">
-        <v>1.825</v>
-      </c>
-      <c r="T110">
-        <v>2.75</v>
-      </c>
-      <c r="U110">
-        <v>1.825</v>
-      </c>
-      <c r="V110">
-        <v>1.975</v>
-      </c>
-      <c r="W110">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X110">
-        <v>-1</v>
-      </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10320,7 +10320,7 @@
         <v>40</v>
       </c>
       <c r="G111" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H111">
         <v>3</v>
@@ -10495,10 +10495,10 @@
         <v>45152.67708333334</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10507,7 +10507,7 @@
         <v>4</v>
       </c>
       <c r="J113" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K113">
         <v>3</v>
@@ -10587,7 +10587,7 @@
         <v>39</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10596,7 +10596,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K114">
         <v>1.85</v>
@@ -10673,10 +10673,10 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10839,7 +10839,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6102225</v>
+        <v>6102354</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10851,40 +10851,40 @@
         <v>45158.67708333334</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
         <v>42</v>
       </c>
       <c r="K117">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="L117">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M117">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="N117">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="O117">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P117">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q117">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R117">
         <v>1.9</v>
@@ -10893,31 +10893,31 @@
         <v>1.9</v>
       </c>
       <c r="T117">
+        <v>3.25</v>
+      </c>
+      <c r="U117">
+        <v>1.95</v>
+      </c>
+      <c r="V117">
+        <v>1.85</v>
+      </c>
+      <c r="W117">
+        <v>-1</v>
+      </c>
+      <c r="X117">
         <v>3</v>
       </c>
-      <c r="U117">
-        <v>1.875</v>
-      </c>
-      <c r="V117">
-        <v>1.925</v>
-      </c>
-      <c r="W117">
-        <v>-1</v>
-      </c>
-      <c r="X117">
-        <v>-1</v>
-      </c>
       <c r="Y117">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA117">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10928,7 +10928,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6102354</v>
+        <v>6102225</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10940,40 +10940,40 @@
         <v>45158.67708333334</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J118" t="s">
         <v>41</v>
       </c>
       <c r="K118">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="L118">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M118">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="N118">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="O118">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P118">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="Q118">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R118">
         <v>1.9</v>
@@ -10982,31 +10982,31 @@
         <v>1.9</v>
       </c>
       <c r="T118">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U118">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V118">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z118">
+        <v>-1</v>
+      </c>
+      <c r="AA118">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA118">
-        <v>-1</v>
-      </c>
       <c r="AB118">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11029,7 +11029,7 @@
         <v>45159.67708333334</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
         <v>40</v>
@@ -11118,10 +11118,10 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F120" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G120" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11210,7 +11210,7 @@
         <v>36</v>
       </c>
       <c r="G121" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H121">
         <v>3</v>
@@ -11284,7 +11284,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6102229</v>
+        <v>6102230</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11296,76 +11296,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K122">
-        <v>1.55</v>
+        <v>2.55</v>
       </c>
       <c r="L122">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M122">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="N122">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="O122">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P122">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q122">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R122">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S122">
         <v>1.825</v>
       </c>
       <c r="T122">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U122">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V122">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W122">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB122">
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11373,7 +11373,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6102230</v>
+        <v>6102229</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11385,76 +11385,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123">
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K123">
-        <v>2.55</v>
+        <v>1.55</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M123">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N123">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O123">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P123">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q123">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R123">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S123">
         <v>1.825</v>
       </c>
       <c r="T123">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U123">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V123">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X123">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA123">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11575,7 +11575,7 @@
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K125">
         <v>2.1</v>
@@ -11655,7 +11655,7 @@
         <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11664,7 +11664,7 @@
         <v>3</v>
       </c>
       <c r="J126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K126">
         <v>1.909</v>
@@ -11741,10 +11741,10 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F127" t="s">
+        <v>29</v>
+      </c>
+      <c r="G127" t="s">
         <v>30</v>
-      </c>
-      <c r="G127" t="s">
-        <v>29</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11753,7 +11753,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K127">
         <v>2.6</v>
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6102233</v>
+        <v>6102236</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,76 +11830,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K128">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="L128">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M128">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="N128">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="O128">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P128">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="Q128">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R128">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S128">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T128">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U128">
         <v>1.825</v>
       </c>
       <c r="V128">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W128">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB128">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC128">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11931,7 +11931,7 @@
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K129">
         <v>1.6</v>
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6102236</v>
+        <v>6102233</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,76 +12008,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K130">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="L130">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M130">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="N130">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="O130">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P130">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Q130">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R130">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S130">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U130">
         <v>1.825</v>
       </c>
       <c r="V130">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X130">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
       <c r="AA130">
+        <v>-1</v>
+      </c>
+      <c r="AB130">
         <v>-0.5</v>
       </c>
-      <c r="AB130">
-        <v>0.825</v>
-      </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6102357</v>
+        <v>6102234</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12100,70 +12100,70 @@
         <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H131">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J131" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K131">
-        <v>1.333</v>
+        <v>6</v>
       </c>
       <c r="L131">
         <v>5</v>
       </c>
       <c r="M131">
+        <v>1.4</v>
+      </c>
+      <c r="N131">
         <v>7</v>
       </c>
-      <c r="N131">
-        <v>1.3</v>
-      </c>
       <c r="O131">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="P131">
-        <v>7</v>
+        <v>1.363</v>
       </c>
       <c r="Q131">
-        <v>-1.75</v>
+        <v>1.5</v>
       </c>
       <c r="R131">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S131">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U131">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W131">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z131">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6102234</v>
+        <v>6102357</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,73 +12186,73 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K132">
-        <v>6</v>
+        <v>1.333</v>
       </c>
       <c r="L132">
         <v>5</v>
       </c>
       <c r="M132">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="N132">
+        <v>1.3</v>
+      </c>
+      <c r="O132">
+        <v>5.25</v>
+      </c>
+      <c r="P132">
         <v>7</v>
       </c>
-      <c r="O132">
-        <v>5</v>
-      </c>
-      <c r="P132">
-        <v>1.363</v>
-      </c>
       <c r="Q132">
-        <v>1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R132">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S132">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T132">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V132">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA132">
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12275,7 +12275,7 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
         <v>39</v>
@@ -12287,7 +12287,7 @@
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K133">
         <v>2.6</v>
@@ -12376,7 +12376,7 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K134">
         <v>1.75</v>
@@ -12453,10 +12453,10 @@
         <v>45186.67708333334</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12545,7 +12545,7 @@
         <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12554,7 +12554,7 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K136">
         <v>2.2</v>
@@ -12631,7 +12631,7 @@
         <v>45189.55208333334</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
         <v>35</v>
@@ -12732,7 +12732,7 @@
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K138">
         <v>1.5</v>
@@ -12812,7 +12812,7 @@
         <v>39</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -12821,7 +12821,7 @@
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K139">
         <v>1.8</v>
@@ -12886,7 +12886,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7173179</v>
+        <v>7173163</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12898,76 +12898,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J140" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K140">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="L140">
         <v>3.6</v>
       </c>
       <c r="M140">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="N140">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="O140">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P140">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R140">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S140">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T140">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U140">
+        <v>1.825</v>
+      </c>
+      <c r="V140">
         <v>1.975</v>
       </c>
-      <c r="V140">
-        <v>1.825</v>
-      </c>
       <c r="W140">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z140">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB140">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC140">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12990,7 +12990,7 @@
         <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -12999,7 +12999,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K141">
         <v>2.5</v>
@@ -13064,7 +13064,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7173163</v>
+        <v>7173179</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13076,76 +13076,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H142">
+        <v>2</v>
+      </c>
+      <c r="I142">
         <v>1</v>
       </c>
-      <c r="I142">
-        <v>3</v>
-      </c>
       <c r="J142" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K142">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="L142">
         <v>3.6</v>
       </c>
       <c r="M142">
+        <v>2.45</v>
+      </c>
+      <c r="N142">
         <v>2.375</v>
       </c>
-      <c r="N142">
-        <v>2.7</v>
-      </c>
       <c r="O142">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P142">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q142">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R142">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T142">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U142">
+        <v>1.975</v>
+      </c>
+      <c r="V142">
         <v>1.825</v>
       </c>
-      <c r="V142">
-        <v>1.975</v>
-      </c>
       <c r="W142">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA142">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13165,10 +13165,10 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F143" t="s">
+        <v>29</v>
+      </c>
+      <c r="G143" t="s">
         <v>30</v>
-      </c>
-      <c r="G143" t="s">
-        <v>29</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13177,7 +13177,7 @@
         <v>4</v>
       </c>
       <c r="J143" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K143">
         <v>2.55</v>
@@ -13343,7 +13343,7 @@
         <v>45197.55208333334</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
         <v>39</v>
@@ -13420,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7173183</v>
+        <v>7173182</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13432,73 +13432,73 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G146" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K146">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L146">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M146">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N146">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="O146">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P146">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q146">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R146">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S146">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T146">
         <v>3.25</v>
       </c>
       <c r="U146">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V146">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X146">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA146">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC146">
         <v>-1</v>
@@ -13521,7 +13521,7 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
         <v>34</v>
@@ -13687,7 +13687,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7173182</v>
+        <v>7173183</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13699,73 +13699,73 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K149">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L149">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M149">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N149">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="O149">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P149">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q149">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R149">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S149">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T149">
         <v>3.25</v>
       </c>
       <c r="U149">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V149">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W149">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB149">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13788,7 +13788,7 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G150" t="s">
         <v>40</v>
@@ -13865,7 +13865,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7173169</v>
+        <v>7173184</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13877,73 +13877,73 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F151" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G151" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H151">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I151">
         <v>3</v>
       </c>
       <c r="J151" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K151">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="L151">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M151">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="N151">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O151">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P151">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="Q151">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R151">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S151">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T151">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U151">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V151">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W151">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z151">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB151">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC151">
         <v>-1</v>
@@ -13954,7 +13954,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7173184</v>
+        <v>7173169</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13966,73 +13966,73 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G152" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I152">
         <v>3</v>
       </c>
       <c r="J152" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K152">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="L152">
+        <v>3.6</v>
+      </c>
+      <c r="M152">
+        <v>2.45</v>
+      </c>
+      <c r="N152">
+        <v>3</v>
+      </c>
+      <c r="O152">
+        <v>3.6</v>
+      </c>
+      <c r="P152">
+        <v>2.05</v>
+      </c>
+      <c r="Q152">
+        <v>0.25</v>
+      </c>
+      <c r="R152">
+        <v>1.975</v>
+      </c>
+      <c r="S152">
+        <v>1.825</v>
+      </c>
+      <c r="T152">
         <v>3.5</v>
       </c>
-      <c r="M152">
-        <v>2.15</v>
-      </c>
-      <c r="N152">
-        <v>3.4</v>
-      </c>
-      <c r="O152">
-        <v>3.75</v>
-      </c>
-      <c r="P152">
-        <v>1.85</v>
-      </c>
-      <c r="Q152">
-        <v>0.5</v>
-      </c>
-      <c r="R152">
-        <v>1.875</v>
-      </c>
-      <c r="S152">
-        <v>1.925</v>
-      </c>
-      <c r="T152">
-        <v>3.25</v>
-      </c>
       <c r="U152">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V152">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA152">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC152">
         <v>-1</v>
@@ -14055,10 +14055,10 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G153" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14156,7 +14156,7 @@
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K154">
         <v>2.625</v>
@@ -14233,7 +14233,7 @@
         <v>45200.67708333334</v>
       </c>
       <c r="F155" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G155" t="s">
         <v>36</v>
@@ -14322,7 +14322,7 @@
         <v>45201.67708333334</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G156" t="s">
         <v>37</v>
@@ -14399,7 +14399,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7173187</v>
+        <v>7173172</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14411,13 +14411,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H157">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I157">
         <v>1</v>
@@ -14426,28 +14426,28 @@
         <v>43</v>
       </c>
       <c r="K157">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L157">
+        <v>3.6</v>
+      </c>
+      <c r="M157">
+        <v>2.6</v>
+      </c>
+      <c r="N157">
+        <v>2.25</v>
+      </c>
+      <c r="O157">
         <v>3.75</v>
       </c>
-      <c r="M157">
-        <v>2.9</v>
-      </c>
-      <c r="N157">
-        <v>2.1</v>
-      </c>
-      <c r="O157">
-        <v>3.5</v>
-      </c>
       <c r="P157">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q157">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R157">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S157">
         <v>2.025</v>
@@ -14456,13 +14456,13 @@
         <v>3.5</v>
       </c>
       <c r="U157">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V157">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W157">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14471,13 +14471,13 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14488,7 +14488,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7173173</v>
+        <v>7173187</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14500,7 +14500,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G158" t="s">
         <v>33</v>
@@ -14515,43 +14515,43 @@
         <v>43</v>
       </c>
       <c r="K158">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L158">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M158">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N158">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="O158">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P158">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q158">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R158">
+        <v>1.825</v>
+      </c>
+      <c r="S158">
+        <v>2.025</v>
+      </c>
+      <c r="T158">
+        <v>3.5</v>
+      </c>
+      <c r="U158">
+        <v>2</v>
+      </c>
+      <c r="V158">
         <v>1.85</v>
       </c>
-      <c r="S158">
-        <v>2</v>
-      </c>
-      <c r="T158">
-        <v>4</v>
-      </c>
-      <c r="U158">
-        <v>2.025</v>
-      </c>
-      <c r="V158">
-        <v>1.825</v>
-      </c>
       <c r="W158">
-        <v>0.5329999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14560,13 +14560,13 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA158">
         <v>-1</v>
       </c>
       <c r="AB158">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14601,7 +14601,7 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K159">
         <v>1.4</v>
@@ -14666,7 +14666,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7173172</v>
+        <v>7173173</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14678,13 +14678,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G160" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H160">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I160">
         <v>1</v>
@@ -14693,43 +14693,43 @@
         <v>43</v>
       </c>
       <c r="K160">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L160">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M160">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N160">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="O160">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P160">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="Q160">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R160">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S160">
+        <v>2</v>
+      </c>
+      <c r="T160">
+        <v>4</v>
+      </c>
+      <c r="U160">
         <v>2.025</v>
       </c>
-      <c r="T160">
-        <v>3.5</v>
-      </c>
-      <c r="U160">
-        <v>1.875</v>
-      </c>
       <c r="V160">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W160">
-        <v>1.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14738,13 +14738,13 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA160">
         <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC160">
         <v>-1</v>
@@ -14767,7 +14767,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G161" t="s">
         <v>38</v>
@@ -14859,7 +14859,7 @@
         <v>34</v>
       </c>
       <c r="G162" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -14868,7 +14868,7 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K162">
         <v>2</v>

--- a/Iceland Premier League/Iceland Premier League.xlsx
+++ b/Iceland Premier League/Iceland Premier League.xlsx
@@ -103,16 +103,16 @@
     <t>Iceland Premier League</t>
   </si>
   <si>
+    <t>KA Akureyri</t>
+  </si>
+  <si>
     <t>Fylkir Reykjavik</t>
   </si>
   <si>
-    <t>KA Akureyri</t>
+    <t>Stjarnan</t>
   </si>
   <si>
     <t>Valur Reykjavik</t>
-  </si>
-  <si>
-    <t>Stjarnan</t>
   </si>
   <si>
     <t>Fram Reykjavik</t>
@@ -139,10 +139,10 @@
     <t>KR Reykjavik</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
     <t>H</t>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6102127</v>
+        <v>6102126</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -619,73 +619,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
       </c>
       <c r="K2">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="L2">
         <v>3.6</v>
       </c>
       <c r="M2">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N2">
         <v>1.909</v>
       </c>
       <c r="O2">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P2">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q2">
         <v>-0.5</v>
       </c>
       <c r="R2">
+        <v>1.95</v>
+      </c>
+      <c r="S2">
+        <v>1.85</v>
+      </c>
+      <c r="T2">
+        <v>3</v>
+      </c>
+      <c r="U2">
         <v>1.925</v>
       </c>
-      <c r="S2">
+      <c r="V2">
         <v>1.875</v>
       </c>
-      <c r="T2">
-        <v>3.25</v>
-      </c>
-      <c r="U2">
-        <v>1.85</v>
-      </c>
-      <c r="V2">
-        <v>1.95</v>
-      </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y2">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
         <v>-1</v>
       </c>
       <c r="AA2">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB2">
+        <v>-1</v>
+      </c>
+      <c r="AC2">
         <v>0.875</v>
-      </c>
-      <c r="AB2">
-        <v>-0.5</v>
-      </c>
-      <c r="AC2">
-        <v>0.475</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6102126</v>
+        <v>6102127</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,73 +708,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>42</v>
       </c>
       <c r="K3">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L3">
         <v>3.6</v>
       </c>
       <c r="M3">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N3">
         <v>1.909</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P3">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q3">
         <v>-0.5</v>
       </c>
       <c r="R3">
+        <v>1.925</v>
+      </c>
+      <c r="S3">
+        <v>1.875</v>
+      </c>
+      <c r="T3">
+        <v>3.25</v>
+      </c>
+      <c r="U3">
+        <v>1.85</v>
+      </c>
+      <c r="V3">
         <v>1.95</v>
       </c>
-      <c r="S3">
-        <v>1.85</v>
-      </c>
-      <c r="T3">
-        <v>3</v>
-      </c>
-      <c r="U3">
-        <v>1.925</v>
-      </c>
-      <c r="V3">
-        <v>1.875</v>
-      </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC3">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6102338</v>
+        <v>6102128</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4">
-        <v>1.625</v>
+        <v>3.75</v>
       </c>
       <c r="L4">
         <v>4</v>
       </c>
       <c r="M4">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="N4">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P4">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q4">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S4">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T4">
         <v>3</v>
       </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V4">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W4">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6102128</v>
+        <v>6102338</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K5">
-        <v>3.75</v>
+        <v>1.625</v>
       </c>
       <c r="L5">
         <v>4</v>
       </c>
       <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
         <v>1.666</v>
       </c>
-      <c r="N5">
-        <v>3.4</v>
-      </c>
       <c r="O5">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P5">
+        <v>3.75</v>
+      </c>
+      <c r="Q5">
+        <v>-1</v>
+      </c>
+      <c r="R5">
+        <v>1.9</v>
+      </c>
+      <c r="S5">
         <v>1.8</v>
-      </c>
-      <c r="Q5">
-        <v>0.5</v>
-      </c>
-      <c r="R5">
-        <v>1.95</v>
-      </c>
-      <c r="S5">
-        <v>1.85</v>
       </c>
       <c r="T5">
         <v>3</v>
       </c>
       <c r="U5">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -984,7 +984,7 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K6">
         <v>2.6</v>
@@ -1073,7 +1073,7 @@
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7">
         <v>1.181</v>
@@ -1162,7 +1162,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1242,7 +1242,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1331,7 +1331,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6102134</v>
+        <v>6102135</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1417,76 +1417,76 @@
         <v>45032.67708333334</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
         <v>41</v>
       </c>
       <c r="K11">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="L11">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M11">
+        <v>2.625</v>
+      </c>
+      <c r="N11">
+        <v>2.2</v>
+      </c>
+      <c r="O11">
+        <v>3.75</v>
+      </c>
+      <c r="P11">
+        <v>2.75</v>
+      </c>
+      <c r="Q11">
+        <v>-0.25</v>
+      </c>
+      <c r="R11">
+        <v>2.05</v>
+      </c>
+      <c r="S11">
+        <v>1.8</v>
+      </c>
+      <c r="T11">
+        <v>3</v>
+      </c>
+      <c r="U11">
         <v>1.85</v>
       </c>
-      <c r="N11">
-        <v>2.6</v>
-      </c>
-      <c r="O11">
-        <v>4</v>
-      </c>
-      <c r="P11">
-        <v>2.2</v>
-      </c>
-      <c r="Q11">
-        <v>0.25</v>
-      </c>
-      <c r="R11">
-        <v>1.825</v>
-      </c>
-      <c r="S11">
-        <v>1.975</v>
-      </c>
-      <c r="T11">
-        <v>3.25</v>
-      </c>
-      <c r="U11">
-        <v>1.9</v>
-      </c>
       <c r="V11">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y11">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA11">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6102135</v>
+        <v>6102134</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1506,76 +1506,76 @@
         <v>45032.67708333334</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
         <v>42</v>
       </c>
       <c r="K12">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="L12">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M12">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="N12">
+        <v>2.6</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
         <v>2.2</v>
       </c>
-      <c r="O12">
-        <v>3.75</v>
-      </c>
-      <c r="P12">
-        <v>2.75</v>
-      </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R12">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S12">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U12">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V12">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1684,7 +1684,7 @@
         <v>45039.54166666666</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K14">
         <v>1.55</v>
@@ -1776,7 +1776,7 @@
         <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1785,7 +1785,7 @@
         <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K15">
         <v>3.2</v>
@@ -1862,7 +1862,7 @@
         <v>45040.67708333334</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
         <v>38</v>
@@ -1951,7 +1951,7 @@
         <v>45040.67708333334</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
         <v>36</v>
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6102142</v>
+        <v>6102144</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,13 +2218,13 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2233,43 +2233,43 @@
         <v>43</v>
       </c>
       <c r="K20">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="L20">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20">
         <v>2.375</v>
       </c>
-      <c r="N20">
-        <v>2.625</v>
-      </c>
       <c r="O20">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P20">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S20">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U20">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
-        <v>1.625</v>
+        <v>1.375</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2278,16 +2278,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6102144</v>
+        <v>6102142</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,13 +2307,13 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2322,43 +2322,43 @@
         <v>43</v>
       </c>
       <c r="K21">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="L21">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="N21">
+        <v>2.625</v>
+      </c>
+      <c r="O21">
+        <v>3.5</v>
+      </c>
+      <c r="P21">
         <v>2.375</v>
-      </c>
-      <c r="O21">
-        <v>3.75</v>
-      </c>
-      <c r="P21">
-        <v>2.55</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T21">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V21">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W21">
-        <v>1.375</v>
+        <v>1.625</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2367,16 +2367,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC21">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6102339</v>
+        <v>6102145</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,76 +2396,76 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K22">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="L22">
         <v>3.8</v>
       </c>
       <c r="M22">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="N22">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="O22">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P22">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S22">
+        <v>1.95</v>
+      </c>
+      <c r="T22">
+        <v>3</v>
+      </c>
+      <c r="U22">
+        <v>1.975</v>
+      </c>
+      <c r="V22">
         <v>1.825</v>
       </c>
-      <c r="T22">
-        <v>3.25</v>
-      </c>
-      <c r="U22">
-        <v>2.05</v>
-      </c>
-      <c r="V22">
-        <v>1.8</v>
-      </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA22">
+        <v>-1</v>
+      </c>
+      <c r="AB22">
+        <v>-1</v>
+      </c>
+      <c r="AC22">
         <v>0.825</v>
-      </c>
-      <c r="AB22">
-        <v>1.05</v>
-      </c>
-      <c r="AC22">
-        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6102145</v>
+        <v>6102339</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,76 +2485,76 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="L23">
         <v>3.8</v>
       </c>
       <c r="M23">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="N23">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="O23">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P23">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q23">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T23">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U23">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W23">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z23">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC23">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2574,10 +2574,10 @@
         <v>45045.67708333334</v>
       </c>
       <c r="F24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" t="s">
         <v>31</v>
-      </c>
-      <c r="G24" t="s">
-        <v>32</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2663,7 +2663,7 @@
         <v>45049.625</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
         <v>36</v>
@@ -2853,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K27">
         <v>1.6</v>
@@ -2930,10 +2930,10 @@
         <v>45049.71875</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -2942,7 +2942,7 @@
         <v>6</v>
       </c>
       <c r="J28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K28">
         <v>3.6</v>
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6102151</v>
+        <v>6102152</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,40 +3019,40 @@
         <v>45050.67708333334</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="L29">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M29">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="N29">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="O29">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P29">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="Q29">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R29">
         <v>1.825</v>
@@ -3061,34 +3061,34 @@
         <v>2.025</v>
       </c>
       <c r="T29">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U29">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V29">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA29">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC29">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6102152</v>
+        <v>6102151</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,40 +3108,40 @@
         <v>45050.67708333334</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30">
+        <v>3.8</v>
+      </c>
+      <c r="L30">
+        <v>3.75</v>
+      </c>
+      <c r="M30">
+        <v>1.727</v>
+      </c>
+      <c r="N30">
+        <v>3.6</v>
+      </c>
+      <c r="O30">
         <v>4</v>
       </c>
-      <c r="I30">
+      <c r="P30">
+        <v>1.727</v>
+      </c>
+      <c r="Q30">
         <v>1</v>
-      </c>
-      <c r="J30" t="s">
-        <v>43</v>
-      </c>
-      <c r="K30">
-        <v>1.363</v>
-      </c>
-      <c r="L30">
-        <v>4.75</v>
-      </c>
-      <c r="M30">
-        <v>6</v>
-      </c>
-      <c r="N30">
-        <v>1.222</v>
-      </c>
-      <c r="O30">
-        <v>5.75</v>
-      </c>
-      <c r="P30">
-        <v>8</v>
-      </c>
-      <c r="Q30">
-        <v>-1.75</v>
       </c>
       <c r="R30">
         <v>1.825</v>
@@ -3150,34 +3150,34 @@
         <v>2.025</v>
       </c>
       <c r="T30">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U30">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V30">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W30">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z30">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB30">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3200,7 +3200,7 @@
         <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3209,7 +3209,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K31">
         <v>2.6</v>
@@ -3286,7 +3286,7 @@
         <v>45053.67708333334</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
@@ -3387,7 +3387,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K33">
         <v>3.3</v>
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6102156</v>
+        <v>6102340</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,10 +3464,10 @@
         <v>45054.67708333334</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3479,25 +3479,25 @@
         <v>43</v>
       </c>
       <c r="K34">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="L34">
+        <v>3.75</v>
+      </c>
+      <c r="M34">
         <v>3.6</v>
       </c>
-      <c r="M34">
-        <v>2.5</v>
-      </c>
       <c r="N34">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="O34">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P34">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="Q34">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R34">
         <v>1.8</v>
@@ -3509,13 +3509,13 @@
         <v>3.25</v>
       </c>
       <c r="U34">
+        <v>1.975</v>
+      </c>
+      <c r="V34">
         <v>1.825</v>
       </c>
-      <c r="V34">
-        <v>1.975</v>
-      </c>
       <c r="W34">
-        <v>2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3524,16 +3524,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB34">
         <v>-0.5</v>
       </c>
       <c r="AC34">
-        <v>0.4875</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3541,7 +3541,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6102340</v>
+        <v>6102156</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3553,10 +3553,10 @@
         <v>45054.67708333334</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3568,25 +3568,25 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="L35">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M35">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="N35">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="O35">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P35">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="Q35">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R35">
         <v>1.8</v>
@@ -3598,13 +3598,13 @@
         <v>3.25</v>
       </c>
       <c r="U35">
+        <v>1.825</v>
+      </c>
+      <c r="V35">
         <v>1.975</v>
       </c>
-      <c r="V35">
-        <v>1.825</v>
-      </c>
       <c r="W35">
-        <v>0.6000000000000001</v>
+        <v>2</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3613,16 +3613,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AA35">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
         <v>-0.5</v>
       </c>
       <c r="AC35">
-        <v>0.4125</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3642,7 +3642,7 @@
         <v>45054.71875</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
         <v>34</v>
@@ -3654,7 +3654,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K36">
         <v>3.6</v>
@@ -3731,7 +3731,7 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
         <v>39</v>
@@ -3820,10 +3820,10 @@
         <v>45059.54166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3832,7 +3832,7 @@
         <v>4</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K38">
         <v>2.375</v>
@@ -3921,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K39">
         <v>3.2</v>
@@ -4010,7 +4010,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K40">
         <v>2.55</v>
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6102161</v>
+        <v>6102160</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4087,58 +4087,58 @@
         <v>45060.67708333334</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
         <v>43</v>
       </c>
       <c r="K41">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="L41">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M41">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="N41">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="O41">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P41">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R41">
+        <v>1.925</v>
+      </c>
+      <c r="S41">
         <v>1.875</v>
       </c>
-      <c r="S41">
-        <v>1.925</v>
-      </c>
       <c r="T41">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U41">
+        <v>1.825</v>
+      </c>
+      <c r="V41">
         <v>1.975</v>
       </c>
-      <c r="V41">
-        <v>1.825</v>
-      </c>
       <c r="W41">
-        <v>1.375</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4147,16 +4147,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA41">
         <v>-1</v>
       </c>
       <c r="AB41">
+        <v>-1</v>
+      </c>
+      <c r="AC41">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC41">
-        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6102160</v>
+        <v>6102161</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,58 +4176,58 @@
         <v>45060.67708333334</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
         <v>43</v>
       </c>
       <c r="K42">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M42">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="N42">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="O42">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P42">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="Q42">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R42">
+        <v>1.875</v>
+      </c>
+      <c r="S42">
         <v>1.925</v>
       </c>
-      <c r="S42">
-        <v>1.875</v>
-      </c>
       <c r="T42">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U42">
+        <v>1.975</v>
+      </c>
+      <c r="V42">
         <v>1.825</v>
       </c>
-      <c r="V42">
-        <v>1.975</v>
-      </c>
       <c r="W42">
-        <v>0.3999999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4236,16 +4236,16 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA42">
         <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC42">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4268,7 +4268,7 @@
         <v>34</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4354,7 +4354,7 @@
         <v>45067.67708333334</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G44" t="s">
         <v>35</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K44">
         <v>1.363</v>
@@ -4455,7 +4455,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K45">
         <v>4.5</v>
@@ -4544,7 +4544,7 @@
         <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K46">
         <v>2.45</v>
@@ -4633,7 +4633,7 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K47">
         <v>2.75</v>
@@ -4710,10 +4710,10 @@
         <v>45068.67708333334</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4722,7 +4722,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K48">
         <v>2.1</v>
@@ -4799,7 +4799,7 @@
         <v>45071.625</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
         <v>37</v>
@@ -4811,7 +4811,7 @@
         <v>4</v>
       </c>
       <c r="J49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K49">
         <v>3</v>
@@ -4891,7 +4891,7 @@
         <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4977,7 +4977,7 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
         <v>39</v>
@@ -5158,7 +5158,7 @@
         <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5244,7 +5244,7 @@
         <v>45075.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
         <v>33</v>
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K55">
         <v>5.25</v>
@@ -5425,7 +5425,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5434,7 +5434,7 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -5600,7 +5600,7 @@
         <v>45078.67708333334</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
         <v>40</v>
@@ -5612,7 +5612,7 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K58">
         <v>2.9</v>
@@ -5689,10 +5689,10 @@
         <v>45079.625</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H59">
         <v>4</v>
@@ -5867,7 +5867,7 @@
         <v>45079.67708333334</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
         <v>36</v>
@@ -5879,7 +5879,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K61">
         <v>1.666</v>
@@ -5968,7 +5968,7 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -6057,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K63">
         <v>1.833</v>
@@ -6134,10 +6134,10 @@
         <v>45087.45833333334</v>
       </c>
       <c r="F64" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" t="s">
         <v>30</v>
-      </c>
-      <c r="G64" t="s">
-        <v>29</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6235,7 +6235,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K65">
         <v>3.4</v>
@@ -6315,7 +6315,7 @@
         <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6324,7 +6324,7 @@
         <v>5</v>
       </c>
       <c r="J66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K66">
         <v>3.4</v>
@@ -6404,7 +6404,7 @@
         <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6413,7 +6413,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K67">
         <v>3.4</v>
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6102182</v>
+        <v>6102181</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,76 +6579,76 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K69">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L69">
+        <v>3.75</v>
+      </c>
+      <c r="M69">
         <v>3.6</v>
       </c>
-      <c r="M69">
-        <v>2.625</v>
-      </c>
       <c r="N69">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="O69">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P69">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q69">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R69">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S69">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T69">
         <v>3</v>
       </c>
       <c r="U69">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V69">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X69">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC69">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6102181</v>
+        <v>6102182</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,76 +6757,76 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K71">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="L71">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M71">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N71">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="O71">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P71">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q71">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R71">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S71">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T71">
         <v>3</v>
       </c>
       <c r="U71">
+        <v>2</v>
+      </c>
+      <c r="V71">
         <v>1.85</v>
       </c>
-      <c r="V71">
-        <v>2</v>
-      </c>
       <c r="W71">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB71">
+        <v>-1</v>
+      </c>
+      <c r="AC71">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC71">
-        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6849,7 +6849,7 @@
         <v>39</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6858,7 +6858,7 @@
         <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K72">
         <v>3.5</v>
@@ -6938,7 +6938,7 @@
         <v>40</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7027,7 +7027,7 @@
         <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7116,7 +7116,7 @@
         <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6102190</v>
+        <v>6102189</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,49 +7380,49 @@
         <v>45106.67708333334</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78" t="s">
+        <v>43</v>
+      </c>
+      <c r="K78">
+        <v>2.1</v>
+      </c>
+      <c r="L78">
+        <v>3.4</v>
+      </c>
+      <c r="M78">
         <v>3</v>
       </c>
-      <c r="J78" t="s">
-        <v>41</v>
-      </c>
-      <c r="K78">
-        <v>5.25</v>
-      </c>
-      <c r="L78">
-        <v>4.333</v>
-      </c>
-      <c r="M78">
-        <v>1.45</v>
-      </c>
       <c r="N78">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="O78">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P78">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q78">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
+        <v>1.925</v>
+      </c>
+      <c r="S78">
         <v>1.875</v>
       </c>
-      <c r="S78">
-        <v>1.925</v>
-      </c>
       <c r="T78">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U78">
         <v>1.925</v>
@@ -7431,19 +7431,19 @@
         <v>1.875</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA78">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
         <v>0.925</v>
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6102189</v>
+        <v>6102190</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,49 +7469,49 @@
         <v>45106.67708333334</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K79">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="L79">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M79">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="N79">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="O79">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P79">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R79">
+        <v>1.875</v>
+      </c>
+      <c r="S79">
         <v>1.925</v>
       </c>
-      <c r="S79">
-        <v>1.875</v>
-      </c>
       <c r="T79">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U79">
         <v>1.925</v>
@@ -7520,19 +7520,19 @@
         <v>1.875</v>
       </c>
       <c r="W79">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z79">
+        <v>-1</v>
+      </c>
+      <c r="AA79">
         <v>0.925</v>
-      </c>
-      <c r="AA79">
-        <v>-1</v>
       </c>
       <c r="AB79">
         <v>0.925</v>
@@ -7561,7 +7561,7 @@
         <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H80">
         <v>5</v>
@@ -7748,7 +7748,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K82">
         <v>5.25</v>
@@ -7825,10 +7825,10 @@
         <v>45119.67708333334</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7926,7 +7926,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K84">
         <v>3.4</v>
@@ -8015,7 +8015,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K85">
         <v>4.5</v>
@@ -8104,7 +8104,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K86">
         <v>1.666</v>
@@ -8181,10 +8181,10 @@
         <v>45124.67708333334</v>
       </c>
       <c r="F87" t="s">
+        <v>31</v>
+      </c>
+      <c r="G87" t="s">
         <v>32</v>
-      </c>
-      <c r="G87" t="s">
-        <v>31</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6922578</v>
+        <v>6102200</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,76 +8270,76 @@
         <v>45125.70833333334</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K88">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L88">
         <v>3.6</v>
       </c>
       <c r="M88">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N88">
         <v>2.05</v>
       </c>
       <c r="O88">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P88">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q88">
         <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S88">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T88">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
         <v>1.925</v>
       </c>
       <c r="V88">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X88">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA88">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6102200</v>
+        <v>6922578</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,76 +8359,76 @@
         <v>45125.70833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K89">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L89">
         <v>3.6</v>
       </c>
       <c r="M89">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N89">
         <v>2.05</v>
       </c>
       <c r="O89">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P89">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q89">
         <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S89">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U89">
         <v>1.925</v>
       </c>
       <c r="V89">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W89">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6102206</v>
+        <v>6102207</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,76 +8537,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G91" t="s">
         <v>31</v>
-      </c>
-      <c r="G91" t="s">
-        <v>33</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K91">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="L91">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M91">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="N91">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="O91">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P91">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="Q91">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R91">
         <v>1.925</v>
       </c>
       <c r="S91">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T91">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U91">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V91">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W91">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA91">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8638,7 +8638,7 @@
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K92">
         <v>3.1</v>
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6102207</v>
+        <v>6102206</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,76 +8715,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K93">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="L93">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M93">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="N93">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="O93">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P93">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="Q93">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R93">
         <v>1.925</v>
       </c>
       <c r="S93">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T93">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U93">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X93">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB93">
         <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8807,7 +8807,7 @@
         <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -8816,7 +8816,7 @@
         <v>4</v>
       </c>
       <c r="J94" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K94">
         <v>3.3</v>
@@ -8896,7 +8896,7 @@
         <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -8905,7 +8905,7 @@
         <v>4</v>
       </c>
       <c r="J95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K95">
         <v>1.666</v>
@@ -8982,7 +8982,7 @@
         <v>45133.67708333334</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
         <v>33</v>
@@ -9074,7 +9074,7 @@
         <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9083,7 +9083,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K97">
         <v>1.533</v>
@@ -9160,7 +9160,7 @@
         <v>45137.54166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G98" t="s">
         <v>38</v>
@@ -9172,7 +9172,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K98">
         <v>1.666</v>
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6102350</v>
+        <v>6102213</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,43 +9338,43 @@
         <v>45138.67708333334</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K100">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="L100">
+        <v>3.5</v>
+      </c>
+      <c r="M100">
+        <v>2.3</v>
+      </c>
+      <c r="N100">
+        <v>2.7</v>
+      </c>
+      <c r="O100">
         <v>3.6</v>
       </c>
-      <c r="M100">
-        <v>1.909</v>
-      </c>
-      <c r="N100">
-        <v>3.8</v>
-      </c>
-      <c r="O100">
-        <v>3.75</v>
-      </c>
       <c r="P100">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="Q100">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S100">
         <v>1.85</v>
@@ -9383,10 +9383,10 @@
         <v>3</v>
       </c>
       <c r="U100">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9395,7 +9395,7 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.8500000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="Z100">
         <v>-1</v>
@@ -9404,7 +9404,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB100">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6102213</v>
+        <v>6102350</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,43 +9427,43 @@
         <v>45138.67708333334</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K101">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M101">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N101">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="O101">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P101">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S101">
         <v>1.85</v>
@@ -9472,10 +9472,10 @@
         <v>3</v>
       </c>
       <c r="U101">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V101">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9484,7 +9484,7 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z101">
         <v>-1</v>
@@ -9493,7 +9493,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB101">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9519,7 +9519,7 @@
         <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K102">
         <v>2.6</v>
@@ -9617,7 +9617,7 @@
         <v>4</v>
       </c>
       <c r="J103" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K103">
         <v>1.615</v>
@@ -9694,10 +9694,10 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H104">
         <v>4</v>
@@ -9795,7 +9795,7 @@
         <v>3</v>
       </c>
       <c r="J105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K105">
         <v>3.6</v>
@@ -9875,7 +9875,7 @@
         <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9884,7 +9884,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K106">
         <v>2.05</v>
@@ -10050,7 +10050,7 @@
         <v>45151.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G108" t="s">
         <v>34</v>
@@ -10062,7 +10062,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K108">
         <v>3.4</v>
@@ -10231,7 +10231,7 @@
         <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10240,7 +10240,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K110">
         <v>6</v>
@@ -10495,10 +10495,10 @@
         <v>45152.67708333334</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10507,7 +10507,7 @@
         <v>4</v>
       </c>
       <c r="J113" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K113">
         <v>3</v>
@@ -10587,7 +10587,7 @@
         <v>39</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10596,7 +10596,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K114">
         <v>1.85</v>
@@ -10676,7 +10676,7 @@
         <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10863,7 +10863,7 @@
         <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K117">
         <v>2.75</v>
@@ -10940,7 +10940,7 @@
         <v>45158.67708333334</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G118" t="s">
         <v>37</v>
@@ -10952,7 +10952,7 @@
         <v>4</v>
       </c>
       <c r="J118" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K118">
         <v>2.45</v>
@@ -11029,7 +11029,7 @@
         <v>45159.67708333334</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
         <v>40</v>
@@ -11118,10 +11118,10 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11210,7 +11210,7 @@
         <v>36</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H121">
         <v>3</v>
@@ -11308,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K122">
         <v>2.55</v>
@@ -11388,7 +11388,7 @@
         <v>40</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11575,7 +11575,7 @@
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K125">
         <v>2.1</v>
@@ -11655,7 +11655,7 @@
         <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11664,7 +11664,7 @@
         <v>3</v>
       </c>
       <c r="J126" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K126">
         <v>1.909</v>
@@ -11729,7 +11729,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6102232</v>
+        <v>6102357</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11741,76 +11741,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I127">
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K127">
-        <v>2.6</v>
+        <v>1.333</v>
       </c>
       <c r="L127">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M127">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="N127">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="O127">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P127">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="Q127">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R127">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S127">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T127">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U127">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V127">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X127">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA127">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC127">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11842,7 +11842,7 @@
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K128">
         <v>2.625</v>
@@ -11931,7 +11931,7 @@
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K129">
         <v>1.6</v>
@@ -12008,7 +12008,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
         <v>35</v>
@@ -12109,7 +12109,7 @@
         <v>3</v>
       </c>
       <c r="J131" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K131">
         <v>6</v>
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6102357</v>
+        <v>6102232</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,76 +12186,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H132">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K132">
-        <v>1.333</v>
+        <v>2.6</v>
       </c>
       <c r="L132">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M132">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="N132">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="O132">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P132">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="Q132">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R132">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S132">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T132">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U132">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V132">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB132">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12275,7 +12275,7 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G133" t="s">
         <v>39</v>
@@ -12287,7 +12287,7 @@
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K133">
         <v>2.6</v>
@@ -12376,7 +12376,7 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K134">
         <v>1.75</v>
@@ -12453,10 +12453,10 @@
         <v>45186.67708333334</v>
       </c>
       <c r="F135" t="s">
+        <v>32</v>
+      </c>
+      <c r="G135" t="s">
         <v>31</v>
-      </c>
-      <c r="G135" t="s">
-        <v>32</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12554,7 +12554,7 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K136">
         <v>2.2</v>
@@ -12631,7 +12631,7 @@
         <v>45189.55208333334</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G137" t="s">
         <v>35</v>
@@ -12732,7 +12732,7 @@
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K138">
         <v>1.5</v>
@@ -12821,7 +12821,7 @@
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K139">
         <v>1.8</v>
@@ -12886,7 +12886,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7173163</v>
+        <v>7173179</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12898,76 +12898,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H140">
+        <v>2</v>
+      </c>
+      <c r="I140">
         <v>1</v>
       </c>
-      <c r="I140">
-        <v>3</v>
-      </c>
       <c r="J140" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K140">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="L140">
         <v>3.6</v>
       </c>
       <c r="M140">
+        <v>2.45</v>
+      </c>
+      <c r="N140">
         <v>2.375</v>
       </c>
-      <c r="N140">
-        <v>2.7</v>
-      </c>
       <c r="O140">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P140">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q140">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R140">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S140">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T140">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U140">
+        <v>1.975</v>
+      </c>
+      <c r="V140">
         <v>1.825</v>
       </c>
-      <c r="V140">
-        <v>1.975</v>
-      </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA140">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12990,7 +12990,7 @@
         <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -12999,7 +12999,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K141">
         <v>2.5</v>
@@ -13064,7 +13064,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7173179</v>
+        <v>7173163</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13076,76 +13076,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G142" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K142">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="L142">
         <v>3.6</v>
       </c>
       <c r="M142">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="N142">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="O142">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P142">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="Q142">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S142">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T142">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U142">
+        <v>1.825</v>
+      </c>
+      <c r="V142">
         <v>1.975</v>
       </c>
-      <c r="V142">
-        <v>1.825</v>
-      </c>
       <c r="W142">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z142">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB142">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC142">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13165,10 +13165,10 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F143" t="s">
+        <v>30</v>
+      </c>
+      <c r="G143" t="s">
         <v>29</v>
-      </c>
-      <c r="G143" t="s">
-        <v>30</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13177,7 +13177,7 @@
         <v>4</v>
       </c>
       <c r="J143" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K143">
         <v>2.55</v>
@@ -13343,7 +13343,7 @@
         <v>45197.55208333334</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
         <v>39</v>
@@ -13509,7 +13509,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7173166</v>
+        <v>7173183</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13521,73 +13521,73 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H147">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I147">
         <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K147">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L147">
         <v>3.6</v>
       </c>
       <c r="M147">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="N147">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="O147">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P147">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q147">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R147">
         <v>1.925</v>
       </c>
       <c r="S147">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T147">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U147">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V147">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W147">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB147">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13687,7 +13687,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7173183</v>
+        <v>7173166</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13699,73 +13699,73 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G149" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I149">
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K149">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L149">
         <v>3.6</v>
       </c>
       <c r="M149">
+        <v>2.6</v>
+      </c>
+      <c r="N149">
         <v>2.7</v>
       </c>
-      <c r="N149">
-        <v>2.45</v>
-      </c>
       <c r="O149">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P149">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q149">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R149">
         <v>1.925</v>
       </c>
       <c r="S149">
+        <v>1.875</v>
+      </c>
+      <c r="T149">
+        <v>3.75</v>
+      </c>
+      <c r="U149">
         <v>1.925</v>
       </c>
-      <c r="T149">
-        <v>3.25</v>
-      </c>
-      <c r="U149">
-        <v>1.9</v>
-      </c>
       <c r="V149">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X149">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA149">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13788,7 +13788,7 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
         <v>40</v>
@@ -13880,7 +13880,7 @@
         <v>35</v>
       </c>
       <c r="G151" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -13889,7 +13889,7 @@
         <v>3</v>
       </c>
       <c r="J151" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K151">
         <v>2.9</v>
@@ -14058,7 +14058,7 @@
         <v>33</v>
       </c>
       <c r="G153" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14156,7 +14156,7 @@
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K154">
         <v>2.625</v>
@@ -14233,7 +14233,7 @@
         <v>45200.67708333334</v>
       </c>
       <c r="F155" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G155" t="s">
         <v>36</v>
@@ -14322,7 +14322,7 @@
         <v>45201.67708333334</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G156" t="s">
         <v>37</v>
@@ -14488,7 +14488,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7173187</v>
+        <v>7173189</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14503,55 +14503,55 @@
         <v>29</v>
       </c>
       <c r="G158" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H158">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
         <v>43</v>
       </c>
       <c r="K158">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L158">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M158">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N158">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O158">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P158">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q158">
         <v>-0.25</v>
       </c>
       <c r="R158">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S158">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T158">
         <v>3.5</v>
       </c>
       <c r="U158">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V158">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W158">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14560,16 +14560,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA158">
+        <v>-1</v>
+      </c>
+      <c r="AB158">
+        <v>-1</v>
+      </c>
+      <c r="AC158">
         <v>0.825</v>
-      </c>
-      <c r="AA158">
-        <v>-1</v>
-      </c>
-      <c r="AB158">
-        <v>1</v>
-      </c>
-      <c r="AC158">
-        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14601,7 +14601,7 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K159">
         <v>1.4</v>
@@ -14681,7 +14681,7 @@
         <v>37</v>
       </c>
       <c r="G160" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H160">
         <v>5</v>
@@ -14755,7 +14755,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7173189</v>
+        <v>7173187</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14770,55 +14770,55 @@
         <v>30</v>
       </c>
       <c r="G161" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H161">
+        <v>5</v>
+      </c>
+      <c r="I161">
         <v>1</v>
-      </c>
-      <c r="I161">
-        <v>0</v>
       </c>
       <c r="J161" t="s">
         <v>43</v>
       </c>
       <c r="K161">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L161">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M161">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N161">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O161">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P161">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q161">
         <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S161">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T161">
         <v>3.5</v>
       </c>
       <c r="U161">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V161">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W161">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14827,16 +14827,16 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA161">
         <v>-1</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC161">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14859,7 +14859,7 @@
         <v>34</v>
       </c>
       <c r="G162" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -14868,7 +14868,7 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K162">
         <v>2</v>

--- a/Iceland Premier League/Iceland Premier League.xlsx
+++ b/Iceland Premier League/Iceland Premier League.xlsx
@@ -103,16 +103,16 @@
     <t>Iceland Premier League</t>
   </si>
   <si>
+    <t>Fylkir Reykjavik</t>
+  </si>
+  <si>
     <t>KA Akureyri</t>
   </si>
   <si>
-    <t>Fylkir Reykjavik</t>
+    <t>Valur Reykjavik</t>
   </si>
   <si>
     <t>Stjarnan</t>
-  </si>
-  <si>
-    <t>Valur Reykjavik</t>
   </si>
   <si>
     <t>Fram Reykjavik</t>
@@ -139,10 +139,10 @@
     <t>KR Reykjavik</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
     <t>H</t>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6102126</v>
+        <v>6102127</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -619,73 +619,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
       </c>
       <c r="K2">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L2">
         <v>3.6</v>
       </c>
       <c r="M2">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N2">
         <v>1.909</v>
       </c>
       <c r="O2">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P2">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q2">
         <v>-0.5</v>
       </c>
       <c r="R2">
+        <v>1.925</v>
+      </c>
+      <c r="S2">
+        <v>1.875</v>
+      </c>
+      <c r="T2">
+        <v>3.25</v>
+      </c>
+      <c r="U2">
+        <v>1.85</v>
+      </c>
+      <c r="V2">
         <v>1.95</v>
       </c>
-      <c r="S2">
-        <v>1.85</v>
-      </c>
-      <c r="T2">
-        <v>3</v>
-      </c>
-      <c r="U2">
-        <v>1.925</v>
-      </c>
-      <c r="V2">
-        <v>1.875</v>
-      </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z2">
         <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC2">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6102127</v>
+        <v>6102126</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,73 +708,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>42</v>
       </c>
       <c r="K3">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="L3">
         <v>3.6</v>
       </c>
       <c r="M3">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N3">
         <v>1.909</v>
       </c>
       <c r="O3">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P3">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q3">
         <v>-0.5</v>
       </c>
       <c r="R3">
+        <v>1.95</v>
+      </c>
+      <c r="S3">
+        <v>1.85</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3">
         <v>1.925</v>
       </c>
-      <c r="S3">
+      <c r="V3">
         <v>1.875</v>
       </c>
-      <c r="T3">
-        <v>3.25</v>
-      </c>
-      <c r="U3">
-        <v>1.85</v>
-      </c>
-      <c r="V3">
-        <v>1.95</v>
-      </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y3">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB3">
+        <v>-1</v>
+      </c>
+      <c r="AC3">
         <v>0.875</v>
-      </c>
-      <c r="AB3">
-        <v>-0.5</v>
-      </c>
-      <c r="AC3">
-        <v>0.475</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6102128</v>
+        <v>6102338</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>3.75</v>
+        <v>1.625</v>
       </c>
       <c r="L4">
         <v>4</v>
       </c>
       <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
         <v>1.666</v>
       </c>
-      <c r="N4">
-        <v>3.4</v>
-      </c>
       <c r="O4">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P4">
+        <v>3.75</v>
+      </c>
+      <c r="Q4">
+        <v>-1</v>
+      </c>
+      <c r="R4">
+        <v>1.9</v>
+      </c>
+      <c r="S4">
         <v>1.8</v>
-      </c>
-      <c r="Q4">
-        <v>0.5</v>
-      </c>
-      <c r="R4">
-        <v>1.95</v>
-      </c>
-      <c r="S4">
-        <v>1.85</v>
       </c>
       <c r="T4">
         <v>3</v>
       </c>
       <c r="U4">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6102338</v>
+        <v>6102128</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>1.625</v>
+        <v>3.75</v>
       </c>
       <c r="L5">
         <v>4</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="N5">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P5">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R5">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S5">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T5">
         <v>3</v>
       </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V5">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -984,7 +984,7 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K6">
         <v>2.6</v>
@@ -1073,7 +1073,7 @@
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K7">
         <v>1.181</v>
@@ -1162,7 +1162,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1242,7 +1242,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1331,7 +1331,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6102135</v>
+        <v>6102134</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1417,76 +1417,76 @@
         <v>45032.67708333334</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
         <v>41</v>
       </c>
       <c r="K11">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="L11">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M11">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="N11">
+        <v>2.6</v>
+      </c>
+      <c r="O11">
+        <v>4</v>
+      </c>
+      <c r="P11">
         <v>2.2</v>
       </c>
-      <c r="O11">
-        <v>3.75</v>
-      </c>
-      <c r="P11">
-        <v>2.75</v>
-      </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S11">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U11">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V11">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6102134</v>
+        <v>6102135</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1506,76 +1506,76 @@
         <v>45032.67708333334</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>42</v>
       </c>
       <c r="K12">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="L12">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M12">
+        <v>2.625</v>
+      </c>
+      <c r="N12">
+        <v>2.2</v>
+      </c>
+      <c r="O12">
+        <v>3.75</v>
+      </c>
+      <c r="P12">
+        <v>2.75</v>
+      </c>
+      <c r="Q12">
+        <v>-0.25</v>
+      </c>
+      <c r="R12">
+        <v>2.05</v>
+      </c>
+      <c r="S12">
+        <v>1.8</v>
+      </c>
+      <c r="T12">
+        <v>3</v>
+      </c>
+      <c r="U12">
         <v>1.85</v>
       </c>
-      <c r="N12">
-        <v>2.6</v>
-      </c>
-      <c r="O12">
-        <v>4</v>
-      </c>
-      <c r="P12">
-        <v>2.2</v>
-      </c>
-      <c r="Q12">
-        <v>0.25</v>
-      </c>
-      <c r="R12">
-        <v>1.825</v>
-      </c>
-      <c r="S12">
-        <v>1.975</v>
-      </c>
-      <c r="T12">
-        <v>3.25</v>
-      </c>
-      <c r="U12">
-        <v>1.9</v>
-      </c>
       <c r="V12">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y12">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6102136</v>
+        <v>6102137</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1595,76 +1595,76 @@
         <v>45039.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13">
+        <v>1.55</v>
+      </c>
+      <c r="L13">
+        <v>4.333</v>
+      </c>
+      <c r="M13">
+        <v>4.5</v>
+      </c>
+      <c r="N13">
+        <v>1.444</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>5.25</v>
+      </c>
+      <c r="Q13">
+        <v>-1.25</v>
+      </c>
+      <c r="R13">
+        <v>1.875</v>
+      </c>
+      <c r="S13">
+        <v>1.925</v>
+      </c>
+      <c r="T13">
+        <v>3.5</v>
+      </c>
+      <c r="U13">
+        <v>1.925</v>
+      </c>
+      <c r="V13">
+        <v>1.875</v>
+      </c>
+      <c r="W13">
+        <v>-1</v>
+      </c>
+      <c r="X13">
         <v>4</v>
       </c>
-      <c r="L13">
-        <v>4</v>
-      </c>
-      <c r="M13">
-        <v>1.7</v>
-      </c>
-      <c r="N13">
-        <v>4.75</v>
-      </c>
-      <c r="O13">
-        <v>4.2</v>
-      </c>
-      <c r="P13">
-        <v>1.6</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="R13">
-        <v>1.8</v>
-      </c>
-      <c r="S13">
-        <v>2</v>
-      </c>
-      <c r="T13">
-        <v>3</v>
-      </c>
-      <c r="U13">
-        <v>1.875</v>
-      </c>
-      <c r="V13">
-        <v>1.925</v>
-      </c>
-      <c r="W13">
-        <v>3.75</v>
-      </c>
-      <c r="X13">
-        <v>-1</v>
-      </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6102137</v>
+        <v>6102136</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,76 +1684,76 @@
         <v>45039.54166666666</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>1.7</v>
+      </c>
+      <c r="N14">
+        <v>4.75</v>
+      </c>
+      <c r="O14">
+        <v>4.2</v>
+      </c>
+      <c r="P14">
+        <v>1.6</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1.8</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>3</v>
+      </c>
+      <c r="U14">
+        <v>1.875</v>
+      </c>
+      <c r="V14">
+        <v>1.925</v>
+      </c>
+      <c r="W14">
+        <v>3.75</v>
+      </c>
+      <c r="X14">
+        <v>-1</v>
+      </c>
+      <c r="Y14">
+        <v>-1</v>
+      </c>
+      <c r="Z14">
+        <v>0.8</v>
+      </c>
+      <c r="AA14">
+        <v>-1</v>
+      </c>
+      <c r="AB14">
         <v>0</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14">
-        <v>1.55</v>
-      </c>
-      <c r="L14">
-        <v>4.333</v>
-      </c>
-      <c r="M14">
-        <v>4.5</v>
-      </c>
-      <c r="N14">
-        <v>1.444</v>
-      </c>
-      <c r="O14">
-        <v>5</v>
-      </c>
-      <c r="P14">
-        <v>5.25</v>
-      </c>
-      <c r="Q14">
-        <v>-1.25</v>
-      </c>
-      <c r="R14">
-        <v>1.875</v>
-      </c>
-      <c r="S14">
-        <v>1.925</v>
-      </c>
-      <c r="T14">
-        <v>3.5</v>
-      </c>
-      <c r="U14">
-        <v>1.925</v>
-      </c>
-      <c r="V14">
-        <v>1.875</v>
-      </c>
-      <c r="W14">
-        <v>-1</v>
-      </c>
-      <c r="X14">
-        <v>4</v>
-      </c>
-      <c r="Y14">
-        <v>-1</v>
-      </c>
-      <c r="Z14">
-        <v>-1</v>
-      </c>
-      <c r="AA14">
-        <v>0.925</v>
-      </c>
-      <c r="AB14">
-        <v>-1</v>
-      </c>
       <c r="AC14">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1776,7 +1776,7 @@
         <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1785,7 +1785,7 @@
         <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15">
         <v>3.2</v>
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6102140</v>
+        <v>6102141</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,58 +1862,58 @@
         <v>45040.67708333334</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
         <v>43</v>
       </c>
       <c r="K16">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="L16">
         <v>3.8</v>
       </c>
       <c r="M16">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="O16">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
         <v>1.8</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
+        <v>1.875</v>
+      </c>
+      <c r="V16">
+        <v>1.975</v>
+      </c>
+      <c r="W16">
         <v>1.75</v>
-      </c>
-      <c r="V16">
-        <v>1.95</v>
-      </c>
-      <c r="W16">
-        <v>1</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1928,7 +1928,7 @@
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6102141</v>
+        <v>6102140</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,58 +1951,58 @@
         <v>45040.67708333334</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
         <v>4</v>
-      </c>
-      <c r="I17">
-        <v>2</v>
       </c>
       <c r="J17" t="s">
         <v>43</v>
       </c>
       <c r="K17">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="L17">
         <v>3.8</v>
       </c>
       <c r="M17">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="N17">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O17">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P17">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="Q17">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
         <v>1.8</v>
       </c>
       <c r="S17">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U17">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V17">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2017,7 +2017,7 @@
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6102144</v>
+        <v>6102142</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,13 +2218,13 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2233,43 +2233,43 @@
         <v>43</v>
       </c>
       <c r="K20">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="L20">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M20">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="N20">
+        <v>2.625</v>
+      </c>
+      <c r="O20">
+        <v>3.5</v>
+      </c>
+      <c r="P20">
         <v>2.375</v>
-      </c>
-      <c r="O20">
-        <v>3.75</v>
-      </c>
-      <c r="P20">
-        <v>2.55</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T20">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V20">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W20">
-        <v>1.375</v>
+        <v>1.625</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2278,16 +2278,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC20">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6102142</v>
+        <v>6102144</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,13 +2307,13 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2322,43 +2322,43 @@
         <v>43</v>
       </c>
       <c r="K21">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="L21">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21">
         <v>2.375</v>
       </c>
-      <c r="N21">
-        <v>2.625</v>
-      </c>
       <c r="O21">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P21">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S21">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
-        <v>1.625</v>
+        <v>1.375</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2367,16 +2367,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2399,7 +2399,7 @@
         <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2497,7 +2497,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K23">
         <v>2.25</v>
@@ -2574,10 +2574,10 @@
         <v>45045.67708333334</v>
       </c>
       <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" t="s">
         <v>32</v>
-      </c>
-      <c r="G24" t="s">
-        <v>31</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6102148</v>
+        <v>6102147</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,59 +2663,59 @@
         <v>45049.625</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
         <v>43</v>
       </c>
       <c r="K25">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L25">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M25">
+        <v>2.55</v>
+      </c>
+      <c r="N25">
+        <v>2.875</v>
+      </c>
+      <c r="O25">
+        <v>3.6</v>
+      </c>
+      <c r="P25">
+        <v>2.15</v>
+      </c>
+      <c r="Q25">
+        <v>0.25</v>
+      </c>
+      <c r="R25">
+        <v>1.9</v>
+      </c>
+      <c r="S25">
+        <v>1.9</v>
+      </c>
+      <c r="T25">
         <v>3.25</v>
       </c>
-      <c r="N25">
-        <v>1.833</v>
-      </c>
-      <c r="O25">
-        <v>3.5</v>
-      </c>
-      <c r="P25">
-        <v>3.5</v>
-      </c>
-      <c r="Q25">
-        <v>-0.5</v>
-      </c>
-      <c r="R25">
-        <v>1.925</v>
-      </c>
-      <c r="S25">
+      <c r="U25">
+        <v>1.9</v>
+      </c>
+      <c r="V25">
+        <v>1.9</v>
+      </c>
+      <c r="W25">
         <v>1.875</v>
       </c>
-      <c r="T25">
-        <v>2.75</v>
-      </c>
-      <c r="U25">
-        <v>1.8</v>
-      </c>
-      <c r="V25">
-        <v>2</v>
-      </c>
-      <c r="W25">
-        <v>0.833</v>
-      </c>
       <c r="X25">
         <v>-1</v>
       </c>
@@ -2723,13 +2723,13 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC25">
         <v>-1</v>
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6102147</v>
+        <v>6102148</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,58 +2752,58 @@
         <v>45049.625</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
         <v>43</v>
       </c>
       <c r="K26">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M26">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="N26">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="O26">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P26">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q26">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R26">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S26">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T26">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U26">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V26">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W26">
-        <v>1.875</v>
+        <v>0.833</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2812,13 +2812,13 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2853,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K27">
         <v>1.6</v>
@@ -2930,10 +2930,10 @@
         <v>45049.71875</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -2942,7 +2942,7 @@
         <v>6</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K28">
         <v>3.6</v>
@@ -3108,7 +3108,7 @@
         <v>45050.67708333334</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
         <v>34</v>
@@ -3120,7 +3120,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K30">
         <v>3.8</v>
@@ -3200,7 +3200,7 @@
         <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3209,7 +3209,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K31">
         <v>2.6</v>
@@ -3286,7 +3286,7 @@
         <v>45053.67708333334</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
@@ -3387,7 +3387,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K33">
         <v>3.3</v>
@@ -3556,7 +3556,7 @@
         <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3642,7 +3642,7 @@
         <v>45054.71875</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
         <v>34</v>
@@ -3654,7 +3654,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K36">
         <v>3.6</v>
@@ -3731,7 +3731,7 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
         <v>39</v>
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6102158</v>
+        <v>6102162</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,49 +3820,49 @@
         <v>45059.54166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K38">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="L38">
         <v>3.5</v>
       </c>
       <c r="M38">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="N38">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="O38">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P38">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R38">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S38">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T38">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U38">
         <v>1.85</v>
@@ -3877,19 +3877,19 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1.625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB38">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6102162</v>
+        <v>6102158</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,49 +3909,49 @@
         <v>45059.54166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K39">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="L39">
         <v>3.5</v>
       </c>
       <c r="M39">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="N39">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="O39">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P39">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="Q39">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S39">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U39">
         <v>1.85</v>
@@ -3966,19 +3966,19 @@
         <v>-1</v>
       </c>
       <c r="Y39">
+        <v>1.625</v>
+      </c>
+      <c r="Z39">
+        <v>-1</v>
+      </c>
+      <c r="AA39">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB39">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z39">
-        <v>-1</v>
-      </c>
-      <c r="AA39">
-        <v>0.875</v>
-      </c>
-      <c r="AB39">
-        <v>-1</v>
-      </c>
       <c r="AC39">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4010,7 +4010,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K40">
         <v>2.55</v>
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6102160</v>
+        <v>6102161</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4087,58 +4087,58 @@
         <v>45060.67708333334</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
         <v>43</v>
       </c>
       <c r="K41">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M41">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="N41">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="O41">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P41">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="Q41">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R41">
+        <v>1.875</v>
+      </c>
+      <c r="S41">
         <v>1.925</v>
       </c>
-      <c r="S41">
-        <v>1.875</v>
-      </c>
       <c r="T41">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U41">
+        <v>1.975</v>
+      </c>
+      <c r="V41">
         <v>1.825</v>
       </c>
-      <c r="V41">
-        <v>1.975</v>
-      </c>
       <c r="W41">
-        <v>0.3999999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4147,16 +4147,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA41">
         <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC41">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6102161</v>
+        <v>6102160</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,58 +4176,58 @@
         <v>45060.67708333334</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
         <v>43</v>
       </c>
       <c r="K42">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="L42">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M42">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="N42">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="O42">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P42">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R42">
+        <v>1.925</v>
+      </c>
+      <c r="S42">
         <v>1.875</v>
       </c>
-      <c r="S42">
-        <v>1.925</v>
-      </c>
       <c r="T42">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U42">
+        <v>1.825</v>
+      </c>
+      <c r="V42">
         <v>1.975</v>
       </c>
-      <c r="V42">
-        <v>1.825</v>
-      </c>
       <c r="W42">
-        <v>1.375</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4236,16 +4236,16 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA42">
         <v>-1</v>
       </c>
       <c r="AB42">
+        <v>-1</v>
+      </c>
+      <c r="AC42">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC42">
-        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4268,7 +4268,7 @@
         <v>34</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4354,7 +4354,7 @@
         <v>45067.67708333334</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
         <v>35</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K44">
         <v>1.363</v>
@@ -4455,7 +4455,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K45">
         <v>4.5</v>
@@ -4544,7 +4544,7 @@
         <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K46">
         <v>2.45</v>
@@ -4633,7 +4633,7 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K47">
         <v>2.75</v>
@@ -4710,10 +4710,10 @@
         <v>45068.67708333334</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4722,7 +4722,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K48">
         <v>2.1</v>
@@ -4799,7 +4799,7 @@
         <v>45071.625</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
         <v>37</v>
@@ -4811,7 +4811,7 @@
         <v>4</v>
       </c>
       <c r="J49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K49">
         <v>3</v>
@@ -4891,7 +4891,7 @@
         <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4977,7 +4977,7 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G51" t="s">
         <v>39</v>
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6102344</v>
+        <v>6102168</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5066,28 +5066,28 @@
         <v>45074.67708333334</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>43</v>
       </c>
       <c r="K52">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L52">
         <v>3.5</v>
       </c>
       <c r="M52">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N52">
         <v>1.909</v>
@@ -5096,25 +5096,25 @@
         <v>3.4</v>
       </c>
       <c r="P52">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q52">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S52">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U52">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V52">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
         <v>0.909</v>
@@ -5126,16 +5126,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5143,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6102168</v>
+        <v>6102344</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5155,28 +5155,28 @@
         <v>45074.67708333334</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J53" t="s">
         <v>43</v>
       </c>
       <c r="K53">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L53">
         <v>3.5</v>
       </c>
       <c r="M53">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N53">
         <v>1.909</v>
@@ -5185,25 +5185,25 @@
         <v>3.4</v>
       </c>
       <c r="P53">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q53">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S53">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T53">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U53">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V53">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W53">
         <v>0.909</v>
@@ -5215,16 +5215,16 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC53">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5244,7 +5244,7 @@
         <v>45075.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
         <v>33</v>
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6102170</v>
+        <v>6102171</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,76 +5333,76 @@
         <v>45075.67708333334</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J55" t="s">
         <v>41</v>
       </c>
       <c r="K55">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="L55">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M55">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="N55">
-        <v>6</v>
+        <v>1.833</v>
       </c>
       <c r="O55">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P55">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q55">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R55">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S55">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T55">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U55">
+        <v>1.75</v>
+      </c>
+      <c r="V55">
         <v>1.95</v>
       </c>
-      <c r="V55">
-        <v>1.85</v>
-      </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z55">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC55">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6102171</v>
+        <v>6102170</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,76 +5422,76 @@
         <v>45075.67708333334</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
         <v>42</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="L56">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M56">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="N56">
-        <v>1.833</v>
+        <v>6</v>
       </c>
       <c r="O56">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P56">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="Q56">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R56">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S56">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T56">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U56">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y56">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA56">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5600,7 +5600,7 @@
         <v>45078.67708333334</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
         <v>40</v>
@@ -5612,7 +5612,7 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K58">
         <v>2.9</v>
@@ -5689,10 +5689,10 @@
         <v>45079.625</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H59">
         <v>4</v>
@@ -5855,7 +5855,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6102346</v>
+        <v>6102174</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5867,76 +5867,76 @@
         <v>45079.67708333334</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K61">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M61">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N61">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="O61">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P61">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q61">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S61">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T61">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U61">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V61">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA61">
-        <v>0.8</v>
+        <v>0.3875</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC61">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6102174</v>
+        <v>6102346</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,76 +5956,76 @@
         <v>45079.67708333334</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K62">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L62">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M62">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N62">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O62">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P62">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R62">
+        <v>2.05</v>
+      </c>
+      <c r="S62">
+        <v>1.8</v>
+      </c>
+      <c r="T62">
+        <v>3.25</v>
+      </c>
+      <c r="U62">
         <v>2.025</v>
       </c>
-      <c r="S62">
-        <v>1.775</v>
-      </c>
-      <c r="T62">
-        <v>2.75</v>
-      </c>
-      <c r="U62">
-        <v>1.9</v>
-      </c>
       <c r="V62">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.3875</v>
+        <v>0.8</v>
       </c>
       <c r="AB62">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6102177</v>
+        <v>6102176</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,76 +6045,76 @@
         <v>45087.45833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K63">
-        <v>1.833</v>
+        <v>1.6</v>
       </c>
       <c r="L63">
+        <v>4</v>
+      </c>
+      <c r="M63">
+        <v>4.333</v>
+      </c>
+      <c r="N63">
+        <v>1.8</v>
+      </c>
+      <c r="O63">
+        <v>3.8</v>
+      </c>
+      <c r="P63">
         <v>3.6</v>
-      </c>
-      <c r="M63">
-        <v>3.4</v>
-      </c>
-      <c r="N63">
-        <v>1.85</v>
-      </c>
-      <c r="O63">
-        <v>3.6</v>
-      </c>
-      <c r="P63">
-        <v>3.5</v>
       </c>
       <c r="Q63">
         <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S63">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U63">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V63">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X63">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA63">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC63">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6102176</v>
+        <v>6102177</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,76 +6134,76 @@
         <v>45087.45833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K64">
-        <v>1.6</v>
+        <v>1.833</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M64">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N64">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O64">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P64">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q64">
         <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S64">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T64">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U64">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V64">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W64">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6235,7 +6235,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K65">
         <v>3.4</v>
@@ -6315,7 +6315,7 @@
         <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6324,7 +6324,7 @@
         <v>5</v>
       </c>
       <c r="J66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K66">
         <v>3.4</v>
@@ -6389,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6102180</v>
+        <v>6102179</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6401,76 +6401,76 @@
         <v>45088.67708333334</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K67">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="L67">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M67">
+        <v>5.5</v>
+      </c>
+      <c r="N67">
+        <v>1.3</v>
+      </c>
+      <c r="O67">
+        <v>5.25</v>
+      </c>
+      <c r="P67">
+        <v>6.5</v>
+      </c>
+      <c r="Q67">
+        <v>-1.5</v>
+      </c>
+      <c r="R67">
         <v>1.85</v>
       </c>
-      <c r="N67">
-        <v>4.2</v>
-      </c>
-      <c r="O67">
+      <c r="S67">
+        <v>1.95</v>
+      </c>
+      <c r="T67">
         <v>3.5</v>
       </c>
-      <c r="P67">
-        <v>1.727</v>
-      </c>
-      <c r="Q67">
-        <v>0.75</v>
-      </c>
-      <c r="R67">
-        <v>1.8</v>
-      </c>
-      <c r="S67">
-        <v>2</v>
-      </c>
-      <c r="T67">
-        <v>2.75</v>
-      </c>
       <c r="U67">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V67">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X67">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA67">
         <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC67">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6102179</v>
+        <v>6102180</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,76 +6490,76 @@
         <v>45088.67708333334</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K68">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="L68">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M68">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="N68">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="O68">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P68">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q68">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R68">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S68">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T68">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U68">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V68">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W68">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA68">
         <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6102181</v>
+        <v>6102183</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,58 +6579,58 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
         <v>43</v>
       </c>
       <c r="K69">
-        <v>1.833</v>
+        <v>5.25</v>
       </c>
       <c r="L69">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M69">
-        <v>3.6</v>
+        <v>1.45</v>
       </c>
       <c r="N69">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="O69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P69">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="Q69">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R69">
+        <v>2.025</v>
+      </c>
+      <c r="S69">
+        <v>1.825</v>
+      </c>
+      <c r="T69">
+        <v>3.25</v>
+      </c>
+      <c r="U69">
         <v>1.975</v>
       </c>
-      <c r="S69">
+      <c r="V69">
         <v>1.875</v>
       </c>
-      <c r="T69">
-        <v>3</v>
-      </c>
-      <c r="U69">
-        <v>1.85</v>
-      </c>
-      <c r="V69">
-        <v>2</v>
-      </c>
       <c r="W69">
-        <v>0.7270000000000001</v>
+        <v>5</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6639,13 +6639,13 @@
         <v>-1</v>
       </c>
       <c r="Z69">
+        <v>1.025</v>
+      </c>
+      <c r="AA69">
+        <v>-1</v>
+      </c>
+      <c r="AB69">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA69">
-        <v>-1</v>
-      </c>
-      <c r="AB69">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC69">
         <v>-1</v>
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6102183</v>
+        <v>6102182</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,76 +6668,76 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H70">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K70">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="L70">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M70">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="N70">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="O70">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P70">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="Q70">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R70">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S70">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T70">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U70">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V70">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W70">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB70">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6102182</v>
+        <v>6102181</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,76 +6757,76 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K71">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L71">
+        <v>3.75</v>
+      </c>
+      <c r="M71">
         <v>3.6</v>
       </c>
-      <c r="M71">
-        <v>2.625</v>
-      </c>
       <c r="N71">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="O71">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P71">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q71">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R71">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S71">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T71">
         <v>3</v>
       </c>
       <c r="U71">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V71">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X71">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA71">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC71">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6849,7 +6849,7 @@
         <v>39</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6858,7 +6858,7 @@
         <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K72">
         <v>3.5</v>
@@ -6938,7 +6938,7 @@
         <v>40</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7027,7 +7027,7 @@
         <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7116,7 +7116,7 @@
         <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6102191</v>
+        <v>6102188</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,40 +7202,40 @@
         <v>45105.67708333334</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
         <v>43</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L76">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M76">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N76">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O76">
         <v>3.75</v>
       </c>
       <c r="P76">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q76">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R76">
         <v>1.875</v>
@@ -7244,7 +7244,7 @@
         <v>1.975</v>
       </c>
       <c r="T76">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
         <v>2</v>
@@ -7253,7 +7253,7 @@
         <v>1.85</v>
       </c>
       <c r="W76">
-        <v>0.833</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7268,10 +7268,10 @@
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6102188</v>
+        <v>6102191</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,40 +7291,40 @@
         <v>45105.67708333334</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
         <v>43</v>
       </c>
       <c r="K77">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M77">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N77">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O77">
         <v>3.75</v>
       </c>
       <c r="P77">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R77">
         <v>1.875</v>
@@ -7333,7 +7333,7 @@
         <v>1.975</v>
       </c>
       <c r="T77">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U77">
         <v>2</v>
@@ -7342,7 +7342,7 @@
         <v>1.85</v>
       </c>
       <c r="W77">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7357,10 +7357,10 @@
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC77">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6102189</v>
+        <v>6102190</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,49 +7380,49 @@
         <v>45106.67708333334</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H78">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K78">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="L78">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M78">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="N78">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="O78">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P78">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R78">
+        <v>1.875</v>
+      </c>
+      <c r="S78">
         <v>1.925</v>
       </c>
-      <c r="S78">
-        <v>1.875</v>
-      </c>
       <c r="T78">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U78">
         <v>1.925</v>
@@ -7431,19 +7431,19 @@
         <v>1.875</v>
       </c>
       <c r="W78">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z78">
+        <v>-1</v>
+      </c>
+      <c r="AA78">
         <v>0.925</v>
-      </c>
-      <c r="AA78">
-        <v>-1</v>
       </c>
       <c r="AB78">
         <v>0.925</v>
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6102190</v>
+        <v>6102189</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,49 +7469,49 @@
         <v>45106.67708333334</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79" t="s">
+        <v>43</v>
+      </c>
+      <c r="K79">
+        <v>2.1</v>
+      </c>
+      <c r="L79">
+        <v>3.4</v>
+      </c>
+      <c r="M79">
         <v>3</v>
       </c>
-      <c r="J79" t="s">
-        <v>42</v>
-      </c>
-      <c r="K79">
-        <v>5.25</v>
-      </c>
-      <c r="L79">
-        <v>4.333</v>
-      </c>
-      <c r="M79">
-        <v>1.45</v>
-      </c>
       <c r="N79">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="O79">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P79">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q79">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
+        <v>1.925</v>
+      </c>
+      <c r="S79">
         <v>1.875</v>
       </c>
-      <c r="S79">
-        <v>1.925</v>
-      </c>
       <c r="T79">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U79">
         <v>1.925</v>
@@ -7520,19 +7520,19 @@
         <v>1.875</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA79">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
         <v>0.925</v>
@@ -7561,7 +7561,7 @@
         <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H80">
         <v>5</v>
@@ -7748,7 +7748,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K82">
         <v>5.25</v>
@@ -7825,10 +7825,10 @@
         <v>45119.67708333334</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7926,7 +7926,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K84">
         <v>3.4</v>
@@ -8015,7 +8015,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K85">
         <v>4.5</v>
@@ -8104,7 +8104,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K86">
         <v>1.666</v>
@@ -8181,10 +8181,10 @@
         <v>45124.67708333334</v>
       </c>
       <c r="F87" t="s">
+        <v>32</v>
+      </c>
+      <c r="G87" t="s">
         <v>31</v>
-      </c>
-      <c r="G87" t="s">
-        <v>32</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6102200</v>
+        <v>6922578</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,76 +8270,76 @@
         <v>45125.70833333334</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K88">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L88">
         <v>3.6</v>
       </c>
       <c r="M88">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N88">
         <v>2.05</v>
       </c>
       <c r="O88">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P88">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q88">
         <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S88">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U88">
         <v>1.925</v>
       </c>
       <c r="V88">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W88">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6922578</v>
+        <v>6102200</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,76 +8359,76 @@
         <v>45125.70833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K89">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L89">
         <v>3.6</v>
       </c>
       <c r="M89">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N89">
         <v>2.05</v>
       </c>
       <c r="O89">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P89">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q89">
         <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S89">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T89">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
         <v>1.925</v>
       </c>
       <c r="V89">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X89">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA89">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6102207</v>
+        <v>6102206</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,76 +8537,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K91">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="L91">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M91">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="N91">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="O91">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P91">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="Q91">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R91">
         <v>1.925</v>
       </c>
       <c r="S91">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T91">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U91">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V91">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X91">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB91">
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6542524</v>
+        <v>6102207</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,76 +8626,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
         <v>42</v>
       </c>
       <c r="K92">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L92">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M92">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="N92">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="O92">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P92">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R92">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S92">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T92">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U92">
+        <v>1.975</v>
+      </c>
+      <c r="V92">
         <v>1.825</v>
       </c>
-      <c r="V92">
-        <v>1.975</v>
-      </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y92">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA92">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6102206</v>
+        <v>6542524</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,76 +8715,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K93">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="L93">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M93">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N93">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="O93">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P93">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="Q93">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S93">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T93">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W93">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC93">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8807,7 +8807,7 @@
         <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -8816,7 +8816,7 @@
         <v>4</v>
       </c>
       <c r="J94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K94">
         <v>3.3</v>
@@ -8896,7 +8896,7 @@
         <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -8905,7 +8905,7 @@
         <v>4</v>
       </c>
       <c r="J95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K95">
         <v>1.666</v>
@@ -8982,7 +8982,7 @@
         <v>45133.67708333334</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
         <v>33</v>
@@ -9074,7 +9074,7 @@
         <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9083,7 +9083,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K97">
         <v>1.533</v>
@@ -9160,7 +9160,7 @@
         <v>45137.54166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s">
         <v>38</v>
@@ -9172,7 +9172,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K98">
         <v>1.666</v>
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6102213</v>
+        <v>6102350</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,43 +9338,43 @@
         <v>45138.67708333334</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K100">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="L100">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M100">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N100">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="O100">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P100">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S100">
         <v>1.85</v>
@@ -9383,10 +9383,10 @@
         <v>3</v>
       </c>
       <c r="U100">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V100">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9395,7 +9395,7 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z100">
         <v>-1</v>
@@ -9404,7 +9404,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB100">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6102350</v>
+        <v>6102213</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,43 +9427,43 @@
         <v>45138.67708333334</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K101">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="L101">
+        <v>3.5</v>
+      </c>
+      <c r="M101">
+        <v>2.3</v>
+      </c>
+      <c r="N101">
+        <v>2.7</v>
+      </c>
+      <c r="O101">
         <v>3.6</v>
       </c>
-      <c r="M101">
-        <v>1.909</v>
-      </c>
-      <c r="N101">
-        <v>3.8</v>
-      </c>
-      <c r="O101">
-        <v>3.75</v>
-      </c>
       <c r="P101">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="Q101">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R101">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S101">
         <v>1.85</v>
@@ -9472,10 +9472,10 @@
         <v>3</v>
       </c>
       <c r="U101">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V101">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9484,7 +9484,7 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>0.8500000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="Z101">
         <v>-1</v>
@@ -9493,7 +9493,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB101">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9519,7 +9519,7 @@
         <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K102">
         <v>2.6</v>
@@ -9617,7 +9617,7 @@
         <v>4</v>
       </c>
       <c r="J103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K103">
         <v>1.615</v>
@@ -9694,10 +9694,10 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H104">
         <v>4</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6102216</v>
+        <v>6102217</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45146.67708333334</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
         <v>42</v>
       </c>
       <c r="K105">
+        <v>2.05</v>
+      </c>
+      <c r="L105">
         <v>3.6</v>
       </c>
-      <c r="L105">
-        <v>3.75</v>
-      </c>
       <c r="M105">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="N105">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="O105">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P105">
+        <v>3.25</v>
+      </c>
+      <c r="Q105">
+        <v>-0.25</v>
+      </c>
+      <c r="R105">
+        <v>1.85</v>
+      </c>
+      <c r="S105">
         <v>1.95</v>
       </c>
-      <c r="Q105">
-        <v>0.5</v>
-      </c>
-      <c r="R105">
-        <v>1.875</v>
-      </c>
-      <c r="S105">
-        <v>1.925</v>
-      </c>
       <c r="T105">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U105">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V105">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA105">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AB105">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6102217</v>
+        <v>6102216</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,76 +9872,76 @@
         <v>45146.67708333334</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H106">
         <v>1</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J106" t="s">
         <v>41</v>
       </c>
       <c r="K106">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="L106">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M106">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="N106">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="O106">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P106">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R106">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S106">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T106">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U106">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V106">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z106">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC106">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10050,7 +10050,7 @@
         <v>45151.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
         <v>34</v>
@@ -10062,7 +10062,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K108">
         <v>3.4</v>
@@ -10231,7 +10231,7 @@
         <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10240,7 +10240,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K110">
         <v>6</v>
@@ -10495,10 +10495,10 @@
         <v>45152.67708333334</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10507,7 +10507,7 @@
         <v>4</v>
       </c>
       <c r="J113" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K113">
         <v>3</v>
@@ -10587,7 +10587,7 @@
         <v>39</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10596,7 +10596,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K114">
         <v>1.85</v>
@@ -10676,7 +10676,7 @@
         <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10839,7 +10839,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6102354</v>
+        <v>6102225</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10851,40 +10851,40 @@
         <v>45158.67708333334</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J117" t="s">
         <v>41</v>
       </c>
       <c r="K117">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="L117">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M117">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="N117">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="O117">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P117">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="Q117">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R117">
         <v>1.9</v>
@@ -10893,31 +10893,31 @@
         <v>1.9</v>
       </c>
       <c r="T117">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U117">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V117">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z117">
+        <v>-1</v>
+      </c>
+      <c r="AA117">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA117">
-        <v>-1</v>
-      </c>
       <c r="AB117">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10928,7 +10928,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6102225</v>
+        <v>6102354</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10940,40 +10940,40 @@
         <v>45158.67708333334</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
         <v>42</v>
       </c>
       <c r="K118">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="L118">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M118">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="N118">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="O118">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P118">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q118">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R118">
         <v>1.9</v>
@@ -10982,31 +10982,31 @@
         <v>1.9</v>
       </c>
       <c r="T118">
+        <v>3.25</v>
+      </c>
+      <c r="U118">
+        <v>1.95</v>
+      </c>
+      <c r="V118">
+        <v>1.85</v>
+      </c>
+      <c r="W118">
+        <v>-1</v>
+      </c>
+      <c r="X118">
         <v>3</v>
       </c>
-      <c r="U118">
-        <v>1.875</v>
-      </c>
-      <c r="V118">
-        <v>1.925</v>
-      </c>
-      <c r="W118">
-        <v>-1</v>
-      </c>
-      <c r="X118">
-        <v>-1</v>
-      </c>
       <c r="Y118">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA118">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11029,7 +11029,7 @@
         <v>45159.67708333334</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
         <v>40</v>
@@ -11118,10 +11118,10 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F120" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G120" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11210,7 +11210,7 @@
         <v>36</v>
       </c>
       <c r="G121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H121">
         <v>3</v>
@@ -11308,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K122">
         <v>2.55</v>
@@ -11388,7 +11388,7 @@
         <v>40</v>
       </c>
       <c r="G123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11575,7 +11575,7 @@
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K125">
         <v>2.1</v>
@@ -11655,7 +11655,7 @@
         <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11664,7 +11664,7 @@
         <v>3</v>
       </c>
       <c r="J126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K126">
         <v>1.909</v>
@@ -11741,7 +11741,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
         <v>38</v>
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6102236</v>
+        <v>6102233</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,76 +11830,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G128" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K128">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="L128">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M128">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="N128">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="O128">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P128">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Q128">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R128">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S128">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T128">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U128">
         <v>1.825</v>
       </c>
       <c r="V128">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X128">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
       <c r="AA128">
+        <v>-1</v>
+      </c>
+      <c r="AB128">
         <v>-0.5</v>
       </c>
-      <c r="AB128">
-        <v>0.825</v>
-      </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6102235</v>
+        <v>6102234</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,55 +11919,55 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K129">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="L129">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M129">
-        <v>4.333</v>
+        <v>1.4</v>
       </c>
       <c r="N129">
-        <v>1.65</v>
+        <v>7</v>
       </c>
       <c r="O129">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P129">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="Q129">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R129">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S129">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T129">
         <v>3.5</v>
       </c>
       <c r="U129">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V129">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W129">
         <v>-1</v>
@@ -11976,19 +11976,19 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>3</v>
+        <v>0.363</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA129">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC129">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6102233</v>
+        <v>6102235</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,76 +12008,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K130">
-        <v>1.333</v>
+        <v>1.6</v>
       </c>
       <c r="L130">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M130">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="N130">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="O130">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P130">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q130">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R130">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S130">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T130">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U130">
         <v>1.825</v>
       </c>
       <c r="V130">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W130">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z130">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB130">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6102234</v>
+        <v>6102232</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,76 +12097,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
         <v>42</v>
       </c>
       <c r="K131">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="L131">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M131">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="N131">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="O131">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P131">
-        <v>1.363</v>
+        <v>2.45</v>
       </c>
       <c r="Q131">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R131">
+        <v>2</v>
+      </c>
+      <c r="S131">
+        <v>1.85</v>
+      </c>
+      <c r="T131">
+        <v>3.25</v>
+      </c>
+      <c r="U131">
         <v>1.95</v>
       </c>
-      <c r="S131">
+      <c r="V131">
         <v>1.9</v>
       </c>
-      <c r="T131">
-        <v>3.5</v>
-      </c>
-      <c r="U131">
-        <v>1.9</v>
-      </c>
-      <c r="V131">
-        <v>1.95</v>
-      </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y131">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB131">
+        <v>-1</v>
+      </c>
+      <c r="AC131">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC131">
-        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6102232</v>
+        <v>6102236</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,55 +12186,55 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K132">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="L132">
         <v>3.6</v>
       </c>
       <c r="M132">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N132">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O132">
         <v>3.6</v>
       </c>
       <c r="P132">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R132">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S132">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T132">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V132">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12246,16 +12246,16 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA132">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC132">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12275,7 +12275,7 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
         <v>39</v>
@@ -12287,7 +12287,7 @@
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K133">
         <v>2.6</v>
@@ -12376,7 +12376,7 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K134">
         <v>1.75</v>
@@ -12453,10 +12453,10 @@
         <v>45186.67708333334</v>
       </c>
       <c r="F135" t="s">
+        <v>31</v>
+      </c>
+      <c r="G135" t="s">
         <v>32</v>
-      </c>
-      <c r="G135" t="s">
-        <v>31</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12554,7 +12554,7 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K136">
         <v>2.2</v>
@@ -12631,7 +12631,7 @@
         <v>45189.55208333334</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
         <v>35</v>
@@ -12732,7 +12732,7 @@
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K138">
         <v>1.5</v>
@@ -12821,7 +12821,7 @@
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K139">
         <v>1.8</v>
@@ -12886,7 +12886,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7173179</v>
+        <v>7173164</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12898,76 +12898,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H140">
         <v>2</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K140">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L140">
         <v>3.6</v>
       </c>
       <c r="M140">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="N140">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O140">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P140">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S140">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T140">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U140">
+        <v>1.825</v>
+      </c>
+      <c r="V140">
         <v>1.975</v>
       </c>
-      <c r="V140">
-        <v>1.825</v>
-      </c>
       <c r="W140">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB140">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC140">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12975,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7173164</v>
+        <v>7173179</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12987,76 +12987,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G141" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K141">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L141">
         <v>3.6</v>
       </c>
       <c r="M141">
+        <v>2.45</v>
+      </c>
+      <c r="N141">
         <v>2.375</v>
       </c>
-      <c r="N141">
-        <v>2.25</v>
-      </c>
       <c r="O141">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P141">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R141">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S141">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T141">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U141">
+        <v>1.975</v>
+      </c>
+      <c r="V141">
         <v>1.825</v>
       </c>
-      <c r="V141">
-        <v>1.975</v>
-      </c>
       <c r="W141">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X141">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
+        <v>0.8</v>
+      </c>
+      <c r="AA141">
+        <v>-1</v>
+      </c>
+      <c r="AB141">
         <v>-0.5</v>
       </c>
-      <c r="AA141">
-        <v>0.375</v>
-      </c>
-      <c r="AB141">
-        <v>0.825</v>
-      </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13079,7 +13079,7 @@
         <v>36</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13088,7 +13088,7 @@
         <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K142">
         <v>2.55</v>
@@ -13165,10 +13165,10 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F143" t="s">
+        <v>29</v>
+      </c>
+      <c r="G143" t="s">
         <v>30</v>
-      </c>
-      <c r="G143" t="s">
-        <v>29</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13177,7 +13177,7 @@
         <v>4</v>
       </c>
       <c r="J143" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K143">
         <v>2.55</v>
@@ -13343,7 +13343,7 @@
         <v>45197.55208333334</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
         <v>39</v>
@@ -13420,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7173182</v>
+        <v>7173166</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13432,58 +13432,58 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J146" t="s">
         <v>43</v>
       </c>
       <c r="K146">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="L146">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M146">
+        <v>2.6</v>
+      </c>
+      <c r="N146">
+        <v>2.7</v>
+      </c>
+      <c r="O146">
+        <v>4</v>
+      </c>
+      <c r="P146">
+        <v>2.1</v>
+      </c>
+      <c r="Q146">
+        <v>0.25</v>
+      </c>
+      <c r="R146">
+        <v>1.925</v>
+      </c>
+      <c r="S146">
+        <v>1.875</v>
+      </c>
+      <c r="T146">
         <v>3.75</v>
-      </c>
-      <c r="N146">
-        <v>1.833</v>
-      </c>
-      <c r="O146">
-        <v>3.8</v>
-      </c>
-      <c r="P146">
-        <v>3.5</v>
-      </c>
-      <c r="Q146">
-        <v>-0.5</v>
-      </c>
-      <c r="R146">
-        <v>1.825</v>
-      </c>
-      <c r="S146">
-        <v>1.975</v>
-      </c>
-      <c r="T146">
-        <v>3.25</v>
       </c>
       <c r="U146">
         <v>1.925</v>
       </c>
       <c r="V146">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W146">
-        <v>0.833</v>
+        <v>1.7</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13492,7 +13492,7 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA146">
         <v>-1</v>
@@ -13509,7 +13509,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7173183</v>
+        <v>7173167</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13521,43 +13521,43 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G147" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H147">
         <v>2</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K147">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="L147">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M147">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N147">
-        <v>2.45</v>
+        <v>1.571</v>
       </c>
       <c r="O147">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P147">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R147">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S147">
         <v>1.925</v>
@@ -13566,16 +13566,16 @@
         <v>3.25</v>
       </c>
       <c r="U147">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V147">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X147">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
@@ -13587,10 +13587,10 @@
         <v>-0</v>
       </c>
       <c r="AB147">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13598,7 +13598,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7173167</v>
+        <v>7173168</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13610,58 +13610,58 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G148" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H148">
         <v>2</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
         <v>43</v>
       </c>
       <c r="K148">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="L148">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M148">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N148">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="O148">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P148">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R148">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S148">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T148">
         <v>3.25</v>
       </c>
       <c r="U148">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W148">
-        <v>0.571</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13670,16 +13670,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA148">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13687,7 +13687,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7173166</v>
+        <v>7173183</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13699,73 +13699,73 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H149">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I149">
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K149">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L149">
         <v>3.6</v>
       </c>
       <c r="M149">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="N149">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="O149">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P149">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q149">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R149">
         <v>1.925</v>
       </c>
       <c r="S149">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T149">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U149">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V149">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W149">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB149">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13776,7 +13776,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7173168</v>
+        <v>7173182</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13788,37 +13788,37 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
         <v>43</v>
       </c>
       <c r="K150">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L150">
+        <v>3.8</v>
+      </c>
+      <c r="M150">
         <v>3.75</v>
       </c>
-      <c r="M150">
-        <v>3.2</v>
-      </c>
       <c r="N150">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O150">
         <v>3.8</v>
       </c>
       <c r="P150">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q150">
         <v>-0.5</v>
@@ -13833,13 +13833,13 @@
         <v>3.25</v>
       </c>
       <c r="U150">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V150">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W150">
-        <v>0.8500000000000001</v>
+        <v>0.833</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13854,10 +13854,10 @@
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC150">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13865,7 +13865,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7173184</v>
+        <v>7173169</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13877,73 +13877,73 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G151" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I151">
         <v>3</v>
       </c>
       <c r="J151" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K151">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="L151">
+        <v>3.6</v>
+      </c>
+      <c r="M151">
+        <v>2.45</v>
+      </c>
+      <c r="N151">
+        <v>3</v>
+      </c>
+      <c r="O151">
+        <v>3.6</v>
+      </c>
+      <c r="P151">
+        <v>2.05</v>
+      </c>
+      <c r="Q151">
+        <v>0.25</v>
+      </c>
+      <c r="R151">
+        <v>1.975</v>
+      </c>
+      <c r="S151">
+        <v>1.825</v>
+      </c>
+      <c r="T151">
         <v>3.5</v>
       </c>
-      <c r="M151">
-        <v>2.15</v>
-      </c>
-      <c r="N151">
-        <v>3.4</v>
-      </c>
-      <c r="O151">
-        <v>3.75</v>
-      </c>
-      <c r="P151">
-        <v>1.85</v>
-      </c>
-      <c r="Q151">
-        <v>0.5</v>
-      </c>
-      <c r="R151">
-        <v>1.875</v>
-      </c>
-      <c r="S151">
-        <v>1.925</v>
-      </c>
-      <c r="T151">
-        <v>3.25</v>
-      </c>
       <c r="U151">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V151">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W151">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA151">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC151">
         <v>-1</v>
@@ -13954,7 +13954,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7173169</v>
+        <v>7173184</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13966,73 +13966,73 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F152" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G152" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H152">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I152">
         <v>3</v>
       </c>
       <c r="J152" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K152">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="L152">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M152">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="N152">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O152">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P152">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="Q152">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R152">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S152">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T152">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U152">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V152">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W152">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z152">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB152">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC152">
         <v>-1</v>
@@ -14058,7 +14058,7 @@
         <v>33</v>
       </c>
       <c r="G153" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14156,7 +14156,7 @@
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K154">
         <v>2.625</v>
@@ -14233,7 +14233,7 @@
         <v>45200.67708333334</v>
       </c>
       <c r="F155" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G155" t="s">
         <v>36</v>
@@ -14322,7 +14322,7 @@
         <v>45201.67708333334</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G156" t="s">
         <v>37</v>
@@ -14399,7 +14399,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7173172</v>
+        <v>7173173</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14411,13 +14411,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H157">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I157">
         <v>1</v>
@@ -14426,43 +14426,43 @@
         <v>43</v>
       </c>
       <c r="K157">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L157">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M157">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N157">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="O157">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P157">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="Q157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R157">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S157">
+        <v>2</v>
+      </c>
+      <c r="T157">
+        <v>4</v>
+      </c>
+      <c r="U157">
         <v>2.025</v>
       </c>
-      <c r="T157">
-        <v>3.5</v>
-      </c>
-      <c r="U157">
-        <v>1.875</v>
-      </c>
       <c r="V157">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W157">
-        <v>1.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14471,13 +14471,13 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14500,7 +14500,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
         <v>38</v>
@@ -14601,7 +14601,7 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K159">
         <v>1.4</v>
@@ -14666,7 +14666,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7173173</v>
+        <v>7173187</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14678,10 +14678,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G160" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H160">
         <v>5</v>
@@ -14693,43 +14693,43 @@
         <v>43</v>
       </c>
       <c r="K160">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L160">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M160">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N160">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="O160">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P160">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q160">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R160">
+        <v>1.825</v>
+      </c>
+      <c r="S160">
+        <v>2.025</v>
+      </c>
+      <c r="T160">
+        <v>3.5</v>
+      </c>
+      <c r="U160">
+        <v>2</v>
+      </c>
+      <c r="V160">
         <v>1.85</v>
       </c>
-      <c r="S160">
-        <v>2</v>
-      </c>
-      <c r="T160">
-        <v>4</v>
-      </c>
-      <c r="U160">
-        <v>2.025</v>
-      </c>
-      <c r="V160">
-        <v>1.825</v>
-      </c>
       <c r="W160">
-        <v>0.5329999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14738,13 +14738,13 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA160">
         <v>-1</v>
       </c>
       <c r="AB160">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC160">
         <v>-1</v>
@@ -14755,7 +14755,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7173187</v>
+        <v>7173172</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14767,13 +14767,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G161" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H161">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I161">
         <v>1</v>
@@ -14782,28 +14782,28 @@
         <v>43</v>
       </c>
       <c r="K161">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L161">
+        <v>3.6</v>
+      </c>
+      <c r="M161">
+        <v>2.6</v>
+      </c>
+      <c r="N161">
+        <v>2.25</v>
+      </c>
+      <c r="O161">
         <v>3.75</v>
       </c>
-      <c r="M161">
-        <v>2.9</v>
-      </c>
-      <c r="N161">
-        <v>2.1</v>
-      </c>
-      <c r="O161">
-        <v>3.5</v>
-      </c>
       <c r="P161">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q161">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R161">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S161">
         <v>2.025</v>
@@ -14812,13 +14812,13 @@
         <v>3.5</v>
       </c>
       <c r="U161">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V161">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W161">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14827,13 +14827,13 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA161">
         <v>-1</v>
       </c>
       <c r="AB161">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC161">
         <v>-1</v>
@@ -14859,7 +14859,7 @@
         <v>34</v>
       </c>
       <c r="G162" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -14868,7 +14868,7 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K162">
         <v>2</v>

--- a/Iceland Premier League/Iceland Premier League.xlsx
+++ b/Iceland Premier League/Iceland Premier League.xlsx
@@ -112,10 +112,10 @@
     <t>Valur Reykjavik</t>
   </si>
   <si>
-    <t>Stjarnan</t>
+    <t>Fram Reykjavik</t>
   </si>
   <si>
-    <t>Fram Reykjavik</t>
+    <t>Stjarnan</t>
   </si>
   <si>
     <t>Breidablik</t>
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6102128</v>
+        <v>6102129</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5">
+        <v>2.6</v>
+      </c>
+      <c r="L5">
+        <v>3.75</v>
+      </c>
+      <c r="M5">
+        <v>2.15</v>
+      </c>
+      <c r="N5">
+        <v>2.5</v>
+      </c>
+      <c r="O5">
+        <v>3.25</v>
+      </c>
+      <c r="P5">
+        <v>2.4</v>
+      </c>
+      <c r="Q5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5">
-        <v>3.75</v>
-      </c>
-      <c r="L5">
-        <v>4</v>
-      </c>
-      <c r="M5">
-        <v>1.666</v>
-      </c>
-      <c r="N5">
-        <v>3.4</v>
-      </c>
-      <c r="O5">
-        <v>3.8</v>
-      </c>
-      <c r="P5">
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
         <v>1.8</v>
-      </c>
-      <c r="Q5">
-        <v>0.5</v>
-      </c>
-      <c r="R5">
-        <v>1.95</v>
-      </c>
-      <c r="S5">
-        <v>1.85</v>
       </c>
       <c r="T5">
         <v>3</v>
       </c>
       <c r="U5">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y5">
+        <v>-1</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>-0</v>
+      </c>
+      <c r="AB5">
         <v>0.8</v>
       </c>
-      <c r="Z5">
-        <v>-1</v>
-      </c>
-      <c r="AA5">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB5">
-        <v>-1</v>
-      </c>
       <c r="AC5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6102129</v>
+        <v>6102128</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,73 +975,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="N6">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="O6">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P6">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S6">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T6">
         <v>3</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1242,7 +1242,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6102134</v>
+        <v>6102135</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1417,76 +1417,76 @@
         <v>45032.67708333334</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="L11">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M11">
+        <v>2.625</v>
+      </c>
+      <c r="N11">
+        <v>2.2</v>
+      </c>
+      <c r="O11">
+        <v>3.75</v>
+      </c>
+      <c r="P11">
+        <v>2.75</v>
+      </c>
+      <c r="Q11">
+        <v>-0.25</v>
+      </c>
+      <c r="R11">
+        <v>2.05</v>
+      </c>
+      <c r="S11">
+        <v>1.8</v>
+      </c>
+      <c r="T11">
+        <v>3</v>
+      </c>
+      <c r="U11">
         <v>1.85</v>
       </c>
-      <c r="N11">
-        <v>2.6</v>
-      </c>
-      <c r="O11">
-        <v>4</v>
-      </c>
-      <c r="P11">
-        <v>2.2</v>
-      </c>
-      <c r="Q11">
-        <v>0.25</v>
-      </c>
-      <c r="R11">
-        <v>1.825</v>
-      </c>
-      <c r="S11">
-        <v>1.975</v>
-      </c>
-      <c r="T11">
-        <v>3.25</v>
-      </c>
-      <c r="U11">
-        <v>1.9</v>
-      </c>
       <c r="V11">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y11">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA11">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6102135</v>
+        <v>6102134</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1506,76 +1506,76 @@
         <v>45032.67708333334</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K12">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="L12">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M12">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="N12">
+        <v>2.6</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
         <v>2.2</v>
       </c>
-      <c r="O12">
-        <v>3.75</v>
-      </c>
-      <c r="P12">
-        <v>2.75</v>
-      </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R12">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S12">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U12">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V12">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6102137</v>
+        <v>6102136</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1595,76 +1595,76 @@
         <v>45039.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>1.7</v>
+      </c>
+      <c r="N13">
+        <v>4.75</v>
+      </c>
+      <c r="O13">
+        <v>4.2</v>
+      </c>
+      <c r="P13">
+        <v>1.6</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1.8</v>
+      </c>
+      <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>3</v>
+      </c>
+      <c r="U13">
+        <v>1.875</v>
+      </c>
+      <c r="V13">
+        <v>1.925</v>
+      </c>
+      <c r="W13">
+        <v>3.75</v>
+      </c>
+      <c r="X13">
+        <v>-1</v>
+      </c>
+      <c r="Y13">
+        <v>-1</v>
+      </c>
+      <c r="Z13">
+        <v>0.8</v>
+      </c>
+      <c r="AA13">
+        <v>-1</v>
+      </c>
+      <c r="AB13">
         <v>0</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13">
-        <v>1.55</v>
-      </c>
-      <c r="L13">
-        <v>4.333</v>
-      </c>
-      <c r="M13">
-        <v>4.5</v>
-      </c>
-      <c r="N13">
-        <v>1.444</v>
-      </c>
-      <c r="O13">
-        <v>5</v>
-      </c>
-      <c r="P13">
-        <v>5.25</v>
-      </c>
-      <c r="Q13">
-        <v>-1.25</v>
-      </c>
-      <c r="R13">
-        <v>1.875</v>
-      </c>
-      <c r="S13">
-        <v>1.925</v>
-      </c>
-      <c r="T13">
-        <v>3.5</v>
-      </c>
-      <c r="U13">
-        <v>1.925</v>
-      </c>
-      <c r="V13">
-        <v>1.875</v>
-      </c>
-      <c r="W13">
-        <v>-1</v>
-      </c>
-      <c r="X13">
-        <v>4</v>
-      </c>
-      <c r="Y13">
-        <v>-1</v>
-      </c>
-      <c r="Z13">
-        <v>-1</v>
-      </c>
-      <c r="AA13">
-        <v>0.925</v>
-      </c>
-      <c r="AB13">
-        <v>-1</v>
-      </c>
       <c r="AC13">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6102136</v>
+        <v>6102137</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,76 +1684,76 @@
         <v>45039.54166666666</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K14">
+        <v>1.55</v>
+      </c>
+      <c r="L14">
+        <v>4.333</v>
+      </c>
+      <c r="M14">
+        <v>4.5</v>
+      </c>
+      <c r="N14">
+        <v>1.444</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>5.25</v>
+      </c>
+      <c r="Q14">
+        <v>-1.25</v>
+      </c>
+      <c r="R14">
+        <v>1.875</v>
+      </c>
+      <c r="S14">
+        <v>1.925</v>
+      </c>
+      <c r="T14">
+        <v>3.5</v>
+      </c>
+      <c r="U14">
+        <v>1.925</v>
+      </c>
+      <c r="V14">
+        <v>1.875</v>
+      </c>
+      <c r="W14">
+        <v>-1</v>
+      </c>
+      <c r="X14">
         <v>4</v>
       </c>
-      <c r="L14">
-        <v>4</v>
-      </c>
-      <c r="M14">
-        <v>1.7</v>
-      </c>
-      <c r="N14">
-        <v>4.75</v>
-      </c>
-      <c r="O14">
-        <v>4.2</v>
-      </c>
-      <c r="P14">
-        <v>1.6</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <v>1.8</v>
-      </c>
-      <c r="S14">
-        <v>2</v>
-      </c>
-      <c r="T14">
-        <v>3</v>
-      </c>
-      <c r="U14">
-        <v>1.875</v>
-      </c>
-      <c r="V14">
-        <v>1.925</v>
-      </c>
-      <c r="W14">
-        <v>3.75</v>
-      </c>
-      <c r="X14">
-        <v>-1</v>
-      </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1773,7 +1773,7 @@
         <v>45039.67708333334</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>31</v>
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6102140</v>
+        <v>6560010</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,76 +1951,76 @@
         <v>45040.67708333334</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>43</v>
       </c>
       <c r="K17">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="L17">
         <v>3.8</v>
       </c>
       <c r="M17">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O17">
         <v>3.8</v>
       </c>
       <c r="P17">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T17">
         <v>3</v>
       </c>
       <c r="U17">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W17">
+        <v>0.909</v>
+      </c>
+      <c r="X17">
+        <v>-1</v>
+      </c>
+      <c r="Y17">
+        <v>-1</v>
+      </c>
+      <c r="Z17">
         <v>1</v>
       </c>
-      <c r="X17">
-        <v>-1</v>
-      </c>
-      <c r="Y17">
-        <v>-1</v>
-      </c>
-      <c r="Z17">
-        <v>0.8</v>
-      </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6560010</v>
+        <v>6102140</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,58 +2040,58 @@
         <v>45040.67708333334</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J18" t="s">
         <v>43</v>
       </c>
       <c r="K18">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L18">
         <v>3.8</v>
       </c>
       <c r="M18">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N18">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O18">
         <v>3.8</v>
       </c>
       <c r="P18">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q18">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S18">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T18">
         <v>3</v>
       </c>
       <c r="U18">
+        <v>1.75</v>
+      </c>
+      <c r="V18">
         <v>1.95</v>
       </c>
-      <c r="V18">
-        <v>1.9</v>
-      </c>
       <c r="W18">
-        <v>0.909</v>
+        <v>1</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2100,16 +2100,16 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA18">
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC18">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2132,7 +2132,7 @@
         <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6102142</v>
+        <v>6102144</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,13 +2218,13 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2233,43 +2233,43 @@
         <v>43</v>
       </c>
       <c r="K20">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="L20">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20">
         <v>2.375</v>
       </c>
-      <c r="N20">
-        <v>2.625</v>
-      </c>
       <c r="O20">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P20">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S20">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U20">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
-        <v>1.625</v>
+        <v>1.375</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2278,16 +2278,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6102144</v>
+        <v>6102142</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,13 +2307,13 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2322,43 +2322,43 @@
         <v>43</v>
       </c>
       <c r="K21">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="L21">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="N21">
+        <v>2.625</v>
+      </c>
+      <c r="O21">
+        <v>3.5</v>
+      </c>
+      <c r="P21">
         <v>2.375</v>
-      </c>
-      <c r="O21">
-        <v>3.75</v>
-      </c>
-      <c r="P21">
-        <v>2.55</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T21">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V21">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W21">
-        <v>1.375</v>
+        <v>1.625</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2367,16 +2367,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC21">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2577,7 +2577,7 @@
         <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6102147</v>
+        <v>6102148</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,58 +2663,58 @@
         <v>45049.625</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
         <v>43</v>
       </c>
       <c r="K25">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L25">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M25">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="N25">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="O25">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P25">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q25">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R25">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S25">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T25">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V25">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W25">
-        <v>1.875</v>
+        <v>0.833</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2723,13 +2723,13 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC25">
         <v>-1</v>
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6102148</v>
+        <v>6102147</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,59 +2752,59 @@
         <v>45049.625</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
         <v>43</v>
       </c>
       <c r="K26">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L26">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M26">
+        <v>2.55</v>
+      </c>
+      <c r="N26">
+        <v>2.875</v>
+      </c>
+      <c r="O26">
+        <v>3.6</v>
+      </c>
+      <c r="P26">
+        <v>2.15</v>
+      </c>
+      <c r="Q26">
+        <v>0.25</v>
+      </c>
+      <c r="R26">
+        <v>1.9</v>
+      </c>
+      <c r="S26">
+        <v>1.9</v>
+      </c>
+      <c r="T26">
         <v>3.25</v>
       </c>
-      <c r="N26">
-        <v>1.833</v>
-      </c>
-      <c r="O26">
-        <v>3.5</v>
-      </c>
-      <c r="P26">
-        <v>3.5</v>
-      </c>
-      <c r="Q26">
-        <v>-0.5</v>
-      </c>
-      <c r="R26">
-        <v>1.925</v>
-      </c>
-      <c r="S26">
+      <c r="U26">
+        <v>1.9</v>
+      </c>
+      <c r="V26">
+        <v>1.9</v>
+      </c>
+      <c r="W26">
         <v>1.875</v>
       </c>
-      <c r="T26">
-        <v>2.75</v>
-      </c>
-      <c r="U26">
-        <v>1.8</v>
-      </c>
-      <c r="V26">
-        <v>2</v>
-      </c>
-      <c r="W26">
-        <v>0.833</v>
-      </c>
       <c r="X26">
         <v>-1</v>
       </c>
@@ -2812,13 +2812,13 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6102152</v>
+        <v>6102151</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,40 +3019,40 @@
         <v>45050.67708333334</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29">
+        <v>3.8</v>
+      </c>
+      <c r="L29">
+        <v>3.75</v>
+      </c>
+      <c r="M29">
+        <v>1.727</v>
+      </c>
+      <c r="N29">
+        <v>3.6</v>
+      </c>
+      <c r="O29">
         <v>4</v>
       </c>
-      <c r="I29">
+      <c r="P29">
+        <v>1.727</v>
+      </c>
+      <c r="Q29">
         <v>1</v>
-      </c>
-      <c r="J29" t="s">
-        <v>43</v>
-      </c>
-      <c r="K29">
-        <v>1.363</v>
-      </c>
-      <c r="L29">
-        <v>4.75</v>
-      </c>
-      <c r="M29">
-        <v>6</v>
-      </c>
-      <c r="N29">
-        <v>1.222</v>
-      </c>
-      <c r="O29">
-        <v>5.75</v>
-      </c>
-      <c r="P29">
-        <v>8</v>
-      </c>
-      <c r="Q29">
-        <v>-1.75</v>
       </c>
       <c r="R29">
         <v>1.825</v>
@@ -3061,34 +3061,34 @@
         <v>2.025</v>
       </c>
       <c r="T29">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U29">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W29">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z29">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6102151</v>
+        <v>6102152</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,40 +3108,40 @@
         <v>45050.67708333334</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="L30">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M30">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="N30">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="O30">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P30">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R30">
         <v>1.825</v>
@@ -3150,34 +3150,34 @@
         <v>2.025</v>
       </c>
       <c r="T30">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U30">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V30">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA30">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC30">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3553,10 +3553,10 @@
         <v>45054.67708333334</v>
       </c>
       <c r="F35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" t="s">
         <v>33</v>
-      </c>
-      <c r="G35" t="s">
-        <v>32</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3731,7 +3731,7 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
         <v>39</v>
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6102162</v>
+        <v>6102158</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,49 +3820,49 @@
         <v>45059.54166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J38" t="s">
         <v>41</v>
       </c>
       <c r="K38">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="L38">
         <v>3.5</v>
       </c>
       <c r="M38">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="N38">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="O38">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P38">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="Q38">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S38">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T38">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U38">
         <v>1.85</v>
@@ -3877,19 +3877,19 @@
         <v>-1</v>
       </c>
       <c r="Y38">
+        <v>1.625</v>
+      </c>
+      <c r="Z38">
+        <v>-1</v>
+      </c>
+      <c r="AA38">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB38">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z38">
-        <v>-1</v>
-      </c>
-      <c r="AA38">
-        <v>0.875</v>
-      </c>
-      <c r="AB38">
-        <v>-1</v>
-      </c>
       <c r="AC38">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6102158</v>
+        <v>6102162</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,49 +3909,49 @@
         <v>45059.54166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
         <v>41</v>
       </c>
       <c r="K39">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="L39">
         <v>3.5</v>
       </c>
       <c r="M39">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="N39">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="O39">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P39">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R39">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S39">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T39">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
         <v>1.85</v>
@@ -3966,19 +3966,19 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4090,7 +4090,7 @@
         <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4609,7 +4609,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6102166</v>
+        <v>6102165</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4624,37 +4624,37 @@
         <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47">
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K47">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L47">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M47">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="N47">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="O47">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P47">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q47">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R47">
         <v>1.975</v>
@@ -4663,22 +4663,22 @@
         <v>1.825</v>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U47">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V47">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y47">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
         <v>-1</v>
@@ -4687,10 +4687,10 @@
         <v>0.825</v>
       </c>
       <c r="AB47">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC47">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4698,7 +4698,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6102165</v>
+        <v>6102166</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4713,37 +4713,37 @@
         <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K48">
+        <v>2.75</v>
+      </c>
+      <c r="L48">
+        <v>3.4</v>
+      </c>
+      <c r="M48">
+        <v>2.2</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+      <c r="O48">
+        <v>3.3</v>
+      </c>
+      <c r="P48">
         <v>2.1</v>
       </c>
-      <c r="L48">
-        <v>3.6</v>
-      </c>
-      <c r="M48">
-        <v>2.9</v>
-      </c>
-      <c r="N48">
-        <v>1.45</v>
-      </c>
-      <c r="O48">
-        <v>4.75</v>
-      </c>
-      <c r="P48">
-        <v>5.5</v>
-      </c>
       <c r="Q48">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R48">
         <v>1.975</v>
@@ -4752,22 +4752,22 @@
         <v>1.825</v>
       </c>
       <c r="T48">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U48">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V48">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z48">
         <v>-1</v>
@@ -4776,10 +4776,10 @@
         <v>0.825</v>
       </c>
       <c r="AB48">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6102168</v>
+        <v>6102344</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5066,28 +5066,28 @@
         <v>45074.67708333334</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
         <v>43</v>
       </c>
       <c r="K52">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L52">
         <v>3.5</v>
       </c>
       <c r="M52">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N52">
         <v>1.909</v>
@@ -5096,25 +5096,25 @@
         <v>3.4</v>
       </c>
       <c r="P52">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q52">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R52">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S52">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W52">
         <v>0.909</v>
@@ -5126,16 +5126,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC52">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5143,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6102344</v>
+        <v>6102168</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5155,28 +5155,28 @@
         <v>45074.67708333334</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
         <v>43</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L53">
         <v>3.5</v>
       </c>
       <c r="M53">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N53">
         <v>1.909</v>
@@ -5185,25 +5185,25 @@
         <v>3.4</v>
       </c>
       <c r="P53">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q53">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S53">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T53">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U53">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V53">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W53">
         <v>0.909</v>
@@ -5215,16 +5215,16 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5247,7 +5247,7 @@
         <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H54">
         <v>4</v>
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6102171</v>
+        <v>6102170</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,76 +5333,76 @@
         <v>45075.67708333334</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K55">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="L55">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M55">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="N55">
-        <v>1.833</v>
+        <v>6</v>
       </c>
       <c r="O55">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P55">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="Q55">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R55">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S55">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T55">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U55">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y55">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA55">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6102170</v>
+        <v>6102171</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,76 +5422,76 @@
         <v>45075.67708333334</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K56">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="L56">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M56">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="N56">
-        <v>6</v>
+        <v>1.833</v>
       </c>
       <c r="O56">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P56">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q56">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R56">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S56">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T56">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U56">
+        <v>1.75</v>
+      </c>
+      <c r="V56">
         <v>1.95</v>
       </c>
-      <c r="V56">
-        <v>1.85</v>
-      </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z56">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC56">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>45079.625</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G59" t="s">
         <v>30</v>
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6102175</v>
+        <v>6102346</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5778,76 +5778,76 @@
         <v>45079.67708333334</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K60">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L60">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M60">
+        <v>4.2</v>
+      </c>
+      <c r="N60">
+        <v>1.615</v>
+      </c>
+      <c r="O60">
+        <v>4.2</v>
+      </c>
+      <c r="P60">
+        <v>4.333</v>
+      </c>
+      <c r="Q60">
+        <v>-1</v>
+      </c>
+      <c r="R60">
+        <v>2.05</v>
+      </c>
+      <c r="S60">
+        <v>1.8</v>
+      </c>
+      <c r="T60">
         <v>3.25</v>
       </c>
-      <c r="N60">
-        <v>1.909</v>
-      </c>
-      <c r="O60">
-        <v>3.6</v>
-      </c>
-      <c r="P60">
-        <v>3.5</v>
-      </c>
-      <c r="Q60">
-        <v>-0.5</v>
-      </c>
-      <c r="R60">
-        <v>1.95</v>
-      </c>
-      <c r="S60">
-        <v>1.85</v>
-      </c>
-      <c r="T60">
-        <v>2.75</v>
-      </c>
       <c r="U60">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V60">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W60">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB60">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5855,7 +5855,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6102174</v>
+        <v>6102175</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5867,73 +5867,73 @@
         <v>45079.67708333334</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K61">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L61">
+        <v>3.75</v>
+      </c>
+      <c r="M61">
+        <v>3.25</v>
+      </c>
+      <c r="N61">
+        <v>1.909</v>
+      </c>
+      <c r="O61">
         <v>3.6</v>
       </c>
-      <c r="M61">
-        <v>3.1</v>
-      </c>
-      <c r="N61">
-        <v>2.25</v>
-      </c>
-      <c r="O61">
-        <v>3.3</v>
-      </c>
       <c r="P61">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S61">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T61">
         <v>2.75</v>
       </c>
       <c r="U61">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V61">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X61">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA61">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC61">
         <v>-1</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6102346</v>
+        <v>6102174</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,76 +5956,76 @@
         <v>45079.67708333334</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
         <v>42</v>
       </c>
       <c r="K62">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M62">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N62">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="O62">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P62">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S62">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T62">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V62">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA62">
-        <v>0.8</v>
+        <v>0.3875</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC62">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6102176</v>
+        <v>6102177</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,76 +6045,76 @@
         <v>45087.45833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K63">
-        <v>1.6</v>
+        <v>1.833</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M63">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N63">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O63">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P63">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q63">
         <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S63">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T63">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V63">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W63">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB63">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6102177</v>
+        <v>6102176</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,76 +6134,76 @@
         <v>45087.45833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K64">
-        <v>1.833</v>
+        <v>1.6</v>
       </c>
       <c r="L64">
+        <v>4</v>
+      </c>
+      <c r="M64">
+        <v>4.333</v>
+      </c>
+      <c r="N64">
+        <v>1.8</v>
+      </c>
+      <c r="O64">
+        <v>3.8</v>
+      </c>
+      <c r="P64">
         <v>3.6</v>
-      </c>
-      <c r="M64">
-        <v>3.4</v>
-      </c>
-      <c r="N64">
-        <v>1.85</v>
-      </c>
-      <c r="O64">
-        <v>3.6</v>
-      </c>
-      <c r="P64">
-        <v>3.5</v>
       </c>
       <c r="Q64">
         <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S64">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T64">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U64">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V64">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X64">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA64">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC64">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6404,7 +6404,7 @@
         <v>37</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -6493,7 +6493,7 @@
         <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6102183</v>
+        <v>6102181</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,58 +6579,58 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
         <v>43</v>
       </c>
       <c r="K69">
-        <v>5.25</v>
+        <v>1.833</v>
       </c>
       <c r="L69">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M69">
-        <v>1.45</v>
+        <v>3.6</v>
       </c>
       <c r="N69">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="O69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P69">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="Q69">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R69">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S69">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T69">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U69">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V69">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W69">
-        <v>5</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6639,13 +6639,13 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC69">
         <v>-1</v>
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6102181</v>
+        <v>6102183</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,58 +6757,58 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
         <v>43</v>
       </c>
       <c r="K71">
-        <v>1.833</v>
+        <v>5.25</v>
       </c>
       <c r="L71">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M71">
-        <v>3.6</v>
+        <v>1.45</v>
       </c>
       <c r="N71">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="O71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P71">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="Q71">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R71">
+        <v>2.025</v>
+      </c>
+      <c r="S71">
+        <v>1.825</v>
+      </c>
+      <c r="T71">
+        <v>3.25</v>
+      </c>
+      <c r="U71">
         <v>1.975</v>
       </c>
-      <c r="S71">
+      <c r="V71">
         <v>1.875</v>
       </c>
-      <c r="T71">
-        <v>3</v>
-      </c>
-      <c r="U71">
-        <v>1.85</v>
-      </c>
-      <c r="V71">
-        <v>2</v>
-      </c>
       <c r="W71">
-        <v>0.7270000000000001</v>
+        <v>5</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6817,13 +6817,13 @@
         <v>-1</v>
       </c>
       <c r="Z71">
+        <v>1.025</v>
+      </c>
+      <c r="AA71">
+        <v>-1</v>
+      </c>
+      <c r="AB71">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA71">
-        <v>-1</v>
-      </c>
-      <c r="AB71">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -7027,7 +7027,7 @@
         <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6102188</v>
+        <v>6102191</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,40 +7202,40 @@
         <v>45105.67708333334</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
         <v>43</v>
       </c>
       <c r="K76">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M76">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N76">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O76">
         <v>3.75</v>
       </c>
       <c r="P76">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q76">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R76">
         <v>1.875</v>
@@ -7244,7 +7244,7 @@
         <v>1.975</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U76">
         <v>2</v>
@@ -7253,7 +7253,7 @@
         <v>1.85</v>
       </c>
       <c r="W76">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7268,10 +7268,10 @@
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC76">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6102191</v>
+        <v>6102188</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,40 +7291,40 @@
         <v>45105.67708333334</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G77" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
         <v>43</v>
       </c>
       <c r="K77">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L77">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M77">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N77">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O77">
         <v>3.75</v>
       </c>
       <c r="P77">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q77">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R77">
         <v>1.875</v>
@@ -7333,7 +7333,7 @@
         <v>1.975</v>
       </c>
       <c r="T77">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
         <v>2</v>
@@ -7342,7 +7342,7 @@
         <v>1.85</v>
       </c>
       <c r="W77">
-        <v>0.833</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7357,10 +7357,10 @@
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6102190</v>
+        <v>6102189</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,49 +7380,49 @@
         <v>45106.67708333334</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78" t="s">
+        <v>43</v>
+      </c>
+      <c r="K78">
+        <v>2.1</v>
+      </c>
+      <c r="L78">
+        <v>3.4</v>
+      </c>
+      <c r="M78">
         <v>3</v>
       </c>
-      <c r="J78" t="s">
-        <v>41</v>
-      </c>
-      <c r="K78">
-        <v>5.25</v>
-      </c>
-      <c r="L78">
-        <v>4.333</v>
-      </c>
-      <c r="M78">
-        <v>1.45</v>
-      </c>
       <c r="N78">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="O78">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P78">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q78">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
+        <v>1.925</v>
+      </c>
+      <c r="S78">
         <v>1.875</v>
       </c>
-      <c r="S78">
-        <v>1.925</v>
-      </c>
       <c r="T78">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U78">
         <v>1.925</v>
@@ -7431,19 +7431,19 @@
         <v>1.875</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA78">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
         <v>0.925</v>
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6102189</v>
+        <v>6102190</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,49 +7469,49 @@
         <v>45106.67708333334</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K79">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="L79">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M79">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="N79">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="O79">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P79">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R79">
+        <v>1.875</v>
+      </c>
+      <c r="S79">
         <v>1.925</v>
       </c>
-      <c r="S79">
-        <v>1.875</v>
-      </c>
       <c r="T79">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U79">
         <v>1.925</v>
@@ -7520,19 +7520,19 @@
         <v>1.875</v>
       </c>
       <c r="W79">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z79">
+        <v>-1</v>
+      </c>
+      <c r="AA79">
         <v>0.925</v>
-      </c>
-      <c r="AA79">
-        <v>-1</v>
       </c>
       <c r="AB79">
         <v>0.925</v>
@@ -7650,7 +7650,7 @@
         <v>39</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -8003,7 +8003,7 @@
         <v>45121.71875</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
         <v>34</v>
@@ -8181,7 +8181,7 @@
         <v>45124.67708333334</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
         <v>31</v>
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6922578</v>
+        <v>6102200</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,76 +8270,76 @@
         <v>45125.70833333334</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K88">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L88">
         <v>3.6</v>
       </c>
       <c r="M88">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N88">
         <v>2.05</v>
       </c>
       <c r="O88">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P88">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q88">
         <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S88">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T88">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
         <v>1.925</v>
       </c>
       <c r="V88">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X88">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA88">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6102200</v>
+        <v>6922578</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,76 +8359,76 @@
         <v>45125.70833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K89">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L89">
         <v>3.6</v>
       </c>
       <c r="M89">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N89">
         <v>2.05</v>
       </c>
       <c r="O89">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P89">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q89">
         <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S89">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U89">
         <v>1.925</v>
       </c>
       <c r="V89">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W89">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6102206</v>
+        <v>6102207</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,7 +8537,7 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
         <v>33</v>
@@ -8546,67 +8546,67 @@
         <v>1</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K91">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="L91">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M91">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="N91">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="O91">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P91">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="Q91">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R91">
         <v>1.925</v>
       </c>
       <c r="S91">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T91">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U91">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V91">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W91">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA91">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6102207</v>
+        <v>6542524</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,76 +8626,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K92">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L92">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M92">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="N92">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="O92">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P92">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="Q92">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S92">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T92">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U92">
+        <v>1.825</v>
+      </c>
+      <c r="V92">
         <v>1.975</v>
       </c>
-      <c r="V92">
-        <v>1.825</v>
-      </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z92">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC92">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6542524</v>
+        <v>6102206</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,76 +8715,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G93" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K93">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="L93">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M93">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N93">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="O93">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P93">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R93">
+        <v>1.925</v>
+      </c>
+      <c r="S93">
         <v>1.775</v>
       </c>
-      <c r="S93">
-        <v>2.025</v>
-      </c>
       <c r="T93">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB93">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8982,10 +8982,10 @@
         <v>45133.67708333334</v>
       </c>
       <c r="F96" t="s">
+        <v>33</v>
+      </c>
+      <c r="G96" t="s">
         <v>32</v>
-      </c>
-      <c r="G96" t="s">
-        <v>33</v>
       </c>
       <c r="H96">
         <v>4</v>
@@ -9074,7 +9074,7 @@
         <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9519,7 +9519,7 @@
         <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6102217</v>
+        <v>6102216</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45146.67708333334</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K105">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M105">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="N105">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="O105">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P105">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S105">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T105">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V105">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z105">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC105">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6102216</v>
+        <v>6102217</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,76 +9872,76 @@
         <v>45146.67708333334</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H106">
         <v>1</v>
       </c>
       <c r="I106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K106">
+        <v>2.05</v>
+      </c>
+      <c r="L106">
         <v>3.6</v>
       </c>
-      <c r="L106">
-        <v>3.75</v>
-      </c>
       <c r="M106">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="N106">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="O106">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P106">
+        <v>3.25</v>
+      </c>
+      <c r="Q106">
+        <v>-0.25</v>
+      </c>
+      <c r="R106">
+        <v>1.85</v>
+      </c>
+      <c r="S106">
         <v>1.95</v>
       </c>
-      <c r="Q106">
-        <v>0.5</v>
-      </c>
-      <c r="R106">
-        <v>1.875</v>
-      </c>
-      <c r="S106">
-        <v>1.925</v>
-      </c>
       <c r="T106">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U106">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V106">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y106">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA106">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AB106">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10127,7 +10127,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6102353</v>
+        <v>6102352</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10139,76 +10139,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G109" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109">
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K109">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="L109">
+        <v>4.75</v>
+      </c>
+      <c r="M109">
+        <v>1.363</v>
+      </c>
+      <c r="N109">
+        <v>5.25</v>
+      </c>
+      <c r="O109">
+        <v>4.75</v>
+      </c>
+      <c r="P109">
+        <v>1.4</v>
+      </c>
+      <c r="Q109">
+        <v>1.25</v>
+      </c>
+      <c r="R109">
+        <v>1.9</v>
+      </c>
+      <c r="S109">
+        <v>1.9</v>
+      </c>
+      <c r="T109">
+        <v>3.25</v>
+      </c>
+      <c r="U109">
+        <v>1.85</v>
+      </c>
+      <c r="V109">
+        <v>1.95</v>
+      </c>
+      <c r="W109">
+        <v>-1</v>
+      </c>
+      <c r="X109">
         <v>3.75</v>
       </c>
-      <c r="M109">
-        <v>4.333</v>
-      </c>
-      <c r="N109">
-        <v>1.727</v>
-      </c>
-      <c r="O109">
-        <v>3.6</v>
-      </c>
-      <c r="P109">
-        <v>4.2</v>
-      </c>
-      <c r="Q109">
-        <v>-0.75</v>
-      </c>
-      <c r="R109">
-        <v>1.975</v>
-      </c>
-      <c r="S109">
-        <v>1.825</v>
-      </c>
-      <c r="T109">
-        <v>2.75</v>
-      </c>
-      <c r="U109">
-        <v>1.825</v>
-      </c>
-      <c r="V109">
-        <v>1.975</v>
-      </c>
-      <c r="W109">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X109">
-        <v>-1</v>
-      </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA109">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6102352</v>
+        <v>6102353</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,76 +10228,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110">
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K110">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="L110">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M110">
-        <v>1.363</v>
+        <v>4.333</v>
       </c>
       <c r="N110">
-        <v>5.25</v>
+        <v>1.727</v>
       </c>
       <c r="O110">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P110">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q110">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R110">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S110">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T110">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V110">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X110">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC110">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10320,7 +10320,7 @@
         <v>40</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H111">
         <v>3</v>
@@ -10498,7 +10498,7 @@
         <v>29</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10673,7 +10673,7 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G115" t="s">
         <v>30</v>
@@ -11029,7 +11029,7 @@
         <v>45159.67708333334</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
         <v>40</v>
@@ -11121,7 +11121,7 @@
         <v>30</v>
       </c>
       <c r="G120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11299,7 +11299,7 @@
         <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11729,7 +11729,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6102357</v>
+        <v>6102232</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11741,76 +11741,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G127" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H127">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I127">
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K127">
-        <v>1.333</v>
+        <v>2.6</v>
       </c>
       <c r="L127">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M127">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="N127">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="O127">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P127">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="Q127">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R127">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S127">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T127">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U127">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V127">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W127">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB127">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6102233</v>
+        <v>6102234</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11833,73 +11833,73 @@
         <v>32</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="I128">
         <v>3</v>
       </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
       <c r="J128" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K128">
-        <v>1.333</v>
+        <v>6</v>
       </c>
       <c r="L128">
         <v>5</v>
       </c>
       <c r="M128">
+        <v>1.4</v>
+      </c>
+      <c r="N128">
         <v>7</v>
-      </c>
-      <c r="N128">
-        <v>1.333</v>
       </c>
       <c r="O128">
         <v>5</v>
       </c>
       <c r="P128">
-        <v>7</v>
+        <v>1.363</v>
       </c>
       <c r="Q128">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="R128">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S128">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T128">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U128">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V128">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W128">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z128">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC128">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6102234</v>
+        <v>6102235</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,55 +11919,55 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G129" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J129" t="s">
         <v>41</v>
       </c>
       <c r="K129">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="L129">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M129">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="N129">
-        <v>7</v>
+        <v>1.65</v>
       </c>
       <c r="O129">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P129">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="Q129">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R129">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S129">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T129">
         <v>3.5</v>
       </c>
       <c r="U129">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V129">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W129">
         <v>-1</v>
@@ -11976,19 +11976,19 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.363</v>
+        <v>3</v>
       </c>
       <c r="Z129">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB129">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6102235</v>
+        <v>6102236</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,49 +12008,49 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130">
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K130">
-        <v>1.6</v>
+        <v>2.625</v>
       </c>
       <c r="L130">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M130">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="N130">
-        <v>1.65</v>
+        <v>2.625</v>
       </c>
       <c r="O130">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P130">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q130">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R130">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S130">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T130">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
         <v>1.825</v>
@@ -12062,22 +12062,22 @@
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y130">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA130">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC130">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6102232</v>
+        <v>6102233</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,76 +12097,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K131">
-        <v>2.6</v>
+        <v>1.333</v>
       </c>
       <c r="L131">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M131">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="N131">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="O131">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P131">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="Q131">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R131">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S131">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T131">
         <v>3.25</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X131">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA131">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC131">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6102236</v>
+        <v>6102357</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,73 +12186,73 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K132">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="L132">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M132">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="N132">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="O132">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P132">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R132">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S132">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U132">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V132">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X132">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12456,7 +12456,7 @@
         <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12545,7 +12545,7 @@
         <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12812,7 +12812,7 @@
         <v>39</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -12886,7 +12886,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7173164</v>
+        <v>7173163</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12898,22 +12898,22 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J140" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K140">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="L140">
         <v>3.6</v>
@@ -12922,25 +12922,25 @@
         <v>2.375</v>
       </c>
       <c r="N140">
+        <v>2.7</v>
+      </c>
+      <c r="O140">
+        <v>3.5</v>
+      </c>
+      <c r="P140">
         <v>2.25</v>
       </c>
-      <c r="O140">
-        <v>3.8</v>
-      </c>
-      <c r="P140">
-        <v>2.6</v>
-      </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R140">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S140">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T140">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U140">
         <v>1.825</v>
@@ -12952,16 +12952,16 @@
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z140">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.375</v>
+        <v>1.025</v>
       </c>
       <c r="AB140">
         <v>0.825</v>
@@ -12975,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7173179</v>
+        <v>7173164</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12987,76 +12987,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K141">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L141">
         <v>3.6</v>
       </c>
       <c r="M141">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="N141">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O141">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P141">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S141">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T141">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U141">
+        <v>1.825</v>
+      </c>
+      <c r="V141">
         <v>1.975</v>
       </c>
-      <c r="V141">
-        <v>1.825</v>
-      </c>
       <c r="W141">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB141">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC141">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13064,7 +13064,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7173163</v>
+        <v>7173179</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13076,76 +13076,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G142" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H142">
+        <v>2</v>
+      </c>
+      <c r="I142">
         <v>1</v>
       </c>
-      <c r="I142">
-        <v>3</v>
-      </c>
       <c r="J142" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K142">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="L142">
         <v>3.6</v>
       </c>
       <c r="M142">
+        <v>2.45</v>
+      </c>
+      <c r="N142">
         <v>2.375</v>
       </c>
-      <c r="N142">
-        <v>2.7</v>
-      </c>
       <c r="O142">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P142">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q142">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R142">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T142">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U142">
+        <v>1.975</v>
+      </c>
+      <c r="V142">
         <v>1.825</v>
       </c>
-      <c r="V142">
-        <v>1.975</v>
-      </c>
       <c r="W142">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA142">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13420,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7173166</v>
+        <v>7173167</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13432,58 +13432,58 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H146">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
         <v>43</v>
       </c>
       <c r="K146">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="L146">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M146">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="N146">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="O146">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P146">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q146">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R146">
+        <v>1.875</v>
+      </c>
+      <c r="S146">
         <v>1.925</v>
       </c>
-      <c r="S146">
-        <v>1.875</v>
-      </c>
       <c r="T146">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U146">
+        <v>1.775</v>
+      </c>
+      <c r="V146">
         <v>1.925</v>
       </c>
-      <c r="V146">
-        <v>1.775</v>
-      </c>
       <c r="W146">
-        <v>1.7</v>
+        <v>0.571</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13492,16 +13492,16 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB146">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13509,7 +13509,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7173167</v>
+        <v>7173166</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13521,58 +13521,58 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
         <v>43</v>
       </c>
       <c r="K147">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="L147">
+        <v>3.6</v>
+      </c>
+      <c r="M147">
+        <v>2.6</v>
+      </c>
+      <c r="N147">
+        <v>2.7</v>
+      </c>
+      <c r="O147">
         <v>4</v>
       </c>
-      <c r="M147">
-        <v>4.333</v>
-      </c>
-      <c r="N147">
-        <v>1.571</v>
-      </c>
-      <c r="O147">
-        <v>4.2</v>
-      </c>
       <c r="P147">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q147">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R147">
+        <v>1.925</v>
+      </c>
+      <c r="S147">
         <v>1.875</v>
       </c>
-      <c r="S147">
+      <c r="T147">
+        <v>3.75</v>
+      </c>
+      <c r="U147">
         <v>1.925</v>
       </c>
-      <c r="T147">
-        <v>3.25</v>
-      </c>
-      <c r="U147">
+      <c r="V147">
         <v>1.775</v>
       </c>
-      <c r="V147">
-        <v>1.925</v>
-      </c>
       <c r="W147">
-        <v>0.571</v>
+        <v>1.7</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13581,16 +13581,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA147">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC147">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13610,7 +13610,7 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G148" t="s">
         <v>40</v>
@@ -13687,7 +13687,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7173183</v>
+        <v>7173182</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13699,73 +13699,73 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G149" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K149">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L149">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M149">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N149">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="O149">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P149">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q149">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R149">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S149">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T149">
         <v>3.25</v>
       </c>
       <c r="U149">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V149">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X149">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA149">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13776,7 +13776,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7173182</v>
+        <v>7173183</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13788,73 +13788,73 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K150">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L150">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M150">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N150">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="O150">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P150">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q150">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R150">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S150">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T150">
         <v>3.25</v>
       </c>
       <c r="U150">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V150">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W150">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB150">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC150">
         <v>-1</v>
@@ -13865,7 +13865,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7173169</v>
+        <v>7173184</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13877,73 +13877,73 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F151" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G151" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H151">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I151">
         <v>3</v>
       </c>
       <c r="J151" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K151">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="L151">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M151">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="N151">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O151">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P151">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="Q151">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R151">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S151">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T151">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U151">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V151">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W151">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z151">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB151">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC151">
         <v>-1</v>
@@ -13954,7 +13954,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7173184</v>
+        <v>7173169</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13966,73 +13966,73 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G152" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I152">
         <v>3</v>
       </c>
       <c r="J152" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K152">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="L152">
+        <v>3.6</v>
+      </c>
+      <c r="M152">
+        <v>2.45</v>
+      </c>
+      <c r="N152">
+        <v>3</v>
+      </c>
+      <c r="O152">
+        <v>3.6</v>
+      </c>
+      <c r="P152">
+        <v>2.05</v>
+      </c>
+      <c r="Q152">
+        <v>0.25</v>
+      </c>
+      <c r="R152">
+        <v>1.975</v>
+      </c>
+      <c r="S152">
+        <v>1.825</v>
+      </c>
+      <c r="T152">
         <v>3.5</v>
       </c>
-      <c r="M152">
-        <v>2.15</v>
-      </c>
-      <c r="N152">
-        <v>3.4</v>
-      </c>
-      <c r="O152">
-        <v>3.75</v>
-      </c>
-      <c r="P152">
-        <v>1.85</v>
-      </c>
-      <c r="Q152">
-        <v>0.5</v>
-      </c>
-      <c r="R152">
-        <v>1.875</v>
-      </c>
-      <c r="S152">
-        <v>1.925</v>
-      </c>
-      <c r="T152">
-        <v>3.25</v>
-      </c>
       <c r="U152">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V152">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA152">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC152">
         <v>-1</v>
@@ -14055,7 +14055,7 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G153" t="s">
         <v>30</v>
@@ -14322,7 +14322,7 @@
         <v>45201.67708333334</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G156" t="s">
         <v>37</v>
@@ -14399,7 +14399,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7173173</v>
+        <v>7173189</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14411,58 +14411,58 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H157">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
         <v>43</v>
       </c>
       <c r="K157">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="L157">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M157">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N157">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="O157">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P157">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q157">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R157">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S157">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T157">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U157">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V157">
         <v>1.825</v>
       </c>
       <c r="W157">
-        <v>0.5329999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14471,16 +14471,16 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14488,7 +14488,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7173189</v>
+        <v>7173188</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14500,76 +14500,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G158" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H158">
         <v>1</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K158">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="L158">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M158">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N158">
-        <v>2.15</v>
+        <v>1.222</v>
       </c>
       <c r="O158">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P158">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="Q158">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R158">
+        <v>1.975</v>
+      </c>
+      <c r="S158">
+        <v>1.825</v>
+      </c>
+      <c r="T158">
+        <v>3.75</v>
+      </c>
+      <c r="U158">
         <v>1.9</v>
       </c>
-      <c r="S158">
+      <c r="V158">
         <v>1.9</v>
       </c>
-      <c r="T158">
-        <v>3.5</v>
-      </c>
-      <c r="U158">
-        <v>1.975</v>
-      </c>
-      <c r="V158">
-        <v>1.825</v>
-      </c>
       <c r="W158">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
+        <v>-1</v>
+      </c>
+      <c r="AA158">
+        <v>0.825</v>
+      </c>
+      <c r="AB158">
+        <v>-1</v>
+      </c>
+      <c r="AC158">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA158">
-        <v>-1</v>
-      </c>
-      <c r="AB158">
-        <v>-1</v>
-      </c>
-      <c r="AC158">
-        <v>0.825</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14577,7 +14577,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7173188</v>
+        <v>7173172</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14589,76 +14589,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F159" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G159" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I159">
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K159">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L159">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M159">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="N159">
-        <v>1.222</v>
+        <v>2.25</v>
       </c>
       <c r="O159">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="P159">
-        <v>9</v>
+        <v>2.55</v>
       </c>
       <c r="Q159">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R159">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S159">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T159">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U159">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V159">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X159">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA159">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC159">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14681,7 +14681,7 @@
         <v>29</v>
       </c>
       <c r="G160" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H160">
         <v>5</v>
@@ -14755,7 +14755,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7173172</v>
+        <v>7173173</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14767,13 +14767,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G161" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H161">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I161">
         <v>1</v>
@@ -14782,43 +14782,43 @@
         <v>43</v>
       </c>
       <c r="K161">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L161">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M161">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N161">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="O161">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P161">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="Q161">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R161">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S161">
+        <v>2</v>
+      </c>
+      <c r="T161">
+        <v>4</v>
+      </c>
+      <c r="U161">
         <v>2.025</v>
       </c>
-      <c r="T161">
-        <v>3.5</v>
-      </c>
-      <c r="U161">
-        <v>1.875</v>
-      </c>
       <c r="V161">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W161">
-        <v>1.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14827,13 +14827,13 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA161">
         <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC161">
         <v>-1</v>
@@ -14859,7 +14859,7 @@
         <v>34</v>
       </c>
       <c r="G162" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H162">
         <v>0</v>

--- a/Iceland Premier League/Iceland Premier League.xlsx
+++ b/Iceland Premier League/Iceland Premier League.xlsx
@@ -109,13 +109,13 @@
     <t>KA Akureyri</t>
   </si>
   <si>
-    <t>Valur Reykjavik</t>
+    <t>Stjarnan</t>
   </si>
   <si>
     <t>Fram Reykjavik</t>
   </si>
   <si>
-    <t>Stjarnan</t>
+    <t>Valur Reykjavik</t>
   </si>
   <si>
     <t>Breidablik</t>
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6102338</v>
+        <v>6102128</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>1.625</v>
+        <v>3.75</v>
       </c>
       <c r="L4">
         <v>4</v>
       </c>
       <c r="M4">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="N4">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P4">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q4">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S4">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T4">
         <v>3</v>
       </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V4">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W4">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6102128</v>
+        <v>6102338</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,73 +975,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>3.75</v>
+        <v>1.625</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
       <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
         <v>1.666</v>
       </c>
-      <c r="N6">
-        <v>3.4</v>
-      </c>
       <c r="O6">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P6">
+        <v>3.75</v>
+      </c>
+      <c r="Q6">
+        <v>-1</v>
+      </c>
+      <c r="R6">
+        <v>1.9</v>
+      </c>
+      <c r="S6">
         <v>1.8</v>
-      </c>
-      <c r="Q6">
-        <v>0.5</v>
-      </c>
-      <c r="R6">
-        <v>1.95</v>
-      </c>
-      <c r="S6">
-        <v>1.85</v>
       </c>
       <c r="T6">
         <v>3</v>
       </c>
       <c r="U6">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V6">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1242,7 +1242,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1506,7 +1506,7 @@
         <v>45032.67708333334</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
         <v>34</v>
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6102136</v>
+        <v>6102137</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1595,76 +1595,76 @@
         <v>45039.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13">
+        <v>1.55</v>
+      </c>
+      <c r="L13">
+        <v>4.333</v>
+      </c>
+      <c r="M13">
+        <v>4.5</v>
+      </c>
+      <c r="N13">
+        <v>1.444</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>5.25</v>
+      </c>
+      <c r="Q13">
+        <v>-1.25</v>
+      </c>
+      <c r="R13">
+        <v>1.875</v>
+      </c>
+      <c r="S13">
+        <v>1.925</v>
+      </c>
+      <c r="T13">
+        <v>3.5</v>
+      </c>
+      <c r="U13">
+        <v>1.925</v>
+      </c>
+      <c r="V13">
+        <v>1.875</v>
+      </c>
+      <c r="W13">
+        <v>-1</v>
+      </c>
+      <c r="X13">
         <v>4</v>
       </c>
-      <c r="L13">
-        <v>4</v>
-      </c>
-      <c r="M13">
-        <v>1.7</v>
-      </c>
-      <c r="N13">
-        <v>4.75</v>
-      </c>
-      <c r="O13">
-        <v>4.2</v>
-      </c>
-      <c r="P13">
-        <v>1.6</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="R13">
-        <v>1.8</v>
-      </c>
-      <c r="S13">
-        <v>2</v>
-      </c>
-      <c r="T13">
-        <v>3</v>
-      </c>
-      <c r="U13">
-        <v>1.875</v>
-      </c>
-      <c r="V13">
-        <v>1.925</v>
-      </c>
-      <c r="W13">
-        <v>3.75</v>
-      </c>
-      <c r="X13">
-        <v>-1</v>
-      </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6102137</v>
+        <v>6102136</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,76 +1684,76 @@
         <v>45039.54166666666</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>1.7</v>
+      </c>
+      <c r="N14">
+        <v>4.75</v>
+      </c>
+      <c r="O14">
+        <v>4.2</v>
+      </c>
+      <c r="P14">
+        <v>1.6</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1.8</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>3</v>
+      </c>
+      <c r="U14">
+        <v>1.875</v>
+      </c>
+      <c r="V14">
+        <v>1.925</v>
+      </c>
+      <c r="W14">
+        <v>3.75</v>
+      </c>
+      <c r="X14">
+        <v>-1</v>
+      </c>
+      <c r="Y14">
+        <v>-1</v>
+      </c>
+      <c r="Z14">
+        <v>0.8</v>
+      </c>
+      <c r="AA14">
+        <v>-1</v>
+      </c>
+      <c r="AB14">
         <v>0</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14">
-        <v>1.55</v>
-      </c>
-      <c r="L14">
-        <v>4.333</v>
-      </c>
-      <c r="M14">
-        <v>4.5</v>
-      </c>
-      <c r="N14">
-        <v>1.444</v>
-      </c>
-      <c r="O14">
-        <v>5</v>
-      </c>
-      <c r="P14">
-        <v>5.25</v>
-      </c>
-      <c r="Q14">
-        <v>-1.25</v>
-      </c>
-      <c r="R14">
-        <v>1.875</v>
-      </c>
-      <c r="S14">
-        <v>1.925</v>
-      </c>
-      <c r="T14">
-        <v>3.5</v>
-      </c>
-      <c r="U14">
-        <v>1.925</v>
-      </c>
-      <c r="V14">
-        <v>1.875</v>
-      </c>
-      <c r="W14">
-        <v>-1</v>
-      </c>
-      <c r="X14">
-        <v>4</v>
-      </c>
-      <c r="Y14">
-        <v>-1</v>
-      </c>
-      <c r="Z14">
-        <v>-1</v>
-      </c>
-      <c r="AA14">
-        <v>0.925</v>
-      </c>
-      <c r="AB14">
-        <v>-1</v>
-      </c>
       <c r="AC14">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1776,7 +1776,7 @@
         <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6102141</v>
+        <v>6102140</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,58 +1862,58 @@
         <v>45040.67708333334</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
         <v>4</v>
-      </c>
-      <c r="I16">
-        <v>2</v>
       </c>
       <c r="J16" t="s">
         <v>43</v>
       </c>
       <c r="K16">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="L16">
         <v>3.8</v>
       </c>
       <c r="M16">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="N16">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O16">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P16">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
         <v>1.8</v>
       </c>
       <c r="S16">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U16">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V16">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W16">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1928,7 +1928,7 @@
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6560010</v>
+        <v>6102141</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,58 +1951,58 @@
         <v>45040.67708333334</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
         <v>43</v>
       </c>
       <c r="K17">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="L17">
         <v>3.8</v>
       </c>
       <c r="M17">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="N17">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="O17">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P17">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q17">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S17">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U17">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V17">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W17">
-        <v>0.909</v>
+        <v>1.75</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2011,16 +2011,16 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC17">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6102140</v>
+        <v>6560010</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,76 +2040,76 @@
         <v>45040.67708333334</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>43</v>
       </c>
       <c r="K18">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="L18">
         <v>3.8</v>
       </c>
       <c r="M18">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N18">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O18">
         <v>3.8</v>
       </c>
       <c r="P18">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q18">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T18">
         <v>3</v>
       </c>
       <c r="U18">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W18">
+        <v>0.909</v>
+      </c>
+      <c r="X18">
+        <v>-1</v>
+      </c>
+      <c r="Y18">
+        <v>-1</v>
+      </c>
+      <c r="Z18">
         <v>1</v>
       </c>
-      <c r="X18">
-        <v>-1</v>
-      </c>
-      <c r="Y18">
-        <v>-1</v>
-      </c>
-      <c r="Z18">
-        <v>0.8</v>
-      </c>
       <c r="AA18">
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2574,10 +2574,10 @@
         <v>45045.67708333334</v>
       </c>
       <c r="F24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" t="s">
         <v>31</v>
-      </c>
-      <c r="G24" t="s">
-        <v>33</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6102148</v>
+        <v>6102147</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,59 +2663,59 @@
         <v>45049.625</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
         <v>43</v>
       </c>
       <c r="K25">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L25">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M25">
+        <v>2.55</v>
+      </c>
+      <c r="N25">
+        <v>2.875</v>
+      </c>
+      <c r="O25">
+        <v>3.6</v>
+      </c>
+      <c r="P25">
+        <v>2.15</v>
+      </c>
+      <c r="Q25">
+        <v>0.25</v>
+      </c>
+      <c r="R25">
+        <v>1.9</v>
+      </c>
+      <c r="S25">
+        <v>1.9</v>
+      </c>
+      <c r="T25">
         <v>3.25</v>
       </c>
-      <c r="N25">
-        <v>1.833</v>
-      </c>
-      <c r="O25">
-        <v>3.5</v>
-      </c>
-      <c r="P25">
-        <v>3.5</v>
-      </c>
-      <c r="Q25">
-        <v>-0.5</v>
-      </c>
-      <c r="R25">
-        <v>1.925</v>
-      </c>
-      <c r="S25">
+      <c r="U25">
+        <v>1.9</v>
+      </c>
+      <c r="V25">
+        <v>1.9</v>
+      </c>
+      <c r="W25">
         <v>1.875</v>
       </c>
-      <c r="T25">
-        <v>2.75</v>
-      </c>
-      <c r="U25">
-        <v>1.8</v>
-      </c>
-      <c r="V25">
-        <v>2</v>
-      </c>
-      <c r="W25">
-        <v>0.833</v>
-      </c>
       <c r="X25">
         <v>-1</v>
       </c>
@@ -2723,13 +2723,13 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC25">
         <v>-1</v>
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6102147</v>
+        <v>6102148</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,58 +2752,58 @@
         <v>45049.625</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
         <v>43</v>
       </c>
       <c r="K26">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M26">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="N26">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="O26">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P26">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q26">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R26">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S26">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T26">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U26">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V26">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W26">
-        <v>1.875</v>
+        <v>0.833</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2812,13 +2812,13 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2933,7 +2933,7 @@
         <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6102151</v>
+        <v>6102152</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,40 +3019,40 @@
         <v>45050.67708333334</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="L29">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M29">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="N29">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="O29">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P29">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="Q29">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R29">
         <v>1.825</v>
@@ -3061,34 +3061,34 @@
         <v>2.025</v>
       </c>
       <c r="T29">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U29">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V29">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA29">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC29">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6102152</v>
+        <v>6102151</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,40 +3108,40 @@
         <v>45050.67708333334</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30" t="s">
+        <v>41</v>
+      </c>
+      <c r="K30">
+        <v>3.8</v>
+      </c>
+      <c r="L30">
+        <v>3.75</v>
+      </c>
+      <c r="M30">
+        <v>1.727</v>
+      </c>
+      <c r="N30">
+        <v>3.6</v>
+      </c>
+      <c r="O30">
         <v>4</v>
       </c>
-      <c r="I30">
+      <c r="P30">
+        <v>1.727</v>
+      </c>
+      <c r="Q30">
         <v>1</v>
-      </c>
-      <c r="J30" t="s">
-        <v>43</v>
-      </c>
-      <c r="K30">
-        <v>1.363</v>
-      </c>
-      <c r="L30">
-        <v>4.75</v>
-      </c>
-      <c r="M30">
-        <v>6</v>
-      </c>
-      <c r="N30">
-        <v>1.222</v>
-      </c>
-      <c r="O30">
-        <v>5.75</v>
-      </c>
-      <c r="P30">
-        <v>8</v>
-      </c>
-      <c r="Q30">
-        <v>-1.75</v>
       </c>
       <c r="R30">
         <v>1.825</v>
@@ -3150,34 +3150,34 @@
         <v>2.025</v>
       </c>
       <c r="T30">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U30">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V30">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W30">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z30">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB30">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>45053.67708333334</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6102340</v>
+        <v>6102156</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,10 +3464,10 @@
         <v>45054.67708333334</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3479,25 +3479,25 @@
         <v>43</v>
       </c>
       <c r="K34">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="L34">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M34">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="N34">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="O34">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P34">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="Q34">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R34">
         <v>1.8</v>
@@ -3509,13 +3509,13 @@
         <v>3.25</v>
       </c>
       <c r="U34">
+        <v>1.825</v>
+      </c>
+      <c r="V34">
         <v>1.975</v>
       </c>
-      <c r="V34">
-        <v>1.825</v>
-      </c>
       <c r="W34">
-        <v>0.6000000000000001</v>
+        <v>2</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3524,16 +3524,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AA34">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
         <v>-0.5</v>
       </c>
       <c r="AC34">
-        <v>0.4125</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3541,7 +3541,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6102156</v>
+        <v>6102340</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3553,10 +3553,10 @@
         <v>45054.67708333334</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3568,25 +3568,25 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="L35">
+        <v>3.75</v>
+      </c>
+      <c r="M35">
         <v>3.6</v>
       </c>
-      <c r="M35">
-        <v>2.5</v>
-      </c>
       <c r="N35">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="O35">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P35">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="Q35">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R35">
         <v>1.8</v>
@@ -3598,13 +3598,13 @@
         <v>3.25</v>
       </c>
       <c r="U35">
+        <v>1.975</v>
+      </c>
+      <c r="V35">
         <v>1.825</v>
       </c>
-      <c r="V35">
-        <v>1.975</v>
-      </c>
       <c r="W35">
-        <v>2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3613,16 +3613,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB35">
         <v>-0.5</v>
       </c>
       <c r="AC35">
-        <v>0.4875</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3731,7 +3731,7 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
         <v>39</v>
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6102158</v>
+        <v>6102162</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,49 +3820,49 @@
         <v>45059.54166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
         <v>41</v>
       </c>
       <c r="K38">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="L38">
         <v>3.5</v>
       </c>
       <c r="M38">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="N38">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="O38">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P38">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R38">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S38">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T38">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U38">
         <v>1.85</v>
@@ -3877,19 +3877,19 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1.625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB38">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6102162</v>
+        <v>6102158</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,49 +3909,49 @@
         <v>45059.54166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J39" t="s">
         <v>41</v>
       </c>
       <c r="K39">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="L39">
         <v>3.5</v>
       </c>
       <c r="M39">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="N39">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="O39">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P39">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="Q39">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S39">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U39">
         <v>1.85</v>
@@ -3966,19 +3966,19 @@
         <v>-1</v>
       </c>
       <c r="Y39">
+        <v>1.625</v>
+      </c>
+      <c r="Z39">
+        <v>-1</v>
+      </c>
+      <c r="AA39">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB39">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z39">
-        <v>-1</v>
-      </c>
-      <c r="AA39">
-        <v>0.875</v>
-      </c>
-      <c r="AB39">
-        <v>-1</v>
-      </c>
       <c r="AC39">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4354,7 +4354,7 @@
         <v>45067.67708333334</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
         <v>35</v>
@@ -4609,7 +4609,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6102165</v>
+        <v>6102166</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4621,40 +4621,40 @@
         <v>45068.67708333334</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K47">
+        <v>2.75</v>
+      </c>
+      <c r="L47">
+        <v>3.4</v>
+      </c>
+      <c r="M47">
+        <v>2.2</v>
+      </c>
+      <c r="N47">
+        <v>3</v>
+      </c>
+      <c r="O47">
+        <v>3.3</v>
+      </c>
+      <c r="P47">
         <v>2.1</v>
       </c>
-      <c r="L47">
-        <v>3.6</v>
-      </c>
-      <c r="M47">
-        <v>2.9</v>
-      </c>
-      <c r="N47">
-        <v>1.45</v>
-      </c>
-      <c r="O47">
-        <v>4.75</v>
-      </c>
-      <c r="P47">
-        <v>5.5</v>
-      </c>
       <c r="Q47">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
         <v>1.975</v>
@@ -4663,22 +4663,22 @@
         <v>1.825</v>
       </c>
       <c r="T47">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U47">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V47">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z47">
         <v>-1</v>
@@ -4687,10 +4687,10 @@
         <v>0.825</v>
       </c>
       <c r="AB47">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4698,7 +4698,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6102166</v>
+        <v>6102165</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4710,40 +4710,40 @@
         <v>45068.67708333334</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48">
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K48">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L48">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M48">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="N48">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="O48">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P48">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q48">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R48">
         <v>1.975</v>
@@ -4752,22 +4752,22 @@
         <v>1.825</v>
       </c>
       <c r="T48">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U48">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V48">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y48">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
         <v>-1</v>
@@ -4776,10 +4776,10 @@
         <v>0.825</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC48">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4891,7 +4891,7 @@
         <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5158,7 +5158,7 @@
         <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6102170</v>
+        <v>6102171</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,76 +5333,76 @@
         <v>45075.67708333334</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K55">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="L55">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M55">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="N55">
-        <v>6</v>
+        <v>1.833</v>
       </c>
       <c r="O55">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P55">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q55">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R55">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S55">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T55">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U55">
+        <v>1.75</v>
+      </c>
+      <c r="V55">
         <v>1.95</v>
       </c>
-      <c r="V55">
-        <v>1.85</v>
-      </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z55">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC55">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6102171</v>
+        <v>6102170</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,76 +5422,76 @@
         <v>45075.67708333334</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="L56">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M56">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="N56">
-        <v>1.833</v>
+        <v>6</v>
       </c>
       <c r="O56">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P56">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="Q56">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R56">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S56">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T56">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U56">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y56">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA56">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>45079.625</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
         <v>30</v>
@@ -5778,7 +5778,7 @@
         <v>45079.67708333334</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
         <v>36</v>
@@ -6315,7 +6315,7 @@
         <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6389,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6102179</v>
+        <v>6102180</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6401,76 +6401,76 @@
         <v>45088.67708333334</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K67">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="L67">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M67">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="N67">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="O67">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P67">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q67">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R67">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S67">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T67">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V67">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W67">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA67">
         <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6102180</v>
+        <v>6102179</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,76 +6490,76 @@
         <v>45088.67708333334</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K68">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="L68">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M68">
+        <v>5.5</v>
+      </c>
+      <c r="N68">
+        <v>1.3</v>
+      </c>
+      <c r="O68">
+        <v>5.25</v>
+      </c>
+      <c r="P68">
+        <v>6.5</v>
+      </c>
+      <c r="Q68">
+        <v>-1.5</v>
+      </c>
+      <c r="R68">
         <v>1.85</v>
       </c>
-      <c r="N68">
-        <v>4.2</v>
-      </c>
-      <c r="O68">
+      <c r="S68">
+        <v>1.95</v>
+      </c>
+      <c r="T68">
         <v>3.5</v>
       </c>
-      <c r="P68">
-        <v>1.727</v>
-      </c>
-      <c r="Q68">
-        <v>0.75</v>
-      </c>
-      <c r="R68">
-        <v>1.8</v>
-      </c>
-      <c r="S68">
-        <v>2</v>
-      </c>
-      <c r="T68">
-        <v>2.75</v>
-      </c>
       <c r="U68">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V68">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X68">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA68">
         <v>-1</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC68">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6102181</v>
+        <v>6102182</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,76 +6579,76 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K69">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="L69">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M69">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N69">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="O69">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P69">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q69">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R69">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S69">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T69">
         <v>3</v>
       </c>
       <c r="U69">
+        <v>2</v>
+      </c>
+      <c r="V69">
         <v>1.85</v>
       </c>
-      <c r="V69">
-        <v>2</v>
-      </c>
       <c r="W69">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB69">
+        <v>-1</v>
+      </c>
+      <c r="AC69">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC69">
-        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6102182</v>
+        <v>6102181</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,76 +6668,76 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K70">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L70">
+        <v>3.75</v>
+      </c>
+      <c r="M70">
         <v>3.6</v>
       </c>
-      <c r="M70">
-        <v>2.625</v>
-      </c>
       <c r="N70">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="O70">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P70">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q70">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R70">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S70">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T70">
         <v>3</v>
       </c>
       <c r="U70">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X70">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC70">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6849,7 +6849,7 @@
         <v>39</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -7027,7 +7027,7 @@
         <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6102191</v>
+        <v>6102188</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,40 +7202,40 @@
         <v>45105.67708333334</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
         <v>43</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L76">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M76">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N76">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O76">
         <v>3.75</v>
       </c>
       <c r="P76">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q76">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R76">
         <v>1.875</v>
@@ -7244,7 +7244,7 @@
         <v>1.975</v>
       </c>
       <c r="T76">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
         <v>2</v>
@@ -7253,7 +7253,7 @@
         <v>1.85</v>
       </c>
       <c r="W76">
-        <v>0.833</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7268,10 +7268,10 @@
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6102188</v>
+        <v>6102191</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,40 +7291,40 @@
         <v>45105.67708333334</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
         <v>43</v>
       </c>
       <c r="K77">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M77">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N77">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O77">
         <v>3.75</v>
       </c>
       <c r="P77">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R77">
         <v>1.875</v>
@@ -7333,7 +7333,7 @@
         <v>1.975</v>
       </c>
       <c r="T77">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U77">
         <v>2</v>
@@ -7342,7 +7342,7 @@
         <v>1.85</v>
       </c>
       <c r="W77">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7357,10 +7357,10 @@
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC77">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6102189</v>
+        <v>6102190</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,49 +7380,49 @@
         <v>45106.67708333334</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H78">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K78">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="L78">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M78">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="N78">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="O78">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P78">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R78">
+        <v>1.875</v>
+      </c>
+      <c r="S78">
         <v>1.925</v>
       </c>
-      <c r="S78">
-        <v>1.875</v>
-      </c>
       <c r="T78">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U78">
         <v>1.925</v>
@@ -7431,19 +7431,19 @@
         <v>1.875</v>
       </c>
       <c r="W78">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z78">
+        <v>-1</v>
+      </c>
+      <c r="AA78">
         <v>0.925</v>
-      </c>
-      <c r="AA78">
-        <v>-1</v>
       </c>
       <c r="AB78">
         <v>0.925</v>
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6102190</v>
+        <v>6102189</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,49 +7469,49 @@
         <v>45106.67708333334</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79" t="s">
+        <v>43</v>
+      </c>
+      <c r="K79">
+        <v>2.1</v>
+      </c>
+      <c r="L79">
+        <v>3.4</v>
+      </c>
+      <c r="M79">
         <v>3</v>
       </c>
-      <c r="J79" t="s">
-        <v>41</v>
-      </c>
-      <c r="K79">
-        <v>5.25</v>
-      </c>
-      <c r="L79">
-        <v>4.333</v>
-      </c>
-      <c r="M79">
-        <v>1.45</v>
-      </c>
       <c r="N79">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="O79">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P79">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q79">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
+        <v>1.925</v>
+      </c>
+      <c r="S79">
         <v>1.875</v>
       </c>
-      <c r="S79">
-        <v>1.925</v>
-      </c>
       <c r="T79">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U79">
         <v>1.925</v>
@@ -7520,19 +7520,19 @@
         <v>1.875</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA79">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
         <v>0.925</v>
@@ -7825,7 +7825,7 @@
         <v>45119.67708333334</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
         <v>29</v>
@@ -8181,10 +8181,10 @@
         <v>45124.67708333334</v>
       </c>
       <c r="F87" t="s">
+        <v>31</v>
+      </c>
+      <c r="G87" t="s">
         <v>33</v>
-      </c>
-      <c r="G87" t="s">
-        <v>31</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6102200</v>
+        <v>6922578</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,76 +8270,76 @@
         <v>45125.70833333334</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K88">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L88">
         <v>3.6</v>
       </c>
       <c r="M88">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N88">
         <v>2.05</v>
       </c>
       <c r="O88">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P88">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q88">
         <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S88">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U88">
         <v>1.925</v>
       </c>
       <c r="V88">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W88">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6922578</v>
+        <v>6102200</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,76 +8359,76 @@
         <v>45125.70833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K89">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L89">
         <v>3.6</v>
       </c>
       <c r="M89">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N89">
         <v>2.05</v>
       </c>
       <c r="O89">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P89">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q89">
         <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S89">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T89">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
         <v>1.925</v>
       </c>
       <c r="V89">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X89">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA89">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8540,7 +8540,7 @@
         <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6542524</v>
+        <v>6102206</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,76 +8626,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K92">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="L92">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M92">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N92">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="O92">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P92">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R92">
+        <v>1.925</v>
+      </c>
+      <c r="S92">
         <v>1.775</v>
       </c>
-      <c r="S92">
-        <v>2.025</v>
-      </c>
       <c r="T92">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U92">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V92">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB92">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6102206</v>
+        <v>6542524</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,76 +8715,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K93">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="L93">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M93">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N93">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="O93">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P93">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="Q93">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S93">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T93">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W93">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC93">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>45133.67708333334</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
         <v>32</v>
@@ -9074,7 +9074,7 @@
         <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6102350</v>
+        <v>6102213</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,43 +9338,43 @@
         <v>45138.67708333334</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J100" t="s">
         <v>41</v>
       </c>
       <c r="K100">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="L100">
+        <v>3.5</v>
+      </c>
+      <c r="M100">
+        <v>2.3</v>
+      </c>
+      <c r="N100">
+        <v>2.7</v>
+      </c>
+      <c r="O100">
         <v>3.6</v>
       </c>
-      <c r="M100">
-        <v>1.909</v>
-      </c>
-      <c r="N100">
-        <v>3.8</v>
-      </c>
-      <c r="O100">
-        <v>3.75</v>
-      </c>
       <c r="P100">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="Q100">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S100">
         <v>1.85</v>
@@ -9383,10 +9383,10 @@
         <v>3</v>
       </c>
       <c r="U100">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9395,7 +9395,7 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.8500000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="Z100">
         <v>-1</v>
@@ -9404,7 +9404,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB100">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6102213</v>
+        <v>6102350</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,43 +9427,43 @@
         <v>45138.67708333334</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J101" t="s">
         <v>41</v>
       </c>
       <c r="K101">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M101">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N101">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="O101">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P101">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S101">
         <v>1.85</v>
@@ -9472,10 +9472,10 @@
         <v>3</v>
       </c>
       <c r="U101">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V101">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9484,7 +9484,7 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z101">
         <v>-1</v>
@@ -9493,7 +9493,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB101">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9519,7 +9519,7 @@
         <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9694,7 +9694,7 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
         <v>30</v>
@@ -10142,7 +10142,7 @@
         <v>35</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10498,7 +10498,7 @@
         <v>29</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10839,7 +10839,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6102225</v>
+        <v>6102354</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10851,40 +10851,40 @@
         <v>45158.67708333334</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117">
+        <v>2</v>
+      </c>
+      <c r="J117" t="s">
+        <v>42</v>
+      </c>
+      <c r="K117">
+        <v>2.75</v>
+      </c>
+      <c r="L117">
+        <v>3.75</v>
+      </c>
+      <c r="M117">
+        <v>2.25</v>
+      </c>
+      <c r="N117">
+        <v>3.3</v>
+      </c>
+      <c r="O117">
         <v>4</v>
       </c>
-      <c r="J117" t="s">
-        <v>41</v>
-      </c>
-      <c r="K117">
-        <v>2.45</v>
-      </c>
-      <c r="L117">
-        <v>3.6</v>
-      </c>
-      <c r="M117">
-        <v>2.45</v>
-      </c>
-      <c r="N117">
-        <v>2.9</v>
-      </c>
-      <c r="O117">
-        <v>3.6</v>
-      </c>
       <c r="P117">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q117">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R117">
         <v>1.9</v>
@@ -10893,31 +10893,31 @@
         <v>1.9</v>
       </c>
       <c r="T117">
+        <v>3.25</v>
+      </c>
+      <c r="U117">
+        <v>1.95</v>
+      </c>
+      <c r="V117">
+        <v>1.85</v>
+      </c>
+      <c r="W117">
+        <v>-1</v>
+      </c>
+      <c r="X117">
         <v>3</v>
       </c>
-      <c r="U117">
-        <v>1.875</v>
-      </c>
-      <c r="V117">
-        <v>1.925</v>
-      </c>
-      <c r="W117">
-        <v>-1</v>
-      </c>
-      <c r="X117">
-        <v>-1</v>
-      </c>
       <c r="Y117">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA117">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10928,7 +10928,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6102354</v>
+        <v>6102225</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10940,40 +10940,40 @@
         <v>45158.67708333334</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K118">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="L118">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M118">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="N118">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="O118">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P118">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="Q118">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R118">
         <v>1.9</v>
@@ -10982,31 +10982,31 @@
         <v>1.9</v>
       </c>
       <c r="T118">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U118">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V118">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z118">
+        <v>-1</v>
+      </c>
+      <c r="AA118">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA118">
-        <v>-1</v>
-      </c>
       <c r="AB118">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11029,7 +11029,7 @@
         <v>45159.67708333334</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
         <v>40</v>
@@ -11121,7 +11121,7 @@
         <v>30</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11210,7 +11210,7 @@
         <v>36</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H121">
         <v>3</v>
@@ -11284,7 +11284,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6102230</v>
+        <v>6102229</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11296,76 +11296,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G122" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K122">
-        <v>2.55</v>
+        <v>1.55</v>
       </c>
       <c r="L122">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M122">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N122">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O122">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P122">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R122">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S122">
         <v>1.825</v>
       </c>
       <c r="T122">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U122">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V122">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X122">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA122">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11373,7 +11373,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6102229</v>
+        <v>6102230</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11385,76 +11385,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123">
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K123">
-        <v>1.55</v>
+        <v>2.55</v>
       </c>
       <c r="L123">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="N123">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="O123">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P123">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q123">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S123">
         <v>1.825</v>
       </c>
       <c r="T123">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U123">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V123">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W123">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6102234</v>
+        <v>6102235</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,55 +11830,55 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G128" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J128" t="s">
         <v>41</v>
       </c>
       <c r="K128">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="L128">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M128">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="N128">
-        <v>7</v>
+        <v>1.65</v>
       </c>
       <c r="O128">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P128">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="Q128">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R128">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S128">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T128">
         <v>3.5</v>
       </c>
       <c r="U128">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V128">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -11887,19 +11887,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.363</v>
+        <v>3</v>
       </c>
       <c r="Z128">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB128">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6102235</v>
+        <v>6102236</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,49 +11919,49 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129">
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K129">
-        <v>1.6</v>
+        <v>2.625</v>
       </c>
       <c r="L129">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M129">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="N129">
-        <v>1.65</v>
+        <v>2.625</v>
       </c>
       <c r="O129">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P129">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q129">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R129">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S129">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T129">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
         <v>1.825</v>
@@ -11973,22 +11973,22 @@
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y129">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA129">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC129">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6102236</v>
+        <v>6102357</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,73 +12008,73 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G130" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K130">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="L130">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M130">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="N130">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="O130">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P130">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Q130">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R130">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U130">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V130">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X130">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA130">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6102233</v>
+        <v>6102234</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,76 +12097,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H131">
+        <v>2</v>
+      </c>
+      <c r="I131">
         <v>3</v>
       </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
       <c r="J131" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K131">
-        <v>1.333</v>
+        <v>6</v>
       </c>
       <c r="L131">
         <v>5</v>
       </c>
       <c r="M131">
+        <v>1.4</v>
+      </c>
+      <c r="N131">
         <v>7</v>
-      </c>
-      <c r="N131">
-        <v>1.333</v>
       </c>
       <c r="O131">
         <v>5</v>
       </c>
       <c r="P131">
-        <v>7</v>
+        <v>1.363</v>
       </c>
       <c r="Q131">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="R131">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S131">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U131">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W131">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z131">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC131">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6102357</v>
+        <v>6102233</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12189,13 +12189,13 @@
         <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H132">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
         <v>43</v>
@@ -12210,34 +12210,34 @@
         <v>7</v>
       </c>
       <c r="N132">
-        <v>1.3</v>
+        <v>1.333</v>
       </c>
       <c r="O132">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="P132">
         <v>7</v>
       </c>
       <c r="Q132">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R132">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S132">
+        <v>1.925</v>
+      </c>
+      <c r="T132">
+        <v>3.25</v>
+      </c>
+      <c r="U132">
         <v>1.825</v>
       </c>
-      <c r="T132">
-        <v>3.75</v>
-      </c>
-      <c r="U132">
-        <v>1.875</v>
-      </c>
       <c r="V132">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W132">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12246,16 +12246,16 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA132">
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12453,10 +12453,10 @@
         <v>45186.67708333334</v>
       </c>
       <c r="F135" t="s">
+        <v>33</v>
+      </c>
+      <c r="G135" t="s">
         <v>31</v>
-      </c>
-      <c r="G135" t="s">
-        <v>33</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12901,7 +12901,7 @@
         <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -12990,7 +12990,7 @@
         <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13420,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7173167</v>
+        <v>7173168</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13432,58 +13432,58 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H146">
         <v>2</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
         <v>43</v>
       </c>
       <c r="K146">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="L146">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M146">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N146">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="O146">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P146">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q146">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R146">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S146">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T146">
         <v>3.25</v>
       </c>
       <c r="U146">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V146">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W146">
-        <v>0.571</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13492,16 +13492,16 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA146">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13521,7 +13521,7 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
         <v>34</v>
@@ -13598,7 +13598,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7173168</v>
+        <v>7173182</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13610,37 +13610,37 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G148" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
         <v>43</v>
       </c>
       <c r="K148">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L148">
+        <v>3.8</v>
+      </c>
+      <c r="M148">
         <v>3.75</v>
       </c>
-      <c r="M148">
-        <v>3.2</v>
-      </c>
       <c r="N148">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O148">
         <v>3.8</v>
       </c>
       <c r="P148">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q148">
         <v>-0.5</v>
@@ -13655,13 +13655,13 @@
         <v>3.25</v>
       </c>
       <c r="U148">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V148">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W148">
-        <v>0.8500000000000001</v>
+        <v>0.833</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13676,10 +13676,10 @@
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC148">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13687,7 +13687,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7173182</v>
+        <v>7173183</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13699,73 +13699,73 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K149">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L149">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M149">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N149">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="O149">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P149">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q149">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R149">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S149">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T149">
         <v>3.25</v>
       </c>
       <c r="U149">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V149">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W149">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB149">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13776,7 +13776,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7173183</v>
+        <v>7173167</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13788,43 +13788,43 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G150" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H150">
         <v>2</v>
       </c>
       <c r="I150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K150">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="L150">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M150">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N150">
-        <v>2.45</v>
+        <v>1.571</v>
       </c>
       <c r="O150">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P150">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R150">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S150">
         <v>1.925</v>
@@ -13833,16 +13833,16 @@
         <v>3.25</v>
       </c>
       <c r="U150">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V150">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W150">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X150">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
         <v>-1</v>
@@ -13854,10 +13854,10 @@
         <v>-0</v>
       </c>
       <c r="AB150">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13865,7 +13865,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7173184</v>
+        <v>7173169</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13877,73 +13877,73 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G151" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I151">
         <v>3</v>
       </c>
       <c r="J151" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K151">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="L151">
+        <v>3.6</v>
+      </c>
+      <c r="M151">
+        <v>2.45</v>
+      </c>
+      <c r="N151">
+        <v>3</v>
+      </c>
+      <c r="O151">
+        <v>3.6</v>
+      </c>
+      <c r="P151">
+        <v>2.05</v>
+      </c>
+      <c r="Q151">
+        <v>0.25</v>
+      </c>
+      <c r="R151">
+        <v>1.975</v>
+      </c>
+      <c r="S151">
+        <v>1.825</v>
+      </c>
+      <c r="T151">
         <v>3.5</v>
       </c>
-      <c r="M151">
-        <v>2.15</v>
-      </c>
-      <c r="N151">
-        <v>3.4</v>
-      </c>
-      <c r="O151">
-        <v>3.75</v>
-      </c>
-      <c r="P151">
-        <v>1.85</v>
-      </c>
-      <c r="Q151">
-        <v>0.5</v>
-      </c>
-      <c r="R151">
-        <v>1.875</v>
-      </c>
-      <c r="S151">
-        <v>1.925</v>
-      </c>
-      <c r="T151">
-        <v>3.25</v>
-      </c>
       <c r="U151">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V151">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W151">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA151">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC151">
         <v>-1</v>
@@ -13954,7 +13954,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7173169</v>
+        <v>7173184</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13966,73 +13966,73 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F152" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G152" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H152">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I152">
         <v>3</v>
       </c>
       <c r="J152" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K152">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="L152">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M152">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="N152">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O152">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P152">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="Q152">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R152">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S152">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T152">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U152">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V152">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W152">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z152">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB152">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC152">
         <v>-1</v>
@@ -14043,7 +14043,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7173186</v>
+        <v>7173185</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14055,76 +14055,76 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G153" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
         <v>1</v>
       </c>
-      <c r="I153">
-        <v>0</v>
-      </c>
       <c r="J153" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K153">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="L153">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M153">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="N153">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="O153">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P153">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R153">
         <v>1.825</v>
       </c>
       <c r="S153">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T153">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U153">
         <v>1.925</v>
       </c>
       <c r="V153">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W153">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z153">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB153">
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14132,7 +14132,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7173185</v>
+        <v>7173186</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14144,76 +14144,76 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F154" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G154" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
         <v>0</v>
       </c>
-      <c r="I154">
-        <v>1</v>
-      </c>
       <c r="J154" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K154">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="L154">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M154">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="N154">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="O154">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P154">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q154">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R154">
         <v>1.825</v>
       </c>
       <c r="S154">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T154">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U154">
         <v>1.925</v>
       </c>
       <c r="V154">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA154">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
         <v>-1</v>
       </c>
       <c r="AC154">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14233,7 +14233,7 @@
         <v>45200.67708333334</v>
       </c>
       <c r="F155" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G155" t="s">
         <v>36</v>
@@ -14322,7 +14322,7 @@
         <v>45201.67708333334</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G156" t="s">
         <v>37</v>
@@ -14399,7 +14399,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7173189</v>
+        <v>7173173</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14411,58 +14411,58 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H157">
+        <v>5</v>
+      </c>
+      <c r="I157">
         <v>1</v>
-      </c>
-      <c r="I157">
-        <v>0</v>
       </c>
       <c r="J157" t="s">
         <v>43</v>
       </c>
       <c r="K157">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L157">
+        <v>4.333</v>
+      </c>
+      <c r="M157">
+        <v>3.75</v>
+      </c>
+      <c r="N157">
+        <v>1.533</v>
+      </c>
+      <c r="O157">
+        <v>4.75</v>
+      </c>
+      <c r="P157">
+        <v>4.333</v>
+      </c>
+      <c r="Q157">
+        <v>-1</v>
+      </c>
+      <c r="R157">
+        <v>1.85</v>
+      </c>
+      <c r="S157">
+        <v>2</v>
+      </c>
+      <c r="T157">
         <v>4</v>
       </c>
-      <c r="M157">
-        <v>3.4</v>
-      </c>
-      <c r="N157">
-        <v>2.15</v>
-      </c>
-      <c r="O157">
-        <v>3.8</v>
-      </c>
-      <c r="P157">
-        <v>2.8</v>
-      </c>
-      <c r="Q157">
-        <v>-0.25</v>
-      </c>
-      <c r="R157">
-        <v>1.9</v>
-      </c>
-      <c r="S157">
-        <v>1.9</v>
-      </c>
-      <c r="T157">
-        <v>3.5</v>
-      </c>
       <c r="U157">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V157">
         <v>1.825</v>
       </c>
       <c r="W157">
-        <v>1.15</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14471,16 +14471,16 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC157">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14488,7 +14488,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7173188</v>
+        <v>7173189</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14500,76 +14500,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H158">
         <v>1</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K158">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="L158">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M158">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N158">
-        <v>1.222</v>
+        <v>2.15</v>
       </c>
       <c r="O158">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P158">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="Q158">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R158">
+        <v>1.9</v>
+      </c>
+      <c r="S158">
+        <v>1.9</v>
+      </c>
+      <c r="T158">
+        <v>3.5</v>
+      </c>
+      <c r="U158">
         <v>1.975</v>
       </c>
-      <c r="S158">
+      <c r="V158">
         <v>1.825</v>
       </c>
-      <c r="T158">
-        <v>3.75</v>
-      </c>
-      <c r="U158">
-        <v>1.9</v>
-      </c>
-      <c r="V158">
-        <v>1.9</v>
-      </c>
       <c r="W158">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X158">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA158">
+        <v>-1</v>
+      </c>
+      <c r="AB158">
+        <v>-1</v>
+      </c>
+      <c r="AC158">
         <v>0.825</v>
-      </c>
-      <c r="AB158">
-        <v>-1</v>
-      </c>
-      <c r="AC158">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14577,7 +14577,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7173172</v>
+        <v>7173187</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14589,13 +14589,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G159" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I159">
         <v>1</v>
@@ -14604,28 +14604,28 @@
         <v>43</v>
       </c>
       <c r="K159">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L159">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M159">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="N159">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O159">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P159">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q159">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R159">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S159">
         <v>2.025</v>
@@ -14634,13 +14634,13 @@
         <v>3.5</v>
       </c>
       <c r="U159">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V159">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W159">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14649,13 +14649,13 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA159">
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -14666,7 +14666,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7173187</v>
+        <v>7173188</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14678,76 +14678,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F160" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G160" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H160">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I160">
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K160">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L160">
+        <v>4.5</v>
+      </c>
+      <c r="M160">
+        <v>5.5</v>
+      </c>
+      <c r="N160">
+        <v>1.222</v>
+      </c>
+      <c r="O160">
+        <v>5.5</v>
+      </c>
+      <c r="P160">
+        <v>9</v>
+      </c>
+      <c r="Q160">
+        <v>-2</v>
+      </c>
+      <c r="R160">
+        <v>1.975</v>
+      </c>
+      <c r="S160">
+        <v>1.825</v>
+      </c>
+      <c r="T160">
         <v>3.75</v>
       </c>
-      <c r="M160">
-        <v>2.9</v>
-      </c>
-      <c r="N160">
-        <v>2.1</v>
-      </c>
-      <c r="O160">
-        <v>3.5</v>
-      </c>
-      <c r="P160">
-        <v>3</v>
-      </c>
-      <c r="Q160">
-        <v>-0.25</v>
-      </c>
-      <c r="R160">
-        <v>1.825</v>
-      </c>
-      <c r="S160">
-        <v>2.025</v>
-      </c>
-      <c r="T160">
-        <v>3.5</v>
-      </c>
       <c r="U160">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V160">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W160">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
+        <v>-1</v>
+      </c>
+      <c r="AA160">
         <v>0.825</v>
       </c>
-      <c r="AA160">
-        <v>-1</v>
-      </c>
       <c r="AB160">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14755,7 +14755,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7173173</v>
+        <v>7173172</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14767,13 +14767,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G161" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H161">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I161">
         <v>1</v>
@@ -14782,43 +14782,43 @@
         <v>43</v>
       </c>
       <c r="K161">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L161">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M161">
+        <v>2.6</v>
+      </c>
+      <c r="N161">
+        <v>2.25</v>
+      </c>
+      <c r="O161">
         <v>3.75</v>
       </c>
-      <c r="N161">
-        <v>1.533</v>
-      </c>
-      <c r="O161">
-        <v>4.75</v>
-      </c>
       <c r="P161">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q161">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R161">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S161">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T161">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U161">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V161">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W161">
-        <v>0.5329999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14827,13 +14827,13 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA161">
         <v>-1</v>
       </c>
       <c r="AB161">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC161">
         <v>-1</v>
@@ -14859,7 +14859,7 @@
         <v>34</v>
       </c>
       <c r="G162" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H162">
         <v>0</v>

--- a/Iceland Premier League/Iceland Premier League.xlsx
+++ b/Iceland Premier League/Iceland Premier League.xlsx
@@ -109,13 +109,13 @@
     <t>KA Akureyri</t>
   </si>
   <si>
-    <t>Stjarnan</t>
-  </si>
-  <si>
     <t>Fram Reykjavik</t>
   </si>
   <si>
     <t>Valur Reykjavik</t>
+  </si>
+  <si>
+    <t>Stjarnan</t>
   </si>
   <si>
     <t>Breidablik</t>
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6102128</v>
+        <v>6102129</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4">
+        <v>2.6</v>
+      </c>
+      <c r="L4">
+        <v>3.75</v>
+      </c>
+      <c r="M4">
+        <v>2.15</v>
+      </c>
+      <c r="N4">
+        <v>2.5</v>
+      </c>
+      <c r="O4">
+        <v>3.25</v>
+      </c>
+      <c r="P4">
+        <v>2.4</v>
+      </c>
+      <c r="Q4">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4">
-        <v>3.75</v>
-      </c>
-      <c r="L4">
-        <v>4</v>
-      </c>
-      <c r="M4">
-        <v>1.666</v>
-      </c>
-      <c r="N4">
-        <v>3.4</v>
-      </c>
-      <c r="O4">
-        <v>3.8</v>
-      </c>
-      <c r="P4">
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
         <v>1.8</v>
-      </c>
-      <c r="Q4">
-        <v>0.5</v>
-      </c>
-      <c r="R4">
-        <v>1.95</v>
-      </c>
-      <c r="S4">
-        <v>1.85</v>
       </c>
       <c r="T4">
         <v>3</v>
       </c>
       <c r="U4">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y4">
+        <v>-1</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>-0</v>
+      </c>
+      <c r="AB4">
         <v>0.8</v>
       </c>
-      <c r="Z4">
-        <v>-1</v>
-      </c>
-      <c r="AA4">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB4">
-        <v>-1</v>
-      </c>
       <c r="AC4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6102129</v>
+        <v>6102338</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,40 +886,40 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K5">
-        <v>2.6</v>
+        <v>1.625</v>
       </c>
       <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>1.666</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
         <v>3.75</v>
       </c>
-      <c r="M5">
-        <v>2.15</v>
-      </c>
-      <c r="N5">
-        <v>2.5</v>
-      </c>
-      <c r="O5">
-        <v>3.25</v>
-      </c>
-      <c r="P5">
-        <v>2.4</v>
-      </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S5">
         <v>1.8</v>
@@ -928,16 +928,16 @@
         <v>3</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X5">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
@@ -949,10 +949,10 @@
         <v>-0</v>
       </c>
       <c r="AB5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6102338</v>
+        <v>6102128</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,73 +975,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>1.625</v>
+        <v>3.75</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="N6">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P6">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S6">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T6">
         <v>3</v>
       </c>
       <c r="U6">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V6">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W6">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1242,7 +1242,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1420,7 +1420,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1506,7 +1506,7 @@
         <v>45032.67708333334</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
         <v>34</v>
@@ -1773,10 +1773,10 @@
         <v>45039.67708333334</v>
       </c>
       <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
         <v>32</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6102140</v>
+        <v>6560010</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,76 +1862,76 @@
         <v>45040.67708333334</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>43</v>
       </c>
       <c r="K16">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="L16">
         <v>3.8</v>
       </c>
       <c r="M16">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O16">
         <v>3.8</v>
       </c>
       <c r="P16">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T16">
         <v>3</v>
       </c>
       <c r="U16">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W16">
+        <v>0.909</v>
+      </c>
+      <c r="X16">
+        <v>-1</v>
+      </c>
+      <c r="Y16">
+        <v>-1</v>
+      </c>
+      <c r="Z16">
         <v>1</v>
       </c>
-      <c r="X16">
-        <v>-1</v>
-      </c>
-      <c r="Y16">
-        <v>-1</v>
-      </c>
-      <c r="Z16">
-        <v>0.8</v>
-      </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6102141</v>
+        <v>6102140</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,58 +1951,58 @@
         <v>45040.67708333334</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
         <v>4</v>
-      </c>
-      <c r="I17">
-        <v>2</v>
       </c>
       <c r="J17" t="s">
         <v>43</v>
       </c>
       <c r="K17">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="L17">
         <v>3.8</v>
       </c>
       <c r="M17">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="N17">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O17">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P17">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="Q17">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
         <v>1.8</v>
       </c>
       <c r="S17">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U17">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V17">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2017,7 +2017,7 @@
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6560010</v>
+        <v>6102141</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,58 +2040,58 @@
         <v>45040.67708333334</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
         <v>43</v>
       </c>
       <c r="K18">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="L18">
         <v>3.8</v>
       </c>
       <c r="M18">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="N18">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="O18">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q18">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S18">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U18">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V18">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W18">
-        <v>0.909</v>
+        <v>1.75</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2100,16 +2100,16 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA18">
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC18">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2132,7 +2132,7 @@
         <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6102145</v>
+        <v>6102339</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,76 +2396,76 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="L22">
         <v>3.8</v>
       </c>
       <c r="M22">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="N22">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="O22">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P22">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q22">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S22">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U22">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V22">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC22">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6102339</v>
+        <v>6102145</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,76 +2485,76 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K23">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="L23">
         <v>3.8</v>
       </c>
       <c r="M23">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="N23">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="O23">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P23">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S23">
+        <v>1.95</v>
+      </c>
+      <c r="T23">
+        <v>3</v>
+      </c>
+      <c r="U23">
+        <v>1.975</v>
+      </c>
+      <c r="V23">
         <v>1.825</v>
       </c>
-      <c r="T23">
-        <v>3.25</v>
-      </c>
-      <c r="U23">
-        <v>2.05</v>
-      </c>
-      <c r="V23">
-        <v>1.8</v>
-      </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA23">
+        <v>-1</v>
+      </c>
+      <c r="AB23">
+        <v>-1</v>
+      </c>
+      <c r="AC23">
         <v>0.825</v>
-      </c>
-      <c r="AB23">
-        <v>1.05</v>
-      </c>
-      <c r="AC23">
-        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2574,10 +2574,10 @@
         <v>45045.67708333334</v>
       </c>
       <c r="F24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" t="s">
         <v>33</v>
-      </c>
-      <c r="G24" t="s">
-        <v>31</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2663,7 +2663,7 @@
         <v>45049.625</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
         <v>39</v>
@@ -2933,7 +2933,7 @@
         <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6102152</v>
+        <v>6102151</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,40 +3019,40 @@
         <v>45050.67708333334</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29">
+        <v>3.8</v>
+      </c>
+      <c r="L29">
+        <v>3.75</v>
+      </c>
+      <c r="M29">
+        <v>1.727</v>
+      </c>
+      <c r="N29">
+        <v>3.6</v>
+      </c>
+      <c r="O29">
         <v>4</v>
       </c>
-      <c r="I29">
+      <c r="P29">
+        <v>1.727</v>
+      </c>
+      <c r="Q29">
         <v>1</v>
-      </c>
-      <c r="J29" t="s">
-        <v>43</v>
-      </c>
-      <c r="K29">
-        <v>1.363</v>
-      </c>
-      <c r="L29">
-        <v>4.75</v>
-      </c>
-      <c r="M29">
-        <v>6</v>
-      </c>
-      <c r="N29">
-        <v>1.222</v>
-      </c>
-      <c r="O29">
-        <v>5.75</v>
-      </c>
-      <c r="P29">
-        <v>8</v>
-      </c>
-      <c r="Q29">
-        <v>-1.75</v>
       </c>
       <c r="R29">
         <v>1.825</v>
@@ -3061,34 +3061,34 @@
         <v>2.025</v>
       </c>
       <c r="T29">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U29">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W29">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z29">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6102151</v>
+        <v>6102152</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,40 +3108,40 @@
         <v>45050.67708333334</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="L30">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M30">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="N30">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="O30">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P30">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R30">
         <v>1.825</v>
@@ -3150,34 +3150,34 @@
         <v>2.025</v>
       </c>
       <c r="T30">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U30">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V30">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA30">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC30">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>45053.67708333334</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
@@ -3464,10 +3464,10 @@
         <v>45054.67708333334</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3731,7 +3731,7 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
         <v>39</v>
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6102162</v>
+        <v>6102158</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,49 +3820,49 @@
         <v>45059.54166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J38" t="s">
         <v>41</v>
       </c>
       <c r="K38">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="L38">
         <v>3.5</v>
       </c>
       <c r="M38">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="N38">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="O38">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P38">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="Q38">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S38">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T38">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U38">
         <v>1.85</v>
@@ -3877,19 +3877,19 @@
         <v>-1</v>
       </c>
       <c r="Y38">
+        <v>1.625</v>
+      </c>
+      <c r="Z38">
+        <v>-1</v>
+      </c>
+      <c r="AA38">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB38">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z38">
-        <v>-1</v>
-      </c>
-      <c r="AA38">
-        <v>0.875</v>
-      </c>
-      <c r="AB38">
-        <v>-1</v>
-      </c>
       <c r="AC38">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6102158</v>
+        <v>6102162</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,49 +3909,49 @@
         <v>45059.54166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
         <v>41</v>
       </c>
       <c r="K39">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="L39">
         <v>3.5</v>
       </c>
       <c r="M39">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="N39">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="O39">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P39">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R39">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S39">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T39">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
         <v>1.85</v>
@@ -3966,19 +3966,19 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4090,7 +4090,7 @@
         <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6102343</v>
+        <v>6102164</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,40 +4354,40 @@
         <v>45067.67708333334</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K44">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="L44">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M44">
-        <v>6</v>
+        <v>1.615</v>
       </c>
       <c r="N44">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="O44">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P44">
-        <v>6.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q44">
-        <v>-1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R44">
         <v>1.825</v>
@@ -4396,34 +4396,34 @@
         <v>2.025</v>
       </c>
       <c r="T44">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V44">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA44">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC44">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6102164</v>
+        <v>6102343</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,40 +4443,40 @@
         <v>45067.67708333334</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K45">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="L45">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="M45">
-        <v>1.615</v>
+        <v>6</v>
       </c>
       <c r="N45">
+        <v>1.3</v>
+      </c>
+      <c r="O45">
         <v>5.5</v>
       </c>
-      <c r="O45">
-        <v>4.2</v>
-      </c>
       <c r="P45">
-        <v>1.45</v>
+        <v>6.5</v>
       </c>
       <c r="Q45">
-        <v>1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R45">
         <v>1.825</v>
@@ -4485,34 +4485,34 @@
         <v>2.025</v>
       </c>
       <c r="T45">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U45">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y45">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4609,7 +4609,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6102166</v>
+        <v>6102165</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4621,40 +4621,40 @@
         <v>45068.67708333334</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47">
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K47">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L47">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M47">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="N47">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="O47">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P47">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q47">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R47">
         <v>1.975</v>
@@ -4663,22 +4663,22 @@
         <v>1.825</v>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U47">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V47">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y47">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
         <v>-1</v>
@@ -4687,10 +4687,10 @@
         <v>0.825</v>
       </c>
       <c r="AB47">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC47">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4698,7 +4698,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6102165</v>
+        <v>6102166</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4713,37 +4713,37 @@
         <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K48">
+        <v>2.75</v>
+      </c>
+      <c r="L48">
+        <v>3.4</v>
+      </c>
+      <c r="M48">
+        <v>2.2</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+      <c r="O48">
+        <v>3.3</v>
+      </c>
+      <c r="P48">
         <v>2.1</v>
       </c>
-      <c r="L48">
-        <v>3.6</v>
-      </c>
-      <c r="M48">
-        <v>2.9</v>
-      </c>
-      <c r="N48">
-        <v>1.45</v>
-      </c>
-      <c r="O48">
-        <v>4.75</v>
-      </c>
-      <c r="P48">
-        <v>5.5</v>
-      </c>
       <c r="Q48">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R48">
         <v>1.975</v>
@@ -4752,22 +4752,22 @@
         <v>1.825</v>
       </c>
       <c r="T48">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U48">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V48">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z48">
         <v>-1</v>
@@ -4776,10 +4776,10 @@
         <v>0.825</v>
       </c>
       <c r="AB48">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4891,7 +4891,7 @@
         <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6102344</v>
+        <v>6102168</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5066,28 +5066,28 @@
         <v>45074.67708333334</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>43</v>
       </c>
       <c r="K52">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L52">
         <v>3.5</v>
       </c>
       <c r="M52">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N52">
         <v>1.909</v>
@@ -5096,25 +5096,25 @@
         <v>3.4</v>
       </c>
       <c r="P52">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q52">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S52">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U52">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V52">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
         <v>0.909</v>
@@ -5126,16 +5126,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5143,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6102168</v>
+        <v>6102344</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5155,28 +5155,28 @@
         <v>45074.67708333334</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J53" t="s">
         <v>43</v>
       </c>
       <c r="K53">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L53">
         <v>3.5</v>
       </c>
       <c r="M53">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N53">
         <v>1.909</v>
@@ -5185,25 +5185,25 @@
         <v>3.4</v>
       </c>
       <c r="P53">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q53">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S53">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T53">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U53">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V53">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W53">
         <v>0.909</v>
@@ -5215,16 +5215,16 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC53">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5247,7 +5247,7 @@
         <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H54">
         <v>4</v>
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6102171</v>
+        <v>6102170</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,76 +5333,76 @@
         <v>45075.67708333334</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K55">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="L55">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M55">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="N55">
-        <v>1.833</v>
+        <v>6</v>
       </c>
       <c r="O55">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P55">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="Q55">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R55">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S55">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T55">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U55">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y55">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA55">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6102170</v>
+        <v>6102171</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,76 +5422,76 @@
         <v>45075.67708333334</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K56">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="L56">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M56">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="N56">
-        <v>6</v>
+        <v>1.833</v>
       </c>
       <c r="O56">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P56">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q56">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R56">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S56">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T56">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U56">
+        <v>1.75</v>
+      </c>
+      <c r="V56">
         <v>1.95</v>
       </c>
-      <c r="V56">
-        <v>1.85</v>
-      </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z56">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC56">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>45079.625</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G59" t="s">
         <v>30</v>
@@ -5778,7 +5778,7 @@
         <v>45079.67708333334</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
         <v>36</v>
@@ -5855,7 +5855,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6102175</v>
+        <v>6102174</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5867,73 +5867,73 @@
         <v>45079.67708333334</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K61">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L61">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M61">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N61">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O61">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P61">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q61">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S61">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T61">
         <v>2.75</v>
       </c>
       <c r="U61">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V61">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W61">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB61">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC61">
         <v>-1</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6102174</v>
+        <v>6102175</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,73 +5956,73 @@
         <v>45079.67708333334</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K62">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L62">
+        <v>3.75</v>
+      </c>
+      <c r="M62">
+        <v>3.25</v>
+      </c>
+      <c r="N62">
+        <v>1.909</v>
+      </c>
+      <c r="O62">
         <v>3.6</v>
       </c>
-      <c r="M62">
-        <v>3.1</v>
-      </c>
-      <c r="N62">
-        <v>2.25</v>
-      </c>
-      <c r="O62">
-        <v>3.3</v>
-      </c>
       <c r="P62">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R62">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S62">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T62">
         <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V62">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X62">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA62">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6315,7 +6315,7 @@
         <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6493,7 +6493,7 @@
         <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>3</v>
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6102182</v>
+        <v>6102181</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,76 +6579,76 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K69">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L69">
+        <v>3.75</v>
+      </c>
+      <c r="M69">
         <v>3.6</v>
       </c>
-      <c r="M69">
-        <v>2.625</v>
-      </c>
       <c r="N69">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="O69">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P69">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q69">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R69">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S69">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T69">
         <v>3</v>
       </c>
       <c r="U69">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V69">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X69">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC69">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6102181</v>
+        <v>6102182</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,76 +6668,76 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K70">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="L70">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M70">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N70">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="O70">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P70">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q70">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R70">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S70">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T70">
         <v>3</v>
       </c>
       <c r="U70">
+        <v>2</v>
+      </c>
+      <c r="V70">
         <v>1.85</v>
       </c>
-      <c r="V70">
-        <v>2</v>
-      </c>
       <c r="W70">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB70">
+        <v>-1</v>
+      </c>
+      <c r="AC70">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC70">
-        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6849,7 +6849,7 @@
         <v>39</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -7027,7 +7027,7 @@
         <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6102188</v>
+        <v>6102191</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,40 +7202,40 @@
         <v>45105.67708333334</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
         <v>43</v>
       </c>
       <c r="K76">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M76">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N76">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O76">
         <v>3.75</v>
       </c>
       <c r="P76">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q76">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R76">
         <v>1.875</v>
@@ -7244,7 +7244,7 @@
         <v>1.975</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U76">
         <v>2</v>
@@ -7253,7 +7253,7 @@
         <v>1.85</v>
       </c>
       <c r="W76">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7268,10 +7268,10 @@
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC76">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6102191</v>
+        <v>6102188</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,40 +7291,40 @@
         <v>45105.67708333334</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G77" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
         <v>43</v>
       </c>
       <c r="K77">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L77">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M77">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N77">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O77">
         <v>3.75</v>
       </c>
       <c r="P77">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q77">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R77">
         <v>1.875</v>
@@ -7333,7 +7333,7 @@
         <v>1.975</v>
       </c>
       <c r="T77">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
         <v>2</v>
@@ -7342,7 +7342,7 @@
         <v>1.85</v>
       </c>
       <c r="W77">
-        <v>0.833</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7357,10 +7357,10 @@
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7469,7 +7469,7 @@
         <v>45106.67708333334</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
         <v>36</v>
@@ -7650,7 +7650,7 @@
         <v>39</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7825,7 +7825,7 @@
         <v>45119.67708333334</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
         <v>29</v>
@@ -8003,7 +8003,7 @@
         <v>45121.71875</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
         <v>34</v>
@@ -8181,10 +8181,10 @@
         <v>45124.67708333334</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6922578</v>
+        <v>6102200</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,76 +8270,76 @@
         <v>45125.70833333334</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K88">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L88">
         <v>3.6</v>
       </c>
       <c r="M88">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N88">
         <v>2.05</v>
       </c>
       <c r="O88">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P88">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q88">
         <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S88">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T88">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
         <v>1.925</v>
       </c>
       <c r="V88">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X88">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA88">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6102200</v>
+        <v>6922578</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,76 +8359,76 @@
         <v>45125.70833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K89">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L89">
         <v>3.6</v>
       </c>
       <c r="M89">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N89">
         <v>2.05</v>
       </c>
       <c r="O89">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P89">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q89">
         <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S89">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U89">
         <v>1.925</v>
       </c>
       <c r="V89">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W89">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8540,7 +8540,7 @@
         <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6102206</v>
+        <v>6542524</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,76 +8626,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K92">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="L92">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M92">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N92">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="O92">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P92">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="Q92">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S92">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T92">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U92">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V92">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W92">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC92">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6542524</v>
+        <v>6102206</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,76 +8715,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K93">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="L93">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M93">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N93">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="O93">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P93">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R93">
+        <v>1.925</v>
+      </c>
+      <c r="S93">
         <v>1.775</v>
       </c>
-      <c r="S93">
-        <v>2.025</v>
-      </c>
       <c r="T93">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB93">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8982,10 +8982,10 @@
         <v>45133.67708333334</v>
       </c>
       <c r="F96" t="s">
+        <v>33</v>
+      </c>
+      <c r="G96" t="s">
         <v>31</v>
-      </c>
-      <c r="G96" t="s">
-        <v>32</v>
       </c>
       <c r="H96">
         <v>4</v>
@@ -9074,7 +9074,7 @@
         <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6102213</v>
+        <v>6102350</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,43 +9338,43 @@
         <v>45138.67708333334</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J100" t="s">
         <v>41</v>
       </c>
       <c r="K100">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="L100">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M100">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N100">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="O100">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P100">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S100">
         <v>1.85</v>
@@ -9383,10 +9383,10 @@
         <v>3</v>
       </c>
       <c r="U100">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V100">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9395,7 +9395,7 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z100">
         <v>-1</v>
@@ -9404,7 +9404,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB100">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6102350</v>
+        <v>6102213</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,43 +9427,43 @@
         <v>45138.67708333334</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J101" t="s">
         <v>41</v>
       </c>
       <c r="K101">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="L101">
+        <v>3.5</v>
+      </c>
+      <c r="M101">
+        <v>2.3</v>
+      </c>
+      <c r="N101">
+        <v>2.7</v>
+      </c>
+      <c r="O101">
         <v>3.6</v>
       </c>
-      <c r="M101">
-        <v>1.909</v>
-      </c>
-      <c r="N101">
-        <v>3.8</v>
-      </c>
-      <c r="O101">
-        <v>3.75</v>
-      </c>
       <c r="P101">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="Q101">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R101">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S101">
         <v>1.85</v>
@@ -9472,10 +9472,10 @@
         <v>3</v>
       </c>
       <c r="U101">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V101">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9484,7 +9484,7 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>0.8500000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="Z101">
         <v>-1</v>
@@ -9493,7 +9493,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB101">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9519,7 +9519,7 @@
         <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9694,7 +9694,7 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
         <v>30</v>
@@ -9872,7 +9872,7 @@
         <v>45146.67708333334</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G106" t="s">
         <v>29</v>
@@ -10127,7 +10127,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6102352</v>
+        <v>6102353</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10139,76 +10139,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G109" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109">
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K109">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="L109">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M109">
-        <v>1.363</v>
+        <v>4.333</v>
       </c>
       <c r="N109">
-        <v>5.25</v>
+        <v>1.727</v>
       </c>
       <c r="O109">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P109">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q109">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R109">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S109">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T109">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V109">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X109">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC109">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6102353</v>
+        <v>6102352</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,76 +10228,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110">
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K110">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="L110">
+        <v>4.75</v>
+      </c>
+      <c r="M110">
+        <v>1.363</v>
+      </c>
+      <c r="N110">
+        <v>5.25</v>
+      </c>
+      <c r="O110">
+        <v>4.75</v>
+      </c>
+      <c r="P110">
+        <v>1.4</v>
+      </c>
+      <c r="Q110">
+        <v>1.25</v>
+      </c>
+      <c r="R110">
+        <v>1.9</v>
+      </c>
+      <c r="S110">
+        <v>1.9</v>
+      </c>
+      <c r="T110">
+        <v>3.25</v>
+      </c>
+      <c r="U110">
+        <v>1.85</v>
+      </c>
+      <c r="V110">
+        <v>1.95</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
         <v>3.75</v>
       </c>
-      <c r="M110">
-        <v>4.333</v>
-      </c>
-      <c r="N110">
-        <v>1.727</v>
-      </c>
-      <c r="O110">
-        <v>3.6</v>
-      </c>
-      <c r="P110">
-        <v>4.2</v>
-      </c>
-      <c r="Q110">
-        <v>-0.75</v>
-      </c>
-      <c r="R110">
-        <v>1.975</v>
-      </c>
-      <c r="S110">
-        <v>1.825</v>
-      </c>
-      <c r="T110">
-        <v>2.75</v>
-      </c>
-      <c r="U110">
-        <v>1.825</v>
-      </c>
-      <c r="V110">
-        <v>1.975</v>
-      </c>
-      <c r="W110">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X110">
-        <v>-1</v>
-      </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10320,7 +10320,7 @@
         <v>40</v>
       </c>
       <c r="G111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H111">
         <v>3</v>
@@ -10498,7 +10498,7 @@
         <v>29</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10673,7 +10673,7 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G115" t="s">
         <v>30</v>
@@ -10940,7 +10940,7 @@
         <v>45158.67708333334</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G118" t="s">
         <v>37</v>
@@ -11029,7 +11029,7 @@
         <v>45159.67708333334</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
         <v>40</v>
@@ -11121,7 +11121,7 @@
         <v>30</v>
       </c>
       <c r="G120" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11210,7 +11210,7 @@
         <v>36</v>
       </c>
       <c r="G121" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H121">
         <v>3</v>
@@ -11284,7 +11284,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6102229</v>
+        <v>6102230</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11296,76 +11296,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K122">
-        <v>1.55</v>
+        <v>2.55</v>
       </c>
       <c r="L122">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M122">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="N122">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="O122">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P122">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q122">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R122">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S122">
         <v>1.825</v>
       </c>
       <c r="T122">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U122">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V122">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W122">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB122">
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11373,7 +11373,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6102230</v>
+        <v>6102229</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11385,76 +11385,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123">
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K123">
-        <v>2.55</v>
+        <v>1.55</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M123">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N123">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O123">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P123">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q123">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R123">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S123">
         <v>1.825</v>
       </c>
       <c r="T123">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U123">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V123">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X123">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA123">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11729,7 +11729,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6102232</v>
+        <v>6102236</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11741,55 +11741,55 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J127" t="s">
         <v>42</v>
       </c>
       <c r="K127">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="L127">
         <v>3.6</v>
       </c>
       <c r="M127">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N127">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O127">
         <v>3.6</v>
       </c>
       <c r="P127">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="Q127">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R127">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S127">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T127">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U127">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V127">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -11801,16 +11801,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA127">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC127">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6102235</v>
+        <v>6102357</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,76 +11830,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K128">
-        <v>1.6</v>
+        <v>1.333</v>
       </c>
       <c r="L128">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M128">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="N128">
-        <v>1.65</v>
+        <v>1.3</v>
       </c>
       <c r="O128">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P128">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q128">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R128">
+        <v>1.975</v>
+      </c>
+      <c r="S128">
         <v>1.825</v>
       </c>
-      <c r="S128">
-        <v>1.975</v>
-      </c>
       <c r="T128">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U128">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V128">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA128">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC128">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6102236</v>
+        <v>6102234</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,73 +11919,73 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H129">
         <v>2</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K129">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="L129">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M129">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="N129">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="O129">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P129">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="Q129">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R129">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S129">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U129">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V129">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z129">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
       <c r="AA129">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6102357</v>
+        <v>6102233</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12011,13 +12011,13 @@
         <v>33</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H130">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
         <v>43</v>
@@ -12032,34 +12032,34 @@
         <v>7</v>
       </c>
       <c r="N130">
-        <v>1.3</v>
+        <v>1.333</v>
       </c>
       <c r="O130">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="P130">
         <v>7</v>
       </c>
       <c r="Q130">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R130">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S130">
+        <v>1.925</v>
+      </c>
+      <c r="T130">
+        <v>3.25</v>
+      </c>
+      <c r="U130">
         <v>1.825</v>
       </c>
-      <c r="T130">
-        <v>3.75</v>
-      </c>
-      <c r="U130">
-        <v>1.875</v>
-      </c>
       <c r="V130">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W130">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12068,16 +12068,16 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA130">
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6102234</v>
+        <v>6102232</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,76 +12097,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K131">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="L131">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M131">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="N131">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="O131">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P131">
-        <v>1.363</v>
+        <v>2.45</v>
       </c>
       <c r="Q131">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R131">
+        <v>2</v>
+      </c>
+      <c r="S131">
+        <v>1.85</v>
+      </c>
+      <c r="T131">
+        <v>3.25</v>
+      </c>
+      <c r="U131">
         <v>1.95</v>
       </c>
-      <c r="S131">
+      <c r="V131">
         <v>1.9</v>
       </c>
-      <c r="T131">
-        <v>3.5</v>
-      </c>
-      <c r="U131">
-        <v>1.9</v>
-      </c>
-      <c r="V131">
-        <v>1.95</v>
-      </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y131">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB131">
+        <v>-1</v>
+      </c>
+      <c r="AC131">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC131">
-        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6102233</v>
+        <v>6102235</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,76 +12186,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K132">
-        <v>1.333</v>
+        <v>1.6</v>
       </c>
       <c r="L132">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M132">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="N132">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="O132">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P132">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q132">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R132">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S132">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T132">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U132">
         <v>1.825</v>
       </c>
       <c r="V132">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W132">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z132">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12453,10 +12453,10 @@
         <v>45186.67708333334</v>
       </c>
       <c r="F135" t="s">
+        <v>32</v>
+      </c>
+      <c r="G135" t="s">
         <v>33</v>
-      </c>
-      <c r="G135" t="s">
-        <v>31</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12545,7 +12545,7 @@
         <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12812,7 +12812,7 @@
         <v>39</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -12901,7 +12901,7 @@
         <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -12990,7 +12990,7 @@
         <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13420,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7173168</v>
+        <v>7173166</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13432,58 +13432,58 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G146" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J146" t="s">
         <v>43</v>
       </c>
       <c r="K146">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L146">
+        <v>3.6</v>
+      </c>
+      <c r="M146">
+        <v>2.6</v>
+      </c>
+      <c r="N146">
+        <v>2.7</v>
+      </c>
+      <c r="O146">
+        <v>4</v>
+      </c>
+      <c r="P146">
+        <v>2.1</v>
+      </c>
+      <c r="Q146">
+        <v>0.25</v>
+      </c>
+      <c r="R146">
+        <v>1.925</v>
+      </c>
+      <c r="S146">
+        <v>1.875</v>
+      </c>
+      <c r="T146">
         <v>3.75</v>
       </c>
-      <c r="M146">
-        <v>3.2</v>
-      </c>
-      <c r="N146">
-        <v>1.85</v>
-      </c>
-      <c r="O146">
-        <v>3.8</v>
-      </c>
-      <c r="P146">
-        <v>3.4</v>
-      </c>
-      <c r="Q146">
-        <v>-0.5</v>
-      </c>
-      <c r="R146">
-        <v>1.825</v>
-      </c>
-      <c r="S146">
-        <v>1.975</v>
-      </c>
-      <c r="T146">
-        <v>3.25</v>
-      </c>
       <c r="U146">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V146">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W146">
-        <v>0.8500000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13492,16 +13492,16 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA146">
         <v>-1</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC146">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13509,7 +13509,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7173166</v>
+        <v>7173182</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13521,58 +13521,58 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H147">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
         <v>43</v>
       </c>
       <c r="K147">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="L147">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M147">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N147">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O147">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P147">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q147">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S147">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T147">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U147">
         <v>1.925</v>
       </c>
       <c r="V147">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W147">
-        <v>1.7</v>
+        <v>0.833</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13581,7 +13581,7 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA147">
         <v>-1</v>
@@ -13598,7 +13598,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7173182</v>
+        <v>7173168</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13610,37 +13610,37 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
         <v>43</v>
       </c>
       <c r="K148">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L148">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M148">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N148">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="O148">
         <v>3.8</v>
       </c>
       <c r="P148">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q148">
         <v>-0.5</v>
@@ -13655,13 +13655,13 @@
         <v>3.25</v>
       </c>
       <c r="U148">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W148">
-        <v>0.833</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13676,10 +13676,10 @@
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13687,7 +13687,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7173183</v>
+        <v>7173167</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13699,43 +13699,43 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G149" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H149">
         <v>2</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K149">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="L149">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M149">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N149">
-        <v>2.45</v>
+        <v>1.571</v>
       </c>
       <c r="O149">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P149">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R149">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S149">
         <v>1.925</v>
@@ -13744,16 +13744,16 @@
         <v>3.25</v>
       </c>
       <c r="U149">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V149">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X149">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
         <v>-1</v>
@@ -13765,10 +13765,10 @@
         <v>-0</v>
       </c>
       <c r="AB149">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13776,7 +13776,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7173167</v>
+        <v>7173183</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13788,43 +13788,43 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F150" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H150">
         <v>2</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K150">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="L150">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M150">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N150">
-        <v>1.571</v>
+        <v>2.45</v>
       </c>
       <c r="O150">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P150">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q150">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R150">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S150">
         <v>1.925</v>
@@ -13833,16 +13833,16 @@
         <v>3.25</v>
       </c>
       <c r="U150">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V150">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W150">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y150">
         <v>-1</v>
@@ -13854,10 +13854,10 @@
         <v>-0</v>
       </c>
       <c r="AB150">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC150">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14144,7 +14144,7 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
         <v>30</v>
@@ -14233,7 +14233,7 @@
         <v>45200.67708333334</v>
       </c>
       <c r="F155" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G155" t="s">
         <v>36</v>
@@ -14322,7 +14322,7 @@
         <v>45201.67708333334</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G156" t="s">
         <v>37</v>
@@ -14399,7 +14399,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7173173</v>
+        <v>7173172</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14411,13 +14411,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G157" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H157">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I157">
         <v>1</v>
@@ -14426,43 +14426,43 @@
         <v>43</v>
       </c>
       <c r="K157">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L157">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M157">
+        <v>2.6</v>
+      </c>
+      <c r="N157">
+        <v>2.25</v>
+      </c>
+      <c r="O157">
         <v>3.75</v>
       </c>
-      <c r="N157">
-        <v>1.533</v>
-      </c>
-      <c r="O157">
-        <v>4.75</v>
-      </c>
       <c r="P157">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q157">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R157">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S157">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T157">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U157">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V157">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W157">
-        <v>0.5329999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14471,13 +14471,13 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14488,7 +14488,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7173189</v>
+        <v>7173173</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14500,58 +14500,58 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G158" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H158">
+        <v>5</v>
+      </c>
+      <c r="I158">
         <v>1</v>
-      </c>
-      <c r="I158">
-        <v>0</v>
       </c>
       <c r="J158" t="s">
         <v>43</v>
       </c>
       <c r="K158">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L158">
+        <v>4.333</v>
+      </c>
+      <c r="M158">
+        <v>3.75</v>
+      </c>
+      <c r="N158">
+        <v>1.533</v>
+      </c>
+      <c r="O158">
+        <v>4.75</v>
+      </c>
+      <c r="P158">
+        <v>4.333</v>
+      </c>
+      <c r="Q158">
+        <v>-1</v>
+      </c>
+      <c r="R158">
+        <v>1.85</v>
+      </c>
+      <c r="S158">
+        <v>2</v>
+      </c>
+      <c r="T158">
         <v>4</v>
       </c>
-      <c r="M158">
-        <v>3.4</v>
-      </c>
-      <c r="N158">
-        <v>2.15</v>
-      </c>
-      <c r="O158">
-        <v>3.8</v>
-      </c>
-      <c r="P158">
-        <v>2.8</v>
-      </c>
-      <c r="Q158">
-        <v>-0.25</v>
-      </c>
-      <c r="R158">
-        <v>1.9</v>
-      </c>
-      <c r="S158">
-        <v>1.9</v>
-      </c>
-      <c r="T158">
-        <v>3.5</v>
-      </c>
       <c r="U158">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V158">
         <v>1.825</v>
       </c>
       <c r="W158">
-        <v>1.15</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14560,16 +14560,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA158">
         <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC158">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14592,7 +14592,7 @@
         <v>29</v>
       </c>
       <c r="G159" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H159">
         <v>5</v>
@@ -14755,7 +14755,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7173172</v>
+        <v>7173189</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14767,58 +14767,58 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G161" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
         <v>43</v>
       </c>
       <c r="K161">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L161">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M161">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="N161">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O161">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P161">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q161">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S161">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T161">
         <v>3.5</v>
       </c>
       <c r="U161">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V161">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W161">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14827,16 +14827,16 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA161">
         <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14859,7 +14859,7 @@
         <v>34</v>
       </c>
       <c r="G162" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H162">
         <v>0</v>

--- a/Iceland Premier League/Iceland Premier League.xlsx
+++ b/Iceland Premier League/Iceland Premier League.xlsx
@@ -103,19 +103,19 @@
     <t>Iceland Premier League</t>
   </si>
   <si>
+    <t>KA Akureyri</t>
+  </si>
+  <si>
     <t>Fylkir Reykjavik</t>
   </si>
   <si>
-    <t>KA Akureyri</t>
-  </si>
-  <si>
-    <t>Fram Reykjavik</t>
+    <t>Stjarnan</t>
   </si>
   <si>
     <t>Valur Reykjavik</t>
   </si>
   <si>
-    <t>Stjarnan</t>
+    <t>Fram Reykjavik</t>
   </si>
   <si>
     <t>Breidablik</t>
@@ -139,10 +139,10 @@
     <t>KR Reykjavik</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
     <t>H</t>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6102127</v>
+        <v>6102126</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -619,73 +619,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
       </c>
       <c r="K2">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="L2">
         <v>3.6</v>
       </c>
       <c r="M2">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N2">
         <v>1.909</v>
       </c>
       <c r="O2">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P2">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q2">
         <v>-0.5</v>
       </c>
       <c r="R2">
+        <v>1.95</v>
+      </c>
+      <c r="S2">
+        <v>1.85</v>
+      </c>
+      <c r="T2">
+        <v>3</v>
+      </c>
+      <c r="U2">
         <v>1.925</v>
       </c>
-      <c r="S2">
+      <c r="V2">
         <v>1.875</v>
       </c>
-      <c r="T2">
-        <v>3.25</v>
-      </c>
-      <c r="U2">
-        <v>1.85</v>
-      </c>
-      <c r="V2">
-        <v>1.95</v>
-      </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y2">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
         <v>-1</v>
       </c>
       <c r="AA2">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB2">
+        <v>-1</v>
+      </c>
+      <c r="AC2">
         <v>0.875</v>
-      </c>
-      <c r="AB2">
-        <v>-0.5</v>
-      </c>
-      <c r="AC2">
-        <v>0.475</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6102126</v>
+        <v>6102127</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,73 +708,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>42</v>
       </c>
       <c r="K3">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L3">
         <v>3.6</v>
       </c>
       <c r="M3">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N3">
         <v>1.909</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P3">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q3">
         <v>-0.5</v>
       </c>
       <c r="R3">
+        <v>1.925</v>
+      </c>
+      <c r="S3">
+        <v>1.875</v>
+      </c>
+      <c r="T3">
+        <v>3.25</v>
+      </c>
+      <c r="U3">
+        <v>1.85</v>
+      </c>
+      <c r="V3">
         <v>1.95</v>
       </c>
-      <c r="S3">
-        <v>1.85</v>
-      </c>
-      <c r="T3">
-        <v>3</v>
-      </c>
-      <c r="U3">
-        <v>1.925</v>
-      </c>
-      <c r="V3">
-        <v>1.875</v>
-      </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC3">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6102129</v>
+        <v>6102128</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,10 +797,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -809,61 +809,61 @@
         <v>42</v>
       </c>
       <c r="K4">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="L4">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="N4">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="O4">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P4">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S4">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T4">
         <v>3</v>
       </c>
       <c r="U4">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB4">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6102128</v>
+        <v>6102129</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,10 +975,10 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -987,61 +987,61 @@
         <v>41</v>
       </c>
       <c r="K6">
+        <v>2.6</v>
+      </c>
+      <c r="L6">
         <v>3.75</v>
       </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
       <c r="M6">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="N6">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="O6">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P6">
+        <v>2.4</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
         <v>1.8</v>
-      </c>
-      <c r="Q6">
-        <v>0.5</v>
-      </c>
-      <c r="R6">
-        <v>1.95</v>
-      </c>
-      <c r="S6">
-        <v>1.85</v>
       </c>
       <c r="T6">
         <v>3</v>
       </c>
       <c r="U6">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y6">
+        <v>-1</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>-0</v>
+      </c>
+      <c r="AB6">
         <v>0.8</v>
       </c>
-      <c r="Z6">
-        <v>-1</v>
-      </c>
-      <c r="AA6">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB6">
-        <v>-1</v>
-      </c>
       <c r="AC6">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1073,7 +1073,7 @@
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7">
         <v>1.181</v>
@@ -1162,7 +1162,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1242,7 +1242,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1331,7 +1331,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1420,7 +1420,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1429,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11">
         <v>2.25</v>
@@ -1518,7 +1518,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K12">
         <v>3.2</v>
@@ -1595,7 +1595,7 @@
         <v>45039.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
         <v>35</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13">
         <v>1.55</v>
@@ -1773,7 +1773,7 @@
         <v>45039.67708333334</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
         <v>32</v>
@@ -1785,7 +1785,7 @@
         <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K15">
         <v>3.2</v>
@@ -1951,7 +1951,7 @@
         <v>45040.67708333334</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
@@ -2040,7 +2040,7 @@
         <v>45040.67708333334</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
         <v>36</v>
@@ -2132,7 +2132,7 @@
         <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -2221,7 +2221,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2408,7 +2408,7 @@
         <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K22">
         <v>2.25</v>
@@ -2488,7 +2488,7 @@
         <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2577,7 +2577,7 @@
         <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2663,7 +2663,7 @@
         <v>45049.625</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
         <v>39</v>
@@ -2752,7 +2752,7 @@
         <v>45049.625</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
         <v>36</v>
@@ -2853,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K27">
         <v>1.6</v>
@@ -2930,7 +2930,7 @@
         <v>45049.71875</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
         <v>32</v>
@@ -2942,7 +2942,7 @@
         <v>6</v>
       </c>
       <c r="J28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K28">
         <v>3.6</v>
@@ -3019,7 +3019,7 @@
         <v>45050.67708333334</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
         <v>34</v>
@@ -3031,7 +3031,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K29">
         <v>3.8</v>
@@ -3200,7 +3200,7 @@
         <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3209,7 +3209,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K31">
         <v>2.6</v>
@@ -3387,7 +3387,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K33">
         <v>3.3</v>
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6102156</v>
+        <v>6102340</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,10 +3464,10 @@
         <v>45054.67708333334</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3479,25 +3479,25 @@
         <v>43</v>
       </c>
       <c r="K34">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="L34">
+        <v>3.75</v>
+      </c>
+      <c r="M34">
         <v>3.6</v>
       </c>
-      <c r="M34">
-        <v>2.5</v>
-      </c>
       <c r="N34">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="O34">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P34">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="Q34">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R34">
         <v>1.8</v>
@@ -3509,13 +3509,13 @@
         <v>3.25</v>
       </c>
       <c r="U34">
+        <v>1.975</v>
+      </c>
+      <c r="V34">
         <v>1.825</v>
       </c>
-      <c r="V34">
-        <v>1.975</v>
-      </c>
       <c r="W34">
-        <v>2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3524,16 +3524,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB34">
         <v>-0.5</v>
       </c>
       <c r="AC34">
-        <v>0.4875</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3541,7 +3541,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6102340</v>
+        <v>6102156</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3553,10 +3553,10 @@
         <v>45054.67708333334</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3568,25 +3568,25 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="L35">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M35">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="N35">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="O35">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P35">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="Q35">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R35">
         <v>1.8</v>
@@ -3598,13 +3598,13 @@
         <v>3.25</v>
       </c>
       <c r="U35">
+        <v>1.825</v>
+      </c>
+      <c r="V35">
         <v>1.975</v>
       </c>
-      <c r="V35">
-        <v>1.825</v>
-      </c>
       <c r="W35">
-        <v>0.6000000000000001</v>
+        <v>2</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3613,16 +3613,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AA35">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
         <v>-0.5</v>
       </c>
       <c r="AC35">
-        <v>0.4125</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3642,7 +3642,7 @@
         <v>45054.71875</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
         <v>34</v>
@@ -3654,7 +3654,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K36">
         <v>3.6</v>
@@ -3731,7 +3731,7 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
         <v>39</v>
@@ -3820,7 +3820,7 @@
         <v>45059.54166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
         <v>32</v>
@@ -3832,7 +3832,7 @@
         <v>4</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K38">
         <v>2.375</v>
@@ -3921,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K39">
         <v>3.2</v>
@@ -4010,7 +4010,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K40">
         <v>2.55</v>
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6102161</v>
+        <v>6102160</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4087,58 +4087,58 @@
         <v>45060.67708333334</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
         <v>43</v>
       </c>
       <c r="K41">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="L41">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M41">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="N41">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="O41">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P41">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R41">
+        <v>1.925</v>
+      </c>
+      <c r="S41">
         <v>1.875</v>
       </c>
-      <c r="S41">
-        <v>1.925</v>
-      </c>
       <c r="T41">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U41">
+        <v>1.825</v>
+      </c>
+      <c r="V41">
         <v>1.975</v>
       </c>
-      <c r="V41">
-        <v>1.825</v>
-      </c>
       <c r="W41">
-        <v>1.375</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4147,16 +4147,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA41">
         <v>-1</v>
       </c>
       <c r="AB41">
+        <v>-1</v>
+      </c>
+      <c r="AC41">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC41">
-        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6102160</v>
+        <v>6102161</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,58 +4176,58 @@
         <v>45060.67708333334</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
         <v>43</v>
       </c>
       <c r="K42">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M42">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="N42">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="O42">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P42">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="Q42">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R42">
+        <v>1.875</v>
+      </c>
+      <c r="S42">
         <v>1.925</v>
       </c>
-      <c r="S42">
-        <v>1.875</v>
-      </c>
       <c r="T42">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U42">
+        <v>1.975</v>
+      </c>
+      <c r="V42">
         <v>1.825</v>
       </c>
-      <c r="V42">
-        <v>1.975</v>
-      </c>
       <c r="W42">
-        <v>0.3999999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4236,16 +4236,16 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA42">
         <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC42">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4268,7 +4268,7 @@
         <v>34</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4366,7 +4366,7 @@
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K44">
         <v>4.5</v>
@@ -4455,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K45">
         <v>1.363</v>
@@ -4544,7 +4544,7 @@
         <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K46">
         <v>2.45</v>
@@ -4621,10 +4621,10 @@
         <v>45068.67708333334</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4633,7 +4633,7 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K47">
         <v>2.1</v>
@@ -4710,7 +4710,7 @@
         <v>45068.67708333334</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4722,7 +4722,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K48">
         <v>2.75</v>
@@ -4799,7 +4799,7 @@
         <v>45071.625</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
         <v>37</v>
@@ -4811,7 +4811,7 @@
         <v>4</v>
       </c>
       <c r="J49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K49">
         <v>3</v>
@@ -4977,7 +4977,7 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
         <v>39</v>
@@ -5069,7 +5069,7 @@
         <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5244,10 +5244,10 @@
         <v>45075.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H54">
         <v>4</v>
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K55">
         <v>5.25</v>
@@ -5434,7 +5434,7 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -5600,7 +5600,7 @@
         <v>45078.67708333334</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
         <v>40</v>
@@ -5612,7 +5612,7 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K58">
         <v>2.9</v>
@@ -5689,10 +5689,10 @@
         <v>45079.625</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H59">
         <v>4</v>
@@ -5790,7 +5790,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K60">
         <v>1.666</v>
@@ -5879,7 +5879,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -5956,7 +5956,7 @@
         <v>45079.67708333334</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G62" t="s">
         <v>35</v>
@@ -6057,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K63">
         <v>1.833</v>
@@ -6134,10 +6134,10 @@
         <v>45087.45833333334</v>
       </c>
       <c r="F64" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" t="s">
         <v>30</v>
-      </c>
-      <c r="G64" t="s">
-        <v>29</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6235,7 +6235,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K65">
         <v>3.4</v>
@@ -6324,7 +6324,7 @@
         <v>5</v>
       </c>
       <c r="J66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K66">
         <v>3.4</v>
@@ -6389,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6102180</v>
+        <v>6102179</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6401,76 +6401,76 @@
         <v>45088.67708333334</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K67">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="L67">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M67">
+        <v>5.5</v>
+      </c>
+      <c r="N67">
+        <v>1.3</v>
+      </c>
+      <c r="O67">
+        <v>5.25</v>
+      </c>
+      <c r="P67">
+        <v>6.5</v>
+      </c>
+      <c r="Q67">
+        <v>-1.5</v>
+      </c>
+      <c r="R67">
         <v>1.85</v>
       </c>
-      <c r="N67">
-        <v>4.2</v>
-      </c>
-      <c r="O67">
+      <c r="S67">
+        <v>1.95</v>
+      </c>
+      <c r="T67">
         <v>3.5</v>
       </c>
-      <c r="P67">
-        <v>1.727</v>
-      </c>
-      <c r="Q67">
-        <v>0.75</v>
-      </c>
-      <c r="R67">
-        <v>1.8</v>
-      </c>
-      <c r="S67">
-        <v>2</v>
-      </c>
-      <c r="T67">
-        <v>2.75</v>
-      </c>
       <c r="U67">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V67">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X67">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA67">
         <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC67">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6102179</v>
+        <v>6102180</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,76 +6490,76 @@
         <v>45088.67708333334</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
         <v>31</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K68">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="L68">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M68">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="N68">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="O68">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P68">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q68">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R68">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S68">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T68">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U68">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V68">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W68">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA68">
         <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6102181</v>
+        <v>6102183</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,58 +6579,58 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
         <v>43</v>
       </c>
       <c r="K69">
-        <v>1.833</v>
+        <v>5.25</v>
       </c>
       <c r="L69">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M69">
-        <v>3.6</v>
+        <v>1.45</v>
       </c>
       <c r="N69">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="O69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P69">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="Q69">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R69">
+        <v>2.025</v>
+      </c>
+      <c r="S69">
+        <v>1.825</v>
+      </c>
+      <c r="T69">
+        <v>3.25</v>
+      </c>
+      <c r="U69">
         <v>1.975</v>
       </c>
-      <c r="S69">
+      <c r="V69">
         <v>1.875</v>
       </c>
-      <c r="T69">
-        <v>3</v>
-      </c>
-      <c r="U69">
-        <v>1.85</v>
-      </c>
-      <c r="V69">
-        <v>2</v>
-      </c>
       <c r="W69">
-        <v>0.7270000000000001</v>
+        <v>5</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6639,13 +6639,13 @@
         <v>-1</v>
       </c>
       <c r="Z69">
+        <v>1.025</v>
+      </c>
+      <c r="AA69">
+        <v>-1</v>
+      </c>
+      <c r="AB69">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA69">
-        <v>-1</v>
-      </c>
-      <c r="AB69">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC69">
         <v>-1</v>
@@ -6671,7 +6671,7 @@
         <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6680,7 +6680,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K70">
         <v>2.3</v>
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6102183</v>
+        <v>6102181</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,58 +6757,58 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
         <v>43</v>
       </c>
       <c r="K71">
-        <v>5.25</v>
+        <v>1.833</v>
       </c>
       <c r="L71">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M71">
-        <v>1.45</v>
+        <v>3.6</v>
       </c>
       <c r="N71">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="O71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P71">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="Q71">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R71">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S71">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T71">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U71">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V71">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W71">
-        <v>5</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6817,13 +6817,13 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6858,7 +6858,7 @@
         <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K72">
         <v>3.5</v>
@@ -6938,7 +6938,7 @@
         <v>40</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7027,7 +7027,7 @@
         <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7116,7 +7116,7 @@
         <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7202,7 +7202,7 @@
         <v>45105.67708333334</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G76" t="s">
         <v>38</v>
@@ -7380,7 +7380,7 @@
         <v>45106.67708333334</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
         <v>37</v>
@@ -7392,7 +7392,7 @@
         <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K78">
         <v>5.25</v>
@@ -7469,7 +7469,7 @@
         <v>45106.67708333334</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
         <v>36</v>
@@ -7561,7 +7561,7 @@
         <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H80">
         <v>5</v>
@@ -7650,7 +7650,7 @@
         <v>39</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7748,7 +7748,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K82">
         <v>5.25</v>
@@ -7828,7 +7828,7 @@
         <v>32</v>
       </c>
       <c r="G83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7926,7 +7926,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K84">
         <v>3.4</v>
@@ -8003,7 +8003,7 @@
         <v>45121.71875</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
         <v>34</v>
@@ -8015,7 +8015,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K85">
         <v>4.5</v>
@@ -8104,7 +8104,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K86">
         <v>1.666</v>
@@ -8181,7 +8181,7 @@
         <v>45124.67708333334</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
         <v>32</v>
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6102200</v>
+        <v>6922578</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,76 +8270,76 @@
         <v>45125.70833333334</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K88">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L88">
         <v>3.6</v>
       </c>
       <c r="M88">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N88">
         <v>2.05</v>
       </c>
       <c r="O88">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P88">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q88">
         <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S88">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U88">
         <v>1.925</v>
       </c>
       <c r="V88">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W88">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6922578</v>
+        <v>6102200</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,76 +8359,76 @@
         <v>45125.70833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K89">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L89">
         <v>3.6</v>
       </c>
       <c r="M89">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N89">
         <v>2.05</v>
       </c>
       <c r="O89">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P89">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q89">
         <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S89">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T89">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
         <v>1.925</v>
       </c>
       <c r="V89">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X89">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA89">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8540,7 +8540,7 @@
         <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K91">
         <v>3</v>
@@ -8638,7 +8638,7 @@
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K92">
         <v>3.1</v>
@@ -8718,7 +8718,7 @@
         <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8807,7 +8807,7 @@
         <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -8816,7 +8816,7 @@
         <v>4</v>
       </c>
       <c r="J94" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K94">
         <v>3.3</v>
@@ -8896,7 +8896,7 @@
         <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -8905,7 +8905,7 @@
         <v>4</v>
       </c>
       <c r="J95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K95">
         <v>1.666</v>
@@ -8982,10 +8982,10 @@
         <v>45133.67708333334</v>
       </c>
       <c r="F96" t="s">
+        <v>31</v>
+      </c>
+      <c r="G96" t="s">
         <v>33</v>
-      </c>
-      <c r="G96" t="s">
-        <v>31</v>
       </c>
       <c r="H96">
         <v>4</v>
@@ -9074,7 +9074,7 @@
         <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9083,7 +9083,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K97">
         <v>1.533</v>
@@ -9160,7 +9160,7 @@
         <v>45137.54166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G98" t="s">
         <v>38</v>
@@ -9172,7 +9172,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K98">
         <v>1.666</v>
@@ -9350,7 +9350,7 @@
         <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K100">
         <v>3.8</v>
@@ -9439,7 +9439,7 @@
         <v>4</v>
       </c>
       <c r="J101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K101">
         <v>2.875</v>
@@ -9519,7 +9519,7 @@
         <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K102">
         <v>2.6</v>
@@ -9617,7 +9617,7 @@
         <v>4</v>
       </c>
       <c r="J103" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K103">
         <v>1.615</v>
@@ -9697,7 +9697,7 @@
         <v>32</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H104">
         <v>4</v>
@@ -9795,7 +9795,7 @@
         <v>3</v>
       </c>
       <c r="J105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K105">
         <v>3.6</v>
@@ -9872,10 +9872,10 @@
         <v>45146.67708333334</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9884,7 +9884,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K106">
         <v>2.05</v>
@@ -10050,7 +10050,7 @@
         <v>45151.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G108" t="s">
         <v>34</v>
@@ -10062,7 +10062,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K108">
         <v>3.4</v>
@@ -10240,7 +10240,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K110">
         <v>6</v>
@@ -10320,7 +10320,7 @@
         <v>40</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H111">
         <v>3</v>
@@ -10495,10 +10495,10 @@
         <v>45152.67708333334</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10507,7 +10507,7 @@
         <v>4</v>
       </c>
       <c r="J113" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K113">
         <v>3</v>
@@ -10587,7 +10587,7 @@
         <v>39</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10596,7 +10596,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K114">
         <v>1.85</v>
@@ -10673,10 +10673,10 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10863,7 +10863,7 @@
         <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K117">
         <v>2.75</v>
@@ -10952,7 +10952,7 @@
         <v>4</v>
       </c>
       <c r="J118" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K118">
         <v>2.45</v>
@@ -11029,7 +11029,7 @@
         <v>45159.67708333334</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
         <v>40</v>
@@ -11118,10 +11118,10 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11299,7 +11299,7 @@
         <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K122">
         <v>2.55</v>
@@ -11388,7 +11388,7 @@
         <v>40</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11575,7 +11575,7 @@
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K125">
         <v>2.1</v>
@@ -11655,7 +11655,7 @@
         <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11664,7 +11664,7 @@
         <v>3</v>
       </c>
       <c r="J126" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K126">
         <v>1.909</v>
@@ -11753,7 +11753,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K127">
         <v>2.625</v>
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6102234</v>
+        <v>6102233</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11922,73 +11922,73 @@
         <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I129">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K129">
-        <v>6</v>
+        <v>1.333</v>
       </c>
       <c r="L129">
         <v>5</v>
       </c>
       <c r="M129">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="N129">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="O129">
         <v>5</v>
       </c>
       <c r="P129">
-        <v>1.363</v>
+        <v>7</v>
       </c>
       <c r="Q129">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R129">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S129">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T129">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U129">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V129">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6102233</v>
+        <v>6102232</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,76 +12008,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130" t="s">
+        <v>41</v>
+      </c>
+      <c r="K130">
+        <v>2.6</v>
+      </c>
+      <c r="L130">
+        <v>3.6</v>
+      </c>
+      <c r="M130">
+        <v>2.3</v>
+      </c>
+      <c r="N130">
+        <v>2.5</v>
+      </c>
+      <c r="O130">
+        <v>3.6</v>
+      </c>
+      <c r="P130">
+        <v>2.45</v>
+      </c>
+      <c r="Q130">
         <v>0</v>
       </c>
-      <c r="J130" t="s">
-        <v>43</v>
-      </c>
-      <c r="K130">
-        <v>1.333</v>
-      </c>
-      <c r="L130">
-        <v>5</v>
-      </c>
-      <c r="M130">
-        <v>7</v>
-      </c>
-      <c r="N130">
-        <v>1.333</v>
-      </c>
-      <c r="O130">
-        <v>5</v>
-      </c>
-      <c r="P130">
-        <v>7</v>
-      </c>
-      <c r="Q130">
-        <v>-1.5</v>
-      </c>
       <c r="R130">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S130">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T130">
         <v>3.25</v>
       </c>
       <c r="U130">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V130">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB130">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6102232</v>
+        <v>6102234</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,76 +12097,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J131" t="s">
         <v>42</v>
       </c>
       <c r="K131">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="L131">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M131">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="N131">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="O131">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P131">
-        <v>2.45</v>
+        <v>1.363</v>
       </c>
       <c r="Q131">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R131">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S131">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U131">
+        <v>1.9</v>
+      </c>
+      <c r="V131">
         <v>1.95</v>
       </c>
-      <c r="V131">
-        <v>1.9</v>
-      </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z131">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA131">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC131">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12198,7 +12198,7 @@
         <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K132">
         <v>1.6</v>
@@ -12275,7 +12275,7 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G133" t="s">
         <v>39</v>
@@ -12287,7 +12287,7 @@
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K133">
         <v>2.6</v>
@@ -12376,7 +12376,7 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K134">
         <v>1.75</v>
@@ -12456,7 +12456,7 @@
         <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12545,7 +12545,7 @@
         <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12554,7 +12554,7 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K136">
         <v>2.2</v>
@@ -12631,7 +12631,7 @@
         <v>45189.55208333334</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G137" t="s">
         <v>35</v>
@@ -12732,7 +12732,7 @@
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K138">
         <v>1.5</v>
@@ -12812,7 +12812,7 @@
         <v>39</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -12821,7 +12821,7 @@
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K139">
         <v>1.8</v>
@@ -12901,7 +12901,7 @@
         <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -12910,7 +12910,7 @@
         <v>3</v>
       </c>
       <c r="J140" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K140">
         <v>2.55</v>
@@ -12999,7 +12999,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K141">
         <v>2.5</v>
@@ -13165,10 +13165,10 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F143" t="s">
+        <v>30</v>
+      </c>
+      <c r="G143" t="s">
         <v>29</v>
-      </c>
-      <c r="G143" t="s">
-        <v>30</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13177,7 +13177,7 @@
         <v>4</v>
       </c>
       <c r="J143" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K143">
         <v>2.55</v>
@@ -13343,7 +13343,7 @@
         <v>45197.55208333334</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
         <v>39</v>
@@ -13420,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7173166</v>
+        <v>7173182</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13432,58 +13432,58 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G146" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H146">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
         <v>43</v>
       </c>
       <c r="K146">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="L146">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M146">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N146">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O146">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P146">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q146">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R146">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S146">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T146">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U146">
         <v>1.925</v>
       </c>
       <c r="V146">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W146">
-        <v>1.7</v>
+        <v>0.833</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13492,7 +13492,7 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA146">
         <v>-1</v>
@@ -13509,7 +13509,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7173182</v>
+        <v>7173183</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13521,73 +13521,73 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K147">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L147">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M147">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N147">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="O147">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P147">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q147">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R147">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S147">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T147">
         <v>3.25</v>
       </c>
       <c r="U147">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V147">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W147">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB147">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13610,7 +13610,7 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
         <v>40</v>
@@ -13687,7 +13687,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7173167</v>
+        <v>7173166</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13699,58 +13699,58 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G149" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J149" t="s">
         <v>43</v>
       </c>
       <c r="K149">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="L149">
+        <v>3.6</v>
+      </c>
+      <c r="M149">
+        <v>2.6</v>
+      </c>
+      <c r="N149">
+        <v>2.7</v>
+      </c>
+      <c r="O149">
         <v>4</v>
       </c>
-      <c r="M149">
-        <v>4.333</v>
-      </c>
-      <c r="N149">
-        <v>1.571</v>
-      </c>
-      <c r="O149">
-        <v>4.2</v>
-      </c>
       <c r="P149">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q149">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R149">
+        <v>1.925</v>
+      </c>
+      <c r="S149">
         <v>1.875</v>
       </c>
-      <c r="S149">
+      <c r="T149">
+        <v>3.75</v>
+      </c>
+      <c r="U149">
         <v>1.925</v>
       </c>
-      <c r="T149">
-        <v>3.25</v>
-      </c>
-      <c r="U149">
+      <c r="V149">
         <v>1.775</v>
       </c>
-      <c r="V149">
-        <v>1.925</v>
-      </c>
       <c r="W149">
-        <v>0.571</v>
+        <v>1.7</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13759,16 +13759,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA149">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC149">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13776,7 +13776,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7173183</v>
+        <v>7173167</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13788,43 +13788,43 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G150" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H150">
         <v>2</v>
       </c>
       <c r="I150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K150">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="L150">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M150">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N150">
-        <v>2.45</v>
+        <v>1.571</v>
       </c>
       <c r="O150">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P150">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R150">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S150">
         <v>1.925</v>
@@ -13833,16 +13833,16 @@
         <v>3.25</v>
       </c>
       <c r="U150">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V150">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W150">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X150">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
         <v>-1</v>
@@ -13854,10 +13854,10 @@
         <v>-0</v>
       </c>
       <c r="AB150">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13969,7 +13969,7 @@
         <v>35</v>
       </c>
       <c r="G152" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -13978,7 +13978,7 @@
         <v>3</v>
       </c>
       <c r="J152" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K152">
         <v>2.9</v>
@@ -14067,7 +14067,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K153">
         <v>2.625</v>
@@ -14144,10 +14144,10 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14322,7 +14322,7 @@
         <v>45201.67708333334</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G156" t="s">
         <v>37</v>
@@ -14589,10 +14589,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F159" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G159" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H159">
         <v>5</v>
@@ -14690,7 +14690,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K160">
         <v>1.4</v>
@@ -14767,7 +14767,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G161" t="s">
         <v>38</v>
@@ -14859,7 +14859,7 @@
         <v>34</v>
       </c>
       <c r="G162" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -14868,7 +14868,7 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K162">
         <v>2</v>

--- a/Iceland Premier League/Iceland Premier League.xlsx
+++ b/Iceland Premier League/Iceland Premier League.xlsx
@@ -103,19 +103,19 @@
     <t>Iceland Premier League</t>
   </si>
   <si>
-    <t>KA Akureyri</t>
+    <t>Fylkir Reykjavik</t>
   </si>
   <si>
-    <t>Fylkir Reykjavik</t>
+    <t>KA Akureyri</t>
   </si>
   <si>
     <t>Stjarnan</t>
   </si>
   <si>
-    <t>Valur Reykjavik</t>
+    <t>Fram Reykjavik</t>
   </si>
   <si>
-    <t>Fram Reykjavik</t>
+    <t>Valur Reykjavik</t>
   </si>
   <si>
     <t>Breidablik</t>
@@ -139,10 +139,10 @@
     <t>KR Reykjavik</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
     <t>H</t>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6102126</v>
+        <v>6102127</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -619,73 +619,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
       </c>
       <c r="K2">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L2">
         <v>3.6</v>
       </c>
       <c r="M2">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N2">
         <v>1.909</v>
       </c>
       <c r="O2">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P2">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q2">
         <v>-0.5</v>
       </c>
       <c r="R2">
+        <v>1.925</v>
+      </c>
+      <c r="S2">
+        <v>1.875</v>
+      </c>
+      <c r="T2">
+        <v>3.25</v>
+      </c>
+      <c r="U2">
+        <v>1.85</v>
+      </c>
+      <c r="V2">
         <v>1.95</v>
       </c>
-      <c r="S2">
-        <v>1.85</v>
-      </c>
-      <c r="T2">
-        <v>3</v>
-      </c>
-      <c r="U2">
-        <v>1.925</v>
-      </c>
-      <c r="V2">
-        <v>1.875</v>
-      </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z2">
         <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC2">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6102127</v>
+        <v>6102126</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,73 +708,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>42</v>
       </c>
       <c r="K3">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="L3">
         <v>3.6</v>
       </c>
       <c r="M3">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N3">
         <v>1.909</v>
       </c>
       <c r="O3">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P3">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q3">
         <v>-0.5</v>
       </c>
       <c r="R3">
+        <v>1.95</v>
+      </c>
+      <c r="S3">
+        <v>1.85</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3">
         <v>1.925</v>
       </c>
-      <c r="S3">
+      <c r="V3">
         <v>1.875</v>
       </c>
-      <c r="T3">
-        <v>3.25</v>
-      </c>
-      <c r="U3">
-        <v>1.85</v>
-      </c>
-      <c r="V3">
-        <v>1.95</v>
-      </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y3">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB3">
+        <v>-1</v>
+      </c>
+      <c r="AC3">
         <v>0.875</v>
-      </c>
-      <c r="AB3">
-        <v>-0.5</v>
-      </c>
-      <c r="AC3">
-        <v>0.475</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4">
         <v>3.75</v>
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6102338</v>
+        <v>6102129</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,40 +886,40 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5">
-        <v>1.625</v>
+        <v>2.6</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="N5">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P5">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S5">
         <v>1.8</v>
@@ -928,16 +928,16 @@
         <v>3</v>
       </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y5">
         <v>-1</v>
@@ -949,10 +949,10 @@
         <v>-0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC5">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6102129</v>
+        <v>6102338</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,40 +975,40 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>2.6</v>
+        <v>1.625</v>
       </c>
       <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>1.666</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
         <v>3.75</v>
       </c>
-      <c r="M6">
-        <v>2.15</v>
-      </c>
-      <c r="N6">
-        <v>2.5</v>
-      </c>
-      <c r="O6">
-        <v>3.25</v>
-      </c>
-      <c r="P6">
-        <v>2.4</v>
-      </c>
       <c r="Q6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S6">
         <v>1.8</v>
@@ -1017,16 +1017,16 @@
         <v>3</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X6">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
@@ -1038,10 +1038,10 @@
         <v>-0</v>
       </c>
       <c r="AB6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1073,7 +1073,7 @@
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K7">
         <v>1.181</v>
@@ -1162,7 +1162,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1331,7 +1331,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1420,7 +1420,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1429,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K11">
         <v>2.25</v>
@@ -1506,7 +1506,7 @@
         <v>45032.67708333334</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
         <v>34</v>
@@ -1518,7 +1518,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K12">
         <v>3.2</v>
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6102137</v>
+        <v>6102136</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1595,76 +1595,76 @@
         <v>45039.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>1.7</v>
+      </c>
+      <c r="N13">
+        <v>4.75</v>
+      </c>
+      <c r="O13">
+        <v>4.2</v>
+      </c>
+      <c r="P13">
+        <v>1.6</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1.8</v>
+      </c>
+      <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>3</v>
+      </c>
+      <c r="U13">
+        <v>1.875</v>
+      </c>
+      <c r="V13">
+        <v>1.925</v>
+      </c>
+      <c r="W13">
+        <v>3.75</v>
+      </c>
+      <c r="X13">
+        <v>-1</v>
+      </c>
+      <c r="Y13">
+        <v>-1</v>
+      </c>
+      <c r="Z13">
+        <v>0.8</v>
+      </c>
+      <c r="AA13">
+        <v>-1</v>
+      </c>
+      <c r="AB13">
         <v>0</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13">
-        <v>1.55</v>
-      </c>
-      <c r="L13">
-        <v>4.333</v>
-      </c>
-      <c r="M13">
-        <v>4.5</v>
-      </c>
-      <c r="N13">
-        <v>1.444</v>
-      </c>
-      <c r="O13">
-        <v>5</v>
-      </c>
-      <c r="P13">
-        <v>5.25</v>
-      </c>
-      <c r="Q13">
-        <v>-1.25</v>
-      </c>
-      <c r="R13">
-        <v>1.875</v>
-      </c>
-      <c r="S13">
-        <v>1.925</v>
-      </c>
-      <c r="T13">
-        <v>3.5</v>
-      </c>
-      <c r="U13">
-        <v>1.925</v>
-      </c>
-      <c r="V13">
-        <v>1.875</v>
-      </c>
-      <c r="W13">
-        <v>-1</v>
-      </c>
-      <c r="X13">
-        <v>4</v>
-      </c>
-      <c r="Y13">
-        <v>-1</v>
-      </c>
-      <c r="Z13">
-        <v>-1</v>
-      </c>
-      <c r="AA13">
-        <v>0.925</v>
-      </c>
-      <c r="AB13">
-        <v>-1</v>
-      </c>
       <c r="AC13">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6102136</v>
+        <v>6102137</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,76 +1684,76 @@
         <v>45039.54166666666</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K14">
+        <v>1.55</v>
+      </c>
+      <c r="L14">
+        <v>4.333</v>
+      </c>
+      <c r="M14">
+        <v>4.5</v>
+      </c>
+      <c r="N14">
+        <v>1.444</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>5.25</v>
+      </c>
+      <c r="Q14">
+        <v>-1.25</v>
+      </c>
+      <c r="R14">
+        <v>1.875</v>
+      </c>
+      <c r="S14">
+        <v>1.925</v>
+      </c>
+      <c r="T14">
+        <v>3.5</v>
+      </c>
+      <c r="U14">
+        <v>1.925</v>
+      </c>
+      <c r="V14">
+        <v>1.875</v>
+      </c>
+      <c r="W14">
+        <v>-1</v>
+      </c>
+      <c r="X14">
         <v>4</v>
       </c>
-      <c r="L14">
-        <v>4</v>
-      </c>
-      <c r="M14">
-        <v>1.7</v>
-      </c>
-      <c r="N14">
-        <v>4.75</v>
-      </c>
-      <c r="O14">
-        <v>4.2</v>
-      </c>
-      <c r="P14">
-        <v>1.6</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <v>1.8</v>
-      </c>
-      <c r="S14">
-        <v>2</v>
-      </c>
-      <c r="T14">
-        <v>3</v>
-      </c>
-      <c r="U14">
-        <v>1.875</v>
-      </c>
-      <c r="V14">
-        <v>1.925</v>
-      </c>
-      <c r="W14">
-        <v>3.75</v>
-      </c>
-      <c r="X14">
-        <v>-1</v>
-      </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1773,10 +1773,10 @@
         <v>45039.67708333334</v>
       </c>
       <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
         <v>33</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1785,7 +1785,7 @@
         <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15">
         <v>3.2</v>
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6102140</v>
+        <v>6102141</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,58 +1951,58 @@
         <v>45040.67708333334</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
         <v>43</v>
       </c>
       <c r="K17">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="L17">
         <v>3.8</v>
       </c>
       <c r="M17">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="O17">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P17">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
         <v>1.8</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U17">
+        <v>1.875</v>
+      </c>
+      <c r="V17">
+        <v>1.975</v>
+      </c>
+      <c r="W17">
         <v>1.75</v>
-      </c>
-      <c r="V17">
-        <v>1.95</v>
-      </c>
-      <c r="W17">
-        <v>1</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2017,7 +2017,7 @@
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6102141</v>
+        <v>6102140</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,58 +2040,58 @@
         <v>45040.67708333334</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
         <v>4</v>
-      </c>
-      <c r="I18">
-        <v>2</v>
       </c>
       <c r="J18" t="s">
         <v>43</v>
       </c>
       <c r="K18">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="L18">
         <v>3.8</v>
       </c>
       <c r="M18">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="N18">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O18">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P18">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="Q18">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R18">
         <v>1.8</v>
       </c>
       <c r="S18">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T18">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U18">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V18">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2106,7 +2106,7 @@
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2132,7 +2132,7 @@
         <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6102144</v>
+        <v>6102142</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,13 +2218,13 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2233,43 +2233,43 @@
         <v>43</v>
       </c>
       <c r="K20">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="L20">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M20">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="N20">
+        <v>2.625</v>
+      </c>
+      <c r="O20">
+        <v>3.5</v>
+      </c>
+      <c r="P20">
         <v>2.375</v>
-      </c>
-      <c r="O20">
-        <v>3.75</v>
-      </c>
-      <c r="P20">
-        <v>2.55</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T20">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V20">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W20">
-        <v>1.375</v>
+        <v>1.625</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2278,16 +2278,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC20">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6102142</v>
+        <v>6102144</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,13 +2307,13 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2322,43 +2322,43 @@
         <v>43</v>
       </c>
       <c r="K21">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="L21">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21">
         <v>2.375</v>
       </c>
-      <c r="N21">
-        <v>2.625</v>
-      </c>
       <c r="O21">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P21">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S21">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
-        <v>1.625</v>
+        <v>1.375</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2367,16 +2367,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2408,7 +2408,7 @@
         <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K22">
         <v>2.25</v>
@@ -2488,7 +2488,7 @@
         <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2574,7 +2574,7 @@
         <v>45045.67708333334</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
         <v>31</v>
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6102147</v>
+        <v>6102148</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,58 +2663,58 @@
         <v>45049.625</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
         <v>43</v>
       </c>
       <c r="K25">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L25">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M25">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="N25">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="O25">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P25">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q25">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R25">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S25">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T25">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V25">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W25">
-        <v>1.875</v>
+        <v>0.833</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2723,13 +2723,13 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC25">
         <v>-1</v>
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6102148</v>
+        <v>6102147</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,59 +2752,59 @@
         <v>45049.625</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
         <v>43</v>
       </c>
       <c r="K26">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L26">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M26">
+        <v>2.55</v>
+      </c>
+      <c r="N26">
+        <v>2.875</v>
+      </c>
+      <c r="O26">
+        <v>3.6</v>
+      </c>
+      <c r="P26">
+        <v>2.15</v>
+      </c>
+      <c r="Q26">
+        <v>0.25</v>
+      </c>
+      <c r="R26">
+        <v>1.9</v>
+      </c>
+      <c r="S26">
+        <v>1.9</v>
+      </c>
+      <c r="T26">
         <v>3.25</v>
       </c>
-      <c r="N26">
-        <v>1.833</v>
-      </c>
-      <c r="O26">
-        <v>3.5</v>
-      </c>
-      <c r="P26">
-        <v>3.5</v>
-      </c>
-      <c r="Q26">
-        <v>-0.5</v>
-      </c>
-      <c r="R26">
-        <v>1.925</v>
-      </c>
-      <c r="S26">
+      <c r="U26">
+        <v>1.9</v>
+      </c>
+      <c r="V26">
+        <v>1.9</v>
+      </c>
+      <c r="W26">
         <v>1.875</v>
       </c>
-      <c r="T26">
-        <v>2.75</v>
-      </c>
-      <c r="U26">
-        <v>1.8</v>
-      </c>
-      <c r="V26">
-        <v>2</v>
-      </c>
-      <c r="W26">
-        <v>0.833</v>
-      </c>
       <c r="X26">
         <v>-1</v>
       </c>
@@ -2812,13 +2812,13 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2853,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K27">
         <v>1.6</v>
@@ -2930,10 +2930,10 @@
         <v>45049.71875</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -2942,7 +2942,7 @@
         <v>6</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K28">
         <v>3.6</v>
@@ -3031,7 +3031,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29">
         <v>3.8</v>
@@ -3200,7 +3200,7 @@
         <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3209,7 +3209,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K31">
         <v>2.6</v>
@@ -3286,7 +3286,7 @@
         <v>45053.67708333334</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
@@ -3387,7 +3387,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K33">
         <v>3.3</v>
@@ -3553,7 +3553,7 @@
         <v>45054.67708333334</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
         <v>31</v>
@@ -3642,7 +3642,7 @@
         <v>45054.71875</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
         <v>34</v>
@@ -3654,7 +3654,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K36">
         <v>3.6</v>
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6102158</v>
+        <v>6102162</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,49 +3820,49 @@
         <v>45059.54166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K38">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="L38">
         <v>3.5</v>
       </c>
       <c r="M38">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="N38">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="O38">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P38">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R38">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S38">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T38">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U38">
         <v>1.85</v>
@@ -3877,19 +3877,19 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1.625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB38">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6102162</v>
+        <v>6102158</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,49 +3909,49 @@
         <v>45059.54166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K39">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="L39">
         <v>3.5</v>
       </c>
       <c r="M39">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="N39">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="O39">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P39">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="Q39">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S39">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U39">
         <v>1.85</v>
@@ -3966,19 +3966,19 @@
         <v>-1</v>
       </c>
       <c r="Y39">
+        <v>1.625</v>
+      </c>
+      <c r="Z39">
+        <v>-1</v>
+      </c>
+      <c r="AA39">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB39">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z39">
-        <v>-1</v>
-      </c>
-      <c r="AA39">
-        <v>0.875</v>
-      </c>
-      <c r="AB39">
-        <v>-1</v>
-      </c>
       <c r="AC39">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4010,7 +4010,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K40">
         <v>2.55</v>
@@ -4176,10 +4176,10 @@
         <v>45060.67708333334</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H42">
         <v>3</v>
@@ -4268,7 +4268,7 @@
         <v>34</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4366,7 +4366,7 @@
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K44">
         <v>4.5</v>
@@ -4443,7 +4443,7 @@
         <v>45067.67708333334</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
         <v>35</v>
@@ -4455,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K45">
         <v>1.363</v>
@@ -4544,7 +4544,7 @@
         <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K46">
         <v>2.45</v>
@@ -4609,7 +4609,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6102165</v>
+        <v>6102166</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4621,13 +4621,13 @@
         <v>45068.67708333334</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>2</v>
@@ -4636,25 +4636,25 @@
         <v>41</v>
       </c>
       <c r="K47">
+        <v>2.75</v>
+      </c>
+      <c r="L47">
+        <v>3.4</v>
+      </c>
+      <c r="M47">
+        <v>2.2</v>
+      </c>
+      <c r="N47">
+        <v>3</v>
+      </c>
+      <c r="O47">
+        <v>3.3</v>
+      </c>
+      <c r="P47">
         <v>2.1</v>
       </c>
-      <c r="L47">
-        <v>3.6</v>
-      </c>
-      <c r="M47">
-        <v>2.9</v>
-      </c>
-      <c r="N47">
-        <v>1.45</v>
-      </c>
-      <c r="O47">
-        <v>4.75</v>
-      </c>
-      <c r="P47">
-        <v>5.5</v>
-      </c>
       <c r="Q47">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
         <v>1.975</v>
@@ -4663,22 +4663,22 @@
         <v>1.825</v>
       </c>
       <c r="T47">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U47">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V47">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z47">
         <v>-1</v>
@@ -4687,10 +4687,10 @@
         <v>0.825</v>
       </c>
       <c r="AB47">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4698,7 +4698,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6102166</v>
+        <v>6102165</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4710,13 +4710,13 @@
         <v>45068.67708333334</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -4725,25 +4725,25 @@
         <v>42</v>
       </c>
       <c r="K48">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L48">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M48">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="N48">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="O48">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P48">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q48">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R48">
         <v>1.975</v>
@@ -4752,22 +4752,22 @@
         <v>1.825</v>
       </c>
       <c r="T48">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U48">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V48">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y48">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
         <v>-1</v>
@@ -4776,10 +4776,10 @@
         <v>0.825</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC48">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>45071.625</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
         <v>37</v>
@@ -4811,7 +4811,7 @@
         <v>4</v>
       </c>
       <c r="J49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K49">
         <v>3</v>
@@ -4891,7 +4891,7 @@
         <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4977,7 +4977,7 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G51" t="s">
         <v>39</v>
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6102168</v>
+        <v>6102344</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5066,28 +5066,28 @@
         <v>45074.67708333334</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
         <v>43</v>
       </c>
       <c r="K52">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L52">
         <v>3.5</v>
       </c>
       <c r="M52">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N52">
         <v>1.909</v>
@@ -5096,25 +5096,25 @@
         <v>3.4</v>
       </c>
       <c r="P52">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q52">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R52">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S52">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W52">
         <v>0.909</v>
@@ -5126,16 +5126,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC52">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5143,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6102344</v>
+        <v>6102168</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5155,28 +5155,28 @@
         <v>45074.67708333334</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
         <v>43</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L53">
         <v>3.5</v>
       </c>
       <c r="M53">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N53">
         <v>1.909</v>
@@ -5185,25 +5185,25 @@
         <v>3.4</v>
       </c>
       <c r="P53">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q53">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S53">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T53">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U53">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V53">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W53">
         <v>0.909</v>
@@ -5215,16 +5215,16 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5244,10 +5244,10 @@
         <v>45075.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H54">
         <v>4</v>
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K55">
         <v>5.25</v>
@@ -5425,7 +5425,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5434,7 +5434,7 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -5600,7 +5600,7 @@
         <v>45078.67708333334</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
         <v>40</v>
@@ -5612,7 +5612,7 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K58">
         <v>2.9</v>
@@ -5692,7 +5692,7 @@
         <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H59">
         <v>4</v>
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6102346</v>
+        <v>6102174</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5778,76 +5778,76 @@
         <v>45079.67708333334</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K60">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M60">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N60">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="O60">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P60">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q60">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S60">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T60">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U60">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V60">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W60">
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA60">
-        <v>0.8</v>
+        <v>0.3875</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC60">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5855,7 +5855,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6102174</v>
+        <v>6102346</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5867,76 +5867,76 @@
         <v>45079.67708333334</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K61">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L61">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M61">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N61">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O61">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P61">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R61">
+        <v>2.05</v>
+      </c>
+      <c r="S61">
+        <v>1.8</v>
+      </c>
+      <c r="T61">
+        <v>3.25</v>
+      </c>
+      <c r="U61">
         <v>2.025</v>
       </c>
-      <c r="S61">
-        <v>1.775</v>
-      </c>
-      <c r="T61">
-        <v>2.75</v>
-      </c>
-      <c r="U61">
-        <v>1.9</v>
-      </c>
       <c r="V61">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.3875</v>
+        <v>0.8</v>
       </c>
       <c r="AB61">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5956,7 +5956,7 @@
         <v>45079.67708333334</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
         <v>35</v>
@@ -6057,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K63">
         <v>1.833</v>
@@ -6134,10 +6134,10 @@
         <v>45087.45833333334</v>
       </c>
       <c r="F64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64" t="s">
         <v>29</v>
-      </c>
-      <c r="G64" t="s">
-        <v>30</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6235,7 +6235,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K65">
         <v>3.4</v>
@@ -6315,7 +6315,7 @@
         <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6324,7 +6324,7 @@
         <v>5</v>
       </c>
       <c r="J66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K66">
         <v>3.4</v>
@@ -6404,7 +6404,7 @@
         <v>37</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -6502,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K68">
         <v>3.4</v>
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6102183</v>
+        <v>6102181</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,58 +6579,58 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
         <v>43</v>
       </c>
       <c r="K69">
-        <v>5.25</v>
+        <v>1.833</v>
       </c>
       <c r="L69">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M69">
-        <v>1.45</v>
+        <v>3.6</v>
       </c>
       <c r="N69">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="O69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P69">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="Q69">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R69">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S69">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T69">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U69">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V69">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W69">
-        <v>5</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6639,13 +6639,13 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC69">
         <v>-1</v>
@@ -6671,7 +6671,7 @@
         <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6680,7 +6680,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K70">
         <v>2.3</v>
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6102181</v>
+        <v>6102183</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,58 +6757,58 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
         <v>43</v>
       </c>
       <c r="K71">
-        <v>1.833</v>
+        <v>5.25</v>
       </c>
       <c r="L71">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M71">
-        <v>3.6</v>
+        <v>1.45</v>
       </c>
       <c r="N71">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="O71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P71">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="Q71">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R71">
+        <v>2.025</v>
+      </c>
+      <c r="S71">
+        <v>1.825</v>
+      </c>
+      <c r="T71">
+        <v>3.25</v>
+      </c>
+      <c r="U71">
         <v>1.975</v>
       </c>
-      <c r="S71">
+      <c r="V71">
         <v>1.875</v>
       </c>
-      <c r="T71">
-        <v>3</v>
-      </c>
-      <c r="U71">
-        <v>1.85</v>
-      </c>
-      <c r="V71">
-        <v>2</v>
-      </c>
       <c r="W71">
-        <v>0.7270000000000001</v>
+        <v>5</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6817,13 +6817,13 @@
         <v>-1</v>
       </c>
       <c r="Z71">
+        <v>1.025</v>
+      </c>
+      <c r="AA71">
+        <v>-1</v>
+      </c>
+      <c r="AB71">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA71">
-        <v>-1</v>
-      </c>
-      <c r="AB71">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6849,7 +6849,7 @@
         <v>39</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6858,7 +6858,7 @@
         <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K72">
         <v>3.5</v>
@@ -6938,7 +6938,7 @@
         <v>40</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7116,7 +7116,7 @@
         <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6102191</v>
+        <v>6102188</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,40 +7202,40 @@
         <v>45105.67708333334</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
         <v>43</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L76">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M76">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N76">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O76">
         <v>3.75</v>
       </c>
       <c r="P76">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q76">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R76">
         <v>1.875</v>
@@ -7244,7 +7244,7 @@
         <v>1.975</v>
       </c>
       <c r="T76">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
         <v>2</v>
@@ -7253,7 +7253,7 @@
         <v>1.85</v>
       </c>
       <c r="W76">
-        <v>0.833</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7268,10 +7268,10 @@
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6102188</v>
+        <v>6102191</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,40 +7291,40 @@
         <v>45105.67708333334</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
         <v>43</v>
       </c>
       <c r="K77">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M77">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N77">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O77">
         <v>3.75</v>
       </c>
       <c r="P77">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R77">
         <v>1.875</v>
@@ -7333,7 +7333,7 @@
         <v>1.975</v>
       </c>
       <c r="T77">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U77">
         <v>2</v>
@@ -7342,7 +7342,7 @@
         <v>1.85</v>
       </c>
       <c r="W77">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7357,10 +7357,10 @@
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC77">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>45106.67708333334</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
         <v>37</v>
@@ -7392,7 +7392,7 @@
         <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K78">
         <v>5.25</v>
@@ -7561,7 +7561,7 @@
         <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H80">
         <v>5</v>
@@ -7650,7 +7650,7 @@
         <v>39</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7748,7 +7748,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K82">
         <v>5.25</v>
@@ -7825,10 +7825,10 @@
         <v>45119.67708333334</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7926,7 +7926,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K84">
         <v>3.4</v>
@@ -8003,7 +8003,7 @@
         <v>45121.71875</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
         <v>34</v>
@@ -8015,7 +8015,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K85">
         <v>4.5</v>
@@ -8104,7 +8104,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K86">
         <v>1.666</v>
@@ -8184,7 +8184,7 @@
         <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6922578</v>
+        <v>6102200</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,76 +8270,76 @@
         <v>45125.70833333334</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K88">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L88">
         <v>3.6</v>
       </c>
       <c r="M88">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N88">
         <v>2.05</v>
       </c>
       <c r="O88">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P88">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q88">
         <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S88">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T88">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
         <v>1.925</v>
       </c>
       <c r="V88">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X88">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA88">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6102200</v>
+        <v>6922578</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,76 +8359,76 @@
         <v>45125.70833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K89">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L89">
         <v>3.6</v>
       </c>
       <c r="M89">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N89">
         <v>2.05</v>
       </c>
       <c r="O89">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P89">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q89">
         <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S89">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U89">
         <v>1.925</v>
       </c>
       <c r="V89">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W89">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6102207</v>
+        <v>6102206</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,76 +8537,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K91">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="L91">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M91">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="N91">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="O91">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P91">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="Q91">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R91">
         <v>1.925</v>
       </c>
       <c r="S91">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T91">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U91">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V91">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X91">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB91">
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8638,7 +8638,7 @@
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K92">
         <v>3.1</v>
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6102206</v>
+        <v>6102207</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,76 +8715,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K93">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="L93">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M93">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="N93">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="O93">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P93">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="Q93">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R93">
         <v>1.925</v>
       </c>
       <c r="S93">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T93">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V93">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W93">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA93">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
         <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8807,7 +8807,7 @@
         <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -8816,7 +8816,7 @@
         <v>4</v>
       </c>
       <c r="J94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K94">
         <v>3.3</v>
@@ -8896,7 +8896,7 @@
         <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -8905,7 +8905,7 @@
         <v>4</v>
       </c>
       <c r="J95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K95">
         <v>1.666</v>
@@ -8985,7 +8985,7 @@
         <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H96">
         <v>4</v>
@@ -9083,7 +9083,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K97">
         <v>1.533</v>
@@ -9160,7 +9160,7 @@
         <v>45137.54166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s">
         <v>38</v>
@@ -9172,7 +9172,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K98">
         <v>1.666</v>
@@ -9350,7 +9350,7 @@
         <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K100">
         <v>3.8</v>
@@ -9430,7 +9430,7 @@
         <v>40</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9439,7 +9439,7 @@
         <v>4</v>
       </c>
       <c r="J101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K101">
         <v>2.875</v>
@@ -9528,7 +9528,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K102">
         <v>2.6</v>
@@ -9617,7 +9617,7 @@
         <v>4</v>
       </c>
       <c r="J103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K103">
         <v>1.615</v>
@@ -9694,10 +9694,10 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H104">
         <v>4</v>
@@ -9795,7 +9795,7 @@
         <v>3</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K105">
         <v>3.6</v>
@@ -9872,10 +9872,10 @@
         <v>45146.67708333334</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9884,7 +9884,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K106">
         <v>2.05</v>
@@ -10050,7 +10050,7 @@
         <v>45151.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
         <v>34</v>
@@ -10062,7 +10062,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K108">
         <v>3.4</v>
@@ -10127,7 +10127,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6102353</v>
+        <v>6102352</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10139,76 +10139,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G109" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109">
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K109">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="L109">
+        <v>4.75</v>
+      </c>
+      <c r="M109">
+        <v>1.363</v>
+      </c>
+      <c r="N109">
+        <v>5.25</v>
+      </c>
+      <c r="O109">
+        <v>4.75</v>
+      </c>
+      <c r="P109">
+        <v>1.4</v>
+      </c>
+      <c r="Q109">
+        <v>1.25</v>
+      </c>
+      <c r="R109">
+        <v>1.9</v>
+      </c>
+      <c r="S109">
+        <v>1.9</v>
+      </c>
+      <c r="T109">
+        <v>3.25</v>
+      </c>
+      <c r="U109">
+        <v>1.85</v>
+      </c>
+      <c r="V109">
+        <v>1.95</v>
+      </c>
+      <c r="W109">
+        <v>-1</v>
+      </c>
+      <c r="X109">
         <v>3.75</v>
       </c>
-      <c r="M109">
-        <v>4.333</v>
-      </c>
-      <c r="N109">
-        <v>1.727</v>
-      </c>
-      <c r="O109">
-        <v>3.6</v>
-      </c>
-      <c r="P109">
-        <v>4.2</v>
-      </c>
-      <c r="Q109">
-        <v>-0.75</v>
-      </c>
-      <c r="R109">
-        <v>1.975</v>
-      </c>
-      <c r="S109">
-        <v>1.825</v>
-      </c>
-      <c r="T109">
-        <v>2.75</v>
-      </c>
-      <c r="U109">
-        <v>1.825</v>
-      </c>
-      <c r="V109">
-        <v>1.975</v>
-      </c>
-      <c r="W109">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X109">
-        <v>-1</v>
-      </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA109">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6102352</v>
+        <v>6102353</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,76 +10228,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110">
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K110">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="L110">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M110">
-        <v>1.363</v>
+        <v>4.333</v>
       </c>
       <c r="N110">
-        <v>5.25</v>
+        <v>1.727</v>
       </c>
       <c r="O110">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P110">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q110">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R110">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S110">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T110">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V110">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X110">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC110">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10320,7 +10320,7 @@
         <v>40</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H111">
         <v>3</v>
@@ -10495,7 +10495,7 @@
         <v>45152.67708333334</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G113" t="s">
         <v>31</v>
@@ -10507,7 +10507,7 @@
         <v>4</v>
       </c>
       <c r="J113" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K113">
         <v>3</v>
@@ -10587,7 +10587,7 @@
         <v>39</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10596,7 +10596,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K114">
         <v>1.85</v>
@@ -10673,10 +10673,10 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G115" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10839,7 +10839,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6102354</v>
+        <v>6102225</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10851,40 +10851,40 @@
         <v>45158.67708333334</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J117" t="s">
         <v>41</v>
       </c>
       <c r="K117">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="L117">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M117">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="N117">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="O117">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P117">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="Q117">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R117">
         <v>1.9</v>
@@ -10893,31 +10893,31 @@
         <v>1.9</v>
       </c>
       <c r="T117">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U117">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V117">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z117">
+        <v>-1</v>
+      </c>
+      <c r="AA117">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA117">
-        <v>-1</v>
-      </c>
       <c r="AB117">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10928,7 +10928,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6102225</v>
+        <v>6102354</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10940,40 +10940,40 @@
         <v>45158.67708333334</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
         <v>42</v>
       </c>
       <c r="K118">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="L118">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M118">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="N118">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="O118">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P118">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q118">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R118">
         <v>1.9</v>
@@ -10982,31 +10982,31 @@
         <v>1.9</v>
       </c>
       <c r="T118">
+        <v>3.25</v>
+      </c>
+      <c r="U118">
+        <v>1.95</v>
+      </c>
+      <c r="V118">
+        <v>1.85</v>
+      </c>
+      <c r="W118">
+        <v>-1</v>
+      </c>
+      <c r="X118">
         <v>3</v>
       </c>
-      <c r="U118">
-        <v>1.875</v>
-      </c>
-      <c r="V118">
-        <v>1.925</v>
-      </c>
-      <c r="W118">
-        <v>-1</v>
-      </c>
-      <c r="X118">
-        <v>-1</v>
-      </c>
       <c r="Y118">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA118">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11118,7 +11118,7 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F120" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G120" t="s">
         <v>31</v>
@@ -11210,7 +11210,7 @@
         <v>36</v>
       </c>
       <c r="G121" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H121">
         <v>3</v>
@@ -11284,7 +11284,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6102230</v>
+        <v>6102229</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11296,76 +11296,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G122" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K122">
-        <v>2.55</v>
+        <v>1.55</v>
       </c>
       <c r="L122">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M122">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N122">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O122">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P122">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R122">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S122">
         <v>1.825</v>
       </c>
       <c r="T122">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U122">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V122">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X122">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA122">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11373,7 +11373,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6102229</v>
+        <v>6102230</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11385,76 +11385,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123">
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K123">
-        <v>1.55</v>
+        <v>2.55</v>
       </c>
       <c r="L123">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="N123">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="O123">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P123">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q123">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S123">
         <v>1.825</v>
       </c>
       <c r="T123">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U123">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V123">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W123">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11575,7 +11575,7 @@
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K125">
         <v>2.1</v>
@@ -11655,7 +11655,7 @@
         <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11664,7 +11664,7 @@
         <v>3</v>
       </c>
       <c r="J126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K126">
         <v>1.909</v>
@@ -11729,7 +11729,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6102236</v>
+        <v>6102235</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11741,13 +11741,13 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G127" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127">
         <v>2</v>
@@ -11756,34 +11756,34 @@
         <v>41</v>
       </c>
       <c r="K127">
-        <v>2.625</v>
+        <v>1.6</v>
       </c>
       <c r="L127">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M127">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="N127">
-        <v>2.625</v>
+        <v>1.65</v>
       </c>
       <c r="O127">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P127">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q127">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R127">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S127">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T127">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U127">
         <v>1.825</v>
@@ -11795,22 +11795,22 @@
         <v>-1</v>
       </c>
       <c r="X127">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z127">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB127">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6102357</v>
+        <v>6102236</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,73 +11830,73 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H128">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K128">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="L128">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M128">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="N128">
-        <v>1.3</v>
+        <v>2.625</v>
       </c>
       <c r="O128">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P128">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="Q128">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R128">
+        <v>1.775</v>
+      </c>
+      <c r="S128">
+        <v>2.025</v>
+      </c>
+      <c r="T128">
+        <v>2.75</v>
+      </c>
+      <c r="U128">
+        <v>1.825</v>
+      </c>
+      <c r="V128">
         <v>1.975</v>
       </c>
-      <c r="S128">
-        <v>1.825</v>
-      </c>
-      <c r="T128">
-        <v>3.75</v>
-      </c>
-      <c r="U128">
-        <v>1.875</v>
-      </c>
-      <c r="V128">
-        <v>1.925</v>
-      </c>
       <c r="W128">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB128">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6102233</v>
+        <v>6102357</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,16 +11919,16 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
         <v>43</v>
@@ -11943,34 +11943,34 @@
         <v>7</v>
       </c>
       <c r="N129">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="O129">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="P129">
         <v>7</v>
       </c>
       <c r="Q129">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R129">
+        <v>1.975</v>
+      </c>
+      <c r="S129">
+        <v>1.825</v>
+      </c>
+      <c r="T129">
+        <v>3.75</v>
+      </c>
+      <c r="U129">
+        <v>1.875</v>
+      </c>
+      <c r="V129">
         <v>1.925</v>
       </c>
-      <c r="S129">
-        <v>1.925</v>
-      </c>
-      <c r="T129">
-        <v>3.25</v>
-      </c>
-      <c r="U129">
-        <v>1.825</v>
-      </c>
-      <c r="V129">
-        <v>2.025</v>
-      </c>
       <c r="W129">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -11979,16 +11979,16 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC129">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6102232</v>
+        <v>6102233</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,76 +12008,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K130">
-        <v>2.6</v>
+        <v>1.333</v>
       </c>
       <c r="L130">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M130">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="N130">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="O130">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P130">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="Q130">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R130">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S130">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T130">
         <v>3.25</v>
       </c>
       <c r="U130">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X130">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA130">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC130">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
         <v>37</v>
@@ -12109,7 +12109,7 @@
         <v>3</v>
       </c>
       <c r="J131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K131">
         <v>6</v>
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6102235</v>
+        <v>6102232</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,76 +12186,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G132" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
         <v>42</v>
       </c>
       <c r="K132">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="L132">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M132">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="N132">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="O132">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P132">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q132">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R132">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S132">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T132">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U132">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V132">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y132">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA132">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB132">
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12275,7 +12275,7 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
         <v>39</v>
@@ -12287,7 +12287,7 @@
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K133">
         <v>2.6</v>
@@ -12376,7 +12376,7 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K134">
         <v>1.75</v>
@@ -12453,7 +12453,7 @@
         <v>45186.67708333334</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G135" t="s">
         <v>31</v>
@@ -12545,7 +12545,7 @@
         <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12554,7 +12554,7 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K136">
         <v>2.2</v>
@@ -12631,7 +12631,7 @@
         <v>45189.55208333334</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
         <v>35</v>
@@ -12732,7 +12732,7 @@
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K138">
         <v>1.5</v>
@@ -12812,7 +12812,7 @@
         <v>39</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -12821,7 +12821,7 @@
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K139">
         <v>1.8</v>
@@ -12886,7 +12886,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7173163</v>
+        <v>7173179</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12898,76 +12898,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H140">
+        <v>2</v>
+      </c>
+      <c r="I140">
         <v>1</v>
       </c>
-      <c r="I140">
-        <v>3</v>
-      </c>
       <c r="J140" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K140">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="L140">
         <v>3.6</v>
       </c>
       <c r="M140">
+        <v>2.45</v>
+      </c>
+      <c r="N140">
         <v>2.375</v>
       </c>
-      <c r="N140">
-        <v>2.7</v>
-      </c>
       <c r="O140">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P140">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q140">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R140">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S140">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T140">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U140">
+        <v>1.975</v>
+      </c>
+      <c r="V140">
         <v>1.825</v>
       </c>
-      <c r="V140">
-        <v>1.975</v>
-      </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA140">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12990,7 +12990,7 @@
         <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -12999,7 +12999,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K141">
         <v>2.5</v>
@@ -13064,7 +13064,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7173179</v>
+        <v>7173163</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13076,76 +13076,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G142" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K142">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="L142">
         <v>3.6</v>
       </c>
       <c r="M142">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="N142">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="O142">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P142">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="Q142">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S142">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T142">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U142">
+        <v>1.825</v>
+      </c>
+      <c r="V142">
         <v>1.975</v>
       </c>
-      <c r="V142">
-        <v>1.825</v>
-      </c>
       <c r="W142">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z142">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB142">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC142">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13165,10 +13165,10 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F143" t="s">
+        <v>29</v>
+      </c>
+      <c r="G143" t="s">
         <v>30</v>
-      </c>
-      <c r="G143" t="s">
-        <v>29</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13177,7 +13177,7 @@
         <v>4</v>
       </c>
       <c r="J143" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K143">
         <v>2.55</v>
@@ -13343,7 +13343,7 @@
         <v>45197.55208333334</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
         <v>39</v>
@@ -13420,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7173182</v>
+        <v>7173166</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13435,55 +13435,55 @@
         <v>33</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J146" t="s">
         <v>43</v>
       </c>
       <c r="K146">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="L146">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M146">
+        <v>2.6</v>
+      </c>
+      <c r="N146">
+        <v>2.7</v>
+      </c>
+      <c r="O146">
+        <v>4</v>
+      </c>
+      <c r="P146">
+        <v>2.1</v>
+      </c>
+      <c r="Q146">
+        <v>0.25</v>
+      </c>
+      <c r="R146">
+        <v>1.925</v>
+      </c>
+      <c r="S146">
+        <v>1.875</v>
+      </c>
+      <c r="T146">
         <v>3.75</v>
-      </c>
-      <c r="N146">
-        <v>1.833</v>
-      </c>
-      <c r="O146">
-        <v>3.8</v>
-      </c>
-      <c r="P146">
-        <v>3.5</v>
-      </c>
-      <c r="Q146">
-        <v>-0.5</v>
-      </c>
-      <c r="R146">
-        <v>1.825</v>
-      </c>
-      <c r="S146">
-        <v>1.975</v>
-      </c>
-      <c r="T146">
-        <v>3.25</v>
       </c>
       <c r="U146">
         <v>1.925</v>
       </c>
       <c r="V146">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W146">
-        <v>0.833</v>
+        <v>1.7</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13492,7 +13492,7 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA146">
         <v>-1</v>
@@ -13509,7 +13509,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7173183</v>
+        <v>7173167</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13521,43 +13521,43 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G147" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H147">
         <v>2</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K147">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="L147">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M147">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N147">
-        <v>2.45</v>
+        <v>1.571</v>
       </c>
       <c r="O147">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P147">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R147">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S147">
         <v>1.925</v>
@@ -13566,16 +13566,16 @@
         <v>3.25</v>
       </c>
       <c r="U147">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V147">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X147">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
@@ -13587,10 +13587,10 @@
         <v>-0</v>
       </c>
       <c r="AB147">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13598,7 +13598,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7173168</v>
+        <v>7173182</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13610,37 +13610,37 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G148" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
         <v>43</v>
       </c>
       <c r="K148">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L148">
+        <v>3.8</v>
+      </c>
+      <c r="M148">
         <v>3.75</v>
       </c>
-      <c r="M148">
-        <v>3.2</v>
-      </c>
       <c r="N148">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O148">
         <v>3.8</v>
       </c>
       <c r="P148">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q148">
         <v>-0.5</v>
@@ -13655,13 +13655,13 @@
         <v>3.25</v>
       </c>
       <c r="U148">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V148">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W148">
-        <v>0.8500000000000001</v>
+        <v>0.833</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13676,10 +13676,10 @@
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC148">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13687,7 +13687,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7173166</v>
+        <v>7173183</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13699,73 +13699,73 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H149">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I149">
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K149">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L149">
         <v>3.6</v>
       </c>
       <c r="M149">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="N149">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="O149">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P149">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q149">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R149">
         <v>1.925</v>
       </c>
       <c r="S149">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T149">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U149">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V149">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W149">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB149">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13776,7 +13776,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7173167</v>
+        <v>7173168</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13788,58 +13788,58 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F150" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H150">
         <v>2</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
         <v>43</v>
       </c>
       <c r="K150">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="L150">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M150">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N150">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="O150">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P150">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q150">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R150">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S150">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T150">
         <v>3.25</v>
       </c>
       <c r="U150">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V150">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W150">
-        <v>0.571</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13848,16 +13848,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA150">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13969,7 +13969,7 @@
         <v>35</v>
       </c>
       <c r="G152" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -13978,7 +13978,7 @@
         <v>3</v>
       </c>
       <c r="J152" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K152">
         <v>2.9</v>
@@ -14067,7 +14067,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K153">
         <v>2.625</v>
@@ -14144,10 +14144,10 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F154" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G154" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14233,7 +14233,7 @@
         <v>45200.67708333334</v>
       </c>
       <c r="F155" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G155" t="s">
         <v>36</v>
@@ -14488,7 +14488,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7173173</v>
+        <v>7173189</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14500,58 +14500,58 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H158">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
         <v>43</v>
       </c>
       <c r="K158">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="L158">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M158">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N158">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="O158">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P158">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q158">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R158">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S158">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T158">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U158">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V158">
         <v>1.825</v>
       </c>
       <c r="W158">
-        <v>0.5329999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14560,16 +14560,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA158">
         <v>-1</v>
       </c>
       <c r="AB158">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14577,7 +14577,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7173187</v>
+        <v>7173188</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14589,76 +14589,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G159" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H159">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I159">
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K159">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L159">
+        <v>4.5</v>
+      </c>
+      <c r="M159">
+        <v>5.5</v>
+      </c>
+      <c r="N159">
+        <v>1.222</v>
+      </c>
+      <c r="O159">
+        <v>5.5</v>
+      </c>
+      <c r="P159">
+        <v>9</v>
+      </c>
+      <c r="Q159">
+        <v>-2</v>
+      </c>
+      <c r="R159">
+        <v>1.975</v>
+      </c>
+      <c r="S159">
+        <v>1.825</v>
+      </c>
+      <c r="T159">
         <v>3.75</v>
       </c>
-      <c r="M159">
-        <v>2.9</v>
-      </c>
-      <c r="N159">
-        <v>2.1</v>
-      </c>
-      <c r="O159">
-        <v>3.5</v>
-      </c>
-      <c r="P159">
-        <v>3</v>
-      </c>
-      <c r="Q159">
-        <v>-0.25</v>
-      </c>
-      <c r="R159">
-        <v>1.825</v>
-      </c>
-      <c r="S159">
-        <v>2.025</v>
-      </c>
-      <c r="T159">
-        <v>3.5</v>
-      </c>
       <c r="U159">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V159">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W159">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
+        <v>-1</v>
+      </c>
+      <c r="AA159">
         <v>0.825</v>
       </c>
-      <c r="AA159">
-        <v>-1</v>
-      </c>
       <c r="AB159">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14666,7 +14666,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7173188</v>
+        <v>7173187</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14678,76 +14678,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G160" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I160">
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K160">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L160">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M160">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="N160">
-        <v>1.222</v>
+        <v>2.1</v>
       </c>
       <c r="O160">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P160">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q160">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R160">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S160">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T160">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U160">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V160">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X160">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA160">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC160">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14755,7 +14755,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7173189</v>
+        <v>7173173</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14767,58 +14767,58 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G161" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H161">
+        <v>5</v>
+      </c>
+      <c r="I161">
         <v>1</v>
-      </c>
-      <c r="I161">
-        <v>0</v>
       </c>
       <c r="J161" t="s">
         <v>43</v>
       </c>
       <c r="K161">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L161">
+        <v>4.333</v>
+      </c>
+      <c r="M161">
+        <v>3.75</v>
+      </c>
+      <c r="N161">
+        <v>1.533</v>
+      </c>
+      <c r="O161">
+        <v>4.75</v>
+      </c>
+      <c r="P161">
+        <v>4.333</v>
+      </c>
+      <c r="Q161">
+        <v>-1</v>
+      </c>
+      <c r="R161">
+        <v>1.85</v>
+      </c>
+      <c r="S161">
+        <v>2</v>
+      </c>
+      <c r="T161">
         <v>4</v>
       </c>
-      <c r="M161">
-        <v>3.4</v>
-      </c>
-      <c r="N161">
-        <v>2.15</v>
-      </c>
-      <c r="O161">
-        <v>3.8</v>
-      </c>
-      <c r="P161">
-        <v>2.8</v>
-      </c>
-      <c r="Q161">
-        <v>-0.25</v>
-      </c>
-      <c r="R161">
-        <v>1.9</v>
-      </c>
-      <c r="S161">
-        <v>1.9</v>
-      </c>
-      <c r="T161">
-        <v>3.5</v>
-      </c>
       <c r="U161">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V161">
         <v>1.825</v>
       </c>
       <c r="W161">
-        <v>1.15</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14827,16 +14827,16 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA161">
         <v>-1</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC161">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14868,7 +14868,7 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K162">
         <v>2</v>

--- a/Iceland Premier League/Iceland Premier League.xlsx
+++ b/Iceland Premier League/Iceland Premier League.xlsx
@@ -115,16 +115,16 @@
     <t>Breidablik</t>
   </si>
   <si>
+    <t>Valur Reykjavik</t>
+  </si>
+  <si>
     <t>Fram Reykjavik</t>
   </si>
   <si>
-    <t>Valur Reykjavik</t>
+    <t>KA Akureyri</t>
   </si>
   <si>
     <t>KR Reykjavik</t>
-  </si>
-  <si>
-    <t>KA Akureyri</t>
   </si>
   <si>
     <t>FH Hafnarfjordur</t>
@@ -133,10 +133,10 @@
     <t>HK Kopavogur</t>
   </si>
   <si>
-    <t>Keflavik</t>
+    <t>Vikingur Reykjavik</t>
   </si>
   <si>
-    <t>Vikingur Reykjavik</t>
+    <t>Keflavik</t>
   </si>
   <si>
     <t>H</t>
@@ -708,7 +708,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -797,7 +797,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -886,7 +886,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6102175</v>
+        <v>6102346</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,73 +975,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M6">
+        <v>4.2</v>
+      </c>
+      <c r="N6">
+        <v>1.615</v>
+      </c>
+      <c r="O6">
+        <v>4.2</v>
+      </c>
+      <c r="P6">
+        <v>4.333</v>
+      </c>
+      <c r="Q6">
+        <v>-1</v>
+      </c>
+      <c r="R6">
+        <v>2.05</v>
+      </c>
+      <c r="S6">
+        <v>1.8</v>
+      </c>
+      <c r="T6">
         <v>3.25</v>
       </c>
-      <c r="N6">
-        <v>1.909</v>
-      </c>
-      <c r="O6">
-        <v>3.6</v>
-      </c>
-      <c r="P6">
-        <v>3.5</v>
-      </c>
-      <c r="Q6">
-        <v>-0.5</v>
-      </c>
-      <c r="R6">
-        <v>1.95</v>
-      </c>
-      <c r="S6">
-        <v>1.85</v>
-      </c>
-      <c r="T6">
-        <v>2.75</v>
-      </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W6">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1049,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6102346</v>
+        <v>6102175</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1064,73 +1064,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M7">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N7">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O7">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P7">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S7">
+        <v>1.85</v>
+      </c>
+      <c r="T7">
+        <v>2.75</v>
+      </c>
+      <c r="U7">
         <v>1.8</v>
       </c>
-      <c r="T7">
-        <v>3.25</v>
-      </c>
-      <c r="U7">
-        <v>2.025</v>
-      </c>
       <c r="V7">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X7">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA7">
+        <v>-1</v>
+      </c>
+      <c r="AB7">
         <v>0.8</v>
       </c>
-      <c r="AB7">
-        <v>-1</v>
-      </c>
       <c r="AC7">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6102177</v>
+        <v>6102176</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,73 +1153,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>1.833</v>
+        <v>1.6</v>
       </c>
       <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>4.333</v>
+      </c>
+      <c r="N8">
+        <v>1.8</v>
+      </c>
+      <c r="O8">
+        <v>3.8</v>
+      </c>
+      <c r="P8">
         <v>3.6</v>
-      </c>
-      <c r="M8">
-        <v>3.4</v>
-      </c>
-      <c r="N8">
-        <v>1.85</v>
-      </c>
-      <c r="O8">
-        <v>3.6</v>
-      </c>
-      <c r="P8">
-        <v>3.5</v>
       </c>
       <c r="Q8">
         <v>-0.5</v>
       </c>
       <c r="R8">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T8">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U8">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X8">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA8">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6102176</v>
+        <v>6102177</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,73 +1242,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>1.6</v>
+        <v>1.833</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M9">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N9">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O9">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P9">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q9">
         <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1420,7 +1420,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6102180</v>
+        <v>6102179</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1509,73 +1509,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K12">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="L12">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M12">
+        <v>5.5</v>
+      </c>
+      <c r="N12">
+        <v>1.3</v>
+      </c>
+      <c r="O12">
+        <v>5.25</v>
+      </c>
+      <c r="P12">
+        <v>6.5</v>
+      </c>
+      <c r="Q12">
+        <v>-1.5</v>
+      </c>
+      <c r="R12">
         <v>1.85</v>
       </c>
-      <c r="N12">
-        <v>4.2</v>
-      </c>
-      <c r="O12">
+      <c r="S12">
+        <v>1.95</v>
+      </c>
+      <c r="T12">
         <v>3.5</v>
       </c>
-      <c r="P12">
-        <v>1.727</v>
-      </c>
-      <c r="Q12">
-        <v>0.75</v>
-      </c>
-      <c r="R12">
-        <v>1.8</v>
-      </c>
-      <c r="S12">
-        <v>2</v>
-      </c>
-      <c r="T12">
-        <v>2.75</v>
-      </c>
       <c r="U12">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V12">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X12">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6102179</v>
+        <v>6102180</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1598,73 +1598,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="L13">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M13">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="N13">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="O13">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P13">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q13">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R13">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S13">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T13">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V13">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W13">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6102183</v>
+        <v>6102182</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,76 +1684,76 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="L14">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M14">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="N14">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="O14">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P14">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="Q14">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R14">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S14">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T14">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U14">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V14">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W14">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB14">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6102182</v>
+        <v>6102181</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,76 +1773,76 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L15">
+        <v>3.75</v>
+      </c>
+      <c r="M15">
         <v>3.6</v>
       </c>
-      <c r="M15">
-        <v>2.625</v>
-      </c>
       <c r="N15">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P15">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q15">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R15">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S15">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T15">
         <v>3</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X15">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6102181</v>
+        <v>6102183</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,58 +1862,58 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
         <v>41</v>
       </c>
       <c r="K16">
-        <v>1.833</v>
+        <v>5.25</v>
       </c>
       <c r="L16">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M16">
-        <v>3.6</v>
+        <v>1.45</v>
       </c>
       <c r="N16">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P16">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R16">
+        <v>2.025</v>
+      </c>
+      <c r="S16">
+        <v>1.825</v>
+      </c>
+      <c r="T16">
+        <v>3.25</v>
+      </c>
+      <c r="U16">
         <v>1.975</v>
       </c>
-      <c r="S16">
+      <c r="V16">
         <v>1.875</v>
       </c>
-      <c r="T16">
-        <v>3</v>
-      </c>
-      <c r="U16">
-        <v>1.85</v>
-      </c>
-      <c r="V16">
-        <v>2</v>
-      </c>
       <c r="W16">
-        <v>0.7270000000000001</v>
+        <v>5</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1922,13 +1922,13 @@
         <v>-1</v>
       </c>
       <c r="Z16">
+        <v>1.025</v>
+      </c>
+      <c r="AA16">
+        <v>-1</v>
+      </c>
+      <c r="AB16">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA16">
-        <v>-1</v>
-      </c>
-      <c r="AB16">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1954,7 +1954,7 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2040,10 +2040,10 @@
         <v>45101.58333333334</v>
       </c>
       <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
         <v>35</v>
-      </c>
-      <c r="G18" t="s">
-        <v>36</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2129,7 +2129,7 @@
         <v>45101.67708333334</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
         <v>31</v>
@@ -2221,7 +2221,7 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6102191</v>
+        <v>6102188</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,40 +2307,40 @@
         <v>45105.67708333334</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>41</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L21">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N21">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O21">
         <v>3.75</v>
       </c>
       <c r="P21">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R21">
         <v>1.875</v>
@@ -2349,7 +2349,7 @@
         <v>1.975</v>
       </c>
       <c r="T21">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
         <v>2</v>
@@ -2358,7 +2358,7 @@
         <v>1.85</v>
       </c>
       <c r="W21">
-        <v>0.833</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2373,10 +2373,10 @@
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6102188</v>
+        <v>6102191</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,40 +2396,40 @@
         <v>45105.67708333334</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
         <v>41</v>
       </c>
       <c r="K22">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M22">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N22">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O22">
         <v>3.75</v>
       </c>
       <c r="P22">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q22">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
         <v>1.875</v>
@@ -2438,7 +2438,7 @@
         <v>1.975</v>
       </c>
       <c r="T22">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U22">
         <v>2</v>
@@ -2447,7 +2447,7 @@
         <v>1.85</v>
       </c>
       <c r="W22">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2462,10 +2462,10 @@
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2577,7 +2577,7 @@
         <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2755,7 +2755,7 @@
         <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2841,10 +2841,10 @@
         <v>45115.58333333334</v>
       </c>
       <c r="F27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" t="s">
         <v>39</v>
-      </c>
-      <c r="G27" t="s">
-        <v>40</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2930,7 +2930,7 @@
         <v>45119.67708333334</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
         <v>30</v>
@@ -3022,7 +3022,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3108,7 +3108,7 @@
         <v>45121.71875</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
         <v>32</v>
@@ -3200,7 +3200,7 @@
         <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3289,7 +3289,7 @@
         <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3464,7 +3464,7 @@
         <v>45125.70833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
@@ -3642,10 +3642,10 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3820,10 +3820,10 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" t="s">
         <v>34</v>
-      </c>
-      <c r="G38" t="s">
-        <v>33</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3909,10 +3909,10 @@
         <v>45131.625</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -4090,7 +4090,7 @@
         <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H41">
         <v>4</v>
@@ -4265,7 +4265,7 @@
         <v>45137.54166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
         <v>38</v>
@@ -4354,7 +4354,7 @@
         <v>45137.58333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
         <v>29</v>
@@ -4443,10 +4443,10 @@
         <v>45138.67708333334</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4532,7 +4532,7 @@
         <v>45138.67708333334</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G46" t="s">
         <v>37</v>
@@ -4713,7 +4713,7 @@
         <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -4799,10 +4799,10 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H49">
         <v>4</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6102216</v>
+        <v>6102217</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,76 +4888,76 @@
         <v>45146.67708333334</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K50">
+        <v>2.05</v>
+      </c>
+      <c r="L50">
         <v>3.6</v>
       </c>
-      <c r="L50">
-        <v>3.75</v>
-      </c>
       <c r="M50">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="N50">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="O50">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P50">
+        <v>3.25</v>
+      </c>
+      <c r="Q50">
+        <v>-0.25</v>
+      </c>
+      <c r="R50">
+        <v>1.85</v>
+      </c>
+      <c r="S50">
         <v>1.95</v>
       </c>
-      <c r="Q50">
-        <v>0.5</v>
-      </c>
-      <c r="R50">
-        <v>1.875</v>
-      </c>
-      <c r="S50">
-        <v>1.925</v>
-      </c>
       <c r="T50">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U50">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA50">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AB50">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6102217</v>
+        <v>6102216</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,76 +4977,76 @@
         <v>45146.67708333334</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K51">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="L51">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M51">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="N51">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="O51">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P51">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R51">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S51">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T51">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U51">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z51">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC51">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5069,7 +5069,7 @@
         <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5155,7 +5155,7 @@
         <v>45151.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
         <v>32</v>
@@ -5333,10 +5333,10 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5422,10 +5422,10 @@
         <v>45151.63541666666</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -5511,7 +5511,7 @@
         <v>45151.67708333334</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G57" t="s">
         <v>38</v>
@@ -5778,10 +5778,10 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -5870,7 +5870,7 @@
         <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6102354</v>
+        <v>6102225</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,40 +5956,40 @@
         <v>45158.67708333334</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G62" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K62">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="L62">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M62">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="N62">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="O62">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P62">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="Q62">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R62">
         <v>1.9</v>
@@ -5998,31 +5998,31 @@
         <v>1.9</v>
       </c>
       <c r="T62">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U62">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V62">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z62">
+        <v>-1</v>
+      </c>
+      <c r="AA62">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA62">
-        <v>-1</v>
-      </c>
       <c r="AB62">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6102225</v>
+        <v>6102354</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,40 +6045,40 @@
         <v>45158.67708333334</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63" t="s">
+        <v>42</v>
+      </c>
+      <c r="K63">
+        <v>2.75</v>
+      </c>
+      <c r="L63">
+        <v>3.75</v>
+      </c>
+      <c r="M63">
+        <v>2.25</v>
+      </c>
+      <c r="N63">
+        <v>3.3</v>
+      </c>
+      <c r="O63">
         <v>4</v>
       </c>
-      <c r="J63" t="s">
-        <v>43</v>
-      </c>
-      <c r="K63">
-        <v>2.45</v>
-      </c>
-      <c r="L63">
-        <v>3.6</v>
-      </c>
-      <c r="M63">
-        <v>2.45</v>
-      </c>
-      <c r="N63">
-        <v>2.9</v>
-      </c>
-      <c r="O63">
-        <v>3.6</v>
-      </c>
       <c r="P63">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q63">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R63">
         <v>1.9</v>
@@ -6087,31 +6087,31 @@
         <v>1.9</v>
       </c>
       <c r="T63">
+        <v>3.25</v>
+      </c>
+      <c r="U63">
+        <v>1.95</v>
+      </c>
+      <c r="V63">
+        <v>1.85</v>
+      </c>
+      <c r="W63">
+        <v>-1</v>
+      </c>
+      <c r="X63">
         <v>3</v>
       </c>
-      <c r="U63">
-        <v>1.875</v>
-      </c>
-      <c r="V63">
-        <v>1.925</v>
-      </c>
-      <c r="W63">
-        <v>-1</v>
-      </c>
-      <c r="X63">
-        <v>-1</v>
-      </c>
       <c r="Y63">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA63">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6137,7 +6137,7 @@
         <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H64">
         <v>3</v>
@@ -6223,7 +6223,7 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
         <v>31</v>
@@ -6315,7 +6315,7 @@
         <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H66">
         <v>3</v>
@@ -6389,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6102230</v>
+        <v>6102229</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6401,76 +6401,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K67">
-        <v>2.55</v>
+        <v>1.55</v>
       </c>
       <c r="L67">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M67">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N67">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O67">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P67">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R67">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S67">
         <v>1.825</v>
       </c>
       <c r="T67">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U67">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V67">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X67">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA67">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6102229</v>
+        <v>6102230</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,76 +6490,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K68">
-        <v>1.55</v>
+        <v>2.55</v>
       </c>
       <c r="L68">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M68">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="N68">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="O68">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P68">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q68">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S68">
         <v>1.825</v>
       </c>
       <c r="T68">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U68">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6579,7 +6579,7 @@
         <v>45165.67708333334</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
         <v>32</v>
@@ -6760,7 +6760,7 @@
         <v>37</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6102235</v>
+        <v>6102357</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K72">
-        <v>1.6</v>
+        <v>1.333</v>
       </c>
       <c r="L72">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M72">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="N72">
-        <v>1.65</v>
+        <v>1.3</v>
       </c>
       <c r="O72">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P72">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q72">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R72">
+        <v>1.975</v>
+      </c>
+      <c r="S72">
         <v>1.825</v>
       </c>
-      <c r="S72">
-        <v>1.975</v>
-      </c>
       <c r="T72">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U72">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V72">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA72">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC72">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6102234</v>
+        <v>6102236</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,73 +6935,73 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G73" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H73">
         <v>2</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K73">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="L73">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M73">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="N73">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="O73">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P73">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="Q73">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R73">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S73">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T73">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U73">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V73">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y73">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.95</v>
+        <v>0.3875</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB73">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6102232</v>
+        <v>6102235</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,76 +7024,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K74">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M74">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N74">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="O74">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P74">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S74">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T74">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V74">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z74">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6102236</v>
+        <v>6102233</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,76 +7113,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K75">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="L75">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M75">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="N75">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="O75">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P75">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Q75">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R75">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U75">
         <v>1.825</v>
       </c>
       <c r="V75">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X75">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
       <c r="AA75">
+        <v>-1</v>
+      </c>
+      <c r="AB75">
         <v>-0.5</v>
       </c>
-      <c r="AB75">
-        <v>0.825</v>
-      </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6102357</v>
+        <v>6102234</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7205,70 +7205,70 @@
         <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J76" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K76">
-        <v>1.333</v>
+        <v>6</v>
       </c>
       <c r="L76">
         <v>5</v>
       </c>
       <c r="M76">
+        <v>1.4</v>
+      </c>
+      <c r="N76">
         <v>7</v>
       </c>
-      <c r="N76">
-        <v>1.3</v>
-      </c>
       <c r="O76">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="P76">
-        <v>7</v>
+        <v>1.363</v>
       </c>
       <c r="Q76">
-        <v>-1.75</v>
+        <v>1.5</v>
       </c>
       <c r="R76">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S76">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T76">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U76">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V76">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W76">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z76">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC76">
         <v>-1</v>
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6102233</v>
+        <v>6102232</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,76 +7291,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77" t="s">
+        <v>42</v>
+      </c>
+      <c r="K77">
+        <v>2.6</v>
+      </c>
+      <c r="L77">
+        <v>3.6</v>
+      </c>
+      <c r="M77">
+        <v>2.3</v>
+      </c>
+      <c r="N77">
+        <v>2.5</v>
+      </c>
+      <c r="O77">
+        <v>3.6</v>
+      </c>
+      <c r="P77">
+        <v>2.45</v>
+      </c>
+      <c r="Q77">
         <v>0</v>
       </c>
-      <c r="J77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K77">
-        <v>1.333</v>
-      </c>
-      <c r="L77">
-        <v>5</v>
-      </c>
-      <c r="M77">
-        <v>7</v>
-      </c>
-      <c r="N77">
-        <v>1.333</v>
-      </c>
-      <c r="O77">
-        <v>5</v>
-      </c>
-      <c r="P77">
-        <v>7</v>
-      </c>
-      <c r="Q77">
-        <v>-1.5</v>
-      </c>
       <c r="R77">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S77">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T77">
         <v>3.25</v>
       </c>
       <c r="U77">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V77">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W77">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7558,7 +7558,7 @@
         <v>45186.67708333334</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
         <v>31</v>
@@ -7650,7 +7650,7 @@
         <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7736,10 +7736,10 @@
         <v>45189.55208333334</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H82">
         <v>4</v>
@@ -7825,10 +7825,10 @@
         <v>45189.67708333334</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7917,7 +7917,7 @@
         <v>29</v>
       </c>
       <c r="G84" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7173179</v>
+        <v>7173164</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8003,76 +8003,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H85">
         <v>2</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K85">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L85">
         <v>3.6</v>
       </c>
       <c r="M85">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="N85">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O85">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P85">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S85">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T85">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U85">
+        <v>1.825</v>
+      </c>
+      <c r="V85">
         <v>1.975</v>
       </c>
-      <c r="V85">
-        <v>1.825</v>
-      </c>
       <c r="W85">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB85">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC85">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7173163</v>
+        <v>7173179</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8092,76 +8092,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H86">
+        <v>2</v>
+      </c>
+      <c r="I86">
         <v>1</v>
       </c>
-      <c r="I86">
-        <v>3</v>
-      </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K86">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="L86">
         <v>3.6</v>
       </c>
       <c r="M86">
+        <v>2.45</v>
+      </c>
+      <c r="N86">
         <v>2.375</v>
       </c>
-      <c r="N86">
-        <v>2.7</v>
-      </c>
       <c r="O86">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P86">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q86">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S86">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T86">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U86">
+        <v>1.975</v>
+      </c>
+      <c r="V86">
         <v>1.825</v>
       </c>
-      <c r="V86">
-        <v>1.975</v>
-      </c>
       <c r="W86">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA86">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7173164</v>
+        <v>7173163</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,22 +8181,22 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K87">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="L87">
         <v>3.6</v>
@@ -8205,25 +8205,25 @@
         <v>2.375</v>
       </c>
       <c r="N87">
+        <v>2.7</v>
+      </c>
+      <c r="O87">
+        <v>3.5</v>
+      </c>
+      <c r="P87">
         <v>2.25</v>
       </c>
-      <c r="O87">
-        <v>3.8</v>
-      </c>
-      <c r="P87">
-        <v>2.6</v>
-      </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R87">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S87">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T87">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U87">
         <v>1.825</v>
@@ -8235,16 +8235,16 @@
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z87">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.375</v>
+        <v>1.025</v>
       </c>
       <c r="AB87">
         <v>0.825</v>
@@ -8273,7 +8273,7 @@
         <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8362,7 +8362,7 @@
         <v>32</v>
       </c>
       <c r="G89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H89">
         <v>3</v>
@@ -8448,7 +8448,7 @@
         <v>45197.55208333334</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
         <v>29</v>
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7173167</v>
+        <v>7173183</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,43 +8537,43 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H91">
         <v>2</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K91">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M91">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N91">
-        <v>1.571</v>
+        <v>2.45</v>
       </c>
       <c r="O91">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P91">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q91">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S91">
         <v>1.925</v>
@@ -8582,16 +8582,16 @@
         <v>3.25</v>
       </c>
       <c r="U91">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V91">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W91">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y91">
         <v>-1</v>
@@ -8603,10 +8603,10 @@
         <v>-0</v>
       </c>
       <c r="AB91">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC91">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7173166</v>
+        <v>7173168</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,58 +8626,58 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
         <v>41</v>
       </c>
       <c r="K92">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L92">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M92">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N92">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="O92">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P92">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R92">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S92">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T92">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U92">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V92">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W92">
-        <v>1.7</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8686,16 +8686,16 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA92">
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7173168</v>
+        <v>7173182</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,37 +8715,37 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
         <v>41</v>
       </c>
       <c r="K93">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L93">
+        <v>3.8</v>
+      </c>
+      <c r="M93">
         <v>3.75</v>
       </c>
-      <c r="M93">
-        <v>3.2</v>
-      </c>
       <c r="N93">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O93">
         <v>3.8</v>
       </c>
       <c r="P93">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q93">
         <v>-0.5</v>
@@ -8760,13 +8760,13 @@
         <v>3.25</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W93">
-        <v>0.8500000000000001</v>
+        <v>0.833</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8781,10 +8781,10 @@
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC93">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7173182</v>
+        <v>7173167</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,13 +8804,13 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G94" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -8819,43 +8819,43 @@
         <v>41</v>
       </c>
       <c r="K94">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="L94">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M94">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N94">
-        <v>1.833</v>
+        <v>1.571</v>
       </c>
       <c r="O94">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P94">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R94">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S94">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T94">
         <v>3.25</v>
       </c>
       <c r="U94">
+        <v>1.775</v>
+      </c>
+      <c r="V94">
         <v>1.925</v>
       </c>
-      <c r="V94">
-        <v>1.875</v>
-      </c>
       <c r="W94">
-        <v>0.833</v>
+        <v>0.571</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8864,16 +8864,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB94">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7173183</v>
+        <v>7173166</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,73 +8893,73 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I95">
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K95">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L95">
         <v>3.6</v>
       </c>
       <c r="M95">
+        <v>2.6</v>
+      </c>
+      <c r="N95">
         <v>2.7</v>
       </c>
-      <c r="N95">
-        <v>2.45</v>
-      </c>
       <c r="O95">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P95">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
         <v>1.925</v>
       </c>
       <c r="S95">
+        <v>1.875</v>
+      </c>
+      <c r="T95">
+        <v>3.75</v>
+      </c>
+      <c r="U95">
         <v>1.925</v>
       </c>
-      <c r="T95">
-        <v>3.25</v>
-      </c>
-      <c r="U95">
-        <v>1.9</v>
-      </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X95">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA95">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -8982,7 +8982,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
         <v>32</v>
@@ -9071,7 +9071,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G97" t="s">
         <v>30</v>
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7173186</v>
+        <v>7173185</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,76 +9160,76 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
         <v>1</v>
       </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
       <c r="J98" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K98">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="L98">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M98">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="N98">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="O98">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P98">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R98">
         <v>1.825</v>
       </c>
       <c r="S98">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T98">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U98">
         <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z98">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7173185</v>
+        <v>7173186</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,76 +9249,76 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
         <v>0</v>
       </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K99">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="L99">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M99">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="N99">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="O99">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P99">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q99">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
         <v>1.825</v>
       </c>
       <c r="S99">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T99">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U99">
         <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA99">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>45200.67708333334</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9430,7 +9430,7 @@
         <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H101">
         <v>3</v>
@@ -9519,7 +9519,7 @@
         <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H102">
         <v>5</v>
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7173173</v>
+        <v>7173189</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,58 +9605,58 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>41</v>
       </c>
       <c r="K103">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="L103">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M103">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N103">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="O103">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P103">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q103">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S103">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T103">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U103">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V103">
         <v>1.825</v>
       </c>
       <c r="W103">
-        <v>0.5329999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9665,16 +9665,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7173172</v>
+        <v>7173188</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K104">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L104">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M104">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="N104">
-        <v>2.25</v>
+        <v>1.222</v>
       </c>
       <c r="O104">
+        <v>5.5</v>
+      </c>
+      <c r="P104">
+        <v>9</v>
+      </c>
+      <c r="Q104">
+        <v>-2</v>
+      </c>
+      <c r="R104">
+        <v>1.975</v>
+      </c>
+      <c r="S104">
+        <v>1.825</v>
+      </c>
+      <c r="T104">
         <v>3.75</v>
       </c>
-      <c r="P104">
-        <v>2.55</v>
-      </c>
-      <c r="Q104">
-        <v>0</v>
-      </c>
-      <c r="R104">
-        <v>1.775</v>
-      </c>
-      <c r="S104">
-        <v>2.025</v>
-      </c>
-      <c r="T104">
-        <v>3.5</v>
-      </c>
       <c r="U104">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W104">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB104">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7173188</v>
+        <v>7173173</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I105">
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K105">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="L105">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M105">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N105">
-        <v>1.222</v>
+        <v>1.533</v>
       </c>
       <c r="O105">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="P105">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="Q105">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R105">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S105">
+        <v>2</v>
+      </c>
+      <c r="T105">
+        <v>4</v>
+      </c>
+      <c r="U105">
+        <v>2.025</v>
+      </c>
+      <c r="V105">
         <v>1.825</v>
       </c>
-      <c r="T105">
-        <v>3.75</v>
-      </c>
-      <c r="U105">
-        <v>1.9</v>
-      </c>
-      <c r="V105">
-        <v>1.9</v>
-      </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X105">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA105">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC105">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7173189</v>
+        <v>7173172</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,58 +9872,58 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F106" t="s">
+        <v>37</v>
+      </c>
+      <c r="G106" t="s">
         <v>36</v>
       </c>
-      <c r="G106" t="s">
-        <v>38</v>
-      </c>
       <c r="H106">
+        <v>3</v>
+      </c>
+      <c r="I106">
         <v>1</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>41</v>
       </c>
       <c r="K106">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M106">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N106">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O106">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P106">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R106">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S106">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T106">
         <v>3.5</v>
       </c>
       <c r="U106">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V106">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W106">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9932,16 +9932,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC106">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">

--- a/Iceland Premier League/Iceland Premier League.xlsx
+++ b/Iceland Premier League/Iceland Premier League.xlsx
@@ -112,13 +112,13 @@
     <t>Stjarnan</t>
   </si>
   <si>
-    <t>Breidablik</t>
+    <t>Fram Reykjavik</t>
   </si>
   <si>
     <t>Valur Reykjavik</t>
   </si>
   <si>
-    <t>Fram Reykjavik</t>
+    <t>Breidablik</t>
   </si>
   <si>
     <t>KA Akureyri</t>
@@ -133,10 +133,10 @@
     <t>HK Kopavogur</t>
   </si>
   <si>
-    <t>Vikingur Reykjavik</t>
+    <t>Keflavik</t>
   </si>
   <si>
-    <t>Keflavik</t>
+    <t>Vikingur Reykjavik</t>
   </si>
   <si>
     <t>H</t>
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6102174</v>
+        <v>6102175</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -889,67 +889,67 @@
         <v>39</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L5">
+        <v>3.75</v>
+      </c>
+      <c r="M5">
+        <v>3.25</v>
+      </c>
+      <c r="N5">
+        <v>1.909</v>
+      </c>
+      <c r="O5">
         <v>3.6</v>
       </c>
-      <c r="M5">
-        <v>3.1</v>
-      </c>
-      <c r="N5">
-        <v>2.25</v>
-      </c>
-      <c r="O5">
-        <v>3.3</v>
-      </c>
       <c r="P5">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S5">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T5">
         <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X5">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA5">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -1049,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6102175</v>
+        <v>6102174</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1067,67 +1067,67 @@
         <v>40</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M7">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N7">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P7">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S7">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T7">
         <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W7">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB7">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1331,7 +1331,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6102179</v>
+        <v>6102180</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1509,73 +1509,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="L12">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M12">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="N12">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="O12">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P12">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q12">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R12">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T12">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V12">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W12">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6102180</v>
+        <v>6102179</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1598,73 +1598,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="L13">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M13">
+        <v>5.5</v>
+      </c>
+      <c r="N13">
+        <v>1.3</v>
+      </c>
+      <c r="O13">
+        <v>5.25</v>
+      </c>
+      <c r="P13">
+        <v>6.5</v>
+      </c>
+      <c r="Q13">
+        <v>-1.5</v>
+      </c>
+      <c r="R13">
         <v>1.85</v>
       </c>
-      <c r="N13">
-        <v>4.2</v>
-      </c>
-      <c r="O13">
+      <c r="S13">
+        <v>1.95</v>
+      </c>
+      <c r="T13">
         <v>3.5</v>
       </c>
-      <c r="P13">
-        <v>1.727</v>
-      </c>
-      <c r="Q13">
-        <v>0.75</v>
-      </c>
-      <c r="R13">
-        <v>1.8</v>
-      </c>
-      <c r="S13">
-        <v>2</v>
-      </c>
-      <c r="T13">
-        <v>2.75</v>
-      </c>
       <c r="U13">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V13">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X13">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6102182</v>
+        <v>6102181</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,76 +1684,76 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K14">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L14">
+        <v>3.75</v>
+      </c>
+      <c r="M14">
         <v>3.6</v>
       </c>
-      <c r="M14">
-        <v>2.625</v>
-      </c>
       <c r="N14">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="O14">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P14">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q14">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R14">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S14">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T14">
         <v>3</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V14">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X14">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC14">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6102181</v>
+        <v>6102183</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,58 +1773,58 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
         <v>34</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
         <v>41</v>
       </c>
       <c r="K15">
-        <v>1.833</v>
+        <v>5.25</v>
       </c>
       <c r="L15">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M15">
-        <v>3.6</v>
+        <v>1.45</v>
       </c>
       <c r="N15">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P15">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R15">
+        <v>2.025</v>
+      </c>
+      <c r="S15">
+        <v>1.825</v>
+      </c>
+      <c r="T15">
+        <v>3.25</v>
+      </c>
+      <c r="U15">
         <v>1.975</v>
       </c>
-      <c r="S15">
+      <c r="V15">
         <v>1.875</v>
       </c>
-      <c r="T15">
-        <v>3</v>
-      </c>
-      <c r="U15">
-        <v>1.85</v>
-      </c>
-      <c r="V15">
-        <v>2</v>
-      </c>
       <c r="W15">
-        <v>0.7270000000000001</v>
+        <v>5</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1833,13 +1833,13 @@
         <v>-1</v>
       </c>
       <c r="Z15">
+        <v>1.025</v>
+      </c>
+      <c r="AA15">
+        <v>-1</v>
+      </c>
+      <c r="AB15">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA15">
-        <v>-1</v>
-      </c>
-      <c r="AB15">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6102183</v>
+        <v>6102182</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,76 +1862,76 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K16">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="L16">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="N16">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="O16">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P16">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="Q16">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T16">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U16">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W16">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB16">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2129,7 +2129,7 @@
         <v>45101.67708333334</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
         <v>31</v>
@@ -2310,7 +2310,7 @@
         <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2396,7 +2396,7 @@
         <v>45105.67708333334</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
         <v>38</v>
@@ -2577,7 +2577,7 @@
         <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2663,7 +2663,7 @@
         <v>45114.67708333334</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
         <v>30</v>
@@ -2755,7 +2755,7 @@
         <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2841,10 +2841,10 @@
         <v>45115.58333333334</v>
       </c>
       <c r="F27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" t="s">
         <v>40</v>
-      </c>
-      <c r="G27" t="s">
-        <v>39</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3108,10 +3108,10 @@
         <v>45121.71875</v>
       </c>
       <c r="F30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" t="s">
         <v>34</v>
-      </c>
-      <c r="G30" t="s">
-        <v>32</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3200,7 +3200,7 @@
         <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6922578</v>
+        <v>6102200</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,76 +3375,76 @@
         <v>45125.70833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K33">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L33">
         <v>3.6</v>
       </c>
       <c r="M33">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N33">
         <v>2.05</v>
       </c>
       <c r="O33">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P33">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q33">
         <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S33">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T33">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U33">
         <v>1.925</v>
       </c>
       <c r="V33">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X33">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA33">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
         <v>-1</v>
       </c>
       <c r="AC33">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6102200</v>
+        <v>6922578</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,76 +3464,76 @@
         <v>45125.70833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K34">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L34">
         <v>3.6</v>
       </c>
       <c r="M34">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N34">
         <v>2.05</v>
       </c>
       <c r="O34">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P34">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q34">
         <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S34">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U34">
         <v>1.925</v>
       </c>
       <c r="V34">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W34">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>45128.625</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
         <v>29</v>
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6542524</v>
+        <v>6102206</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,76 +3642,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K36">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="L36">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M36">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N36">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="O36">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P36">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="Q36">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R36">
+        <v>1.925</v>
+      </c>
+      <c r="S36">
         <v>1.775</v>
       </c>
-      <c r="S36">
-        <v>2.025</v>
-      </c>
       <c r="T36">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U36">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V36">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB36">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6102206</v>
+        <v>6542524</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,76 +3820,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K38">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="L38">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M38">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N38">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="O38">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P38">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="Q38">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R38">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S38">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T38">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U38">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V38">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W38">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC38">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3909,7 +3909,7 @@
         <v>45131.625</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s">
         <v>35</v>
@@ -4090,7 +4090,7 @@
         <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H41">
         <v>4</v>
@@ -4176,7 +4176,7 @@
         <v>45136.63541666666</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s">
         <v>31</v>
@@ -4354,7 +4354,7 @@
         <v>45137.58333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
         <v>29</v>
@@ -4532,7 +4532,7 @@
         <v>45138.67708333334</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G46" t="s">
         <v>37</v>
@@ -4710,7 +4710,7 @@
         <v>45144.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
         <v>36</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6102217</v>
+        <v>6102216</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,76 +4888,76 @@
         <v>45146.67708333334</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K50">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="L50">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M50">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="N50">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="O50">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P50">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R50">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S50">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T50">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U50">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V50">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z50">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC50">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6102216</v>
+        <v>6102217</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,76 +4977,76 @@
         <v>45146.67708333334</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K51">
+        <v>2.05</v>
+      </c>
+      <c r="L51">
         <v>3.6</v>
       </c>
-      <c r="L51">
-        <v>3.75</v>
-      </c>
       <c r="M51">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="N51">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="O51">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P51">
+        <v>3.25</v>
+      </c>
+      <c r="Q51">
+        <v>-0.25</v>
+      </c>
+      <c r="R51">
+        <v>1.85</v>
+      </c>
+      <c r="S51">
         <v>1.95</v>
       </c>
-      <c r="Q51">
-        <v>0.5</v>
-      </c>
-      <c r="R51">
-        <v>1.875</v>
-      </c>
-      <c r="S51">
-        <v>1.925</v>
-      </c>
       <c r="T51">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA51">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AB51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5069,7 +5069,7 @@
         <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5158,7 +5158,7 @@
         <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6102353</v>
+        <v>6102352</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,76 +5244,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K54">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="L54">
+        <v>4.75</v>
+      </c>
+      <c r="M54">
+        <v>1.363</v>
+      </c>
+      <c r="N54">
+        <v>5.25</v>
+      </c>
+      <c r="O54">
+        <v>4.75</v>
+      </c>
+      <c r="P54">
+        <v>1.4</v>
+      </c>
+      <c r="Q54">
+        <v>1.25</v>
+      </c>
+      <c r="R54">
+        <v>1.9</v>
+      </c>
+      <c r="S54">
+        <v>1.9</v>
+      </c>
+      <c r="T54">
+        <v>3.25</v>
+      </c>
+      <c r="U54">
+        <v>1.85</v>
+      </c>
+      <c r="V54">
+        <v>1.95</v>
+      </c>
+      <c r="W54">
+        <v>-1</v>
+      </c>
+      <c r="X54">
         <v>3.75</v>
       </c>
-      <c r="M54">
-        <v>4.333</v>
-      </c>
-      <c r="N54">
-        <v>1.727</v>
-      </c>
-      <c r="O54">
-        <v>3.6</v>
-      </c>
-      <c r="P54">
-        <v>4.2</v>
-      </c>
-      <c r="Q54">
-        <v>-0.75</v>
-      </c>
-      <c r="R54">
-        <v>1.975</v>
-      </c>
-      <c r="S54">
-        <v>1.825</v>
-      </c>
-      <c r="T54">
-        <v>2.75</v>
-      </c>
-      <c r="U54">
-        <v>1.825</v>
-      </c>
-      <c r="V54">
-        <v>1.975</v>
-      </c>
-      <c r="W54">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X54">
-        <v>-1</v>
-      </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6102352</v>
+        <v>6102353</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,76 +5333,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55">
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K55">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="L55">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M55">
-        <v>1.363</v>
+        <v>4.333</v>
       </c>
       <c r="N55">
-        <v>5.25</v>
+        <v>1.727</v>
       </c>
       <c r="O55">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P55">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q55">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R55">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S55">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T55">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X55">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC55">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5425,7 +5425,7 @@
         <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -5511,7 +5511,7 @@
         <v>45151.67708333334</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
         <v>38</v>
@@ -5778,7 +5778,7 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
         <v>35</v>
@@ -5867,10 +5867,10 @@
         <v>45158.625</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5959,7 +5959,7 @@
         <v>33</v>
       </c>
       <c r="G62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -6389,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6102229</v>
+        <v>6102230</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6401,76 +6401,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K67">
-        <v>1.55</v>
+        <v>2.55</v>
       </c>
       <c r="L67">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M67">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="N67">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="O67">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P67">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q67">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R67">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S67">
         <v>1.825</v>
       </c>
       <c r="T67">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U67">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V67">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W67">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6102230</v>
+        <v>6102229</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,76 +6490,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K68">
-        <v>2.55</v>
+        <v>1.55</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M68">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N68">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O68">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P68">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R68">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S68">
         <v>1.825</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X68">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA68">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6579,10 +6579,10 @@
         <v>45165.67708333334</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H69">
         <v>5</v>
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6102357</v>
+        <v>6102232</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H72">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K72">
-        <v>1.333</v>
+        <v>2.6</v>
       </c>
       <c r="L72">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M72">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="N72">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="O72">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P72">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="Q72">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S72">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T72">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U72">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V72">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W72">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB72">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6102236</v>
+        <v>6102357</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,73 +6935,73 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K73">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="L73">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M73">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="N73">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="O73">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P73">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Q73">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R73">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S73">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T73">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U73">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V73">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X73">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA73">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6102235</v>
+        <v>6102236</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,49 +7024,49 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K74">
-        <v>1.6</v>
+        <v>2.625</v>
       </c>
       <c r="L74">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M74">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="N74">
-        <v>1.65</v>
+        <v>2.625</v>
       </c>
       <c r="O74">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P74">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q74">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S74">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T74">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
         <v>1.825</v>
@@ -7078,22 +7078,22 @@
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y74">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA74">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC74">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7116,7 +7116,7 @@
         <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H75">
         <v>3</v>
@@ -7202,10 +7202,10 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6102232</v>
+        <v>6102235</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,76 +7291,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K77">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="L77">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M77">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N77">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="O77">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P77">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R77">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S77">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T77">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U77">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7469,7 +7469,7 @@
         <v>45186.625</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
         <v>37</v>
@@ -7650,7 +7650,7 @@
         <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7739,7 +7739,7 @@
         <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H82">
         <v>4</v>
@@ -7825,7 +7825,7 @@
         <v>45189.67708333334</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G83" t="s">
         <v>36</v>
@@ -7917,7 +7917,7 @@
         <v>29</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7173164</v>
+        <v>7173163</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8003,22 +8003,22 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K85">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="L85">
         <v>3.6</v>
@@ -8027,25 +8027,25 @@
         <v>2.375</v>
       </c>
       <c r="N85">
+        <v>2.7</v>
+      </c>
+      <c r="O85">
+        <v>3.5</v>
+      </c>
+      <c r="P85">
         <v>2.25</v>
       </c>
-      <c r="O85">
-        <v>3.8</v>
-      </c>
-      <c r="P85">
-        <v>2.6</v>
-      </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S85">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T85">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U85">
         <v>1.825</v>
@@ -8057,16 +8057,16 @@
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.375</v>
+        <v>1.025</v>
       </c>
       <c r="AB85">
         <v>0.825</v>
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7173179</v>
+        <v>7173164</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8092,76 +8092,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H86">
         <v>2</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K86">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L86">
         <v>3.6</v>
       </c>
       <c r="M86">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="N86">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O86">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P86">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="Q86">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S86">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T86">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U86">
+        <v>1.825</v>
+      </c>
+      <c r="V86">
         <v>1.975</v>
       </c>
-      <c r="V86">
-        <v>1.825</v>
-      </c>
       <c r="W86">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB86">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC86">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7173163</v>
+        <v>7173179</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,76 +8181,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="I87">
         <v>1</v>
       </c>
-      <c r="I87">
-        <v>3</v>
-      </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K87">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="L87">
         <v>3.6</v>
       </c>
       <c r="M87">
+        <v>2.45</v>
+      </c>
+      <c r="N87">
         <v>2.375</v>
       </c>
-      <c r="N87">
-        <v>2.7</v>
-      </c>
       <c r="O87">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P87">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q87">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R87">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S87">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T87">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U87">
+        <v>1.975</v>
+      </c>
+      <c r="V87">
         <v>1.825</v>
       </c>
-      <c r="V87">
-        <v>1.975</v>
-      </c>
       <c r="W87">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA87">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8359,10 +8359,10 @@
         <v>45194.67708333334</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H89">
         <v>3</v>
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7173168</v>
+        <v>7173166</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,58 +8626,58 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J92" t="s">
         <v>41</v>
       </c>
       <c r="K92">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L92">
+        <v>3.6</v>
+      </c>
+      <c r="M92">
+        <v>2.6</v>
+      </c>
+      <c r="N92">
+        <v>2.7</v>
+      </c>
+      <c r="O92">
+        <v>4</v>
+      </c>
+      <c r="P92">
+        <v>2.1</v>
+      </c>
+      <c r="Q92">
+        <v>0.25</v>
+      </c>
+      <c r="R92">
+        <v>1.925</v>
+      </c>
+      <c r="S92">
+        <v>1.875</v>
+      </c>
+      <c r="T92">
         <v>3.75</v>
       </c>
-      <c r="M92">
-        <v>3.2</v>
-      </c>
-      <c r="N92">
-        <v>1.85</v>
-      </c>
-      <c r="O92">
-        <v>3.8</v>
-      </c>
-      <c r="P92">
-        <v>3.4</v>
-      </c>
-      <c r="Q92">
-        <v>-0.5</v>
-      </c>
-      <c r="R92">
-        <v>1.825</v>
-      </c>
-      <c r="S92">
-        <v>1.975</v>
-      </c>
-      <c r="T92">
-        <v>3.25</v>
-      </c>
       <c r="U92">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V92">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W92">
-        <v>0.8500000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8686,16 +8686,16 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA92">
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC92">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7173182</v>
+        <v>7173167</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,13 +8715,13 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -8730,43 +8730,43 @@
         <v>41</v>
       </c>
       <c r="K93">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="L93">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M93">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N93">
-        <v>1.833</v>
+        <v>1.571</v>
       </c>
       <c r="O93">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P93">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R93">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S93">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T93">
         <v>3.25</v>
       </c>
       <c r="U93">
+        <v>1.775</v>
+      </c>
+      <c r="V93">
         <v>1.925</v>
       </c>
-      <c r="V93">
-        <v>1.875</v>
-      </c>
       <c r="W93">
-        <v>0.833</v>
+        <v>0.571</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8775,16 +8775,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB93">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7173167</v>
+        <v>7173182</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,13 +8804,13 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F94" t="s">
+        <v>32</v>
+      </c>
+      <c r="G94" t="s">
         <v>39</v>
       </c>
-      <c r="G94" t="s">
-        <v>37</v>
-      </c>
       <c r="H94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -8819,43 +8819,43 @@
         <v>41</v>
       </c>
       <c r="K94">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M94">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N94">
-        <v>1.571</v>
+        <v>1.833</v>
       </c>
       <c r="O94">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P94">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R94">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S94">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T94">
         <v>3.25</v>
       </c>
       <c r="U94">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V94">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W94">
-        <v>0.571</v>
+        <v>0.833</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8864,16 +8864,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA94">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC94">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7173166</v>
+        <v>7173168</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,58 +8893,58 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
         <v>41</v>
       </c>
       <c r="K95">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L95">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M95">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N95">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="O95">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P95">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q95">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S95">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T95">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U95">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V95">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W95">
-        <v>1.7</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8953,16 +8953,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8985,7 +8985,7 @@
         <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H96">
         <v>4</v>
@@ -9071,7 +9071,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G97" t="s">
         <v>30</v>
@@ -9249,7 +9249,7 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
         <v>35</v>
@@ -9430,7 +9430,7 @@
         <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H101">
         <v>3</v>
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7173187</v>
+        <v>7173172</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,13 +9516,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -9531,28 +9531,28 @@
         <v>41</v>
       </c>
       <c r="K102">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L102">
+        <v>3.6</v>
+      </c>
+      <c r="M102">
+        <v>2.6</v>
+      </c>
+      <c r="N102">
+        <v>2.25</v>
+      </c>
+      <c r="O102">
         <v>3.75</v>
       </c>
-      <c r="M102">
-        <v>2.9</v>
-      </c>
-      <c r="N102">
-        <v>2.1</v>
-      </c>
-      <c r="O102">
-        <v>3.5</v>
-      </c>
       <c r="P102">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q102">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S102">
         <v>2.025</v>
@@ -9561,13 +9561,13 @@
         <v>3.5</v>
       </c>
       <c r="U102">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9576,13 +9576,13 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7173189</v>
+        <v>7173173</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,58 +9605,58 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H103">
+        <v>5</v>
+      </c>
+      <c r="I103">
         <v>1</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>41</v>
       </c>
       <c r="K103">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L103">
+        <v>4.333</v>
+      </c>
+      <c r="M103">
+        <v>3.75</v>
+      </c>
+      <c r="N103">
+        <v>1.533</v>
+      </c>
+      <c r="O103">
+        <v>4.75</v>
+      </c>
+      <c r="P103">
+        <v>4.333</v>
+      </c>
+      <c r="Q103">
+        <v>-1</v>
+      </c>
+      <c r="R103">
+        <v>1.85</v>
+      </c>
+      <c r="S103">
+        <v>2</v>
+      </c>
+      <c r="T103">
         <v>4</v>
       </c>
-      <c r="M103">
-        <v>3.4</v>
-      </c>
-      <c r="N103">
-        <v>2.15</v>
-      </c>
-      <c r="O103">
-        <v>3.8</v>
-      </c>
-      <c r="P103">
-        <v>2.8</v>
-      </c>
-      <c r="Q103">
-        <v>-0.25</v>
-      </c>
-      <c r="R103">
-        <v>1.9</v>
-      </c>
-      <c r="S103">
-        <v>1.9</v>
-      </c>
-      <c r="T103">
-        <v>3.5</v>
-      </c>
       <c r="U103">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V103">
         <v>1.825</v>
       </c>
       <c r="W103">
-        <v>1.15</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9665,16 +9665,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC103">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7173188</v>
+        <v>7173187</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K104">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L104">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M104">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="N104">
-        <v>1.222</v>
+        <v>2.1</v>
       </c>
       <c r="O104">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P104">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q104">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S104">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T104">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V104">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X104">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA104">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC104">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7173173</v>
+        <v>7173188</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F105" t="s">
+        <v>29</v>
+      </c>
+      <c r="G105" t="s">
         <v>39</v>
       </c>
-      <c r="G105" t="s">
-        <v>33</v>
-      </c>
       <c r="H105">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I105">
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K105">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="L105">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M105">
+        <v>5.5</v>
+      </c>
+      <c r="N105">
+        <v>1.222</v>
+      </c>
+      <c r="O105">
+        <v>5.5</v>
+      </c>
+      <c r="P105">
+        <v>9</v>
+      </c>
+      <c r="Q105">
+        <v>-2</v>
+      </c>
+      <c r="R105">
+        <v>1.975</v>
+      </c>
+      <c r="S105">
+        <v>1.825</v>
+      </c>
+      <c r="T105">
         <v>3.75</v>
       </c>
-      <c r="N105">
-        <v>1.533</v>
-      </c>
-      <c r="O105">
-        <v>4.75</v>
-      </c>
-      <c r="P105">
-        <v>4.333</v>
-      </c>
-      <c r="Q105">
-        <v>-1</v>
-      </c>
-      <c r="R105">
-        <v>1.85</v>
-      </c>
-      <c r="S105">
-        <v>2</v>
-      </c>
-      <c r="T105">
-        <v>4</v>
-      </c>
       <c r="U105">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB105">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7173172</v>
+        <v>7173189</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,58 +9872,58 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>41</v>
       </c>
       <c r="K106">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L106">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M106">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="N106">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O106">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P106">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S106">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T106">
         <v>3.5</v>
       </c>
       <c r="U106">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V106">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W106">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9932,16 +9932,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9961,7 +9961,7 @@
         <v>45207.45833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G107" t="s">
         <v>31</v>

--- a/Iceland Premier League/Iceland Premier League.xlsx
+++ b/Iceland Premier League/Iceland Premier League.xlsx
@@ -112,19 +112,19 @@
     <t>Stjarnan</t>
   </si>
   <si>
+    <t>Breidablik</t>
+  </si>
+  <si>
     <t>Fram Reykjavik</t>
   </si>
   <si>
     <t>Valur Reykjavik</t>
   </si>
   <si>
-    <t>Breidablik</t>
+    <t>KR Reykjavik</t>
   </si>
   <si>
     <t>KA Akureyri</t>
-  </si>
-  <si>
-    <t>KR Reykjavik</t>
   </si>
   <si>
     <t>FH Hafnarfjordur</t>
@@ -708,7 +708,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -797,7 +797,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6102175</v>
+        <v>6102174</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,70 +886,70 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M5">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N5">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O5">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P5">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q5">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S5">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T5">
         <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB5">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6102346</v>
+        <v>6102175</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,73 +975,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N6">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O6">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P6">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S6">
+        <v>1.85</v>
+      </c>
+      <c r="T6">
+        <v>2.75</v>
+      </c>
+      <c r="U6">
         <v>1.8</v>
       </c>
-      <c r="T6">
-        <v>3.25</v>
-      </c>
-      <c r="U6">
-        <v>2.025</v>
-      </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X6">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA6">
+        <v>-1</v>
+      </c>
+      <c r="AB6">
         <v>0.8</v>
       </c>
-      <c r="AB6">
-        <v>-1</v>
-      </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1049,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6102174</v>
+        <v>6102346</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1064,73 +1064,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
         <v>42</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L7">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N7">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O7">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P7">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R7">
+        <v>2.05</v>
+      </c>
+      <c r="S7">
+        <v>1.8</v>
+      </c>
+      <c r="T7">
+        <v>3.25</v>
+      </c>
+      <c r="U7">
         <v>2.025</v>
       </c>
-      <c r="S7">
-        <v>1.775</v>
-      </c>
-      <c r="T7">
-        <v>2.75</v>
-      </c>
-      <c r="U7">
-        <v>1.9</v>
-      </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.3875</v>
+        <v>0.8</v>
       </c>
       <c r="AB7">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6102176</v>
+        <v>6102177</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,73 +1153,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>1.6</v>
+        <v>1.833</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N8">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O8">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P8">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q8">
         <v>-0.5</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V8">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6102177</v>
+        <v>6102176</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,73 +1242,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>1.833</v>
+        <v>1.6</v>
       </c>
       <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>4.333</v>
+      </c>
+      <c r="N9">
+        <v>1.8</v>
+      </c>
+      <c r="O9">
+        <v>3.8</v>
+      </c>
+      <c r="P9">
         <v>3.6</v>
-      </c>
-      <c r="M9">
-        <v>3.4</v>
-      </c>
-      <c r="N9">
-        <v>1.85</v>
-      </c>
-      <c r="O9">
-        <v>3.6</v>
-      </c>
-      <c r="P9">
-        <v>3.5</v>
       </c>
       <c r="Q9">
         <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S9">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X9">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA9">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1331,7 +1331,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1420,7 +1420,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6102181</v>
+        <v>6102183</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,58 +1684,58 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
         <v>32</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
         <v>41</v>
       </c>
       <c r="K14">
-        <v>1.833</v>
+        <v>5.25</v>
       </c>
       <c r="L14">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M14">
-        <v>3.6</v>
+        <v>1.45</v>
       </c>
       <c r="N14">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="O14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P14">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R14">
+        <v>2.025</v>
+      </c>
+      <c r="S14">
+        <v>1.825</v>
+      </c>
+      <c r="T14">
+        <v>3.25</v>
+      </c>
+      <c r="U14">
         <v>1.975</v>
       </c>
-      <c r="S14">
+      <c r="V14">
         <v>1.875</v>
       </c>
-      <c r="T14">
-        <v>3</v>
-      </c>
-      <c r="U14">
-        <v>1.85</v>
-      </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
       <c r="W14">
-        <v>0.7270000000000001</v>
+        <v>5</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1744,13 +1744,13 @@
         <v>-1</v>
       </c>
       <c r="Z14">
+        <v>1.025</v>
+      </c>
+      <c r="AA14">
+        <v>-1</v>
+      </c>
+      <c r="AB14">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA14">
-        <v>-1</v>
-      </c>
-      <c r="AB14">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6102183</v>
+        <v>6102182</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,76 +1773,76 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K15">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="L15">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="N15">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="O15">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P15">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="Q15">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R15">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S15">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T15">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U15">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V15">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W15">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB15">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6102182</v>
+        <v>6102181</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,76 +1862,76 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L16">
+        <v>3.75</v>
+      </c>
+      <c r="M16">
         <v>3.6</v>
       </c>
-      <c r="M16">
-        <v>2.625</v>
-      </c>
       <c r="N16">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="O16">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P16">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T16">
         <v>3</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V16">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X16">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC16">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1954,7 +1954,7 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2040,10 +2040,10 @@
         <v>45101.58333333334</v>
       </c>
       <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" t="s">
         <v>36</v>
-      </c>
-      <c r="G18" t="s">
-        <v>35</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2221,7 +2221,7 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6102188</v>
+        <v>6102191</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,40 +2307,40 @@
         <v>45105.67708333334</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
         <v>41</v>
       </c>
       <c r="K21">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M21">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N21">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O21">
         <v>3.75</v>
       </c>
       <c r="P21">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q21">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
         <v>1.875</v>
@@ -2349,7 +2349,7 @@
         <v>1.975</v>
       </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U21">
         <v>2</v>
@@ -2358,7 +2358,7 @@
         <v>1.85</v>
       </c>
       <c r="W21">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2373,10 +2373,10 @@
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6102191</v>
+        <v>6102188</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,40 +2396,40 @@
         <v>45105.67708333334</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>41</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L22">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N22">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O22">
         <v>3.75</v>
       </c>
       <c r="P22">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q22">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R22">
         <v>1.875</v>
@@ -2438,7 +2438,7 @@
         <v>1.975</v>
       </c>
       <c r="T22">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U22">
         <v>2</v>
@@ -2447,7 +2447,7 @@
         <v>1.85</v>
       </c>
       <c r="W22">
-        <v>0.833</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2462,10 +2462,10 @@
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6102189</v>
+        <v>6102190</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,49 +2485,49 @@
         <v>45106.67708333334</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K23">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="L23">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="N23">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="O23">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P23">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R23">
+        <v>1.875</v>
+      </c>
+      <c r="S23">
         <v>1.925</v>
       </c>
-      <c r="S23">
-        <v>1.875</v>
-      </c>
       <c r="T23">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U23">
         <v>1.925</v>
@@ -2536,19 +2536,19 @@
         <v>1.875</v>
       </c>
       <c r="W23">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z23">
+        <v>-1</v>
+      </c>
+      <c r="AA23">
         <v>0.925</v>
-      </c>
-      <c r="AA23">
-        <v>-1</v>
       </c>
       <c r="AB23">
         <v>0.925</v>
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6102190</v>
+        <v>6102189</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,49 +2574,49 @@
         <v>45106.67708333334</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24">
+        <v>2.1</v>
+      </c>
+      <c r="L24">
+        <v>3.4</v>
+      </c>
+      <c r="M24">
         <v>3</v>
       </c>
-      <c r="J24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24">
-        <v>5.25</v>
-      </c>
-      <c r="L24">
-        <v>4.333</v>
-      </c>
-      <c r="M24">
-        <v>1.45</v>
-      </c>
       <c r="N24">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="O24">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P24">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q24">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
+        <v>1.925</v>
+      </c>
+      <c r="S24">
         <v>1.875</v>
       </c>
-      <c r="S24">
-        <v>1.925</v>
-      </c>
       <c r="T24">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U24">
         <v>1.925</v>
@@ -2625,19 +2625,19 @@
         <v>1.875</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA24">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
         <v>0.925</v>
@@ -2663,7 +2663,7 @@
         <v>45114.67708333334</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
         <v>30</v>
@@ -2755,7 +2755,7 @@
         <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2930,7 +2930,7 @@
         <v>45119.67708333334</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
         <v>30</v>
@@ -3022,7 +3022,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3108,10 +3108,10 @@
         <v>45121.71875</v>
       </c>
       <c r="F30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" t="s">
         <v>32</v>
-      </c>
-      <c r="G30" t="s">
-        <v>34</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6102200</v>
+        <v>6922578</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,76 +3375,76 @@
         <v>45125.70833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K33">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L33">
         <v>3.6</v>
       </c>
       <c r="M33">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N33">
         <v>2.05</v>
       </c>
       <c r="O33">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P33">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q33">
         <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S33">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T33">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U33">
         <v>1.925</v>
       </c>
       <c r="V33">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W33">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB33">
         <v>-1</v>
       </c>
       <c r="AC33">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6922578</v>
+        <v>6102200</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,76 +3464,76 @@
         <v>45125.70833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K34">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L34">
         <v>3.6</v>
       </c>
       <c r="M34">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N34">
         <v>2.05</v>
       </c>
       <c r="O34">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P34">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q34">
         <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S34">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T34">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U34">
         <v>1.925</v>
       </c>
       <c r="V34">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X34">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA34">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>45128.625</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
         <v>29</v>
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6102206</v>
+        <v>6102207</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,76 +3642,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K36">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M36">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="N36">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="O36">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P36">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="Q36">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R36">
         <v>1.925</v>
       </c>
       <c r="S36">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T36">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U36">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V36">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W36">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA36">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6102207</v>
+        <v>6102206</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,76 +3731,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="L37">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M37">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="N37">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="O37">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P37">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="Q37">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R37">
         <v>1.925</v>
       </c>
       <c r="S37">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T37">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U37">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X37">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3820,7 +3820,7 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
         <v>40</v>
@@ -3912,7 +3912,7 @@
         <v>39</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -4090,7 +4090,7 @@
         <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H41">
         <v>4</v>
@@ -4176,7 +4176,7 @@
         <v>45136.63541666666</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
         <v>31</v>
@@ -4265,7 +4265,7 @@
         <v>45137.54166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
         <v>38</v>
@@ -4443,10 +4443,10 @@
         <v>45138.67708333334</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4710,10 +4710,10 @@
         <v>45144.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -4799,10 +4799,10 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H49">
         <v>4</v>
@@ -4977,7 +4977,7 @@
         <v>45146.67708333334</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
         <v>30</v>
@@ -5155,10 +5155,10 @@
         <v>45151.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5247,7 +5247,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5422,10 +5422,10 @@
         <v>45151.63541666666</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -5778,10 +5778,10 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -5867,7 +5867,7 @@
         <v>45158.625</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
         <v>39</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6102225</v>
+        <v>6102354</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,40 +5956,40 @@
         <v>45158.67708333334</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62" t="s">
+        <v>42</v>
+      </c>
+      <c r="K62">
+        <v>2.75</v>
+      </c>
+      <c r="L62">
+        <v>3.75</v>
+      </c>
+      <c r="M62">
+        <v>2.25</v>
+      </c>
+      <c r="N62">
+        <v>3.3</v>
+      </c>
+      <c r="O62">
         <v>4</v>
       </c>
-      <c r="J62" t="s">
-        <v>43</v>
-      </c>
-      <c r="K62">
-        <v>2.45</v>
-      </c>
-      <c r="L62">
-        <v>3.6</v>
-      </c>
-      <c r="M62">
-        <v>2.45</v>
-      </c>
-      <c r="N62">
-        <v>2.9</v>
-      </c>
-      <c r="O62">
-        <v>3.6</v>
-      </c>
       <c r="P62">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q62">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R62">
         <v>1.9</v>
@@ -5998,31 +5998,31 @@
         <v>1.9</v>
       </c>
       <c r="T62">
+        <v>3.25</v>
+      </c>
+      <c r="U62">
+        <v>1.95</v>
+      </c>
+      <c r="V62">
+        <v>1.85</v>
+      </c>
+      <c r="W62">
+        <v>-1</v>
+      </c>
+      <c r="X62">
         <v>3</v>
       </c>
-      <c r="U62">
-        <v>1.875</v>
-      </c>
-      <c r="V62">
-        <v>1.925</v>
-      </c>
-      <c r="W62">
-        <v>-1</v>
-      </c>
-      <c r="X62">
-        <v>-1</v>
-      </c>
       <c r="Y62">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA62">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6102354</v>
+        <v>6102225</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,40 +6045,40 @@
         <v>45158.67708333334</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K63">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="L63">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M63">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="N63">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="O63">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P63">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="Q63">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R63">
         <v>1.9</v>
@@ -6087,31 +6087,31 @@
         <v>1.9</v>
       </c>
       <c r="T63">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U63">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V63">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z63">
+        <v>-1</v>
+      </c>
+      <c r="AA63">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA63">
-        <v>-1</v>
-      </c>
       <c r="AB63">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6137,7 +6137,7 @@
         <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>3</v>
@@ -6223,7 +6223,7 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
         <v>31</v>
@@ -6315,7 +6315,7 @@
         <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H66">
         <v>3</v>
@@ -6389,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6102230</v>
+        <v>6102229</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6401,76 +6401,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K67">
-        <v>2.55</v>
+        <v>1.55</v>
       </c>
       <c r="L67">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M67">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N67">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O67">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P67">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R67">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S67">
         <v>1.825</v>
       </c>
       <c r="T67">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U67">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V67">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X67">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA67">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6102229</v>
+        <v>6102230</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,76 +6490,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K68">
-        <v>1.55</v>
+        <v>2.55</v>
       </c>
       <c r="L68">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M68">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="N68">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="O68">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P68">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q68">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S68">
         <v>1.825</v>
       </c>
       <c r="T68">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U68">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6582,7 +6582,7 @@
         <v>40</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H69">
         <v>5</v>
@@ -6760,7 +6760,7 @@
         <v>37</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6849,7 +6849,7 @@
         <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6102357</v>
+        <v>6102235</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,76 +6935,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73" t="s">
+        <v>43</v>
+      </c>
+      <c r="K73">
+        <v>1.6</v>
+      </c>
+      <c r="L73">
+        <v>4.2</v>
+      </c>
+      <c r="M73">
+        <v>4.333</v>
+      </c>
+      <c r="N73">
+        <v>1.65</v>
+      </c>
+      <c r="O73">
+        <v>4.2</v>
+      </c>
+      <c r="P73">
         <v>4</v>
       </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
-      <c r="J73" t="s">
-        <v>41</v>
-      </c>
-      <c r="K73">
-        <v>1.333</v>
-      </c>
-      <c r="L73">
-        <v>5</v>
-      </c>
-      <c r="M73">
-        <v>7</v>
-      </c>
-      <c r="N73">
-        <v>1.3</v>
-      </c>
-      <c r="O73">
-        <v>5.25</v>
-      </c>
-      <c r="P73">
-        <v>7</v>
-      </c>
       <c r="Q73">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R73">
+        <v>1.825</v>
+      </c>
+      <c r="S73">
         <v>1.975</v>
       </c>
-      <c r="S73">
+      <c r="T73">
+        <v>3.5</v>
+      </c>
+      <c r="U73">
         <v>1.825</v>
       </c>
-      <c r="T73">
-        <v>3.75</v>
-      </c>
-      <c r="U73">
-        <v>1.875</v>
-      </c>
       <c r="V73">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W73">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z73">
+        <v>-1</v>
+      </c>
+      <c r="AA73">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA73">
-        <v>-1</v>
-      </c>
       <c r="AB73">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6102236</v>
+        <v>6102234</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,73 +7024,73 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H74">
         <v>2</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K74">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M74">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="N74">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="O74">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P74">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R74">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S74">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T74">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U74">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z74">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
       <c r="AA74">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6102233</v>
+        <v>6102357</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,16 +7113,16 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
         <v>41</v>
@@ -7137,34 +7137,34 @@
         <v>7</v>
       </c>
       <c r="N75">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="O75">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="P75">
         <v>7</v>
       </c>
       <c r="Q75">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R75">
+        <v>1.975</v>
+      </c>
+      <c r="S75">
+        <v>1.825</v>
+      </c>
+      <c r="T75">
+        <v>3.75</v>
+      </c>
+      <c r="U75">
+        <v>1.875</v>
+      </c>
+      <c r="V75">
         <v>1.925</v>
       </c>
-      <c r="S75">
-        <v>1.925</v>
-      </c>
-      <c r="T75">
-        <v>3.25</v>
-      </c>
-      <c r="U75">
-        <v>1.825</v>
-      </c>
-      <c r="V75">
-        <v>2.025</v>
-      </c>
       <c r="W75">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7173,16 +7173,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC75">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6102234</v>
+        <v>6102233</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,76 +7202,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K76">
-        <v>6</v>
+        <v>1.333</v>
       </c>
       <c r="L76">
         <v>5</v>
       </c>
       <c r="M76">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="N76">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="O76">
         <v>5</v>
       </c>
       <c r="P76">
-        <v>1.363</v>
+        <v>7</v>
       </c>
       <c r="Q76">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R76">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S76">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T76">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U76">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6102235</v>
+        <v>6102236</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,49 +7291,49 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77">
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K77">
-        <v>1.6</v>
+        <v>2.625</v>
       </c>
       <c r="L77">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M77">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="N77">
-        <v>1.65</v>
+        <v>2.625</v>
       </c>
       <c r="O77">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P77">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S77">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T77">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
         <v>1.825</v>
@@ -7345,22 +7345,22 @@
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y77">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA77">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC77">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7469,7 +7469,7 @@
         <v>45186.625</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
         <v>37</v>
@@ -7558,7 +7558,7 @@
         <v>45186.67708333334</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
         <v>31</v>
@@ -7650,7 +7650,7 @@
         <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7736,7 +7736,7 @@
         <v>45189.55208333334</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
         <v>39</v>
@@ -7828,7 +7828,7 @@
         <v>40</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7917,7 +7917,7 @@
         <v>29</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -8092,10 +8092,10 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8273,7 +8273,7 @@
         <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8359,7 +8359,7 @@
         <v>45194.67708333334</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G89" t="s">
         <v>40</v>
@@ -8448,7 +8448,7 @@
         <v>45197.55208333334</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
         <v>29</v>
@@ -8626,10 +8626,10 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H92">
         <v>4</v>
@@ -8804,7 +8804,7 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
         <v>39</v>
@@ -8896,7 +8896,7 @@
         <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -8982,10 +8982,10 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H96">
         <v>4</v>
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7173185</v>
+        <v>7173186</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,76 +9160,76 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
         <v>0</v>
       </c>
-      <c r="I98">
-        <v>1</v>
-      </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K98">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="L98">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M98">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="N98">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="O98">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P98">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q98">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
         <v>1.825</v>
       </c>
       <c r="S98">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T98">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U98">
         <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA98">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7173186</v>
+        <v>7173185</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,76 +9249,76 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
         <v>1</v>
       </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
       <c r="J99" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K99">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="L99">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M99">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="N99">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="O99">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P99">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R99">
         <v>1.825</v>
       </c>
       <c r="S99">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T99">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U99">
         <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z99">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>45200.67708333334</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7173172</v>
+        <v>7173173</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,13 +9516,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G102" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -9531,43 +9531,43 @@
         <v>41</v>
       </c>
       <c r="K102">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L102">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M102">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N102">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="O102">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P102">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R102">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S102">
+        <v>2</v>
+      </c>
+      <c r="T102">
+        <v>4</v>
+      </c>
+      <c r="U102">
         <v>2.025</v>
       </c>
-      <c r="T102">
-        <v>3.5</v>
-      </c>
-      <c r="U102">
-        <v>1.875</v>
-      </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
-        <v>1.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9576,13 +9576,13 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7173173</v>
+        <v>7173188</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,76 +9605,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H103">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K103">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="L103">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M103">
+        <v>5.5</v>
+      </c>
+      <c r="N103">
+        <v>1.222</v>
+      </c>
+      <c r="O103">
+        <v>5.5</v>
+      </c>
+      <c r="P103">
+        <v>9</v>
+      </c>
+      <c r="Q103">
+        <v>-2</v>
+      </c>
+      <c r="R103">
+        <v>1.975</v>
+      </c>
+      <c r="S103">
+        <v>1.825</v>
+      </c>
+      <c r="T103">
         <v>3.75</v>
       </c>
-      <c r="N103">
-        <v>1.533</v>
-      </c>
-      <c r="O103">
-        <v>4.75</v>
-      </c>
-      <c r="P103">
-        <v>4.333</v>
-      </c>
-      <c r="Q103">
-        <v>-1</v>
-      </c>
-      <c r="R103">
-        <v>1.85</v>
-      </c>
-      <c r="S103">
-        <v>2</v>
-      </c>
-      <c r="T103">
-        <v>4</v>
-      </c>
       <c r="U103">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V103">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W103">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB103">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9697,7 +9697,7 @@
         <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H104">
         <v>5</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7173188</v>
+        <v>7173189</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K105">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="L105">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M105">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N105">
-        <v>1.222</v>
+        <v>2.15</v>
       </c>
       <c r="O105">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P105">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="Q105">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R105">
+        <v>1.9</v>
+      </c>
+      <c r="S105">
+        <v>1.9</v>
+      </c>
+      <c r="T105">
+        <v>3.5</v>
+      </c>
+      <c r="U105">
         <v>1.975</v>
       </c>
-      <c r="S105">
+      <c r="V105">
         <v>1.825</v>
       </c>
-      <c r="T105">
-        <v>3.75</v>
-      </c>
-      <c r="U105">
-        <v>1.9</v>
-      </c>
-      <c r="V105">
-        <v>1.9</v>
-      </c>
       <c r="W105">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X105">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA105">
+        <v>-1</v>
+      </c>
+      <c r="AB105">
+        <v>-1</v>
+      </c>
+      <c r="AC105">
         <v>0.825</v>
-      </c>
-      <c r="AB105">
-        <v>-1</v>
-      </c>
-      <c r="AC105">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7173189</v>
+        <v>7173172</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,58 +9872,58 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F106" t="s">
+        <v>37</v>
+      </c>
+      <c r="G106" t="s">
         <v>35</v>
       </c>
-      <c r="G106" t="s">
-        <v>38</v>
-      </c>
       <c r="H106">
+        <v>3</v>
+      </c>
+      <c r="I106">
         <v>1</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>41</v>
       </c>
       <c r="K106">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M106">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N106">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O106">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P106">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R106">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S106">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T106">
         <v>3.5</v>
       </c>
       <c r="U106">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V106">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W106">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9932,16 +9932,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC106">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9961,7 +9961,7 @@
         <v>45207.45833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
         <v>31</v>

--- a/Iceland Premier League/Iceland Premier League.xlsx
+++ b/Iceland Premier League/Iceland Premier League.xlsx
@@ -112,13 +112,13 @@
     <t>Stjarnan</t>
   </si>
   <si>
+    <t>Valur Reykjavik</t>
+  </si>
+  <si>
     <t>Breidablik</t>
   </si>
   <si>
     <t>Fram Reykjavik</t>
-  </si>
-  <si>
-    <t>Valur Reykjavik</t>
   </si>
   <si>
     <t>KR Reykjavik</t>
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6102174</v>
+        <v>6102346</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>42</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L5">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N5">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O5">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P5">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R5">
+        <v>2.05</v>
+      </c>
+      <c r="S5">
+        <v>1.8</v>
+      </c>
+      <c r="T5">
+        <v>3.25</v>
+      </c>
+      <c r="U5">
         <v>2.025</v>
       </c>
-      <c r="S5">
-        <v>1.775</v>
-      </c>
-      <c r="T5">
-        <v>2.75</v>
-      </c>
-      <c r="U5">
-        <v>1.9</v>
-      </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.3875</v>
+        <v>0.8</v>
       </c>
       <c r="AB5">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6102175</v>
+        <v>6102174</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,70 +975,70 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M6">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N6">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O6">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P6">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q6">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S6">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T6">
         <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB6">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1049,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6102346</v>
+        <v>6102175</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1064,73 +1064,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M7">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N7">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O7">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P7">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S7">
+        <v>1.85</v>
+      </c>
+      <c r="T7">
+        <v>2.75</v>
+      </c>
+      <c r="U7">
         <v>1.8</v>
       </c>
-      <c r="T7">
-        <v>3.25</v>
-      </c>
-      <c r="U7">
-        <v>2.025</v>
-      </c>
       <c r="V7">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X7">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA7">
+        <v>-1</v>
+      </c>
+      <c r="AB7">
         <v>0.8</v>
       </c>
-      <c r="AB7">
-        <v>-1</v>
-      </c>
       <c r="AC7">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1331,7 +1331,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1420,7 +1420,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -1687,7 +1687,7 @@
         <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6102182</v>
+        <v>6102181</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,76 +1773,76 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L15">
+        <v>3.75</v>
+      </c>
+      <c r="M15">
         <v>3.6</v>
       </c>
-      <c r="M15">
-        <v>2.625</v>
-      </c>
       <c r="N15">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P15">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q15">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R15">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S15">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T15">
         <v>3</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X15">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6102181</v>
+        <v>6102182</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,76 +1862,76 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K16">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="L16">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N16">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P16">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T16">
         <v>3</v>
       </c>
       <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="V16">
         <v>1.85</v>
       </c>
-      <c r="V16">
-        <v>2</v>
-      </c>
       <c r="W16">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB16">
+        <v>-1</v>
+      </c>
+      <c r="AC16">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC16">
-        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1954,7 +1954,7 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>45105.67708333334</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6102190</v>
+        <v>6102189</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,49 +2485,49 @@
         <v>45106.67708333334</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23">
+        <v>2.1</v>
+      </c>
+      <c r="L23">
+        <v>3.4</v>
+      </c>
+      <c r="M23">
         <v>3</v>
       </c>
-      <c r="J23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23">
-        <v>5.25</v>
-      </c>
-      <c r="L23">
-        <v>4.333</v>
-      </c>
-      <c r="M23">
-        <v>1.45</v>
-      </c>
       <c r="N23">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="O23">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P23">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q23">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
+        <v>1.925</v>
+      </c>
+      <c r="S23">
         <v>1.875</v>
       </c>
-      <c r="S23">
-        <v>1.925</v>
-      </c>
       <c r="T23">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U23">
         <v>1.925</v>
@@ -2536,19 +2536,19 @@
         <v>1.875</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA23">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
         <v>0.925</v>
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6102189</v>
+        <v>6102190</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,49 +2574,49 @@
         <v>45106.67708333334</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="L24">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="N24">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="O24">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P24">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R24">
+        <v>1.875</v>
+      </c>
+      <c r="S24">
         <v>1.925</v>
       </c>
-      <c r="S24">
-        <v>1.875</v>
-      </c>
       <c r="T24">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U24">
         <v>1.925</v>
@@ -2625,19 +2625,19 @@
         <v>1.875</v>
       </c>
       <c r="W24">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z24">
+        <v>-1</v>
+      </c>
+      <c r="AA24">
         <v>0.925</v>
-      </c>
-      <c r="AA24">
-        <v>-1</v>
       </c>
       <c r="AB24">
         <v>0.925</v>
@@ -2663,7 +2663,7 @@
         <v>45114.67708333334</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
         <v>30</v>
@@ -2755,7 +2755,7 @@
         <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2930,7 +2930,7 @@
         <v>45119.67708333334</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
         <v>30</v>
@@ -3108,10 +3108,10 @@
         <v>45121.71875</v>
       </c>
       <c r="F30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" t="s">
         <v>33</v>
-      </c>
-      <c r="G30" t="s">
-        <v>32</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3553,7 +3553,7 @@
         <v>45128.625</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
         <v>29</v>
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6102207</v>
+        <v>6102206</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,76 +3642,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="L36">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M36">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="N36">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="O36">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P36">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="Q36">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R36">
         <v>1.925</v>
       </c>
       <c r="S36">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T36">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U36">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V36">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X36">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6102206</v>
+        <v>6102207</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,76 +3731,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K37">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M37">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="N37">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="O37">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P37">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="Q37">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R37">
         <v>1.925</v>
       </c>
       <c r="S37">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T37">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V37">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W37">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA37">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4090,7 +4090,7 @@
         <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H41">
         <v>4</v>
@@ -4176,7 +4176,7 @@
         <v>45136.63541666666</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
         <v>31</v>
@@ -4446,7 +4446,7 @@
         <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>45144.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
         <v>35</v>
@@ -4799,7 +4799,7 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
         <v>36</v>
@@ -4977,7 +4977,7 @@
         <v>45146.67708333334</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
         <v>30</v>
@@ -5158,7 +5158,7 @@
         <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6102352</v>
+        <v>6102353</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,76 +5244,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K54">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="L54">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M54">
-        <v>1.363</v>
+        <v>4.333</v>
       </c>
       <c r="N54">
-        <v>5.25</v>
+        <v>1.727</v>
       </c>
       <c r="O54">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P54">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q54">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R54">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S54">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T54">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U54">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V54">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X54">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC54">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6102353</v>
+        <v>6102352</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,76 +5333,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55">
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K55">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="L55">
+        <v>4.75</v>
+      </c>
+      <c r="M55">
+        <v>1.363</v>
+      </c>
+      <c r="N55">
+        <v>5.25</v>
+      </c>
+      <c r="O55">
+        <v>4.75</v>
+      </c>
+      <c r="P55">
+        <v>1.4</v>
+      </c>
+      <c r="Q55">
+        <v>1.25</v>
+      </c>
+      <c r="R55">
+        <v>1.9</v>
+      </c>
+      <c r="S55">
+        <v>1.9</v>
+      </c>
+      <c r="T55">
+        <v>3.25</v>
+      </c>
+      <c r="U55">
+        <v>1.85</v>
+      </c>
+      <c r="V55">
+        <v>1.95</v>
+      </c>
+      <c r="W55">
+        <v>-1</v>
+      </c>
+      <c r="X55">
         <v>3.75</v>
       </c>
-      <c r="M55">
-        <v>4.333</v>
-      </c>
-      <c r="N55">
-        <v>1.727</v>
-      </c>
-      <c r="O55">
-        <v>3.6</v>
-      </c>
-      <c r="P55">
-        <v>4.2</v>
-      </c>
-      <c r="Q55">
-        <v>-0.75</v>
-      </c>
-      <c r="R55">
-        <v>1.975</v>
-      </c>
-      <c r="S55">
-        <v>1.825</v>
-      </c>
-      <c r="T55">
-        <v>2.75</v>
-      </c>
-      <c r="U55">
-        <v>1.825</v>
-      </c>
-      <c r="V55">
-        <v>1.975</v>
-      </c>
-      <c r="W55">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X55">
-        <v>-1</v>
-      </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5425,7 +5425,7 @@
         <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -5778,7 +5778,7 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
         <v>36</v>
@@ -5867,7 +5867,7 @@
         <v>45158.625</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
         <v>39</v>
@@ -6045,7 +6045,7 @@
         <v>45158.67708333334</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
         <v>40</v>
@@ -6315,7 +6315,7 @@
         <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H66">
         <v>3</v>
@@ -6389,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6102229</v>
+        <v>6102230</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6401,76 +6401,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K67">
-        <v>1.55</v>
+        <v>2.55</v>
       </c>
       <c r="L67">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M67">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="N67">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="O67">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P67">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q67">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R67">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S67">
         <v>1.825</v>
       </c>
       <c r="T67">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U67">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V67">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W67">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6102230</v>
+        <v>6102229</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,76 +6490,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K68">
-        <v>2.55</v>
+        <v>1.55</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M68">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N68">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O68">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P68">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R68">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S68">
         <v>1.825</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X68">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA68">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6582,7 +6582,7 @@
         <v>40</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H69">
         <v>5</v>
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6102235</v>
+        <v>6102233</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,76 +6935,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H73">
+        <v>3</v>
+      </c>
+      <c r="I73">
         <v>0</v>
       </c>
-      <c r="I73">
-        <v>2</v>
-      </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K73">
-        <v>1.6</v>
+        <v>1.333</v>
       </c>
       <c r="L73">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M73">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="N73">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O73">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P73">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q73">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R73">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S73">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T73">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U73">
         <v>1.825</v>
       </c>
       <c r="V73">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA73">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC73">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
         <v>40</v>
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6102357</v>
+        <v>6102235</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,76 +7113,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>2</v>
+      </c>
+      <c r="J75" t="s">
+        <v>43</v>
+      </c>
+      <c r="K75">
+        <v>1.6</v>
+      </c>
+      <c r="L75">
+        <v>4.2</v>
+      </c>
+      <c r="M75">
+        <v>4.333</v>
+      </c>
+      <c r="N75">
+        <v>1.65</v>
+      </c>
+      <c r="O75">
+        <v>4.2</v>
+      </c>
+      <c r="P75">
         <v>4</v>
       </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
-      <c r="J75" t="s">
-        <v>41</v>
-      </c>
-      <c r="K75">
-        <v>1.333</v>
-      </c>
-      <c r="L75">
-        <v>5</v>
-      </c>
-      <c r="M75">
-        <v>7</v>
-      </c>
-      <c r="N75">
-        <v>1.3</v>
-      </c>
-      <c r="O75">
-        <v>5.25</v>
-      </c>
-      <c r="P75">
-        <v>7</v>
-      </c>
       <c r="Q75">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R75">
+        <v>1.825</v>
+      </c>
+      <c r="S75">
         <v>1.975</v>
       </c>
-      <c r="S75">
+      <c r="T75">
+        <v>3.5</v>
+      </c>
+      <c r="U75">
         <v>1.825</v>
       </c>
-      <c r="T75">
-        <v>3.75</v>
-      </c>
-      <c r="U75">
-        <v>1.875</v>
-      </c>
       <c r="V75">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z75">
+        <v>-1</v>
+      </c>
+      <c r="AA75">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA75">
-        <v>-1</v>
-      </c>
       <c r="AB75">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6102233</v>
+        <v>6102357</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,16 +7202,16 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
         <v>41</v>
@@ -7226,34 +7226,34 @@
         <v>7</v>
       </c>
       <c r="N76">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="O76">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="P76">
         <v>7</v>
       </c>
       <c r="Q76">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R76">
+        <v>1.975</v>
+      </c>
+      <c r="S76">
+        <v>1.825</v>
+      </c>
+      <c r="T76">
+        <v>3.75</v>
+      </c>
+      <c r="U76">
+        <v>1.875</v>
+      </c>
+      <c r="V76">
         <v>1.925</v>
       </c>
-      <c r="S76">
-        <v>1.925</v>
-      </c>
-      <c r="T76">
-        <v>3.25</v>
-      </c>
-      <c r="U76">
-        <v>1.825</v>
-      </c>
-      <c r="V76">
-        <v>2.025</v>
-      </c>
       <c r="W76">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7262,16 +7262,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC76">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7469,7 +7469,7 @@
         <v>45186.625</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
         <v>37</v>
@@ -7558,7 +7558,7 @@
         <v>45186.67708333334</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G80" t="s">
         <v>31</v>
@@ -7650,7 +7650,7 @@
         <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7917,7 +7917,7 @@
         <v>29</v>
       </c>
       <c r="G84" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7173163</v>
+        <v>7173179</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8003,76 +8003,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H85">
+        <v>2</v>
+      </c>
+      <c r="I85">
         <v>1</v>
       </c>
-      <c r="I85">
-        <v>3</v>
-      </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K85">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="L85">
         <v>3.6</v>
       </c>
       <c r="M85">
+        <v>2.45</v>
+      </c>
+      <c r="N85">
         <v>2.375</v>
       </c>
-      <c r="N85">
-        <v>2.7</v>
-      </c>
       <c r="O85">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P85">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q85">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R85">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S85">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T85">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U85">
+        <v>1.975</v>
+      </c>
+      <c r="V85">
         <v>1.825</v>
       </c>
-      <c r="V85">
-        <v>1.975</v>
-      </c>
       <c r="W85">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA85">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8095,7 +8095,7 @@
         <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7173179</v>
+        <v>7173163</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,76 +8181,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K87">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="L87">
         <v>3.6</v>
       </c>
       <c r="M87">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="N87">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="O87">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P87">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R87">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T87">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U87">
+        <v>1.825</v>
+      </c>
+      <c r="V87">
         <v>1.975</v>
       </c>
-      <c r="V87">
-        <v>1.825</v>
-      </c>
       <c r="W87">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB87">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC87">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>45194.67708333334</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
         <v>40</v>
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7173183</v>
+        <v>7173166</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,73 +8537,73 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I91">
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K91">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L91">
         <v>3.6</v>
       </c>
       <c r="M91">
+        <v>2.6</v>
+      </c>
+      <c r="N91">
         <v>2.7</v>
       </c>
-      <c r="N91">
-        <v>2.45</v>
-      </c>
       <c r="O91">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P91">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R91">
         <v>1.925</v>
       </c>
       <c r="S91">
+        <v>1.875</v>
+      </c>
+      <c r="T91">
+        <v>3.75</v>
+      </c>
+      <c r="U91">
         <v>1.925</v>
       </c>
-      <c r="T91">
-        <v>3.25</v>
-      </c>
-      <c r="U91">
-        <v>1.9</v>
-      </c>
       <c r="V91">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X91">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA91">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7173166</v>
+        <v>7173183</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,73 +8626,73 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I92">
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K92">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L92">
         <v>3.6</v>
       </c>
       <c r="M92">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="N92">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="O92">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P92">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R92">
         <v>1.925</v>
       </c>
       <c r="S92">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T92">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U92">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V92">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W92">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB92">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7173167</v>
+        <v>7173182</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,13 +8715,13 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -8730,43 +8730,43 @@
         <v>41</v>
       </c>
       <c r="K93">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M93">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N93">
-        <v>1.571</v>
+        <v>1.833</v>
       </c>
       <c r="O93">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P93">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R93">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S93">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T93">
         <v>3.25</v>
       </c>
       <c r="U93">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W93">
-        <v>0.571</v>
+        <v>0.833</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8775,16 +8775,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA93">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC93">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7173182</v>
+        <v>7173168</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,37 +8804,37 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
         <v>41</v>
       </c>
       <c r="K94">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L94">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M94">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N94">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="O94">
         <v>3.8</v>
       </c>
       <c r="P94">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q94">
         <v>-0.5</v>
@@ -8849,13 +8849,13 @@
         <v>3.25</v>
       </c>
       <c r="U94">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V94">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W94">
-        <v>0.833</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8870,10 +8870,10 @@
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7173168</v>
+        <v>7173167</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,58 +8893,58 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
         <v>41</v>
       </c>
       <c r="K95">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="L95">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M95">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N95">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="O95">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P95">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R95">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S95">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T95">
         <v>3.25</v>
       </c>
       <c r="U95">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W95">
-        <v>0.8500000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8953,16 +8953,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC95">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7173169</v>
+        <v>7173184</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,73 +8982,73 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I96">
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K96">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="L96">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M96">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="N96">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O96">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P96">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="Q96">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R96">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S96">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T96">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U96">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V96">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W96">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z96">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB96">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7173184</v>
+        <v>7173169</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,73 +9071,73 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I97">
         <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K97">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="L97">
+        <v>3.6</v>
+      </c>
+      <c r="M97">
+        <v>2.45</v>
+      </c>
+      <c r="N97">
+        <v>3</v>
+      </c>
+      <c r="O97">
+        <v>3.6</v>
+      </c>
+      <c r="P97">
+        <v>2.05</v>
+      </c>
+      <c r="Q97">
+        <v>0.25</v>
+      </c>
+      <c r="R97">
+        <v>1.975</v>
+      </c>
+      <c r="S97">
+        <v>1.825</v>
+      </c>
+      <c r="T97">
         <v>3.5</v>
       </c>
-      <c r="M97">
-        <v>2.15</v>
-      </c>
-      <c r="N97">
-        <v>3.4</v>
-      </c>
-      <c r="O97">
-        <v>3.75</v>
-      </c>
-      <c r="P97">
-        <v>1.85</v>
-      </c>
-      <c r="Q97">
-        <v>0.5</v>
-      </c>
-      <c r="R97">
-        <v>1.875</v>
-      </c>
-      <c r="S97">
-        <v>1.925</v>
-      </c>
-      <c r="T97">
-        <v>3.25</v>
-      </c>
       <c r="U97">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V97">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA97">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9160,7 +9160,7 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G98" t="s">
         <v>36</v>
@@ -9338,7 +9338,7 @@
         <v>45200.67708333334</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7173173</v>
+        <v>7173189</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,58 +9516,58 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H102">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>41</v>
       </c>
       <c r="K102">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="L102">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M102">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N102">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="O102">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P102">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q102">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R102">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S102">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T102">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U102">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
         <v>1.825</v>
       </c>
       <c r="W102">
-        <v>0.5329999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9576,16 +9576,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9697,7 +9697,7 @@
         <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H104">
         <v>5</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7173189</v>
+        <v>7173172</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,58 +9783,58 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H105">
+        <v>3</v>
+      </c>
+      <c r="I105">
         <v>1</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>41</v>
       </c>
       <c r="K105">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N105">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O105">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P105">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S105">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T105">
         <v>3.5</v>
       </c>
       <c r="U105">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V105">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W105">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9843,16 +9843,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC105">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7173172</v>
+        <v>7173173</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,13 +9872,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I106">
         <v>1</v>
@@ -9887,43 +9887,43 @@
         <v>41</v>
       </c>
       <c r="K106">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L106">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M106">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N106">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="O106">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P106">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R106">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S106">
+        <v>2</v>
+      </c>
+      <c r="T106">
+        <v>4</v>
+      </c>
+      <c r="U106">
         <v>2.025</v>
       </c>
-      <c r="T106">
-        <v>3.5</v>
-      </c>
-      <c r="U106">
-        <v>1.875</v>
-      </c>
       <c r="V106">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W106">
-        <v>1.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9932,13 +9932,13 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9961,7 +9961,7 @@
         <v>45207.45833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
         <v>31</v>

--- a/Iceland Premier League/Iceland Premier League.xlsx
+++ b/Iceland Premier League/Iceland Premier League.xlsx
@@ -112,19 +112,19 @@
     <t>Stjarnan</t>
   </si>
   <si>
-    <t>Valur Reykjavik</t>
-  </si>
-  <si>
     <t>Breidablik</t>
   </si>
   <si>
     <t>Fram Reykjavik</t>
   </si>
   <si>
-    <t>KR Reykjavik</t>
+    <t>Valur Reykjavik</t>
   </si>
   <si>
     <t>KA Akureyri</t>
+  </si>
+  <si>
+    <t>KR Reykjavik</t>
   </si>
   <si>
     <t>FH Hafnarfjordur</t>
@@ -708,7 +708,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -797,7 +797,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6102346</v>
+        <v>6102174</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>42</v>
       </c>
       <c r="K5">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M5">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N5">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="O5">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P5">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S5">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T5">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U5">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>0.8</v>
+        <v>0.3875</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6102174</v>
+        <v>6102175</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,70 +975,70 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L6">
+        <v>3.75</v>
+      </c>
+      <c r="M6">
+        <v>3.25</v>
+      </c>
+      <c r="N6">
+        <v>1.909</v>
+      </c>
+      <c r="O6">
         <v>3.6</v>
       </c>
-      <c r="M6">
-        <v>3.1</v>
-      </c>
-      <c r="N6">
-        <v>2.25</v>
-      </c>
-      <c r="O6">
-        <v>3.3</v>
-      </c>
       <c r="P6">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S6">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T6">
         <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X6">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA6">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1049,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6102175</v>
+        <v>6102346</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1064,73 +1064,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L7">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M7">
+        <v>4.2</v>
+      </c>
+      <c r="N7">
+        <v>1.615</v>
+      </c>
+      <c r="O7">
+        <v>4.2</v>
+      </c>
+      <c r="P7">
+        <v>4.333</v>
+      </c>
+      <c r="Q7">
+        <v>-1</v>
+      </c>
+      <c r="R7">
+        <v>2.05</v>
+      </c>
+      <c r="S7">
+        <v>1.8</v>
+      </c>
+      <c r="T7">
         <v>3.25</v>
       </c>
-      <c r="N7">
-        <v>1.909</v>
-      </c>
-      <c r="O7">
-        <v>3.6</v>
-      </c>
-      <c r="P7">
-        <v>3.5</v>
-      </c>
-      <c r="Q7">
-        <v>-0.5</v>
-      </c>
-      <c r="R7">
-        <v>1.95</v>
-      </c>
-      <c r="S7">
-        <v>1.85</v>
-      </c>
-      <c r="T7">
-        <v>2.75</v>
-      </c>
       <c r="U7">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W7">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB7">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6102177</v>
+        <v>6102176</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,73 +1153,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>1.833</v>
+        <v>1.6</v>
       </c>
       <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>4.333</v>
+      </c>
+      <c r="N8">
+        <v>1.8</v>
+      </c>
+      <c r="O8">
+        <v>3.8</v>
+      </c>
+      <c r="P8">
         <v>3.6</v>
-      </c>
-      <c r="M8">
-        <v>3.4</v>
-      </c>
-      <c r="N8">
-        <v>1.85</v>
-      </c>
-      <c r="O8">
-        <v>3.6</v>
-      </c>
-      <c r="P8">
-        <v>3.5</v>
       </c>
       <c r="Q8">
         <v>-0.5</v>
       </c>
       <c r="R8">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T8">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U8">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X8">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA8">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6102176</v>
+        <v>6102177</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,73 +1242,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>1.6</v>
+        <v>1.833</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M9">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N9">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O9">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P9">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q9">
         <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1331,7 +1331,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1420,7 +1420,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6102183</v>
+        <v>6102181</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,58 +1684,58 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
         <v>33</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>41</v>
       </c>
       <c r="K14">
-        <v>5.25</v>
+        <v>1.833</v>
       </c>
       <c r="L14">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M14">
-        <v>1.45</v>
+        <v>3.6</v>
       </c>
       <c r="N14">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="O14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P14">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="Q14">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R14">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S14">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T14">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U14">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V14">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W14">
-        <v>5</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1744,13 +1744,13 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6102181</v>
+        <v>6102182</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,76 +1773,76 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K15">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="L15">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N15">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P15">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R15">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S15">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T15">
         <v>3</v>
       </c>
       <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="V15">
         <v>1.85</v>
       </c>
-      <c r="V15">
-        <v>2</v>
-      </c>
       <c r="W15">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB15">
+        <v>-1</v>
+      </c>
+      <c r="AC15">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC15">
-        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6102182</v>
+        <v>6102183</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,76 +1862,76 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M16">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="N16">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="O16">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P16">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S16">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V16">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X16">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.4</v>
+        <v>1.025</v>
       </c>
       <c r="AA16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC16">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1954,7 +1954,7 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2040,10 +2040,10 @@
         <v>45101.58333333334</v>
       </c>
       <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
         <v>35</v>
-      </c>
-      <c r="G18" t="s">
-        <v>36</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2221,7 +2221,7 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2307,7 +2307,7 @@
         <v>45105.67708333334</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -2396,7 +2396,7 @@
         <v>45105.67708333334</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
         <v>39</v>
@@ -2663,7 +2663,7 @@
         <v>45114.67708333334</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
         <v>30</v>
@@ -2755,7 +2755,7 @@
         <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2930,7 +2930,7 @@
         <v>45119.67708333334</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
         <v>30</v>
@@ -3022,7 +3022,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3108,10 +3108,10 @@
         <v>45121.71875</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3464,7 +3464,7 @@
         <v>45125.70833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
@@ -3553,7 +3553,7 @@
         <v>45128.625</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
         <v>29</v>
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6102206</v>
+        <v>6542524</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,76 +3642,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K36">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="L36">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M36">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N36">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="O36">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P36">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="Q36">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R36">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S36">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T36">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U36">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V36">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W36">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC36">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6542524</v>
+        <v>6102206</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,76 +3820,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K38">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="L38">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M38">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N38">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="O38">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P38">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="Q38">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R38">
+        <v>1.925</v>
+      </c>
+      <c r="S38">
         <v>1.775</v>
       </c>
-      <c r="S38">
-        <v>2.025</v>
-      </c>
       <c r="T38">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U38">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V38">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB38">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3912,7 +3912,7 @@
         <v>39</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -4090,7 +4090,7 @@
         <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H41">
         <v>4</v>
@@ -4176,7 +4176,7 @@
         <v>45136.63541666666</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
         <v>31</v>
@@ -4265,7 +4265,7 @@
         <v>45137.54166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
         <v>38</v>
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6102213</v>
+        <v>6102350</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,43 +4443,43 @@
         <v>45138.67708333334</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J45" t="s">
         <v>43</v>
       </c>
       <c r="K45">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="L45">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M45">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N45">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="O45">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P45">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S45">
         <v>1.85</v>
@@ -4488,10 +4488,10 @@
         <v>3</v>
       </c>
       <c r="U45">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V45">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W45">
         <v>-1</v>
@@ -4500,7 +4500,7 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z45">
         <v>-1</v>
@@ -4509,7 +4509,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB45">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6102350</v>
+        <v>6102213</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,43 +4532,43 @@
         <v>45138.67708333334</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J46" t="s">
         <v>43</v>
       </c>
       <c r="K46">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="L46">
+        <v>3.5</v>
+      </c>
+      <c r="M46">
+        <v>2.3</v>
+      </c>
+      <c r="N46">
+        <v>2.7</v>
+      </c>
+      <c r="O46">
         <v>3.6</v>
       </c>
-      <c r="M46">
-        <v>1.909</v>
-      </c>
-      <c r="N46">
-        <v>3.8</v>
-      </c>
-      <c r="O46">
-        <v>3.75</v>
-      </c>
       <c r="P46">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="Q46">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S46">
         <v>1.85</v>
@@ -4577,10 +4577,10 @@
         <v>3</v>
       </c>
       <c r="U46">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V46">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W46">
         <v>-1</v>
@@ -4589,7 +4589,7 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>0.8500000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="Z46">
         <v>-1</v>
@@ -4598,7 +4598,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB46">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4710,10 +4710,10 @@
         <v>45144.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -4799,10 +4799,10 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H49">
         <v>4</v>
@@ -4977,7 +4977,7 @@
         <v>45146.67708333334</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
         <v>30</v>
@@ -5155,10 +5155,10 @@
         <v>45151.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6102353</v>
+        <v>6102352</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,76 +5244,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K54">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="L54">
+        <v>4.75</v>
+      </c>
+      <c r="M54">
+        <v>1.363</v>
+      </c>
+      <c r="N54">
+        <v>5.25</v>
+      </c>
+      <c r="O54">
+        <v>4.75</v>
+      </c>
+      <c r="P54">
+        <v>1.4</v>
+      </c>
+      <c r="Q54">
+        <v>1.25</v>
+      </c>
+      <c r="R54">
+        <v>1.9</v>
+      </c>
+      <c r="S54">
+        <v>1.9</v>
+      </c>
+      <c r="T54">
+        <v>3.25</v>
+      </c>
+      <c r="U54">
+        <v>1.85</v>
+      </c>
+      <c r="V54">
+        <v>1.95</v>
+      </c>
+      <c r="W54">
+        <v>-1</v>
+      </c>
+      <c r="X54">
         <v>3.75</v>
       </c>
-      <c r="M54">
-        <v>4.333</v>
-      </c>
-      <c r="N54">
-        <v>1.727</v>
-      </c>
-      <c r="O54">
-        <v>3.6</v>
-      </c>
-      <c r="P54">
-        <v>4.2</v>
-      </c>
-      <c r="Q54">
-        <v>-0.75</v>
-      </c>
-      <c r="R54">
-        <v>1.975</v>
-      </c>
-      <c r="S54">
-        <v>1.825</v>
-      </c>
-      <c r="T54">
-        <v>2.75</v>
-      </c>
-      <c r="U54">
-        <v>1.825</v>
-      </c>
-      <c r="V54">
-        <v>1.975</v>
-      </c>
-      <c r="W54">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X54">
-        <v>-1</v>
-      </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6102352</v>
+        <v>6102353</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,76 +5333,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55">
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K55">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="L55">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M55">
-        <v>1.363</v>
+        <v>4.333</v>
       </c>
       <c r="N55">
-        <v>5.25</v>
+        <v>1.727</v>
       </c>
       <c r="O55">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P55">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q55">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R55">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S55">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T55">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X55">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC55">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5422,10 +5422,10 @@
         <v>45151.63541666666</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -5778,10 +5778,10 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -5867,7 +5867,7 @@
         <v>45158.625</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
         <v>39</v>
@@ -6045,7 +6045,7 @@
         <v>45158.67708333334</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
         <v>40</v>
@@ -6137,7 +6137,7 @@
         <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H64">
         <v>3</v>
@@ -6223,7 +6223,7 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
         <v>31</v>
@@ -6315,7 +6315,7 @@
         <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H66">
         <v>3</v>
@@ -6389,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6102230</v>
+        <v>6102229</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6401,76 +6401,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K67">
-        <v>2.55</v>
+        <v>1.55</v>
       </c>
       <c r="L67">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M67">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N67">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O67">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P67">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R67">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S67">
         <v>1.825</v>
       </c>
       <c r="T67">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U67">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V67">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X67">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA67">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6102229</v>
+        <v>6102230</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,76 +6490,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K68">
-        <v>1.55</v>
+        <v>2.55</v>
       </c>
       <c r="L68">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M68">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="N68">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="O68">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P68">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q68">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S68">
         <v>1.825</v>
       </c>
       <c r="T68">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U68">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6582,7 +6582,7 @@
         <v>40</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H69">
         <v>5</v>
@@ -6760,7 +6760,7 @@
         <v>37</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6849,7 +6849,7 @@
         <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7024,7 +7024,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
         <v>40</v>
@@ -7113,7 +7113,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
         <v>37</v>
@@ -7202,7 +7202,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
         <v>38</v>
@@ -7294,7 +7294,7 @@
         <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7469,7 +7469,7 @@
         <v>45186.625</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
         <v>37</v>
@@ -7558,7 +7558,7 @@
         <v>45186.67708333334</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
         <v>31</v>
@@ -7650,7 +7650,7 @@
         <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7736,7 +7736,7 @@
         <v>45189.55208333334</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
         <v>39</v>
@@ -7828,7 +7828,7 @@
         <v>40</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7917,7 +7917,7 @@
         <v>29</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7173179</v>
+        <v>7173163</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8003,76 +8003,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J85" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K85">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="L85">
         <v>3.6</v>
       </c>
       <c r="M85">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="N85">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="O85">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P85">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S85">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T85">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U85">
+        <v>1.825</v>
+      </c>
+      <c r="V85">
         <v>1.975</v>
       </c>
-      <c r="V85">
-        <v>1.825</v>
-      </c>
       <c r="W85">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB85">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC85">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,10 +8092,10 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7173163</v>
+        <v>7173179</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,76 +8181,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="I87">
         <v>1</v>
       </c>
-      <c r="I87">
-        <v>3</v>
-      </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K87">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="L87">
         <v>3.6</v>
       </c>
       <c r="M87">
+        <v>2.45</v>
+      </c>
+      <c r="N87">
         <v>2.375</v>
       </c>
-      <c r="N87">
-        <v>2.7</v>
-      </c>
       <c r="O87">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P87">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q87">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R87">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S87">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T87">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U87">
+        <v>1.975</v>
+      </c>
+      <c r="V87">
         <v>1.825</v>
       </c>
-      <c r="V87">
-        <v>1.975</v>
-      </c>
       <c r="W87">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA87">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8273,7 +8273,7 @@
         <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8359,7 +8359,7 @@
         <v>45194.67708333334</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G89" t="s">
         <v>40</v>
@@ -8448,7 +8448,7 @@
         <v>45197.55208333334</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
         <v>29</v>
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7173166</v>
+        <v>7173183</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,73 +8537,73 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I91">
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K91">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L91">
         <v>3.6</v>
       </c>
       <c r="M91">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="N91">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="O91">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P91">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q91">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R91">
         <v>1.925</v>
       </c>
       <c r="S91">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T91">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U91">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V91">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W91">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB91">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7173183</v>
+        <v>7173167</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,43 +8626,43 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G92" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>2</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K92">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="L92">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M92">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N92">
-        <v>2.45</v>
+        <v>1.571</v>
       </c>
       <c r="O92">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P92">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q92">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R92">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S92">
         <v>1.925</v>
@@ -8671,16 +8671,16 @@
         <v>3.25</v>
       </c>
       <c r="U92">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X92">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
@@ -8692,10 +8692,10 @@
         <v>-0</v>
       </c>
       <c r="AB92">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8715,7 +8715,7 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
         <v>39</v>
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7173168</v>
+        <v>7173166</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,58 +8804,58 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
         <v>41</v>
       </c>
       <c r="K94">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L94">
+        <v>3.6</v>
+      </c>
+      <c r="M94">
+        <v>2.6</v>
+      </c>
+      <c r="N94">
+        <v>2.7</v>
+      </c>
+      <c r="O94">
+        <v>4</v>
+      </c>
+      <c r="P94">
+        <v>2.1</v>
+      </c>
+      <c r="Q94">
+        <v>0.25</v>
+      </c>
+      <c r="R94">
+        <v>1.925</v>
+      </c>
+      <c r="S94">
+        <v>1.875</v>
+      </c>
+      <c r="T94">
         <v>3.75</v>
       </c>
-      <c r="M94">
-        <v>3.2</v>
-      </c>
-      <c r="N94">
-        <v>1.85</v>
-      </c>
-      <c r="O94">
-        <v>3.8</v>
-      </c>
-      <c r="P94">
-        <v>3.4</v>
-      </c>
-      <c r="Q94">
-        <v>-0.5</v>
-      </c>
-      <c r="R94">
-        <v>1.825</v>
-      </c>
-      <c r="S94">
-        <v>1.975</v>
-      </c>
-      <c r="T94">
-        <v>3.25</v>
-      </c>
       <c r="U94">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V94">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W94">
-        <v>0.8500000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8864,16 +8864,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC94">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7173167</v>
+        <v>7173168</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,58 +8893,58 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
         <v>41</v>
       </c>
       <c r="K95">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M95">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N95">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="O95">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P95">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S95">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T95">
         <v>3.25</v>
       </c>
       <c r="U95">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V95">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W95">
-        <v>0.571</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8953,16 +8953,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA95">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7173184</v>
+        <v>7173169</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,73 +8982,73 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I96">
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K96">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="L96">
+        <v>3.6</v>
+      </c>
+      <c r="M96">
+        <v>2.45</v>
+      </c>
+      <c r="N96">
+        <v>3</v>
+      </c>
+      <c r="O96">
+        <v>3.6</v>
+      </c>
+      <c r="P96">
+        <v>2.05</v>
+      </c>
+      <c r="Q96">
+        <v>0.25</v>
+      </c>
+      <c r="R96">
+        <v>1.975</v>
+      </c>
+      <c r="S96">
+        <v>1.825</v>
+      </c>
+      <c r="T96">
         <v>3.5</v>
       </c>
-      <c r="M96">
-        <v>2.15</v>
-      </c>
-      <c r="N96">
-        <v>3.4</v>
-      </c>
-      <c r="O96">
-        <v>3.75</v>
-      </c>
-      <c r="P96">
-        <v>1.85</v>
-      </c>
-      <c r="Q96">
-        <v>0.5</v>
-      </c>
-      <c r="R96">
-        <v>1.875</v>
-      </c>
-      <c r="S96">
-        <v>1.925</v>
-      </c>
-      <c r="T96">
-        <v>3.25</v>
-      </c>
       <c r="U96">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V96">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA96">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7173169</v>
+        <v>7173184</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,73 +9071,73 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K97">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M97">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="N97">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O97">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P97">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="Q97">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R97">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S97">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T97">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U97">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V97">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W97">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z97">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB97">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7173186</v>
+        <v>7173185</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,76 +9160,76 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
         <v>1</v>
       </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
       <c r="J98" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K98">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="L98">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M98">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="N98">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="O98">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P98">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R98">
         <v>1.825</v>
       </c>
       <c r="S98">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T98">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U98">
         <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z98">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7173185</v>
+        <v>7173186</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,76 +9249,76 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
         <v>0</v>
       </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K99">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="L99">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M99">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="N99">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="O99">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P99">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q99">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
         <v>1.825</v>
       </c>
       <c r="S99">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T99">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U99">
         <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA99">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>45200.67708333334</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9516,7 +9516,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
         <v>38</v>
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7173188</v>
+        <v>7173187</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,76 +9605,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K103">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L103">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M103">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="N103">
-        <v>1.222</v>
+        <v>2.1</v>
       </c>
       <c r="O103">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P103">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q103">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S103">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T103">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U103">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V103">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X103">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA103">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC103">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7173187</v>
+        <v>7173172</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,13 +9694,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H104">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -9709,28 +9709,28 @@
         <v>41</v>
       </c>
       <c r="K104">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L104">
+        <v>3.6</v>
+      </c>
+      <c r="M104">
+        <v>2.6</v>
+      </c>
+      <c r="N104">
+        <v>2.25</v>
+      </c>
+      <c r="O104">
         <v>3.75</v>
       </c>
-      <c r="M104">
-        <v>2.9</v>
-      </c>
-      <c r="N104">
-        <v>2.1</v>
-      </c>
-      <c r="O104">
-        <v>3.5</v>
-      </c>
       <c r="P104">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R104">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S104">
         <v>2.025</v>
@@ -9739,13 +9739,13 @@
         <v>3.5</v>
       </c>
       <c r="U104">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V104">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W104">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9754,13 +9754,13 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7173172</v>
+        <v>7173188</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I105">
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K105">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M105">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="N105">
-        <v>2.25</v>
+        <v>1.222</v>
       </c>
       <c r="O105">
+        <v>5.5</v>
+      </c>
+      <c r="P105">
+        <v>9</v>
+      </c>
+      <c r="Q105">
+        <v>-2</v>
+      </c>
+      <c r="R105">
+        <v>1.975</v>
+      </c>
+      <c r="S105">
+        <v>1.825</v>
+      </c>
+      <c r="T105">
         <v>3.75</v>
       </c>
-      <c r="P105">
-        <v>2.55</v>
-      </c>
-      <c r="Q105">
-        <v>0</v>
-      </c>
-      <c r="R105">
-        <v>1.775</v>
-      </c>
-      <c r="S105">
-        <v>2.025</v>
-      </c>
-      <c r="T105">
-        <v>3.5</v>
-      </c>
       <c r="U105">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB105">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9875,7 +9875,7 @@
         <v>40</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H106">
         <v>5</v>
@@ -9961,7 +9961,7 @@
         <v>45207.45833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
         <v>31</v>

--- a/Iceland Premier League/Iceland Premier League.xlsx
+++ b/Iceland Premier League/Iceland Premier League.xlsx
@@ -112,10 +112,10 @@
     <t>Stjarnan</t>
   </si>
   <si>
-    <t>Breidablik</t>
+    <t>Fram Reykjavik</t>
   </si>
   <si>
-    <t>Fram Reykjavik</t>
+    <t>Breidablik</t>
   </si>
   <si>
     <t>Valur Reykjavik</t>
@@ -133,10 +133,10 @@
     <t>HK Kopavogur</t>
   </si>
   <si>
-    <t>Keflavik</t>
+    <t>Vikingur Reykjavik</t>
   </si>
   <si>
-    <t>Vikingur Reykjavik</t>
+    <t>Keflavik</t>
   </si>
   <si>
     <t>H</t>
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6102174</v>
+        <v>6102175</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -889,67 +889,67 @@
         <v>40</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L5">
+        <v>3.75</v>
+      </c>
+      <c r="M5">
+        <v>3.25</v>
+      </c>
+      <c r="N5">
+        <v>1.909</v>
+      </c>
+      <c r="O5">
         <v>3.6</v>
       </c>
-      <c r="M5">
-        <v>3.1</v>
-      </c>
-      <c r="N5">
-        <v>2.25</v>
-      </c>
-      <c r="O5">
-        <v>3.3</v>
-      </c>
       <c r="P5">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S5">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T5">
         <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X5">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA5">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6102175</v>
+        <v>6102174</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -978,67 +978,67 @@
         <v>39</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M6">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N6">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O6">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P6">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q6">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S6">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T6">
         <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB6">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1331,7 +1331,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6102180</v>
+        <v>6102179</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1509,73 +1509,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K12">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="L12">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M12">
+        <v>5.5</v>
+      </c>
+      <c r="N12">
+        <v>1.3</v>
+      </c>
+      <c r="O12">
+        <v>5.25</v>
+      </c>
+      <c r="P12">
+        <v>6.5</v>
+      </c>
+      <c r="Q12">
+        <v>-1.5</v>
+      </c>
+      <c r="R12">
         <v>1.85</v>
       </c>
-      <c r="N12">
-        <v>4.2</v>
-      </c>
-      <c r="O12">
+      <c r="S12">
+        <v>1.95</v>
+      </c>
+      <c r="T12">
         <v>3.5</v>
       </c>
-      <c r="P12">
-        <v>1.727</v>
-      </c>
-      <c r="Q12">
-        <v>0.75</v>
-      </c>
-      <c r="R12">
-        <v>1.8</v>
-      </c>
-      <c r="S12">
-        <v>2</v>
-      </c>
-      <c r="T12">
-        <v>2.75</v>
-      </c>
       <c r="U12">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V12">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X12">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6102179</v>
+        <v>6102180</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1598,73 +1598,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="L13">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M13">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="N13">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="O13">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P13">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q13">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R13">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S13">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T13">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V13">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W13">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6102181</v>
+        <v>6102183</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,58 +1684,58 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
         <v>33</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
         <v>41</v>
       </c>
       <c r="K14">
-        <v>1.833</v>
+        <v>5.25</v>
       </c>
       <c r="L14">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M14">
-        <v>3.6</v>
+        <v>1.45</v>
       </c>
       <c r="N14">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="O14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P14">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R14">
+        <v>2.025</v>
+      </c>
+      <c r="S14">
+        <v>1.825</v>
+      </c>
+      <c r="T14">
+        <v>3.25</v>
+      </c>
+      <c r="U14">
         <v>1.975</v>
       </c>
-      <c r="S14">
+      <c r="V14">
         <v>1.875</v>
       </c>
-      <c r="T14">
-        <v>3</v>
-      </c>
-      <c r="U14">
-        <v>1.85</v>
-      </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
       <c r="W14">
-        <v>0.7270000000000001</v>
+        <v>5</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1744,13 +1744,13 @@
         <v>-1</v>
       </c>
       <c r="Z14">
+        <v>1.025</v>
+      </c>
+      <c r="AA14">
+        <v>-1</v>
+      </c>
+      <c r="AB14">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA14">
-        <v>-1</v>
-      </c>
-      <c r="AB14">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6102182</v>
+        <v>6102181</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,76 +1773,76 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L15">
+        <v>3.75</v>
+      </c>
+      <c r="M15">
         <v>3.6</v>
       </c>
-      <c r="M15">
-        <v>2.625</v>
-      </c>
       <c r="N15">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P15">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q15">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R15">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S15">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T15">
         <v>3</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X15">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6102183</v>
+        <v>6102182</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,76 +1862,76 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K16">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="L16">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="N16">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="O16">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P16">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="Q16">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T16">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U16">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W16">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB16">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2129,7 +2129,7 @@
         <v>45101.67708333334</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
         <v>31</v>
@@ -2307,7 +2307,7 @@
         <v>45105.67708333334</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -2399,7 +2399,7 @@
         <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2577,7 +2577,7 @@
         <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2663,7 +2663,7 @@
         <v>45114.67708333334</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
         <v>30</v>
@@ -2755,7 +2755,7 @@
         <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2841,10 +2841,10 @@
         <v>45115.58333333334</v>
       </c>
       <c r="F27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" t="s">
         <v>39</v>
-      </c>
-      <c r="G27" t="s">
-        <v>40</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3108,10 +3108,10 @@
         <v>45121.71875</v>
       </c>
       <c r="F30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" t="s">
         <v>33</v>
-      </c>
-      <c r="G30" t="s">
-        <v>32</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3200,7 +3200,7 @@
         <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3553,7 +3553,7 @@
         <v>45128.625</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
         <v>29</v>
@@ -3645,7 +3645,7 @@
         <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6102207</v>
+        <v>6102206</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,76 +3731,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="L37">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M37">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="N37">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="O37">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P37">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="Q37">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R37">
         <v>1.925</v>
       </c>
       <c r="S37">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T37">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U37">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X37">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6102206</v>
+        <v>6102207</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,76 +3820,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K38">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="L38">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M38">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="N38">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="O38">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P38">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="Q38">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R38">
         <v>1.925</v>
       </c>
       <c r="S38">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T38">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U38">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V38">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA38">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3909,7 +3909,7 @@
         <v>45131.625</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
         <v>35</v>
@@ -4090,7 +4090,7 @@
         <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H41">
         <v>4</v>
@@ -4176,7 +4176,7 @@
         <v>45136.63541666666</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
         <v>31</v>
@@ -4354,7 +4354,7 @@
         <v>45137.58333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
         <v>29</v>
@@ -4443,7 +4443,7 @@
         <v>45138.67708333334</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
         <v>37</v>
@@ -4710,7 +4710,7 @@
         <v>45144.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
         <v>36</v>
@@ -4891,7 +4891,7 @@
         <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4977,7 +4977,7 @@
         <v>45146.67708333334</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
         <v>30</v>
@@ -5069,7 +5069,7 @@
         <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5158,7 +5158,7 @@
         <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6102352</v>
+        <v>6102353</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,76 +5244,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K54">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="L54">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M54">
-        <v>1.363</v>
+        <v>4.333</v>
       </c>
       <c r="N54">
-        <v>5.25</v>
+        <v>1.727</v>
       </c>
       <c r="O54">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P54">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q54">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R54">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S54">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T54">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U54">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V54">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X54">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC54">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6102353</v>
+        <v>6102352</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,76 +5333,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55">
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K55">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="L55">
+        <v>4.75</v>
+      </c>
+      <c r="M55">
+        <v>1.363</v>
+      </c>
+      <c r="N55">
+        <v>5.25</v>
+      </c>
+      <c r="O55">
+        <v>4.75</v>
+      </c>
+      <c r="P55">
+        <v>1.4</v>
+      </c>
+      <c r="Q55">
+        <v>1.25</v>
+      </c>
+      <c r="R55">
+        <v>1.9</v>
+      </c>
+      <c r="S55">
+        <v>1.9</v>
+      </c>
+      <c r="T55">
+        <v>3.25</v>
+      </c>
+      <c r="U55">
+        <v>1.85</v>
+      </c>
+      <c r="V55">
+        <v>1.95</v>
+      </c>
+      <c r="W55">
+        <v>-1</v>
+      </c>
+      <c r="X55">
         <v>3.75</v>
       </c>
-      <c r="M55">
-        <v>4.333</v>
-      </c>
-      <c r="N55">
-        <v>1.727</v>
-      </c>
-      <c r="O55">
-        <v>3.6</v>
-      </c>
-      <c r="P55">
-        <v>4.2</v>
-      </c>
-      <c r="Q55">
-        <v>-0.75</v>
-      </c>
-      <c r="R55">
-        <v>1.975</v>
-      </c>
-      <c r="S55">
-        <v>1.825</v>
-      </c>
-      <c r="T55">
-        <v>2.75</v>
-      </c>
-      <c r="U55">
-        <v>1.825</v>
-      </c>
-      <c r="V55">
-        <v>1.975</v>
-      </c>
-      <c r="W55">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X55">
-        <v>-1</v>
-      </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5425,7 +5425,7 @@
         <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -5511,7 +5511,7 @@
         <v>45151.67708333334</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G57" t="s">
         <v>38</v>
@@ -5778,7 +5778,7 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
         <v>35</v>
@@ -5867,10 +5867,10 @@
         <v>45158.625</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -6048,7 +6048,7 @@
         <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6389,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6102229</v>
+        <v>6102230</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6401,76 +6401,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K67">
-        <v>1.55</v>
+        <v>2.55</v>
       </c>
       <c r="L67">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M67">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="N67">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="O67">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P67">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q67">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R67">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S67">
         <v>1.825</v>
       </c>
       <c r="T67">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U67">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V67">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W67">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6102230</v>
+        <v>6102229</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,76 +6490,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K68">
-        <v>2.55</v>
+        <v>1.55</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M68">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N68">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O68">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P68">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R68">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S68">
         <v>1.825</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X68">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA68">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6579,10 +6579,10 @@
         <v>45165.67708333334</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H69">
         <v>5</v>
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6102232</v>
+        <v>6102233</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K72">
-        <v>2.6</v>
+        <v>1.333</v>
       </c>
       <c r="L72">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M72">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="N72">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="O72">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P72">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R72">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S72">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T72">
         <v>3.25</v>
       </c>
       <c r="U72">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V72">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X72">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA72">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC72">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6102233</v>
+        <v>6102232</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,76 +6935,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>42</v>
+      </c>
+      <c r="K73">
+        <v>2.6</v>
+      </c>
+      <c r="L73">
+        <v>3.6</v>
+      </c>
+      <c r="M73">
+        <v>2.3</v>
+      </c>
+      <c r="N73">
+        <v>2.5</v>
+      </c>
+      <c r="O73">
+        <v>3.6</v>
+      </c>
+      <c r="P73">
+        <v>2.45</v>
+      </c>
+      <c r="Q73">
         <v>0</v>
       </c>
-      <c r="J73" t="s">
-        <v>41</v>
-      </c>
-      <c r="K73">
-        <v>1.333</v>
-      </c>
-      <c r="L73">
-        <v>5</v>
-      </c>
-      <c r="M73">
-        <v>7</v>
-      </c>
-      <c r="N73">
-        <v>1.333</v>
-      </c>
-      <c r="O73">
-        <v>5</v>
-      </c>
-      <c r="P73">
-        <v>7</v>
-      </c>
-      <c r="Q73">
-        <v>-1.5</v>
-      </c>
       <c r="R73">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S73">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T73">
         <v>3.25</v>
       </c>
       <c r="U73">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V73">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W73">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB73">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6102234</v>
+        <v>6102235</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7027,52 +7027,52 @@
         <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
         <v>43</v>
       </c>
       <c r="K74">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="L74">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M74">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="N74">
-        <v>7</v>
+        <v>1.65</v>
       </c>
       <c r="O74">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P74">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="Q74">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S74">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T74">
         <v>3.5</v>
       </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W74">
         <v>-1</v>
@@ -7081,19 +7081,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.363</v>
+        <v>3</v>
       </c>
       <c r="Z74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB74">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6102235</v>
+        <v>6102236</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,49 +7113,49 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K75">
-        <v>1.6</v>
+        <v>2.625</v>
       </c>
       <c r="L75">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M75">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="N75">
-        <v>1.65</v>
+        <v>2.625</v>
       </c>
       <c r="O75">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P75">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q75">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S75">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T75">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
         <v>1.825</v>
@@ -7167,22 +7167,22 @@
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y75">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA75">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC75">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6102357</v>
+        <v>6102234</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,73 +7202,73 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J76" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K76">
-        <v>1.333</v>
+        <v>6</v>
       </c>
       <c r="L76">
         <v>5</v>
       </c>
       <c r="M76">
+        <v>1.4</v>
+      </c>
+      <c r="N76">
         <v>7</v>
       </c>
-      <c r="N76">
-        <v>1.3</v>
-      </c>
       <c r="O76">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="P76">
-        <v>7</v>
+        <v>1.363</v>
       </c>
       <c r="Q76">
-        <v>-1.75</v>
+        <v>1.5</v>
       </c>
       <c r="R76">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S76">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T76">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U76">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V76">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W76">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z76">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC76">
         <v>-1</v>
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6102236</v>
+        <v>6102357</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,73 +7291,73 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K77">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="L77">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M77">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="N77">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="O77">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P77">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Q77">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R77">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S77">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T77">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U77">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V77">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X77">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC77">
         <v>-1</v>
@@ -7469,7 +7469,7 @@
         <v>45186.625</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
         <v>37</v>
@@ -7650,7 +7650,7 @@
         <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7739,7 +7739,7 @@
         <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H82">
         <v>4</v>
@@ -7825,7 +7825,7 @@
         <v>45189.67708333334</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G83" t="s">
         <v>36</v>
@@ -7917,7 +7917,7 @@
         <v>29</v>
       </c>
       <c r="G84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7173163</v>
+        <v>7173164</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8003,22 +8003,22 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K85">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="L85">
         <v>3.6</v>
@@ -8027,25 +8027,25 @@
         <v>2.375</v>
       </c>
       <c r="N85">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="O85">
+        <v>3.8</v>
+      </c>
+      <c r="P85">
+        <v>2.6</v>
+      </c>
+      <c r="Q85">
+        <v>-0.25</v>
+      </c>
+      <c r="R85">
+        <v>1.95</v>
+      </c>
+      <c r="S85">
+        <v>1.75</v>
+      </c>
+      <c r="T85">
         <v>3.5</v>
-      </c>
-      <c r="P85">
-        <v>2.25</v>
-      </c>
-      <c r="Q85">
-        <v>0.25</v>
-      </c>
-      <c r="R85">
-        <v>1.775</v>
-      </c>
-      <c r="S85">
-        <v>2.025</v>
-      </c>
-      <c r="T85">
-        <v>3</v>
       </c>
       <c r="U85">
         <v>1.825</v>
@@ -8057,16 +8057,16 @@
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y85">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA85">
-        <v>1.025</v>
+        <v>0.375</v>
       </c>
       <c r="AB85">
         <v>0.825</v>
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7173164</v>
+        <v>7173163</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8092,22 +8092,22 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K86">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="L86">
         <v>3.6</v>
@@ -8116,25 +8116,25 @@
         <v>2.375</v>
       </c>
       <c r="N86">
+        <v>2.7</v>
+      </c>
+      <c r="O86">
+        <v>3.5</v>
+      </c>
+      <c r="P86">
         <v>2.25</v>
       </c>
-      <c r="O86">
-        <v>3.8</v>
-      </c>
-      <c r="P86">
-        <v>2.6</v>
-      </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S86">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T86">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U86">
         <v>1.825</v>
@@ -8146,16 +8146,16 @@
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.375</v>
+        <v>1.025</v>
       </c>
       <c r="AB86">
         <v>0.825</v>
@@ -8181,7 +8181,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G87" t="s">
         <v>38</v>
@@ -8359,10 +8359,10 @@
         <v>45194.67708333334</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H89">
         <v>3</v>
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7173167</v>
+        <v>7173166</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,58 +8626,58 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J92" t="s">
         <v>41</v>
       </c>
       <c r="K92">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="L92">
+        <v>3.6</v>
+      </c>
+      <c r="M92">
+        <v>2.6</v>
+      </c>
+      <c r="N92">
+        <v>2.7</v>
+      </c>
+      <c r="O92">
         <v>4</v>
       </c>
-      <c r="M92">
-        <v>4.333</v>
-      </c>
-      <c r="N92">
-        <v>1.571</v>
-      </c>
-      <c r="O92">
-        <v>4.2</v>
-      </c>
       <c r="P92">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q92">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
+        <v>1.925</v>
+      </c>
+      <c r="S92">
         <v>1.875</v>
       </c>
-      <c r="S92">
+      <c r="T92">
+        <v>3.75</v>
+      </c>
+      <c r="U92">
         <v>1.925</v>
       </c>
-      <c r="T92">
-        <v>3.25</v>
-      </c>
-      <c r="U92">
+      <c r="V92">
         <v>1.775</v>
       </c>
-      <c r="V92">
-        <v>1.925</v>
-      </c>
       <c r="W92">
-        <v>0.571</v>
+        <v>1.7</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8686,16 +8686,16 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA92">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC92">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7173182</v>
+        <v>7173167</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,13 +8715,13 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -8730,43 +8730,43 @@
         <v>41</v>
       </c>
       <c r="K93">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="L93">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M93">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N93">
-        <v>1.833</v>
+        <v>1.571</v>
       </c>
       <c r="O93">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P93">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R93">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S93">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T93">
         <v>3.25</v>
       </c>
       <c r="U93">
+        <v>1.775</v>
+      </c>
+      <c r="V93">
         <v>1.925</v>
       </c>
-      <c r="V93">
-        <v>1.875</v>
-      </c>
       <c r="W93">
-        <v>0.833</v>
+        <v>0.571</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8775,16 +8775,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB93">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7173166</v>
+        <v>7173168</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,58 +8804,58 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
         <v>41</v>
       </c>
       <c r="K94">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L94">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M94">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N94">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="O94">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P94">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q94">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R94">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S94">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T94">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U94">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V94">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W94">
-        <v>1.7</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8864,16 +8864,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7173168</v>
+        <v>7173182</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,37 +8893,37 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
         <v>41</v>
       </c>
       <c r="K95">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L95">
+        <v>3.8</v>
+      </c>
+      <c r="M95">
         <v>3.75</v>
       </c>
-      <c r="M95">
-        <v>3.2</v>
-      </c>
       <c r="N95">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O95">
         <v>3.8</v>
       </c>
       <c r="P95">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q95">
         <v>-0.5</v>
@@ -8938,13 +8938,13 @@
         <v>3.25</v>
       </c>
       <c r="U95">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W95">
-        <v>0.8500000000000001</v>
+        <v>0.833</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8959,10 +8959,10 @@
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC95">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8985,7 +8985,7 @@
         <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H96">
         <v>4</v>
@@ -9071,7 +9071,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G97" t="s">
         <v>30</v>
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7173185</v>
+        <v>7173186</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,76 +9160,76 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
         <v>0</v>
       </c>
-      <c r="I98">
-        <v>1</v>
-      </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K98">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="L98">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M98">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="N98">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="O98">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P98">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q98">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
         <v>1.825</v>
       </c>
       <c r="S98">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T98">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U98">
         <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA98">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7173186</v>
+        <v>7173185</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,76 +9249,76 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
         <v>1</v>
       </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
       <c r="J99" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K99">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="L99">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M99">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="N99">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="O99">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P99">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R99">
         <v>1.825</v>
       </c>
       <c r="S99">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T99">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U99">
         <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z99">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9430,7 +9430,7 @@
         <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H101">
         <v>3</v>
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7173187</v>
+        <v>7173188</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,76 +9605,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H103">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K103">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L103">
+        <v>4.5</v>
+      </c>
+      <c r="M103">
+        <v>5.5</v>
+      </c>
+      <c r="N103">
+        <v>1.222</v>
+      </c>
+      <c r="O103">
+        <v>5.5</v>
+      </c>
+      <c r="P103">
+        <v>9</v>
+      </c>
+      <c r="Q103">
+        <v>-2</v>
+      </c>
+      <c r="R103">
+        <v>1.975</v>
+      </c>
+      <c r="S103">
+        <v>1.825</v>
+      </c>
+      <c r="T103">
         <v>3.75</v>
       </c>
-      <c r="M103">
-        <v>2.9</v>
-      </c>
-      <c r="N103">
-        <v>2.1</v>
-      </c>
-      <c r="O103">
-        <v>3.5</v>
-      </c>
-      <c r="P103">
-        <v>3</v>
-      </c>
-      <c r="Q103">
-        <v>-0.25</v>
-      </c>
-      <c r="R103">
-        <v>1.825</v>
-      </c>
-      <c r="S103">
-        <v>2.025</v>
-      </c>
-      <c r="T103">
-        <v>3.5</v>
-      </c>
       <c r="U103">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V103">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W103">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
+        <v>-1</v>
+      </c>
+      <c r="AA103">
         <v>0.825</v>
       </c>
-      <c r="AA103">
-        <v>-1</v>
-      </c>
       <c r="AB103">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7173172</v>
+        <v>7173187</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,13 +9694,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -9709,28 +9709,28 @@
         <v>41</v>
       </c>
       <c r="K104">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L104">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M104">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="N104">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O104">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P104">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S104">
         <v>2.025</v>
@@ -9739,13 +9739,13 @@
         <v>3.5</v>
       </c>
       <c r="U104">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V104">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W104">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9754,13 +9754,13 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7173188</v>
+        <v>7173173</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I105">
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K105">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="L105">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M105">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N105">
-        <v>1.222</v>
+        <v>1.533</v>
       </c>
       <c r="O105">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="P105">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="Q105">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R105">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S105">
+        <v>2</v>
+      </c>
+      <c r="T105">
+        <v>4</v>
+      </c>
+      <c r="U105">
+        <v>2.025</v>
+      </c>
+      <c r="V105">
         <v>1.825</v>
       </c>
-      <c r="T105">
-        <v>3.75</v>
-      </c>
-      <c r="U105">
-        <v>1.9</v>
-      </c>
-      <c r="V105">
-        <v>1.9</v>
-      </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X105">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA105">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC105">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7173173</v>
+        <v>7173172</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,13 +9872,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H106">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I106">
         <v>1</v>
@@ -9887,43 +9887,43 @@
         <v>41</v>
       </c>
       <c r="K106">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L106">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M106">
+        <v>2.6</v>
+      </c>
+      <c r="N106">
+        <v>2.25</v>
+      </c>
+      <c r="O106">
         <v>3.75</v>
       </c>
-      <c r="N106">
-        <v>1.533</v>
-      </c>
-      <c r="O106">
-        <v>4.75</v>
-      </c>
       <c r="P106">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q106">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R106">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T106">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U106">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V106">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W106">
-        <v>0.5329999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9932,13 +9932,13 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9961,7 +9961,7 @@
         <v>45207.45833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
         <v>31</v>

--- a/Iceland Premier League/Iceland Premier League.xlsx
+++ b/Iceland Premier League/Iceland Premier League.xlsx
@@ -112,13 +112,13 @@
     <t>Stjarnan</t>
   </si>
   <si>
+    <t>Valur Reykjavik</t>
+  </si>
+  <si>
     <t>Fram Reykjavik</t>
   </si>
   <si>
     <t>Breidablik</t>
-  </si>
-  <si>
-    <t>Valur Reykjavik</t>
   </si>
   <si>
     <t>KA Akureyri</t>
@@ -133,10 +133,10 @@
     <t>HK Kopavogur</t>
   </si>
   <si>
-    <t>Vikingur Reykjavik</t>
+    <t>Keflavik</t>
   </si>
   <si>
-    <t>Keflavik</t>
+    <t>Vikingur Reykjavik</t>
   </si>
   <si>
     <t>H</t>
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6102175</v>
+        <v>6102346</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L5">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M5">
+        <v>4.2</v>
+      </c>
+      <c r="N5">
+        <v>1.615</v>
+      </c>
+      <c r="O5">
+        <v>4.2</v>
+      </c>
+      <c r="P5">
+        <v>4.333</v>
+      </c>
+      <c r="Q5">
+        <v>-1</v>
+      </c>
+      <c r="R5">
+        <v>2.05</v>
+      </c>
+      <c r="S5">
+        <v>1.8</v>
+      </c>
+      <c r="T5">
         <v>3.25</v>
       </c>
-      <c r="N5">
-        <v>1.909</v>
-      </c>
-      <c r="O5">
-        <v>3.6</v>
-      </c>
-      <c r="P5">
-        <v>3.5</v>
-      </c>
-      <c r="Q5">
-        <v>-0.5</v>
-      </c>
-      <c r="R5">
-        <v>1.95</v>
-      </c>
-      <c r="S5">
-        <v>1.85</v>
-      </c>
-      <c r="T5">
-        <v>2.75</v>
-      </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W5">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB5">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6102174</v>
+        <v>6102175</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -978,67 +978,67 @@
         <v>39</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L6">
+        <v>3.75</v>
+      </c>
+      <c r="M6">
+        <v>3.25</v>
+      </c>
+      <c r="N6">
+        <v>1.909</v>
+      </c>
+      <c r="O6">
         <v>3.6</v>
       </c>
-      <c r="M6">
-        <v>3.1</v>
-      </c>
-      <c r="N6">
-        <v>2.25</v>
-      </c>
-      <c r="O6">
-        <v>3.3</v>
-      </c>
       <c r="P6">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S6">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T6">
         <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X6">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA6">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1049,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6102346</v>
+        <v>6102174</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1064,73 +1064,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
         <v>42</v>
       </c>
       <c r="K7">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M7">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N7">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="O7">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P7">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q7">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S7">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T7">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U7">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V7">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA7">
-        <v>0.8</v>
+        <v>0.3875</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC7">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1331,7 +1331,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1420,7 +1420,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6102179</v>
+        <v>6102180</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1509,73 +1509,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="L12">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M12">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="N12">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="O12">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P12">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q12">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R12">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T12">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V12">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W12">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6102180</v>
+        <v>6102179</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1598,73 +1598,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="L13">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M13">
+        <v>5.5</v>
+      </c>
+      <c r="N13">
+        <v>1.3</v>
+      </c>
+      <c r="O13">
+        <v>5.25</v>
+      </c>
+      <c r="P13">
+        <v>6.5</v>
+      </c>
+      <c r="Q13">
+        <v>-1.5</v>
+      </c>
+      <c r="R13">
         <v>1.85</v>
       </c>
-      <c r="N13">
-        <v>4.2</v>
-      </c>
-      <c r="O13">
+      <c r="S13">
+        <v>1.95</v>
+      </c>
+      <c r="T13">
         <v>3.5</v>
       </c>
-      <c r="P13">
-        <v>1.727</v>
-      </c>
-      <c r="Q13">
-        <v>0.75</v>
-      </c>
-      <c r="R13">
-        <v>1.8</v>
-      </c>
-      <c r="S13">
-        <v>2</v>
-      </c>
-      <c r="T13">
-        <v>2.75</v>
-      </c>
       <c r="U13">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V13">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X13">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1687,7 +1687,7 @@
         <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -1776,7 +1776,7 @@
         <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H15">
         <v>4</v>
@@ -1862,7 +1862,7 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
         <v>30</v>
@@ -1954,7 +1954,7 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>45101.67708333334</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
         <v>31</v>
@@ -2307,7 +2307,7 @@
         <v>45105.67708333334</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -2399,7 +2399,7 @@
         <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2577,7 +2577,7 @@
         <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2663,7 +2663,7 @@
         <v>45114.67708333334</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
         <v>30</v>
@@ -2755,7 +2755,7 @@
         <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2841,10 +2841,10 @@
         <v>45115.58333333334</v>
       </c>
       <c r="F27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" t="s">
         <v>40</v>
-      </c>
-      <c r="G27" t="s">
-        <v>39</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2930,7 +2930,7 @@
         <v>45119.67708333334</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
         <v>30</v>
@@ -3108,10 +3108,10 @@
         <v>45121.71875</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3200,7 +3200,7 @@
         <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3289,7 +3289,7 @@
         <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6922578</v>
+        <v>6102200</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,76 +3375,76 @@
         <v>45125.70833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K33">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L33">
         <v>3.6</v>
       </c>
       <c r="M33">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N33">
         <v>2.05</v>
       </c>
       <c r="O33">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P33">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q33">
         <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S33">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T33">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U33">
         <v>1.925</v>
       </c>
       <c r="V33">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X33">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA33">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
         <v>-1</v>
       </c>
       <c r="AC33">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6102200</v>
+        <v>6922578</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,76 +3464,76 @@
         <v>45125.70833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K34">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L34">
         <v>3.6</v>
       </c>
       <c r="M34">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N34">
         <v>2.05</v>
       </c>
       <c r="O34">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P34">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q34">
         <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S34">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U34">
         <v>1.925</v>
       </c>
       <c r="V34">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W34">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>45128.625</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
         <v>29</v>
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6542524</v>
+        <v>6102206</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,76 +3642,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K36">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="L36">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M36">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N36">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="O36">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P36">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="Q36">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R36">
+        <v>1.925</v>
+      </c>
+      <c r="S36">
         <v>1.775</v>
       </c>
-      <c r="S36">
-        <v>2.025</v>
-      </c>
       <c r="T36">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U36">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V36">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB36">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6102206</v>
+        <v>6542524</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,76 +3731,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K37">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="L37">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M37">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N37">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="O37">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P37">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="Q37">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R37">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S37">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T37">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V37">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W37">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC37">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3909,7 +3909,7 @@
         <v>45131.625</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s">
         <v>35</v>
@@ -4090,7 +4090,7 @@
         <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H41">
         <v>4</v>
@@ -4176,7 +4176,7 @@
         <v>45136.63541666666</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s">
         <v>31</v>
@@ -4354,7 +4354,7 @@
         <v>45137.58333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
         <v>29</v>
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6102350</v>
+        <v>6102213</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,43 +4443,43 @@
         <v>45138.67708333334</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J45" t="s">
         <v>43</v>
       </c>
       <c r="K45">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="L45">
+        <v>3.5</v>
+      </c>
+      <c r="M45">
+        <v>2.3</v>
+      </c>
+      <c r="N45">
+        <v>2.7</v>
+      </c>
+      <c r="O45">
         <v>3.6</v>
       </c>
-      <c r="M45">
-        <v>1.909</v>
-      </c>
-      <c r="N45">
-        <v>3.8</v>
-      </c>
-      <c r="O45">
-        <v>3.75</v>
-      </c>
       <c r="P45">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="Q45">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S45">
         <v>1.85</v>
@@ -4488,10 +4488,10 @@
         <v>3</v>
       </c>
       <c r="U45">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V45">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W45">
         <v>-1</v>
@@ -4500,7 +4500,7 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>0.8500000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="Z45">
         <v>-1</v>
@@ -4509,7 +4509,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB45">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6102213</v>
+        <v>6102350</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,43 +4532,43 @@
         <v>45138.67708333334</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J46" t="s">
         <v>43</v>
       </c>
       <c r="K46">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="L46">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M46">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N46">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="O46">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P46">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S46">
         <v>1.85</v>
@@ -4577,10 +4577,10 @@
         <v>3</v>
       </c>
       <c r="U46">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V46">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W46">
         <v>-1</v>
@@ -4589,7 +4589,7 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z46">
         <v>-1</v>
@@ -4598,7 +4598,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB46">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4710,7 +4710,7 @@
         <v>45144.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
         <v>36</v>
@@ -4799,7 +4799,7 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
         <v>35</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6102216</v>
+        <v>6102217</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,76 +4888,76 @@
         <v>45146.67708333334</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K50">
+        <v>2.05</v>
+      </c>
+      <c r="L50">
         <v>3.6</v>
       </c>
-      <c r="L50">
-        <v>3.75</v>
-      </c>
       <c r="M50">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="N50">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="O50">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P50">
+        <v>3.25</v>
+      </c>
+      <c r="Q50">
+        <v>-0.25</v>
+      </c>
+      <c r="R50">
+        <v>1.85</v>
+      </c>
+      <c r="S50">
         <v>1.95</v>
       </c>
-      <c r="Q50">
-        <v>0.5</v>
-      </c>
-      <c r="R50">
-        <v>1.875</v>
-      </c>
-      <c r="S50">
-        <v>1.925</v>
-      </c>
       <c r="T50">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U50">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA50">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AB50">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6102217</v>
+        <v>6102216</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,76 +4977,76 @@
         <v>45146.67708333334</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K51">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="L51">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M51">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="N51">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="O51">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P51">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R51">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S51">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T51">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U51">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z51">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC51">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5069,7 +5069,7 @@
         <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5158,7 +5158,7 @@
         <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6102353</v>
+        <v>6102352</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,76 +5244,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K54">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="L54">
+        <v>4.75</v>
+      </c>
+      <c r="M54">
+        <v>1.363</v>
+      </c>
+      <c r="N54">
+        <v>5.25</v>
+      </c>
+      <c r="O54">
+        <v>4.75</v>
+      </c>
+      <c r="P54">
+        <v>1.4</v>
+      </c>
+      <c r="Q54">
+        <v>1.25</v>
+      </c>
+      <c r="R54">
+        <v>1.9</v>
+      </c>
+      <c r="S54">
+        <v>1.9</v>
+      </c>
+      <c r="T54">
+        <v>3.25</v>
+      </c>
+      <c r="U54">
+        <v>1.85</v>
+      </c>
+      <c r="V54">
+        <v>1.95</v>
+      </c>
+      <c r="W54">
+        <v>-1</v>
+      </c>
+      <c r="X54">
         <v>3.75</v>
       </c>
-      <c r="M54">
-        <v>4.333</v>
-      </c>
-      <c r="N54">
-        <v>1.727</v>
-      </c>
-      <c r="O54">
-        <v>3.6</v>
-      </c>
-      <c r="P54">
-        <v>4.2</v>
-      </c>
-      <c r="Q54">
-        <v>-0.75</v>
-      </c>
-      <c r="R54">
-        <v>1.975</v>
-      </c>
-      <c r="S54">
-        <v>1.825</v>
-      </c>
-      <c r="T54">
-        <v>2.75</v>
-      </c>
-      <c r="U54">
-        <v>1.825</v>
-      </c>
-      <c r="V54">
-        <v>1.975</v>
-      </c>
-      <c r="W54">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X54">
-        <v>-1</v>
-      </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6102352</v>
+        <v>6102353</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,76 +5333,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55">
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K55">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="L55">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M55">
-        <v>1.363</v>
+        <v>4.333</v>
       </c>
       <c r="N55">
-        <v>5.25</v>
+        <v>1.727</v>
       </c>
       <c r="O55">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P55">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q55">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R55">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S55">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T55">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X55">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC55">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5425,7 +5425,7 @@
         <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -5511,7 +5511,7 @@
         <v>45151.67708333334</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
         <v>38</v>
@@ -5778,7 +5778,7 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
         <v>35</v>
@@ -5867,10 +5867,10 @@
         <v>45158.625</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -6045,10 +6045,10 @@
         <v>45158.67708333334</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6315,7 +6315,7 @@
         <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H66">
         <v>3</v>
@@ -6401,10 +6401,10 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6579,10 +6579,10 @@
         <v>45165.67708333334</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H69">
         <v>5</v>
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6102233</v>
+        <v>6102236</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K72">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="L72">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M72">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="N72">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="O72">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P72">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="Q72">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R72">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S72">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T72">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U72">
         <v>1.825</v>
       </c>
       <c r="V72">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W72">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB72">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC72">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6102232</v>
+        <v>6102233</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,76 +6935,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K73">
-        <v>2.6</v>
+        <v>1.333</v>
       </c>
       <c r="L73">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M73">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="N73">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="O73">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P73">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S73">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T73">
         <v>3.25</v>
       </c>
       <c r="U73">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V73">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X73">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA73">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC73">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
         <v>37</v>
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6102236</v>
+        <v>6102234</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,73 +7113,73 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H75">
         <v>2</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K75">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="L75">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M75">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="N75">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="O75">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P75">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="Q75">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R75">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S75">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U75">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V75">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z75">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
       <c r="AA75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6102234</v>
+        <v>6102232</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,76 +7202,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K76">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="L76">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M76">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="N76">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="O76">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P76">
-        <v>1.363</v>
+        <v>2.45</v>
       </c>
       <c r="Q76">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R76">
+        <v>2</v>
+      </c>
+      <c r="S76">
+        <v>1.85</v>
+      </c>
+      <c r="T76">
+        <v>3.25</v>
+      </c>
+      <c r="U76">
         <v>1.95</v>
       </c>
-      <c r="S76">
+      <c r="V76">
         <v>1.9</v>
       </c>
-      <c r="T76">
-        <v>3.5</v>
-      </c>
-      <c r="U76">
-        <v>1.9</v>
-      </c>
-      <c r="V76">
-        <v>1.95</v>
-      </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y76">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB76">
+        <v>-1</v>
+      </c>
+      <c r="AC76">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC76">
-        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
         <v>38</v>
@@ -7469,7 +7469,7 @@
         <v>45186.625</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
         <v>37</v>
@@ -7558,7 +7558,7 @@
         <v>45186.67708333334</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G80" t="s">
         <v>31</v>
@@ -7650,7 +7650,7 @@
         <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7739,7 +7739,7 @@
         <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H82">
         <v>4</v>
@@ -7825,7 +7825,7 @@
         <v>45189.67708333334</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G83" t="s">
         <v>36</v>
@@ -7917,7 +7917,7 @@
         <v>29</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7173164</v>
+        <v>7173163</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8003,22 +8003,22 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K85">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="L85">
         <v>3.6</v>
@@ -8027,25 +8027,25 @@
         <v>2.375</v>
       </c>
       <c r="N85">
+        <v>2.7</v>
+      </c>
+      <c r="O85">
+        <v>3.5</v>
+      </c>
+      <c r="P85">
         <v>2.25</v>
       </c>
-      <c r="O85">
-        <v>3.8</v>
-      </c>
-      <c r="P85">
-        <v>2.6</v>
-      </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S85">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T85">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U85">
         <v>1.825</v>
@@ -8057,16 +8057,16 @@
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.375</v>
+        <v>1.025</v>
       </c>
       <c r="AB85">
         <v>0.825</v>
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7173163</v>
+        <v>7173164</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8092,22 +8092,22 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K86">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="L86">
         <v>3.6</v>
@@ -8116,25 +8116,25 @@
         <v>2.375</v>
       </c>
       <c r="N86">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="O86">
+        <v>3.8</v>
+      </c>
+      <c r="P86">
+        <v>2.6</v>
+      </c>
+      <c r="Q86">
+        <v>-0.25</v>
+      </c>
+      <c r="R86">
+        <v>1.95</v>
+      </c>
+      <c r="S86">
+        <v>1.75</v>
+      </c>
+      <c r="T86">
         <v>3.5</v>
-      </c>
-      <c r="P86">
-        <v>2.25</v>
-      </c>
-      <c r="Q86">
-        <v>0.25</v>
-      </c>
-      <c r="R86">
-        <v>1.775</v>
-      </c>
-      <c r="S86">
-        <v>2.025</v>
-      </c>
-      <c r="T86">
-        <v>3</v>
       </c>
       <c r="U86">
         <v>1.825</v>
@@ -8146,16 +8146,16 @@
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y86">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA86">
-        <v>1.025</v>
+        <v>0.375</v>
       </c>
       <c r="AB86">
         <v>0.825</v>
@@ -8181,7 +8181,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G87" t="s">
         <v>38</v>
@@ -8359,10 +8359,10 @@
         <v>45194.67708333334</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H89">
         <v>3</v>
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7173183</v>
+        <v>7173168</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,76 +8537,76 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H91">
         <v>2</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K91">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L91">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M91">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="N91">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O91">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P91">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R91">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S91">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T91">
         <v>3.25</v>
       </c>
       <c r="U91">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V91">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X91">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA91">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7173166</v>
+        <v>7173182</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,58 +8626,58 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
         <v>41</v>
       </c>
       <c r="K92">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="L92">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M92">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N92">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O92">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P92">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R92">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S92">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T92">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U92">
         <v>1.925</v>
       </c>
       <c r="V92">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W92">
-        <v>1.7</v>
+        <v>0.833</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8686,7 +8686,7 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA92">
         <v>-1</v>
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7173167</v>
+        <v>7173183</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,43 +8715,43 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G93" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H93">
         <v>2</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K93">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M93">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N93">
-        <v>1.571</v>
+        <v>2.45</v>
       </c>
       <c r="O93">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P93">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q93">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R93">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S93">
         <v>1.925</v>
@@ -8760,16 +8760,16 @@
         <v>3.25</v>
       </c>
       <c r="U93">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V93">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W93">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y93">
         <v>-1</v>
@@ -8781,10 +8781,10 @@
         <v>-0</v>
       </c>
       <c r="AB93">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC93">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7173168</v>
+        <v>7173167</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,58 +8804,58 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H94">
         <v>2</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
         <v>41</v>
       </c>
       <c r="K94">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="L94">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M94">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N94">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="O94">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P94">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R94">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S94">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T94">
         <v>3.25</v>
       </c>
       <c r="U94">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V94">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W94">
-        <v>0.8500000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8864,16 +8864,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC94">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7173182</v>
+        <v>7173166</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8896,55 +8896,55 @@
         <v>32</v>
       </c>
       <c r="G95" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
         <v>41</v>
       </c>
       <c r="K95">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="L95">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M95">
+        <v>2.6</v>
+      </c>
+      <c r="N95">
+        <v>2.7</v>
+      </c>
+      <c r="O95">
+        <v>4</v>
+      </c>
+      <c r="P95">
+        <v>2.1</v>
+      </c>
+      <c r="Q95">
+        <v>0.25</v>
+      </c>
+      <c r="R95">
+        <v>1.925</v>
+      </c>
+      <c r="S95">
+        <v>1.875</v>
+      </c>
+      <c r="T95">
         <v>3.75</v>
-      </c>
-      <c r="N95">
-        <v>1.833</v>
-      </c>
-      <c r="O95">
-        <v>3.8</v>
-      </c>
-      <c r="P95">
-        <v>3.5</v>
-      </c>
-      <c r="Q95">
-        <v>-0.5</v>
-      </c>
-      <c r="R95">
-        <v>1.825</v>
-      </c>
-      <c r="S95">
-        <v>1.975</v>
-      </c>
-      <c r="T95">
-        <v>3.25</v>
       </c>
       <c r="U95">
         <v>1.925</v>
       </c>
       <c r="V95">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W95">
-        <v>0.833</v>
+        <v>1.7</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8953,7 +8953,7 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA95">
         <v>-1</v>
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7173169</v>
+        <v>7173184</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,73 +8982,73 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I96">
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K96">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="L96">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M96">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="N96">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O96">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P96">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="Q96">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R96">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S96">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T96">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U96">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V96">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W96">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z96">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB96">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7173184</v>
+        <v>7173169</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,73 +9071,73 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I97">
         <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K97">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="L97">
+        <v>3.6</v>
+      </c>
+      <c r="M97">
+        <v>2.45</v>
+      </c>
+      <c r="N97">
+        <v>3</v>
+      </c>
+      <c r="O97">
+        <v>3.6</v>
+      </c>
+      <c r="P97">
+        <v>2.05</v>
+      </c>
+      <c r="Q97">
+        <v>0.25</v>
+      </c>
+      <c r="R97">
+        <v>1.975</v>
+      </c>
+      <c r="S97">
+        <v>1.825</v>
+      </c>
+      <c r="T97">
         <v>3.5</v>
       </c>
-      <c r="M97">
-        <v>2.15</v>
-      </c>
-      <c r="N97">
-        <v>3.4</v>
-      </c>
-      <c r="O97">
-        <v>3.75</v>
-      </c>
-      <c r="P97">
-        <v>1.85</v>
-      </c>
-      <c r="Q97">
-        <v>0.5</v>
-      </c>
-      <c r="R97">
-        <v>1.875</v>
-      </c>
-      <c r="S97">
-        <v>1.925</v>
-      </c>
-      <c r="T97">
-        <v>3.25</v>
-      </c>
       <c r="U97">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V97">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA97">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7173186</v>
+        <v>7173185</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,76 +9160,76 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
         <v>1</v>
       </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
       <c r="J98" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K98">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="L98">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M98">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="N98">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="O98">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P98">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R98">
         <v>1.825</v>
       </c>
       <c r="S98">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T98">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U98">
         <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z98">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7173185</v>
+        <v>7173186</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,76 +9249,76 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
         <v>0</v>
       </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K99">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="L99">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M99">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="N99">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="O99">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P99">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q99">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
         <v>1.825</v>
       </c>
       <c r="S99">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T99">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U99">
         <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA99">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>45200.67708333334</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9430,7 +9430,7 @@
         <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H101">
         <v>3</v>
@@ -9608,7 +9608,7 @@
         <v>29</v>
       </c>
       <c r="G103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9697,7 +9697,7 @@
         <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H104">
         <v>5</v>
@@ -9783,10 +9783,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H105">
         <v>5</v>
@@ -9961,7 +9961,7 @@
         <v>45207.45833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G107" t="s">
         <v>31</v>

--- a/Iceland Premier League/Iceland Premier League.xlsx
+++ b/Iceland Premier League/Iceland Premier League.xlsx
@@ -112,19 +112,19 @@
     <t>Stjarnan</t>
   </si>
   <si>
+    <t>Breidablik</t>
+  </si>
+  <si>
     <t>Valur Reykjavik</t>
   </si>
   <si>
     <t>Fram Reykjavik</t>
   </si>
   <si>
-    <t>Breidablik</t>
+    <t>KR Reykjavik</t>
   </si>
   <si>
     <t>KA Akureyri</t>
-  </si>
-  <si>
-    <t>KR Reykjavik</t>
   </si>
   <si>
     <t>FH Hafnarfjordur</t>
@@ -708,7 +708,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -797,7 +797,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6102346</v>
+        <v>6102174</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>42</v>
       </c>
       <c r="K5">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M5">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N5">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="O5">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P5">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S5">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T5">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U5">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>0.8</v>
+        <v>0.3875</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6102175</v>
+        <v>6102346</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,73 +975,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M6">
+        <v>4.2</v>
+      </c>
+      <c r="N6">
+        <v>1.615</v>
+      </c>
+      <c r="O6">
+        <v>4.2</v>
+      </c>
+      <c r="P6">
+        <v>4.333</v>
+      </c>
+      <c r="Q6">
+        <v>-1</v>
+      </c>
+      <c r="R6">
+        <v>2.05</v>
+      </c>
+      <c r="S6">
+        <v>1.8</v>
+      </c>
+      <c r="T6">
         <v>3.25</v>
       </c>
-      <c r="N6">
-        <v>1.909</v>
-      </c>
-      <c r="O6">
-        <v>3.6</v>
-      </c>
-      <c r="P6">
-        <v>3.5</v>
-      </c>
-      <c r="Q6">
-        <v>-0.5</v>
-      </c>
-      <c r="R6">
-        <v>1.95</v>
-      </c>
-      <c r="S6">
-        <v>1.85</v>
-      </c>
-      <c r="T6">
-        <v>2.75</v>
-      </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W6">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1049,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6102174</v>
+        <v>6102175</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1064,70 +1064,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L7">
+        <v>3.75</v>
+      </c>
+      <c r="M7">
+        <v>3.25</v>
+      </c>
+      <c r="N7">
+        <v>1.909</v>
+      </c>
+      <c r="O7">
         <v>3.6</v>
       </c>
-      <c r="M7">
-        <v>3.1</v>
-      </c>
-      <c r="N7">
-        <v>2.25</v>
-      </c>
-      <c r="O7">
-        <v>3.3</v>
-      </c>
       <c r="P7">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S7">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T7">
         <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X7">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA7">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6102176</v>
+        <v>6102177</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,73 +1153,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>1.6</v>
+        <v>1.833</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N8">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O8">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P8">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q8">
         <v>-0.5</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V8">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6102177</v>
+        <v>6102176</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,73 +1242,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>1.833</v>
+        <v>1.6</v>
       </c>
       <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>4.333</v>
+      </c>
+      <c r="N9">
+        <v>1.8</v>
+      </c>
+      <c r="O9">
+        <v>3.8</v>
+      </c>
+      <c r="P9">
         <v>3.6</v>
-      </c>
-      <c r="M9">
-        <v>3.4</v>
-      </c>
-      <c r="N9">
-        <v>1.85</v>
-      </c>
-      <c r="O9">
-        <v>3.6</v>
-      </c>
-      <c r="P9">
-        <v>3.5</v>
       </c>
       <c r="Q9">
         <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S9">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X9">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA9">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1331,7 +1331,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1420,7 +1420,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6102183</v>
+        <v>6102182</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,76 +1684,76 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="L14">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M14">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="N14">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="O14">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P14">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="Q14">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R14">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S14">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T14">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U14">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V14">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W14">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB14">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6102181</v>
+        <v>6102183</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,58 +1773,58 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
         <v>41</v>
       </c>
       <c r="K15">
-        <v>1.833</v>
+        <v>5.25</v>
       </c>
       <c r="L15">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M15">
-        <v>3.6</v>
+        <v>1.45</v>
       </c>
       <c r="N15">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P15">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R15">
+        <v>2.025</v>
+      </c>
+      <c r="S15">
+        <v>1.825</v>
+      </c>
+      <c r="T15">
+        <v>3.25</v>
+      </c>
+      <c r="U15">
         <v>1.975</v>
       </c>
-      <c r="S15">
+      <c r="V15">
         <v>1.875</v>
       </c>
-      <c r="T15">
-        <v>3</v>
-      </c>
-      <c r="U15">
-        <v>1.85</v>
-      </c>
-      <c r="V15">
-        <v>2</v>
-      </c>
       <c r="W15">
-        <v>0.7270000000000001</v>
+        <v>5</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1833,13 +1833,13 @@
         <v>-1</v>
       </c>
       <c r="Z15">
+        <v>1.025</v>
+      </c>
+      <c r="AA15">
+        <v>-1</v>
+      </c>
+      <c r="AB15">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA15">
-        <v>-1</v>
-      </c>
-      <c r="AB15">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6102182</v>
+        <v>6102181</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,76 +1862,76 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L16">
+        <v>3.75</v>
+      </c>
+      <c r="M16">
         <v>3.6</v>
       </c>
-      <c r="M16">
-        <v>2.625</v>
-      </c>
       <c r="N16">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="O16">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P16">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T16">
         <v>3</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V16">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X16">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC16">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1954,7 +1954,7 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2040,10 +2040,10 @@
         <v>45101.58333333334</v>
       </c>
       <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" t="s">
         <v>36</v>
-      </c>
-      <c r="G18" t="s">
-        <v>35</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2221,7 +2221,7 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6102191</v>
+        <v>6102188</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,40 +2307,40 @@
         <v>45105.67708333334</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>41</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L21">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N21">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O21">
         <v>3.75</v>
       </c>
       <c r="P21">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R21">
         <v>1.875</v>
@@ -2349,7 +2349,7 @@
         <v>1.975</v>
       </c>
       <c r="T21">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
         <v>2</v>
@@ -2358,7 +2358,7 @@
         <v>1.85</v>
       </c>
       <c r="W21">
-        <v>0.833</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2373,10 +2373,10 @@
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6102188</v>
+        <v>6102191</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,40 +2396,40 @@
         <v>45105.67708333334</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
         <v>41</v>
       </c>
       <c r="K22">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M22">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N22">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O22">
         <v>3.75</v>
       </c>
       <c r="P22">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q22">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
         <v>1.875</v>
@@ -2438,7 +2438,7 @@
         <v>1.975</v>
       </c>
       <c r="T22">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U22">
         <v>2</v>
@@ -2447,7 +2447,7 @@
         <v>1.85</v>
       </c>
       <c r="W22">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2462,10 +2462,10 @@
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6102189</v>
+        <v>6102190</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,49 +2485,49 @@
         <v>45106.67708333334</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K23">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="L23">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="N23">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="O23">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P23">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R23">
+        <v>1.875</v>
+      </c>
+      <c r="S23">
         <v>1.925</v>
       </c>
-      <c r="S23">
-        <v>1.875</v>
-      </c>
       <c r="T23">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U23">
         <v>1.925</v>
@@ -2536,19 +2536,19 @@
         <v>1.875</v>
       </c>
       <c r="W23">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z23">
+        <v>-1</v>
+      </c>
+      <c r="AA23">
         <v>0.925</v>
-      </c>
-      <c r="AA23">
-        <v>-1</v>
       </c>
       <c r="AB23">
         <v>0.925</v>
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6102190</v>
+        <v>6102189</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,49 +2574,49 @@
         <v>45106.67708333334</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24">
+        <v>2.1</v>
+      </c>
+      <c r="L24">
+        <v>3.4</v>
+      </c>
+      <c r="M24">
         <v>3</v>
       </c>
-      <c r="J24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24">
-        <v>5.25</v>
-      </c>
-      <c r="L24">
-        <v>4.333</v>
-      </c>
-      <c r="M24">
-        <v>1.45</v>
-      </c>
       <c r="N24">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="O24">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P24">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q24">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
+        <v>1.925</v>
+      </c>
+      <c r="S24">
         <v>1.875</v>
       </c>
-      <c r="S24">
-        <v>1.925</v>
-      </c>
       <c r="T24">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U24">
         <v>1.925</v>
@@ -2625,19 +2625,19 @@
         <v>1.875</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA24">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
         <v>0.925</v>
@@ -2663,7 +2663,7 @@
         <v>45114.67708333334</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
         <v>30</v>
@@ -2755,7 +2755,7 @@
         <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2930,7 +2930,7 @@
         <v>45119.67708333334</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
         <v>30</v>
@@ -3022,7 +3022,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3108,10 +3108,10 @@
         <v>45121.71875</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6102200</v>
+        <v>6922578</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,76 +3375,76 @@
         <v>45125.70833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K33">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L33">
         <v>3.6</v>
       </c>
       <c r="M33">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N33">
         <v>2.05</v>
       </c>
       <c r="O33">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P33">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q33">
         <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S33">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T33">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U33">
         <v>1.925</v>
       </c>
       <c r="V33">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W33">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB33">
         <v>-1</v>
       </c>
       <c r="AC33">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6922578</v>
+        <v>6102200</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,76 +3464,76 @@
         <v>45125.70833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K34">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L34">
         <v>3.6</v>
       </c>
       <c r="M34">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N34">
         <v>2.05</v>
       </c>
       <c r="O34">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P34">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q34">
         <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S34">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T34">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U34">
         <v>1.925</v>
       </c>
       <c r="V34">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X34">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA34">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>45128.625</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
         <v>29</v>
@@ -3642,10 +3642,10 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3731,7 +3731,7 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
         <v>40</v>
@@ -3912,7 +3912,7 @@
         <v>39</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -4090,7 +4090,7 @@
         <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H41">
         <v>4</v>
@@ -4176,7 +4176,7 @@
         <v>45136.63541666666</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
         <v>31</v>
@@ -4265,7 +4265,7 @@
         <v>45137.54166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
         <v>38</v>
@@ -4443,10 +4443,10 @@
         <v>45138.67708333334</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4710,10 +4710,10 @@
         <v>45144.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -4799,10 +4799,10 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H49">
         <v>4</v>
@@ -4888,7 +4888,7 @@
         <v>45146.67708333334</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
         <v>30</v>
@@ -5155,10 +5155,10 @@
         <v>45151.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5247,7 +5247,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5422,10 +5422,10 @@
         <v>45151.63541666666</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -5778,10 +5778,10 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -5867,7 +5867,7 @@
         <v>45158.625</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
         <v>39</v>
@@ -6045,7 +6045,7 @@
         <v>45158.67708333334</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
         <v>40</v>
@@ -6137,7 +6137,7 @@
         <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>3</v>
@@ -6223,7 +6223,7 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
         <v>31</v>
@@ -6315,7 +6315,7 @@
         <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H66">
         <v>3</v>
@@ -6404,7 +6404,7 @@
         <v>39</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6490,7 +6490,7 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
         <v>30</v>
@@ -6582,7 +6582,7 @@
         <v>40</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H69">
         <v>5</v>
@@ -6760,7 +6760,7 @@
         <v>37</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6102236</v>
+        <v>6102232</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,55 +6846,55 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
         <v>36</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
         <v>42</v>
       </c>
       <c r="K72">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="L72">
         <v>3.6</v>
       </c>
       <c r="M72">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N72">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="O72">
         <v>3.6</v>
       </c>
       <c r="P72">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q72">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S72">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T72">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U72">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V72">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W72">
         <v>-1</v>
@@ -6906,16 +6906,16 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA72">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB72">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6102235</v>
+        <v>6102236</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,49 +7024,49 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K74">
-        <v>1.6</v>
+        <v>2.625</v>
       </c>
       <c r="L74">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M74">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="N74">
-        <v>1.65</v>
+        <v>2.625</v>
       </c>
       <c r="O74">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P74">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q74">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S74">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T74">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
         <v>1.825</v>
@@ -7078,22 +7078,22 @@
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y74">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA74">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC74">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6102234</v>
+        <v>6102357</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7116,70 +7116,70 @@
         <v>33</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K75">
-        <v>6</v>
+        <v>1.333</v>
       </c>
       <c r="L75">
         <v>5</v>
       </c>
       <c r="M75">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="N75">
+        <v>1.3</v>
+      </c>
+      <c r="O75">
+        <v>5.25</v>
+      </c>
+      <c r="P75">
         <v>7</v>
       </c>
-      <c r="O75">
-        <v>5</v>
-      </c>
-      <c r="P75">
-        <v>1.363</v>
-      </c>
       <c r="Q75">
-        <v>1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R75">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S75">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T75">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6102232</v>
+        <v>6102234</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,76 +7202,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K76">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="L76">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M76">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="N76">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P76">
-        <v>2.45</v>
+        <v>1.363</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R76">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S76">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T76">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U76">
+        <v>1.9</v>
+      </c>
+      <c r="V76">
         <v>1.95</v>
       </c>
-      <c r="V76">
-        <v>1.9</v>
-      </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA76">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC76">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6102357</v>
+        <v>6102235</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,73 +7294,73 @@
         <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>2</v>
+      </c>
+      <c r="J77" t="s">
+        <v>43</v>
+      </c>
+      <c r="K77">
+        <v>1.6</v>
+      </c>
+      <c r="L77">
+        <v>4.2</v>
+      </c>
+      <c r="M77">
+        <v>4.333</v>
+      </c>
+      <c r="N77">
+        <v>1.65</v>
+      </c>
+      <c r="O77">
+        <v>4.2</v>
+      </c>
+      <c r="P77">
         <v>4</v>
       </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
-      <c r="J77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K77">
-        <v>1.333</v>
-      </c>
-      <c r="L77">
-        <v>5</v>
-      </c>
-      <c r="M77">
-        <v>7</v>
-      </c>
-      <c r="N77">
-        <v>1.3</v>
-      </c>
-      <c r="O77">
-        <v>5.25</v>
-      </c>
-      <c r="P77">
-        <v>7</v>
-      </c>
       <c r="Q77">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R77">
+        <v>1.825</v>
+      </c>
+      <c r="S77">
         <v>1.975</v>
       </c>
-      <c r="S77">
+      <c r="T77">
+        <v>3.5</v>
+      </c>
+      <c r="U77">
         <v>1.825</v>
       </c>
-      <c r="T77">
-        <v>3.75</v>
-      </c>
-      <c r="U77">
-        <v>1.875</v>
-      </c>
       <c r="V77">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z77">
+        <v>-1</v>
+      </c>
+      <c r="AA77">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA77">
-        <v>-1</v>
-      </c>
       <c r="AB77">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7469,7 +7469,7 @@
         <v>45186.625</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
         <v>37</v>
@@ -7558,7 +7558,7 @@
         <v>45186.67708333334</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
         <v>31</v>
@@ -7650,7 +7650,7 @@
         <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7736,7 +7736,7 @@
         <v>45189.55208333334</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
         <v>39</v>
@@ -7828,7 +7828,7 @@
         <v>40</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7917,7 +7917,7 @@
         <v>29</v>
       </c>
       <c r="G84" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7173163</v>
+        <v>7173164</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8003,22 +8003,22 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K85">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="L85">
         <v>3.6</v>
@@ -8027,25 +8027,25 @@
         <v>2.375</v>
       </c>
       <c r="N85">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="O85">
+        <v>3.8</v>
+      </c>
+      <c r="P85">
+        <v>2.6</v>
+      </c>
+      <c r="Q85">
+        <v>-0.25</v>
+      </c>
+      <c r="R85">
+        <v>1.95</v>
+      </c>
+      <c r="S85">
+        <v>1.75</v>
+      </c>
+      <c r="T85">
         <v>3.5</v>
-      </c>
-      <c r="P85">
-        <v>2.25</v>
-      </c>
-      <c r="Q85">
-        <v>0.25</v>
-      </c>
-      <c r="R85">
-        <v>1.775</v>
-      </c>
-      <c r="S85">
-        <v>2.025</v>
-      </c>
-      <c r="T85">
-        <v>3</v>
       </c>
       <c r="U85">
         <v>1.825</v>
@@ -8057,16 +8057,16 @@
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y85">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA85">
-        <v>1.025</v>
+        <v>0.375</v>
       </c>
       <c r="AB85">
         <v>0.825</v>
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7173164</v>
+        <v>7173163</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8092,22 +8092,22 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K86">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="L86">
         <v>3.6</v>
@@ -8116,25 +8116,25 @@
         <v>2.375</v>
       </c>
       <c r="N86">
+        <v>2.7</v>
+      </c>
+      <c r="O86">
+        <v>3.5</v>
+      </c>
+      <c r="P86">
         <v>2.25</v>
       </c>
-      <c r="O86">
-        <v>3.8</v>
-      </c>
-      <c r="P86">
-        <v>2.6</v>
-      </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S86">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T86">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U86">
         <v>1.825</v>
@@ -8146,16 +8146,16 @@
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.375</v>
+        <v>1.025</v>
       </c>
       <c r="AB86">
         <v>0.825</v>
@@ -8273,7 +8273,7 @@
         <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8359,7 +8359,7 @@
         <v>45194.67708333334</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G89" t="s">
         <v>40</v>
@@ -8448,7 +8448,7 @@
         <v>45197.55208333334</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
         <v>29</v>
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7173168</v>
+        <v>7173166</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,58 +8537,58 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
         <v>41</v>
       </c>
       <c r="K91">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L91">
+        <v>3.6</v>
+      </c>
+      <c r="M91">
+        <v>2.6</v>
+      </c>
+      <c r="N91">
+        <v>2.7</v>
+      </c>
+      <c r="O91">
+        <v>4</v>
+      </c>
+      <c r="P91">
+        <v>2.1</v>
+      </c>
+      <c r="Q91">
+        <v>0.25</v>
+      </c>
+      <c r="R91">
+        <v>1.925</v>
+      </c>
+      <c r="S91">
+        <v>1.875</v>
+      </c>
+      <c r="T91">
         <v>3.75</v>
       </c>
-      <c r="M91">
-        <v>3.2</v>
-      </c>
-      <c r="N91">
-        <v>1.85</v>
-      </c>
-      <c r="O91">
-        <v>3.8</v>
-      </c>
-      <c r="P91">
-        <v>3.4</v>
-      </c>
-      <c r="Q91">
-        <v>-0.5</v>
-      </c>
-      <c r="R91">
-        <v>1.825</v>
-      </c>
-      <c r="S91">
-        <v>1.975</v>
-      </c>
-      <c r="T91">
-        <v>3.25</v>
-      </c>
       <c r="U91">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V91">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W91">
-        <v>0.8500000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8597,16 +8597,16 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA91">
         <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC91">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7173182</v>
+        <v>7173183</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,73 +8626,73 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K92">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L92">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M92">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N92">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="O92">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P92">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q92">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S92">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T92">
         <v>3.25</v>
       </c>
       <c r="U92">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V92">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W92">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB92">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7173183</v>
+        <v>7173168</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,76 +8715,76 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G93" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H93">
         <v>2</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K93">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L93">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M93">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="N93">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O93">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P93">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R93">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S93">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T93">
         <v>3.25</v>
       </c>
       <c r="U93">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X93">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA93">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7173166</v>
+        <v>7173182</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,58 +8893,58 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
         <v>41</v>
       </c>
       <c r="K95">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="L95">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M95">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N95">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O95">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P95">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q95">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S95">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T95">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U95">
         <v>1.925</v>
       </c>
       <c r="V95">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W95">
-        <v>1.7</v>
+        <v>0.833</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8953,7 +8953,7 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA95">
         <v>-1</v>
@@ -9071,10 +9071,10 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H97">
         <v>4</v>
@@ -9249,10 +9249,10 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9338,7 +9338,7 @@
         <v>45200.67708333334</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7173189</v>
+        <v>7173172</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,58 +9516,58 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F102" t="s">
+        <v>37</v>
+      </c>
+      <c r="G102" t="s">
         <v>35</v>
       </c>
-      <c r="G102" t="s">
-        <v>38</v>
-      </c>
       <c r="H102">
+        <v>3</v>
+      </c>
+      <c r="I102">
         <v>1</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>41</v>
       </c>
       <c r="K102">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M102">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N102">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O102">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P102">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q102">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S102">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T102">
         <v>3.5</v>
       </c>
       <c r="U102">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9576,16 +9576,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC102">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7173188</v>
+        <v>7173173</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,76 +9605,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K103">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="L103">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M103">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N103">
-        <v>1.222</v>
+        <v>1.533</v>
       </c>
       <c r="O103">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="P103">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="Q103">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R103">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S103">
+        <v>2</v>
+      </c>
+      <c r="T103">
+        <v>4</v>
+      </c>
+      <c r="U103">
+        <v>2.025</v>
+      </c>
+      <c r="V103">
         <v>1.825</v>
       </c>
-      <c r="T103">
-        <v>3.75</v>
-      </c>
-      <c r="U103">
-        <v>1.9</v>
-      </c>
-      <c r="V103">
-        <v>1.9</v>
-      </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X103">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA103">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC103">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9697,7 +9697,7 @@
         <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H104">
         <v>5</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7173173</v>
+        <v>7173188</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H105">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I105">
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K105">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="L105">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M105">
+        <v>5.5</v>
+      </c>
+      <c r="N105">
+        <v>1.222</v>
+      </c>
+      <c r="O105">
+        <v>5.5</v>
+      </c>
+      <c r="P105">
+        <v>9</v>
+      </c>
+      <c r="Q105">
+        <v>-2</v>
+      </c>
+      <c r="R105">
+        <v>1.975</v>
+      </c>
+      <c r="S105">
+        <v>1.825</v>
+      </c>
+      <c r="T105">
         <v>3.75</v>
       </c>
-      <c r="N105">
-        <v>1.533</v>
-      </c>
-      <c r="O105">
-        <v>4.75</v>
-      </c>
-      <c r="P105">
-        <v>4.333</v>
-      </c>
-      <c r="Q105">
-        <v>-1</v>
-      </c>
-      <c r="R105">
-        <v>1.85</v>
-      </c>
-      <c r="S105">
-        <v>2</v>
-      </c>
-      <c r="T105">
-        <v>4</v>
-      </c>
       <c r="U105">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB105">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7173172</v>
+        <v>7173189</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,58 +9872,58 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>41</v>
       </c>
       <c r="K106">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L106">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M106">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="N106">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O106">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P106">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S106">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T106">
         <v>3.5</v>
       </c>
       <c r="U106">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V106">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W106">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9932,16 +9932,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9961,7 +9961,7 @@
         <v>45207.45833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
         <v>31</v>

--- a/Iceland Premier League/Iceland Premier League.xlsx
+++ b/Iceland Premier League/Iceland Premier League.xlsx
@@ -112,19 +112,19 @@
     <t>Stjarnan</t>
   </si>
   <si>
-    <t>Breidablik</t>
-  </si>
-  <si>
     <t>Valur Reykjavik</t>
   </si>
   <si>
     <t>Fram Reykjavik</t>
   </si>
   <si>
-    <t>KR Reykjavik</t>
+    <t>Breidablik</t>
   </si>
   <si>
     <t>KA Akureyri</t>
+  </si>
+  <si>
+    <t>KR Reykjavik</t>
   </si>
   <si>
     <t>FH Hafnarfjordur</t>
@@ -133,10 +133,10 @@
     <t>HK Kopavogur</t>
   </si>
   <si>
-    <t>Keflavik</t>
+    <t>Vikingur Reykjavik</t>
   </si>
   <si>
-    <t>Vikingur Reykjavik</t>
+    <t>Keflavik</t>
   </si>
   <si>
     <t>H</t>
@@ -708,7 +708,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -797,7 +797,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6102174</v>
+        <v>6102346</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>42</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L5">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N5">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O5">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P5">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R5">
+        <v>2.05</v>
+      </c>
+      <c r="S5">
+        <v>1.8</v>
+      </c>
+      <c r="T5">
+        <v>3.25</v>
+      </c>
+      <c r="U5">
         <v>2.025</v>
       </c>
-      <c r="S5">
-        <v>1.775</v>
-      </c>
-      <c r="T5">
-        <v>2.75</v>
-      </c>
-      <c r="U5">
-        <v>1.9</v>
-      </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.3875</v>
+        <v>0.8</v>
       </c>
       <c r="AB5">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6102346</v>
+        <v>6102175</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,73 +975,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N6">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O6">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P6">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S6">
+        <v>1.85</v>
+      </c>
+      <c r="T6">
+        <v>2.75</v>
+      </c>
+      <c r="U6">
         <v>1.8</v>
       </c>
-      <c r="T6">
-        <v>3.25</v>
-      </c>
-      <c r="U6">
-        <v>2.025</v>
-      </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X6">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA6">
+        <v>-1</v>
+      </c>
+      <c r="AB6">
         <v>0.8</v>
       </c>
-      <c r="AB6">
-        <v>-1</v>
-      </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1049,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6102175</v>
+        <v>6102174</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1067,67 +1067,67 @@
         <v>39</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M7">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N7">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P7">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S7">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T7">
         <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W7">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB7">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6102177</v>
+        <v>6102176</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,73 +1153,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>1.833</v>
+        <v>1.6</v>
       </c>
       <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>4.333</v>
+      </c>
+      <c r="N8">
+        <v>1.8</v>
+      </c>
+      <c r="O8">
+        <v>3.8</v>
+      </c>
+      <c r="P8">
         <v>3.6</v>
-      </c>
-      <c r="M8">
-        <v>3.4</v>
-      </c>
-      <c r="N8">
-        <v>1.85</v>
-      </c>
-      <c r="O8">
-        <v>3.6</v>
-      </c>
-      <c r="P8">
-        <v>3.5</v>
       </c>
       <c r="Q8">
         <v>-0.5</v>
       </c>
       <c r="R8">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T8">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U8">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X8">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA8">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6102176</v>
+        <v>6102177</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,73 +1242,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>1.6</v>
+        <v>1.833</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M9">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N9">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O9">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P9">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q9">
         <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1331,7 +1331,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1420,7 +1420,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6102180</v>
+        <v>6102179</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1509,73 +1509,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K12">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="L12">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M12">
+        <v>5.5</v>
+      </c>
+      <c r="N12">
+        <v>1.3</v>
+      </c>
+      <c r="O12">
+        <v>5.25</v>
+      </c>
+      <c r="P12">
+        <v>6.5</v>
+      </c>
+      <c r="Q12">
+        <v>-1.5</v>
+      </c>
+      <c r="R12">
         <v>1.85</v>
       </c>
-      <c r="N12">
-        <v>4.2</v>
-      </c>
-      <c r="O12">
+      <c r="S12">
+        <v>1.95</v>
+      </c>
+      <c r="T12">
         <v>3.5</v>
       </c>
-      <c r="P12">
-        <v>1.727</v>
-      </c>
-      <c r="Q12">
-        <v>0.75</v>
-      </c>
-      <c r="R12">
-        <v>1.8</v>
-      </c>
-      <c r="S12">
-        <v>2</v>
-      </c>
-      <c r="T12">
-        <v>2.75</v>
-      </c>
       <c r="U12">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V12">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X12">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6102179</v>
+        <v>6102180</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1598,73 +1598,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="L13">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M13">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="N13">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="O13">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P13">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q13">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R13">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S13">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T13">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V13">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W13">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6102182</v>
+        <v>6102183</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,76 +1684,76 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K14">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="L14">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M14">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="N14">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="O14">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P14">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="Q14">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R14">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S14">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T14">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V14">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X14">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.4</v>
+        <v>1.025</v>
       </c>
       <c r="AA14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC14">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6102183</v>
+        <v>6102182</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,76 +1773,76 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K15">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="L15">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="N15">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="O15">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P15">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="Q15">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R15">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S15">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T15">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U15">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V15">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W15">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB15">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1865,7 +1865,7 @@
         <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>4</v>
@@ -1954,7 +1954,7 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2040,10 +2040,10 @@
         <v>45101.58333333334</v>
       </c>
       <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
         <v>35</v>
-      </c>
-      <c r="G18" t="s">
-        <v>36</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2129,7 +2129,7 @@
         <v>45101.67708333334</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
         <v>31</v>
@@ -2221,7 +2221,7 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6102188</v>
+        <v>6102191</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,40 +2307,40 @@
         <v>45105.67708333334</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
         <v>41</v>
       </c>
       <c r="K21">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M21">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N21">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O21">
         <v>3.75</v>
       </c>
       <c r="P21">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q21">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
         <v>1.875</v>
@@ -2349,7 +2349,7 @@
         <v>1.975</v>
       </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U21">
         <v>2</v>
@@ -2358,7 +2358,7 @@
         <v>1.85</v>
       </c>
       <c r="W21">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2373,10 +2373,10 @@
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6102191</v>
+        <v>6102188</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,40 +2396,40 @@
         <v>45105.67708333334</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>41</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L22">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N22">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O22">
         <v>3.75</v>
       </c>
       <c r="P22">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q22">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R22">
         <v>1.875</v>
@@ -2438,7 +2438,7 @@
         <v>1.975</v>
       </c>
       <c r="T22">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U22">
         <v>2</v>
@@ -2447,7 +2447,7 @@
         <v>1.85</v>
       </c>
       <c r="W22">
-        <v>0.833</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2462,10 +2462,10 @@
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2488,7 +2488,7 @@
         <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2663,7 +2663,7 @@
         <v>45114.67708333334</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
         <v>30</v>
@@ -2755,7 +2755,7 @@
         <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2841,10 +2841,10 @@
         <v>45115.58333333334</v>
       </c>
       <c r="F27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" t="s">
         <v>39</v>
-      </c>
-      <c r="G27" t="s">
-        <v>40</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2930,7 +2930,7 @@
         <v>45119.67708333334</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
         <v>30</v>
@@ -3022,7 +3022,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3108,10 +3108,10 @@
         <v>45121.71875</v>
       </c>
       <c r="F30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" t="s">
         <v>34</v>
-      </c>
-      <c r="G30" t="s">
-        <v>32</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3200,7 +3200,7 @@
         <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3289,7 +3289,7 @@
         <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6922578</v>
+        <v>6102200</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,76 +3375,76 @@
         <v>45125.70833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K33">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L33">
         <v>3.6</v>
       </c>
       <c r="M33">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N33">
         <v>2.05</v>
       </c>
       <c r="O33">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P33">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q33">
         <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S33">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T33">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U33">
         <v>1.925</v>
       </c>
       <c r="V33">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X33">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA33">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
         <v>-1</v>
       </c>
       <c r="AC33">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6102200</v>
+        <v>6922578</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,76 +3464,76 @@
         <v>45125.70833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K34">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L34">
         <v>3.6</v>
       </c>
       <c r="M34">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N34">
         <v>2.05</v>
       </c>
       <c r="O34">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P34">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q34">
         <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S34">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U34">
         <v>1.925</v>
       </c>
       <c r="V34">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W34">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>45128.625</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
         <v>29</v>
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6102206</v>
+        <v>6542524</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,76 +3642,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K36">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="L36">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M36">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N36">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="O36">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P36">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="Q36">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R36">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S36">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T36">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U36">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V36">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W36">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC36">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6542524</v>
+        <v>6102206</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,76 +3731,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K37">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="L37">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M37">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N37">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="O37">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P37">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="Q37">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R37">
+        <v>1.925</v>
+      </c>
+      <c r="S37">
         <v>1.775</v>
       </c>
-      <c r="S37">
-        <v>2.025</v>
-      </c>
       <c r="T37">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U37">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB37">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3909,10 +3909,10 @@
         <v>45131.625</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -4090,7 +4090,7 @@
         <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H41">
         <v>4</v>
@@ -4176,7 +4176,7 @@
         <v>45136.63541666666</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s">
         <v>31</v>
@@ -4265,7 +4265,7 @@
         <v>45137.54166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
         <v>38</v>
@@ -4354,7 +4354,7 @@
         <v>45137.58333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
         <v>29</v>
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6102213</v>
+        <v>6102350</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,43 +4443,43 @@
         <v>45138.67708333334</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J45" t="s">
         <v>43</v>
       </c>
       <c r="K45">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="L45">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M45">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N45">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="O45">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P45">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S45">
         <v>1.85</v>
@@ -4488,10 +4488,10 @@
         <v>3</v>
       </c>
       <c r="U45">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V45">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W45">
         <v>-1</v>
@@ -4500,7 +4500,7 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z45">
         <v>-1</v>
@@ -4509,7 +4509,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB45">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6102350</v>
+        <v>6102213</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,43 +4532,43 @@
         <v>45138.67708333334</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J46" t="s">
         <v>43</v>
       </c>
       <c r="K46">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="L46">
+        <v>3.5</v>
+      </c>
+      <c r="M46">
+        <v>2.3</v>
+      </c>
+      <c r="N46">
+        <v>2.7</v>
+      </c>
+      <c r="O46">
         <v>3.6</v>
       </c>
-      <c r="M46">
-        <v>1.909</v>
-      </c>
-      <c r="N46">
-        <v>3.8</v>
-      </c>
-      <c r="O46">
-        <v>3.75</v>
-      </c>
       <c r="P46">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="Q46">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S46">
         <v>1.85</v>
@@ -4577,10 +4577,10 @@
         <v>3</v>
       </c>
       <c r="U46">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V46">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W46">
         <v>-1</v>
@@ -4589,7 +4589,7 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>0.8500000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="Z46">
         <v>-1</v>
@@ -4598,7 +4598,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB46">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4710,10 +4710,10 @@
         <v>45144.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -4799,10 +4799,10 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H49">
         <v>4</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6102217</v>
+        <v>6102216</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,76 +4888,76 @@
         <v>45146.67708333334</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K50">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="L50">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M50">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="N50">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="O50">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P50">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R50">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S50">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T50">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U50">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V50">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z50">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC50">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6102216</v>
+        <v>6102217</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,76 +4977,76 @@
         <v>45146.67708333334</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K51">
+        <v>2.05</v>
+      </c>
+      <c r="L51">
         <v>3.6</v>
       </c>
-      <c r="L51">
-        <v>3.75</v>
-      </c>
       <c r="M51">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="N51">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="O51">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P51">
+        <v>3.25</v>
+      </c>
+      <c r="Q51">
+        <v>-0.25</v>
+      </c>
+      <c r="R51">
+        <v>1.85</v>
+      </c>
+      <c r="S51">
         <v>1.95</v>
       </c>
-      <c r="Q51">
-        <v>0.5</v>
-      </c>
-      <c r="R51">
-        <v>1.875</v>
-      </c>
-      <c r="S51">
-        <v>1.925</v>
-      </c>
       <c r="T51">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA51">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AB51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5069,7 +5069,7 @@
         <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5155,10 +5155,10 @@
         <v>45151.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5244,10 +5244,10 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5422,10 +5422,10 @@
         <v>45151.63541666666</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -5511,7 +5511,7 @@
         <v>45151.67708333334</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G57" t="s">
         <v>38</v>
@@ -5778,10 +5778,10 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -5867,10 +5867,10 @@
         <v>45158.625</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -6045,10 +6045,10 @@
         <v>45158.67708333334</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6137,7 +6137,7 @@
         <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H64">
         <v>3</v>
@@ -6223,7 +6223,7 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
         <v>31</v>
@@ -6315,7 +6315,7 @@
         <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H66">
         <v>3</v>
@@ -6389,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6102230</v>
+        <v>6102229</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6401,76 +6401,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K67">
-        <v>2.55</v>
+        <v>1.55</v>
       </c>
       <c r="L67">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M67">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N67">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O67">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P67">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R67">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S67">
         <v>1.825</v>
       </c>
       <c r="T67">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U67">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V67">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X67">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA67">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6102229</v>
+        <v>6102230</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,76 +6490,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K68">
-        <v>1.55</v>
+        <v>2.55</v>
       </c>
       <c r="L68">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M68">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="N68">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="O68">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P68">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q68">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S68">
         <v>1.825</v>
       </c>
       <c r="T68">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U68">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6579,10 +6579,10 @@
         <v>45165.67708333334</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H69">
         <v>5</v>
@@ -6760,7 +6760,7 @@
         <v>37</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6102232</v>
+        <v>6102236</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,55 +6846,55 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G72" t="s">
         <v>36</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
         <v>42</v>
       </c>
       <c r="K72">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="L72">
         <v>3.6</v>
       </c>
       <c r="M72">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N72">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O72">
         <v>3.6</v>
       </c>
       <c r="P72">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R72">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S72">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T72">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U72">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V72">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W72">
         <v>-1</v>
@@ -6906,16 +6906,16 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA72">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC72">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6102233</v>
+        <v>6102235</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,76 +6935,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K73">
-        <v>1.333</v>
+        <v>1.6</v>
       </c>
       <c r="L73">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M73">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="N73">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="O73">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P73">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q73">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R73">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S73">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T73">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U73">
         <v>1.825</v>
       </c>
       <c r="V73">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W73">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z73">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB73">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6102236</v>
+        <v>6102233</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,76 +7024,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K74">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M74">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="N74">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="O74">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P74">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R74">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S74">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T74">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U74">
         <v>1.825</v>
       </c>
       <c r="V74">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X74">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
       <c r="AA74">
+        <v>-1</v>
+      </c>
+      <c r="AB74">
         <v>-0.5</v>
       </c>
-      <c r="AB74">
-        <v>0.825</v>
-      </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6102357</v>
+        <v>6102234</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7116,70 +7116,70 @@
         <v>33</v>
       </c>
       <c r="G75" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K75">
-        <v>1.333</v>
+        <v>6</v>
       </c>
       <c r="L75">
         <v>5</v>
       </c>
       <c r="M75">
+        <v>1.4</v>
+      </c>
+      <c r="N75">
         <v>7</v>
       </c>
-      <c r="N75">
-        <v>1.3</v>
-      </c>
       <c r="O75">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="P75">
-        <v>7</v>
+        <v>1.363</v>
       </c>
       <c r="Q75">
-        <v>-1.75</v>
+        <v>1.5</v>
       </c>
       <c r="R75">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S75">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T75">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U75">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V75">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W75">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z75">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6102234</v>
+        <v>6102232</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,76 +7202,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K76">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="L76">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M76">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="N76">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="O76">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P76">
-        <v>1.363</v>
+        <v>2.45</v>
       </c>
       <c r="Q76">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R76">
+        <v>2</v>
+      </c>
+      <c r="S76">
+        <v>1.85</v>
+      </c>
+      <c r="T76">
+        <v>3.25</v>
+      </c>
+      <c r="U76">
         <v>1.95</v>
       </c>
-      <c r="S76">
+      <c r="V76">
         <v>1.9</v>
       </c>
-      <c r="T76">
-        <v>3.5</v>
-      </c>
-      <c r="U76">
-        <v>1.9</v>
-      </c>
-      <c r="V76">
-        <v>1.95</v>
-      </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y76">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB76">
+        <v>-1</v>
+      </c>
+      <c r="AC76">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC76">
-        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6102235</v>
+        <v>6102357</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,73 +7294,73 @@
         <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K77">
-        <v>1.6</v>
+        <v>1.333</v>
       </c>
       <c r="L77">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M77">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="N77">
-        <v>1.65</v>
+        <v>1.3</v>
       </c>
       <c r="O77">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P77">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R77">
+        <v>1.975</v>
+      </c>
+      <c r="S77">
         <v>1.825</v>
       </c>
-      <c r="S77">
-        <v>1.975</v>
-      </c>
       <c r="T77">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U77">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V77">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA77">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC77">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7469,7 +7469,7 @@
         <v>45186.625</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
         <v>37</v>
@@ -7558,7 +7558,7 @@
         <v>45186.67708333334</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G80" t="s">
         <v>31</v>
@@ -7650,7 +7650,7 @@
         <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7736,10 +7736,10 @@
         <v>45189.55208333334</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H82">
         <v>4</v>
@@ -7825,10 +7825,10 @@
         <v>45189.67708333334</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7917,7 +7917,7 @@
         <v>29</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7173164</v>
+        <v>7173179</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8003,76 +8003,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H85">
         <v>2</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K85">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L85">
         <v>3.6</v>
       </c>
       <c r="M85">
+        <v>2.45</v>
+      </c>
+      <c r="N85">
         <v>2.375</v>
       </c>
-      <c r="N85">
-        <v>2.25</v>
-      </c>
       <c r="O85">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P85">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R85">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S85">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T85">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U85">
+        <v>1.975</v>
+      </c>
+      <c r="V85">
         <v>1.825</v>
       </c>
-      <c r="V85">
-        <v>1.975</v>
-      </c>
       <c r="W85">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X85">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
+        <v>0.8</v>
+      </c>
+      <c r="AA85">
+        <v>-1</v>
+      </c>
+      <c r="AB85">
         <v>-0.5</v>
       </c>
-      <c r="AA85">
-        <v>0.375</v>
-      </c>
-      <c r="AB85">
-        <v>0.825</v>
-      </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7173163</v>
+        <v>7173164</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8092,22 +8092,22 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K86">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="L86">
         <v>3.6</v>
@@ -8116,25 +8116,25 @@
         <v>2.375</v>
       </c>
       <c r="N86">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="O86">
+        <v>3.8</v>
+      </c>
+      <c r="P86">
+        <v>2.6</v>
+      </c>
+      <c r="Q86">
+        <v>-0.25</v>
+      </c>
+      <c r="R86">
+        <v>1.95</v>
+      </c>
+      <c r="S86">
+        <v>1.75</v>
+      </c>
+      <c r="T86">
         <v>3.5</v>
-      </c>
-      <c r="P86">
-        <v>2.25</v>
-      </c>
-      <c r="Q86">
-        <v>0.25</v>
-      </c>
-      <c r="R86">
-        <v>1.775</v>
-      </c>
-      <c r="S86">
-        <v>2.025</v>
-      </c>
-      <c r="T86">
-        <v>3</v>
       </c>
       <c r="U86">
         <v>1.825</v>
@@ -8146,16 +8146,16 @@
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y86">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA86">
-        <v>1.025</v>
+        <v>0.375</v>
       </c>
       <c r="AB86">
         <v>0.825</v>
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7173179</v>
+        <v>7173163</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,76 +8181,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K87">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="L87">
         <v>3.6</v>
       </c>
       <c r="M87">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="N87">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="O87">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P87">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R87">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T87">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U87">
+        <v>1.825</v>
+      </c>
+      <c r="V87">
         <v>1.975</v>
       </c>
-      <c r="V87">
-        <v>1.825</v>
-      </c>
       <c r="W87">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB87">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC87">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8273,7 +8273,7 @@
         <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8359,10 +8359,10 @@
         <v>45194.67708333334</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H89">
         <v>3</v>
@@ -8448,7 +8448,7 @@
         <v>45197.55208333334</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
         <v>29</v>
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7173166</v>
+        <v>7173168</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,58 +8537,58 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
         <v>41</v>
       </c>
       <c r="K91">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L91">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M91">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N91">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="O91">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P91">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q91">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R91">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S91">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T91">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U91">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V91">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W91">
-        <v>1.7</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8597,16 +8597,16 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA91">
         <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7173168</v>
+        <v>7173182</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,37 +8715,37 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
         <v>41</v>
       </c>
       <c r="K93">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L93">
+        <v>3.8</v>
+      </c>
+      <c r="M93">
         <v>3.75</v>
       </c>
-      <c r="M93">
-        <v>3.2</v>
-      </c>
       <c r="N93">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O93">
         <v>3.8</v>
       </c>
       <c r="P93">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q93">
         <v>-0.5</v>
@@ -8760,13 +8760,13 @@
         <v>3.25</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W93">
-        <v>0.8500000000000001</v>
+        <v>0.833</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8781,10 +8781,10 @@
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC93">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G94" t="s">
         <v>37</v>
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7173182</v>
+        <v>7173166</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,58 +8893,58 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F95" t="s">
+        <v>32</v>
+      </c>
+      <c r="G95" t="s">
         <v>34</v>
       </c>
-      <c r="G95" t="s">
-        <v>39</v>
-      </c>
       <c r="H95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
         <v>41</v>
       </c>
       <c r="K95">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="L95">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M95">
+        <v>2.6</v>
+      </c>
+      <c r="N95">
+        <v>2.7</v>
+      </c>
+      <c r="O95">
+        <v>4</v>
+      </c>
+      <c r="P95">
+        <v>2.1</v>
+      </c>
+      <c r="Q95">
+        <v>0.25</v>
+      </c>
+      <c r="R95">
+        <v>1.925</v>
+      </c>
+      <c r="S95">
+        <v>1.875</v>
+      </c>
+      <c r="T95">
         <v>3.75</v>
-      </c>
-      <c r="N95">
-        <v>1.833</v>
-      </c>
-      <c r="O95">
-        <v>3.8</v>
-      </c>
-      <c r="P95">
-        <v>3.5</v>
-      </c>
-      <c r="Q95">
-        <v>-0.5</v>
-      </c>
-      <c r="R95">
-        <v>1.825</v>
-      </c>
-      <c r="S95">
-        <v>1.975</v>
-      </c>
-      <c r="T95">
-        <v>3.25</v>
       </c>
       <c r="U95">
         <v>1.925</v>
       </c>
       <c r="V95">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W95">
-        <v>0.833</v>
+        <v>1.7</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8953,7 +8953,7 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA95">
         <v>-1</v>
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7173184</v>
+        <v>7173169</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,73 +8982,73 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I96">
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K96">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="L96">
+        <v>3.6</v>
+      </c>
+      <c r="M96">
+        <v>2.45</v>
+      </c>
+      <c r="N96">
+        <v>3</v>
+      </c>
+      <c r="O96">
+        <v>3.6</v>
+      </c>
+      <c r="P96">
+        <v>2.05</v>
+      </c>
+      <c r="Q96">
+        <v>0.25</v>
+      </c>
+      <c r="R96">
+        <v>1.975</v>
+      </c>
+      <c r="S96">
+        <v>1.825</v>
+      </c>
+      <c r="T96">
         <v>3.5</v>
       </c>
-      <c r="M96">
-        <v>2.15</v>
-      </c>
-      <c r="N96">
-        <v>3.4</v>
-      </c>
-      <c r="O96">
-        <v>3.75</v>
-      </c>
-      <c r="P96">
-        <v>1.85</v>
-      </c>
-      <c r="Q96">
-        <v>0.5</v>
-      </c>
-      <c r="R96">
-        <v>1.875</v>
-      </c>
-      <c r="S96">
-        <v>1.925</v>
-      </c>
-      <c r="T96">
-        <v>3.25</v>
-      </c>
       <c r="U96">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V96">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA96">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7173169</v>
+        <v>7173184</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,73 +9071,73 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K97">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M97">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="N97">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O97">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P97">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="Q97">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R97">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S97">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T97">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U97">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V97">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W97">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z97">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB97">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7173185</v>
+        <v>7173186</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,76 +9160,76 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
         <v>0</v>
       </c>
-      <c r="I98">
-        <v>1</v>
-      </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K98">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="L98">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M98">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="N98">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="O98">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P98">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q98">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
         <v>1.825</v>
       </c>
       <c r="S98">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T98">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U98">
         <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA98">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7173186</v>
+        <v>7173185</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,76 +9249,76 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
         <v>1</v>
       </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
       <c r="J99" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K99">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="L99">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M99">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="N99">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="O99">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P99">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R99">
         <v>1.825</v>
       </c>
       <c r="S99">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T99">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U99">
         <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z99">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>45200.67708333334</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9430,7 +9430,7 @@
         <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H101">
         <v>3</v>
@@ -9519,7 +9519,7 @@
         <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H102">
         <v>3</v>
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7173173</v>
+        <v>7173189</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,58 +9605,58 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>41</v>
       </c>
       <c r="K103">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="L103">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M103">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N103">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="O103">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P103">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q103">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S103">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T103">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U103">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V103">
         <v>1.825</v>
       </c>
       <c r="W103">
-        <v>0.5329999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9665,16 +9665,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7173187</v>
+        <v>7173188</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H104">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K104">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L104">
+        <v>4.5</v>
+      </c>
+      <c r="M104">
+        <v>5.5</v>
+      </c>
+      <c r="N104">
+        <v>1.222</v>
+      </c>
+      <c r="O104">
+        <v>5.5</v>
+      </c>
+      <c r="P104">
+        <v>9</v>
+      </c>
+      <c r="Q104">
+        <v>-2</v>
+      </c>
+      <c r="R104">
+        <v>1.975</v>
+      </c>
+      <c r="S104">
+        <v>1.825</v>
+      </c>
+      <c r="T104">
         <v>3.75</v>
       </c>
-      <c r="M104">
-        <v>2.9</v>
-      </c>
-      <c r="N104">
-        <v>2.1</v>
-      </c>
-      <c r="O104">
-        <v>3.5</v>
-      </c>
-      <c r="P104">
-        <v>3</v>
-      </c>
-      <c r="Q104">
-        <v>-0.25</v>
-      </c>
-      <c r="R104">
-        <v>1.825</v>
-      </c>
-      <c r="S104">
-        <v>2.025</v>
-      </c>
-      <c r="T104">
-        <v>3.5</v>
-      </c>
       <c r="U104">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W104">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
+        <v>-1</v>
+      </c>
+      <c r="AA104">
         <v>0.825</v>
       </c>
-      <c r="AA104">
-        <v>-1</v>
-      </c>
       <c r="AB104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7173188</v>
+        <v>7173187</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I105">
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K105">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L105">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M105">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="N105">
-        <v>1.222</v>
+        <v>2.1</v>
       </c>
       <c r="O105">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P105">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q105">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S105">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T105">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X105">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA105">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC105">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7173189</v>
+        <v>7173173</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,58 +9872,58 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G106" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H106">
+        <v>5</v>
+      </c>
+      <c r="I106">
         <v>1</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>41</v>
       </c>
       <c r="K106">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L106">
+        <v>4.333</v>
+      </c>
+      <c r="M106">
+        <v>3.75</v>
+      </c>
+      <c r="N106">
+        <v>1.533</v>
+      </c>
+      <c r="O106">
+        <v>4.75</v>
+      </c>
+      <c r="P106">
+        <v>4.333</v>
+      </c>
+      <c r="Q106">
+        <v>-1</v>
+      </c>
+      <c r="R106">
+        <v>1.85</v>
+      </c>
+      <c r="S106">
+        <v>2</v>
+      </c>
+      <c r="T106">
         <v>4</v>
       </c>
-      <c r="M106">
-        <v>3.4</v>
-      </c>
-      <c r="N106">
-        <v>2.15</v>
-      </c>
-      <c r="O106">
-        <v>3.8</v>
-      </c>
-      <c r="P106">
-        <v>2.8</v>
-      </c>
-      <c r="Q106">
-        <v>-0.25</v>
-      </c>
-      <c r="R106">
-        <v>1.9</v>
-      </c>
-      <c r="S106">
-        <v>1.9</v>
-      </c>
-      <c r="T106">
-        <v>3.5</v>
-      </c>
       <c r="U106">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V106">
         <v>1.825</v>
       </c>
       <c r="W106">
-        <v>1.15</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9932,16 +9932,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC106">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9961,7 +9961,7 @@
         <v>45207.45833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G107" t="s">
         <v>31</v>

--- a/Iceland Premier League/Iceland Premier League.xlsx
+++ b/Iceland Premier League/Iceland Premier League.xlsx
@@ -112,10 +112,10 @@
     <t>Stjarnan</t>
   </si>
   <si>
-    <t>Valur Reykjavik</t>
+    <t>Fram Reykjavik</t>
   </si>
   <si>
-    <t>Fram Reykjavik</t>
+    <t>Valur Reykjavik</t>
   </si>
   <si>
     <t>Breidablik</t>
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6102346</v>
+        <v>6102175</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M5">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N5">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O5">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P5">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S5">
+        <v>1.85</v>
+      </c>
+      <c r="T5">
+        <v>2.75</v>
+      </c>
+      <c r="U5">
         <v>1.8</v>
       </c>
-      <c r="T5">
-        <v>3.25</v>
-      </c>
-      <c r="U5">
-        <v>2.025</v>
-      </c>
       <c r="V5">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X5">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA5">
+        <v>-1</v>
+      </c>
+      <c r="AB5">
         <v>0.8</v>
       </c>
-      <c r="AB5">
-        <v>-1</v>
-      </c>
       <c r="AC5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6102175</v>
+        <v>6102346</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,73 +975,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M6">
+        <v>4.2</v>
+      </c>
+      <c r="N6">
+        <v>1.615</v>
+      </c>
+      <c r="O6">
+        <v>4.2</v>
+      </c>
+      <c r="P6">
+        <v>4.333</v>
+      </c>
+      <c r="Q6">
+        <v>-1</v>
+      </c>
+      <c r="R6">
+        <v>2.05</v>
+      </c>
+      <c r="S6">
+        <v>1.8</v>
+      </c>
+      <c r="T6">
         <v>3.25</v>
       </c>
-      <c r="N6">
-        <v>1.909</v>
-      </c>
-      <c r="O6">
-        <v>3.6</v>
-      </c>
-      <c r="P6">
-        <v>3.5</v>
-      </c>
-      <c r="Q6">
-        <v>-0.5</v>
-      </c>
-      <c r="R6">
-        <v>1.95</v>
-      </c>
-      <c r="S6">
-        <v>1.85</v>
-      </c>
-      <c r="T6">
-        <v>2.75</v>
-      </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W6">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1420,7 +1420,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6102183</v>
+        <v>6102181</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,58 +1684,58 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>41</v>
       </c>
       <c r="K14">
-        <v>5.25</v>
+        <v>1.833</v>
       </c>
       <c r="L14">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M14">
-        <v>1.45</v>
+        <v>3.6</v>
       </c>
       <c r="N14">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="O14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P14">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="Q14">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R14">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S14">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T14">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U14">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V14">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W14">
-        <v>5</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1744,13 +1744,13 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6102181</v>
+        <v>6102183</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,58 +1862,58 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
         <v>41</v>
       </c>
       <c r="K16">
-        <v>1.833</v>
+        <v>5.25</v>
       </c>
       <c r="L16">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M16">
-        <v>3.6</v>
+        <v>1.45</v>
       </c>
       <c r="N16">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P16">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R16">
+        <v>2.025</v>
+      </c>
+      <c r="S16">
+        <v>1.825</v>
+      </c>
+      <c r="T16">
+        <v>3.25</v>
+      </c>
+      <c r="U16">
         <v>1.975</v>
       </c>
-      <c r="S16">
+      <c r="V16">
         <v>1.875</v>
       </c>
-      <c r="T16">
-        <v>3</v>
-      </c>
-      <c r="U16">
-        <v>1.85</v>
-      </c>
-      <c r="V16">
-        <v>2</v>
-      </c>
       <c r="W16">
-        <v>0.7270000000000001</v>
+        <v>5</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1922,13 +1922,13 @@
         <v>-1</v>
       </c>
       <c r="Z16">
+        <v>1.025</v>
+      </c>
+      <c r="AA16">
+        <v>-1</v>
+      </c>
+      <c r="AB16">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA16">
-        <v>-1</v>
-      </c>
-      <c r="AB16">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1954,7 +1954,7 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6102191</v>
+        <v>6102188</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,40 +2307,40 @@
         <v>45105.67708333334</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>41</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L21">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N21">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O21">
         <v>3.75</v>
       </c>
       <c r="P21">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R21">
         <v>1.875</v>
@@ -2349,7 +2349,7 @@
         <v>1.975</v>
       </c>
       <c r="T21">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
         <v>2</v>
@@ -2358,7 +2358,7 @@
         <v>1.85</v>
       </c>
       <c r="W21">
-        <v>0.833</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2373,10 +2373,10 @@
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6102188</v>
+        <v>6102191</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,40 +2396,40 @@
         <v>45105.67708333334</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
         <v>41</v>
       </c>
       <c r="K22">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M22">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N22">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O22">
         <v>3.75</v>
       </c>
       <c r="P22">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q22">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
         <v>1.875</v>
@@ -2438,7 +2438,7 @@
         <v>1.975</v>
       </c>
       <c r="T22">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U22">
         <v>2</v>
@@ -2447,7 +2447,7 @@
         <v>1.85</v>
       </c>
       <c r="W22">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2462,10 +2462,10 @@
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2755,7 +2755,7 @@
         <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2930,7 +2930,7 @@
         <v>45119.67708333334</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
         <v>30</v>
@@ -3108,7 +3108,7 @@
         <v>45121.71875</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
         <v>34</v>
@@ -3289,7 +3289,7 @@
         <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6542524</v>
+        <v>6102206</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,76 +3642,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K36">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="L36">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M36">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N36">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="O36">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P36">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="Q36">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R36">
+        <v>1.925</v>
+      </c>
+      <c r="S36">
         <v>1.775</v>
       </c>
-      <c r="S36">
-        <v>2.025</v>
-      </c>
       <c r="T36">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U36">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V36">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB36">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6102206</v>
+        <v>6542524</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,76 +3731,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K37">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="L37">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M37">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N37">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="O37">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P37">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="Q37">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R37">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S37">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T37">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V37">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W37">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC37">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4090,7 +4090,7 @@
         <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H41">
         <v>4</v>
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6102350</v>
+        <v>6102213</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,43 +4443,43 @@
         <v>45138.67708333334</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J45" t="s">
         <v>43</v>
       </c>
       <c r="K45">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="L45">
+        <v>3.5</v>
+      </c>
+      <c r="M45">
+        <v>2.3</v>
+      </c>
+      <c r="N45">
+        <v>2.7</v>
+      </c>
+      <c r="O45">
         <v>3.6</v>
       </c>
-      <c r="M45">
-        <v>1.909</v>
-      </c>
-      <c r="N45">
-        <v>3.8</v>
-      </c>
-      <c r="O45">
-        <v>3.75</v>
-      </c>
       <c r="P45">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="Q45">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S45">
         <v>1.85</v>
@@ -4488,10 +4488,10 @@
         <v>3</v>
       </c>
       <c r="U45">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V45">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W45">
         <v>-1</v>
@@ -4500,7 +4500,7 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>0.8500000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="Z45">
         <v>-1</v>
@@ -4509,7 +4509,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB45">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6102213</v>
+        <v>6102350</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,43 +4532,43 @@
         <v>45138.67708333334</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J46" t="s">
         <v>43</v>
       </c>
       <c r="K46">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="L46">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M46">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N46">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="O46">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P46">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S46">
         <v>1.85</v>
@@ -4577,10 +4577,10 @@
         <v>3</v>
       </c>
       <c r="U46">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V46">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W46">
         <v>-1</v>
@@ -4589,7 +4589,7 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z46">
         <v>-1</v>
@@ -4598,7 +4598,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB46">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4799,7 +4799,7 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
         <v>35</v>
@@ -4977,7 +4977,7 @@
         <v>45146.67708333334</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
         <v>30</v>
@@ -5247,7 +5247,7 @@
         <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5425,7 +5425,7 @@
         <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -5778,7 +5778,7 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
         <v>35</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6102354</v>
+        <v>6102225</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,40 +5956,40 @@
         <v>45158.67708333334</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G62" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K62">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="L62">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M62">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="N62">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="O62">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P62">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="Q62">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R62">
         <v>1.9</v>
@@ -5998,31 +5998,31 @@
         <v>1.9</v>
       </c>
       <c r="T62">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U62">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V62">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z62">
+        <v>-1</v>
+      </c>
+      <c r="AA62">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA62">
-        <v>-1</v>
-      </c>
       <c r="AB62">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6102225</v>
+        <v>6102354</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,40 +6045,40 @@
         <v>45158.67708333334</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63" t="s">
+        <v>42</v>
+      </c>
+      <c r="K63">
+        <v>2.75</v>
+      </c>
+      <c r="L63">
+        <v>3.75</v>
+      </c>
+      <c r="M63">
+        <v>2.25</v>
+      </c>
+      <c r="N63">
+        <v>3.3</v>
+      </c>
+      <c r="O63">
         <v>4</v>
       </c>
-      <c r="J63" t="s">
-        <v>43</v>
-      </c>
-      <c r="K63">
-        <v>2.45</v>
-      </c>
-      <c r="L63">
-        <v>3.6</v>
-      </c>
-      <c r="M63">
-        <v>2.45</v>
-      </c>
-      <c r="N63">
-        <v>2.9</v>
-      </c>
-      <c r="O63">
-        <v>3.6</v>
-      </c>
       <c r="P63">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q63">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R63">
         <v>1.9</v>
@@ -6087,31 +6087,31 @@
         <v>1.9</v>
       </c>
       <c r="T63">
+        <v>3.25</v>
+      </c>
+      <c r="U63">
+        <v>1.95</v>
+      </c>
+      <c r="V63">
+        <v>1.85</v>
+      </c>
+      <c r="W63">
+        <v>-1</v>
+      </c>
+      <c r="X63">
         <v>3</v>
       </c>
-      <c r="U63">
-        <v>1.875</v>
-      </c>
-      <c r="V63">
-        <v>1.925</v>
-      </c>
-      <c r="W63">
-        <v>-1</v>
-      </c>
-      <c r="X63">
-        <v>-1</v>
-      </c>
       <c r="Y63">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA63">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6315,7 +6315,7 @@
         <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H66">
         <v>3</v>
@@ -6389,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6102229</v>
+        <v>6102230</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6401,76 +6401,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K67">
-        <v>1.55</v>
+        <v>2.55</v>
       </c>
       <c r="L67">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M67">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="N67">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="O67">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P67">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q67">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R67">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S67">
         <v>1.825</v>
       </c>
       <c r="T67">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U67">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V67">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W67">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6102230</v>
+        <v>6102229</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,76 +6490,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K68">
-        <v>2.55</v>
+        <v>1.55</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M68">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N68">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O68">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P68">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R68">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S68">
         <v>1.825</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X68">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA68">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6102236</v>
+        <v>6102234</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,73 +6846,73 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H72">
         <v>2</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K72">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="L72">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M72">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="N72">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="O72">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P72">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="Q72">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R72">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S72">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T72">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U72">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V72">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z72">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
       <c r="AA72">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6102235</v>
+        <v>6102236</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,49 +6935,49 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73">
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K73">
-        <v>1.6</v>
+        <v>2.625</v>
       </c>
       <c r="L73">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M73">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="N73">
-        <v>1.65</v>
+        <v>2.625</v>
       </c>
       <c r="O73">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P73">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q73">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R73">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S73">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T73">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U73">
         <v>1.825</v>
@@ -6989,22 +6989,22 @@
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y73">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA73">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC73">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6102233</v>
+        <v>6102357</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,16 +7024,16 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
         <v>41</v>
@@ -7048,34 +7048,34 @@
         <v>7</v>
       </c>
       <c r="N74">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="O74">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="P74">
         <v>7</v>
       </c>
       <c r="Q74">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R74">
+        <v>1.975</v>
+      </c>
+      <c r="S74">
+        <v>1.825</v>
+      </c>
+      <c r="T74">
+        <v>3.75</v>
+      </c>
+      <c r="U74">
+        <v>1.875</v>
+      </c>
+      <c r="V74">
         <v>1.925</v>
       </c>
-      <c r="S74">
-        <v>1.925</v>
-      </c>
-      <c r="T74">
-        <v>3.25</v>
-      </c>
-      <c r="U74">
-        <v>1.825</v>
-      </c>
-      <c r="V74">
-        <v>2.025</v>
-      </c>
       <c r="W74">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7084,16 +7084,16 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA74">
         <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC74">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6102234</v>
+        <v>6102233</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,76 +7113,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K75">
-        <v>6</v>
+        <v>1.333</v>
       </c>
       <c r="L75">
         <v>5</v>
       </c>
       <c r="M75">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="N75">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="O75">
         <v>5</v>
       </c>
       <c r="P75">
-        <v>1.363</v>
+        <v>7</v>
       </c>
       <c r="Q75">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R75">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6102357</v>
+        <v>6102235</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,76 +7291,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>2</v>
+      </c>
+      <c r="J77" t="s">
+        <v>43</v>
+      </c>
+      <c r="K77">
+        <v>1.6</v>
+      </c>
+      <c r="L77">
+        <v>4.2</v>
+      </c>
+      <c r="M77">
+        <v>4.333</v>
+      </c>
+      <c r="N77">
+        <v>1.65</v>
+      </c>
+      <c r="O77">
+        <v>4.2</v>
+      </c>
+      <c r="P77">
         <v>4</v>
       </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
-      <c r="J77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K77">
-        <v>1.333</v>
-      </c>
-      <c r="L77">
-        <v>5</v>
-      </c>
-      <c r="M77">
-        <v>7</v>
-      </c>
-      <c r="N77">
-        <v>1.3</v>
-      </c>
-      <c r="O77">
-        <v>5.25</v>
-      </c>
-      <c r="P77">
-        <v>7</v>
-      </c>
       <c r="Q77">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R77">
+        <v>1.825</v>
+      </c>
+      <c r="S77">
         <v>1.975</v>
       </c>
-      <c r="S77">
+      <c r="T77">
+        <v>3.5</v>
+      </c>
+      <c r="U77">
         <v>1.825</v>
       </c>
-      <c r="T77">
-        <v>3.75</v>
-      </c>
-      <c r="U77">
-        <v>1.875</v>
-      </c>
       <c r="V77">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z77">
+        <v>-1</v>
+      </c>
+      <c r="AA77">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA77">
-        <v>-1</v>
-      </c>
       <c r="AB77">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7558,7 +7558,7 @@
         <v>45186.67708333334</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
         <v>31</v>
@@ -7650,7 +7650,7 @@
         <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7917,7 +7917,7 @@
         <v>29</v>
       </c>
       <c r="G84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -8095,7 +8095,7 @@
         <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7173168</v>
+        <v>7173167</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,58 +8537,58 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H91">
         <v>2</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
         <v>41</v>
       </c>
       <c r="K91">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="L91">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M91">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N91">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="O91">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P91">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R91">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S91">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T91">
         <v>3.25</v>
       </c>
       <c r="U91">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V91">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W91">
-        <v>0.8500000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8597,16 +8597,16 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC91">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7173183</v>
+        <v>7173166</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,73 +8626,73 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I92">
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K92">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L92">
         <v>3.6</v>
       </c>
       <c r="M92">
+        <v>2.6</v>
+      </c>
+      <c r="N92">
         <v>2.7</v>
       </c>
-      <c r="N92">
-        <v>2.45</v>
-      </c>
       <c r="O92">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P92">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q92">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
         <v>1.925</v>
       </c>
       <c r="S92">
+        <v>1.875</v>
+      </c>
+      <c r="T92">
+        <v>3.75</v>
+      </c>
+      <c r="U92">
         <v>1.925</v>
       </c>
-      <c r="T92">
-        <v>3.25</v>
-      </c>
-      <c r="U92">
-        <v>1.9</v>
-      </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X92">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA92">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -8715,7 +8715,7 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
         <v>40</v>
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7173167</v>
+        <v>7173168</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,58 +8804,58 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H94">
         <v>2</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
         <v>41</v>
       </c>
       <c r="K94">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M94">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N94">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="O94">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P94">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R94">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S94">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T94">
         <v>3.25</v>
       </c>
       <c r="U94">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V94">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W94">
-        <v>0.571</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8864,16 +8864,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA94">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7173166</v>
+        <v>7173183</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,73 +8893,73 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I95">
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K95">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L95">
         <v>3.6</v>
       </c>
       <c r="M95">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="N95">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="O95">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P95">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q95">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R95">
         <v>1.925</v>
       </c>
       <c r="S95">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T95">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U95">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V95">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB95">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -9160,7 +9160,7 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G98" t="s">
         <v>35</v>
@@ -9338,7 +9338,7 @@
         <v>45200.67708333334</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7173189</v>
+        <v>7173173</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,58 +9605,58 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H103">
+        <v>5</v>
+      </c>
+      <c r="I103">
         <v>1</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>41</v>
       </c>
       <c r="K103">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L103">
+        <v>4.333</v>
+      </c>
+      <c r="M103">
+        <v>3.75</v>
+      </c>
+      <c r="N103">
+        <v>1.533</v>
+      </c>
+      <c r="O103">
+        <v>4.75</v>
+      </c>
+      <c r="P103">
+        <v>4.333</v>
+      </c>
+      <c r="Q103">
+        <v>-1</v>
+      </c>
+      <c r="R103">
+        <v>1.85</v>
+      </c>
+      <c r="S103">
+        <v>2</v>
+      </c>
+      <c r="T103">
         <v>4</v>
       </c>
-      <c r="M103">
-        <v>3.4</v>
-      </c>
-      <c r="N103">
-        <v>2.15</v>
-      </c>
-      <c r="O103">
-        <v>3.8</v>
-      </c>
-      <c r="P103">
-        <v>2.8</v>
-      </c>
-      <c r="Q103">
-        <v>-0.25</v>
-      </c>
-      <c r="R103">
-        <v>1.9</v>
-      </c>
-      <c r="S103">
-        <v>1.9</v>
-      </c>
-      <c r="T103">
-        <v>3.5</v>
-      </c>
       <c r="U103">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V103">
         <v>1.825</v>
       </c>
       <c r="W103">
-        <v>1.15</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9665,16 +9665,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC103">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7173188</v>
+        <v>7173187</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K104">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L104">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M104">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="N104">
-        <v>1.222</v>
+        <v>2.1</v>
       </c>
       <c r="O104">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P104">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q104">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S104">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T104">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V104">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X104">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA104">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC104">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7173187</v>
+        <v>7173189</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,58 +9783,58 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H105">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>41</v>
       </c>
       <c r="K105">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L105">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M105">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N105">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O105">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P105">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q105">
         <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S105">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T105">
         <v>3.5</v>
       </c>
       <c r="U105">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V105">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W105">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9843,16 +9843,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA105">
+        <v>-1</v>
+      </c>
+      <c r="AB105">
+        <v>-1</v>
+      </c>
+      <c r="AC105">
         <v>0.825</v>
-      </c>
-      <c r="AA105">
-        <v>-1</v>
-      </c>
-      <c r="AB105">
-        <v>1</v>
-      </c>
-      <c r="AC105">
-        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7173173</v>
+        <v>7173188</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,76 +9872,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H106">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I106">
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K106">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="L106">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M106">
+        <v>5.5</v>
+      </c>
+      <c r="N106">
+        <v>1.222</v>
+      </c>
+      <c r="O106">
+        <v>5.5</v>
+      </c>
+      <c r="P106">
+        <v>9</v>
+      </c>
+      <c r="Q106">
+        <v>-2</v>
+      </c>
+      <c r="R106">
+        <v>1.975</v>
+      </c>
+      <c r="S106">
+        <v>1.825</v>
+      </c>
+      <c r="T106">
         <v>3.75</v>
       </c>
-      <c r="N106">
-        <v>1.533</v>
-      </c>
-      <c r="O106">
-        <v>4.75</v>
-      </c>
-      <c r="P106">
-        <v>4.333</v>
-      </c>
-      <c r="Q106">
-        <v>-1</v>
-      </c>
-      <c r="R106">
-        <v>1.85</v>
-      </c>
-      <c r="S106">
-        <v>2</v>
-      </c>
-      <c r="T106">
-        <v>4</v>
-      </c>
       <c r="U106">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB106">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:29">

--- a/Iceland Premier League/Iceland Premier League.xlsx
+++ b/Iceland Premier League/Iceland Premier League.xlsx
@@ -121,10 +121,10 @@
     <t>Breidablik</t>
   </si>
   <si>
-    <t>KA Akureyri</t>
+    <t>KR Reykjavik</t>
   </si>
   <si>
-    <t>KR Reykjavik</t>
+    <t>KA Akureyri</t>
   </si>
   <si>
     <t>FH Hafnarfjordur</t>
@@ -708,7 +708,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -797,7 +797,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6102176</v>
+        <v>6102177</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,73 +1153,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>1.6</v>
+        <v>1.833</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N8">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O8">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P8">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q8">
         <v>-0.5</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V8">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6102177</v>
+        <v>6102176</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,73 +1242,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>1.833</v>
+        <v>1.6</v>
       </c>
       <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>4.333</v>
+      </c>
+      <c r="N9">
+        <v>1.8</v>
+      </c>
+      <c r="O9">
+        <v>3.8</v>
+      </c>
+      <c r="P9">
         <v>3.6</v>
-      </c>
-      <c r="M9">
-        <v>3.4</v>
-      </c>
-      <c r="N9">
-        <v>1.85</v>
-      </c>
-      <c r="O9">
-        <v>3.6</v>
-      </c>
-      <c r="P9">
-        <v>3.5</v>
       </c>
       <c r="Q9">
         <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S9">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X9">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA9">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6102181</v>
+        <v>6102183</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,58 +1684,58 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
         <v>41</v>
       </c>
       <c r="K14">
-        <v>1.833</v>
+        <v>5.25</v>
       </c>
       <c r="L14">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M14">
-        <v>3.6</v>
+        <v>1.45</v>
       </c>
       <c r="N14">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="O14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P14">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R14">
+        <v>2.025</v>
+      </c>
+      <c r="S14">
+        <v>1.825</v>
+      </c>
+      <c r="T14">
+        <v>3.25</v>
+      </c>
+      <c r="U14">
         <v>1.975</v>
       </c>
-      <c r="S14">
+      <c r="V14">
         <v>1.875</v>
       </c>
-      <c r="T14">
-        <v>3</v>
-      </c>
-      <c r="U14">
-        <v>1.85</v>
-      </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
       <c r="W14">
-        <v>0.7270000000000001</v>
+        <v>5</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1744,13 +1744,13 @@
         <v>-1</v>
       </c>
       <c r="Z14">
+        <v>1.025</v>
+      </c>
+      <c r="AA14">
+        <v>-1</v>
+      </c>
+      <c r="AB14">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA14">
-        <v>-1</v>
-      </c>
-      <c r="AB14">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6102183</v>
+        <v>6102181</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,58 +1862,58 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>41</v>
       </c>
       <c r="K16">
-        <v>5.25</v>
+        <v>1.833</v>
       </c>
       <c r="L16">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M16">
-        <v>1.45</v>
+        <v>3.6</v>
       </c>
       <c r="N16">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="O16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P16">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="Q16">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T16">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U16">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V16">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W16">
-        <v>5</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1922,13 +1922,13 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -2040,10 +2040,10 @@
         <v>45101.58333333334</v>
       </c>
       <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" t="s">
         <v>36</v>
-      </c>
-      <c r="G18" t="s">
-        <v>35</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2221,7 +2221,7 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2307,7 +2307,7 @@
         <v>45105.67708333334</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
         <v>40</v>
@@ -3022,7 +3022,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3375,7 +3375,7 @@
         <v>45125.70833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
@@ -3731,7 +3731,7 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
         <v>39</v>
@@ -3912,7 +3912,7 @@
         <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -4265,7 +4265,7 @@
         <v>45137.54166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
         <v>38</v>
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6102213</v>
+        <v>6102350</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,43 +4443,43 @@
         <v>45138.67708333334</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J45" t="s">
         <v>43</v>
       </c>
       <c r="K45">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="L45">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M45">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N45">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="O45">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P45">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S45">
         <v>1.85</v>
@@ -4488,10 +4488,10 @@
         <v>3</v>
       </c>
       <c r="U45">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V45">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W45">
         <v>-1</v>
@@ -4500,7 +4500,7 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z45">
         <v>-1</v>
@@ -4509,7 +4509,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB45">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6102350</v>
+        <v>6102213</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,43 +4532,43 @@
         <v>45138.67708333334</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J46" t="s">
         <v>43</v>
       </c>
       <c r="K46">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="L46">
+        <v>3.5</v>
+      </c>
+      <c r="M46">
+        <v>2.3</v>
+      </c>
+      <c r="N46">
+        <v>2.7</v>
+      </c>
+      <c r="O46">
         <v>3.6</v>
       </c>
-      <c r="M46">
-        <v>1.909</v>
-      </c>
-      <c r="N46">
-        <v>3.8</v>
-      </c>
-      <c r="O46">
-        <v>3.75</v>
-      </c>
       <c r="P46">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="Q46">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S46">
         <v>1.85</v>
@@ -4577,10 +4577,10 @@
         <v>3</v>
       </c>
       <c r="U46">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V46">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W46">
         <v>-1</v>
@@ -4589,7 +4589,7 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>0.8500000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="Z46">
         <v>-1</v>
@@ -4598,7 +4598,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB46">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4713,7 +4713,7 @@
         <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -4802,7 +4802,7 @@
         <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H49">
         <v>4</v>
@@ -5155,7 +5155,7 @@
         <v>45151.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
         <v>34</v>
@@ -5422,7 +5422,7 @@
         <v>45151.63541666666</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
         <v>32</v>
@@ -5781,7 +5781,7 @@
         <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6102225</v>
+        <v>6102354</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,40 +5956,40 @@
         <v>45158.67708333334</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62" t="s">
+        <v>42</v>
+      </c>
+      <c r="K62">
+        <v>2.75</v>
+      </c>
+      <c r="L62">
+        <v>3.75</v>
+      </c>
+      <c r="M62">
+        <v>2.25</v>
+      </c>
+      <c r="N62">
+        <v>3.3</v>
+      </c>
+      <c r="O62">
         <v>4</v>
       </c>
-      <c r="J62" t="s">
-        <v>43</v>
-      </c>
-      <c r="K62">
-        <v>2.45</v>
-      </c>
-      <c r="L62">
-        <v>3.6</v>
-      </c>
-      <c r="M62">
-        <v>2.45</v>
-      </c>
-      <c r="N62">
-        <v>2.9</v>
-      </c>
-      <c r="O62">
-        <v>3.6</v>
-      </c>
       <c r="P62">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q62">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R62">
         <v>1.9</v>
@@ -5998,31 +5998,31 @@
         <v>1.9</v>
       </c>
       <c r="T62">
+        <v>3.25</v>
+      </c>
+      <c r="U62">
+        <v>1.95</v>
+      </c>
+      <c r="V62">
+        <v>1.85</v>
+      </c>
+      <c r="W62">
+        <v>-1</v>
+      </c>
+      <c r="X62">
         <v>3</v>
       </c>
-      <c r="U62">
-        <v>1.875</v>
-      </c>
-      <c r="V62">
-        <v>1.925</v>
-      </c>
-      <c r="W62">
-        <v>-1</v>
-      </c>
-      <c r="X62">
-        <v>-1</v>
-      </c>
       <c r="Y62">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA62">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6102354</v>
+        <v>6102225</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,40 +6045,40 @@
         <v>45158.67708333334</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K63">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="L63">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M63">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="N63">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="O63">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P63">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="Q63">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R63">
         <v>1.9</v>
@@ -6087,31 +6087,31 @@
         <v>1.9</v>
       </c>
       <c r="T63">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U63">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V63">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z63">
+        <v>-1</v>
+      </c>
+      <c r="AA63">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA63">
-        <v>-1</v>
-      </c>
       <c r="AB63">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6137,7 +6137,7 @@
         <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>3</v>
@@ -6223,7 +6223,7 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
         <v>31</v>
@@ -6490,7 +6490,7 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
         <v>30</v>
@@ -6760,7 +6760,7 @@
         <v>37</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6938,7 +6938,7 @@
         <v>29</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7205,7 +7205,7 @@
         <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7736,7 +7736,7 @@
         <v>45189.55208333334</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
         <v>40</v>
@@ -7828,7 +7828,7 @@
         <v>39</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7173179</v>
+        <v>7173164</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8003,76 +8003,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H85">
         <v>2</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K85">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L85">
         <v>3.6</v>
       </c>
       <c r="M85">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="N85">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O85">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P85">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S85">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T85">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U85">
+        <v>1.825</v>
+      </c>
+      <c r="V85">
         <v>1.975</v>
       </c>
-      <c r="V85">
-        <v>1.825</v>
-      </c>
       <c r="W85">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB85">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC85">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7173164</v>
+        <v>7173179</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8092,76 +8092,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H86">
         <v>2</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K86">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L86">
         <v>3.6</v>
       </c>
       <c r="M86">
+        <v>2.45</v>
+      </c>
+      <c r="N86">
         <v>2.375</v>
       </c>
-      <c r="N86">
-        <v>2.25</v>
-      </c>
       <c r="O86">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P86">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S86">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T86">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U86">
+        <v>1.975</v>
+      </c>
+      <c r="V86">
         <v>1.825</v>
       </c>
-      <c r="V86">
-        <v>1.975</v>
-      </c>
       <c r="W86">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X86">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
+        <v>0.8</v>
+      </c>
+      <c r="AA86">
+        <v>-1</v>
+      </c>
+      <c r="AB86">
         <v>-0.5</v>
       </c>
-      <c r="AA86">
-        <v>0.375</v>
-      </c>
-      <c r="AB86">
-        <v>0.825</v>
-      </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8273,7 +8273,7 @@
         <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8448,7 +8448,7 @@
         <v>45197.55208333334</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
         <v>29</v>
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7173167</v>
+        <v>7173182</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,13 +8537,13 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -8552,43 +8552,43 @@
         <v>41</v>
       </c>
       <c r="K91">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M91">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N91">
-        <v>1.571</v>
+        <v>1.833</v>
       </c>
       <c r="O91">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P91">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S91">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T91">
         <v>3.25</v>
       </c>
       <c r="U91">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V91">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W91">
-        <v>0.571</v>
+        <v>0.833</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8597,16 +8597,16 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA91">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC91">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7173166</v>
+        <v>7173168</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,58 +8626,58 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
         <v>41</v>
       </c>
       <c r="K92">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L92">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M92">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N92">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="O92">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P92">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R92">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S92">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T92">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U92">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V92">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W92">
-        <v>1.7</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8686,16 +8686,16 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA92">
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7173182</v>
+        <v>7173183</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,73 +8715,73 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K93">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L93">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M93">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N93">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="O93">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P93">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q93">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R93">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S93">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T93">
         <v>3.25</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V93">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W93">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB93">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7173168</v>
+        <v>7173166</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,58 +8804,58 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
         <v>41</v>
       </c>
       <c r="K94">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L94">
+        <v>3.6</v>
+      </c>
+      <c r="M94">
+        <v>2.6</v>
+      </c>
+      <c r="N94">
+        <v>2.7</v>
+      </c>
+      <c r="O94">
+        <v>4</v>
+      </c>
+      <c r="P94">
+        <v>2.1</v>
+      </c>
+      <c r="Q94">
+        <v>0.25</v>
+      </c>
+      <c r="R94">
+        <v>1.925</v>
+      </c>
+      <c r="S94">
+        <v>1.875</v>
+      </c>
+      <c r="T94">
         <v>3.75</v>
       </c>
-      <c r="M94">
-        <v>3.2</v>
-      </c>
-      <c r="N94">
-        <v>1.85</v>
-      </c>
-      <c r="O94">
-        <v>3.8</v>
-      </c>
-      <c r="P94">
-        <v>3.4</v>
-      </c>
-      <c r="Q94">
-        <v>-0.5</v>
-      </c>
-      <c r="R94">
-        <v>1.825</v>
-      </c>
-      <c r="S94">
-        <v>1.975</v>
-      </c>
-      <c r="T94">
-        <v>3.25</v>
-      </c>
       <c r="U94">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V94">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W94">
-        <v>0.8500000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8864,16 +8864,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC94">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7173183</v>
+        <v>7173167</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,43 +8893,43 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K95">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="L95">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M95">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N95">
-        <v>2.45</v>
+        <v>1.571</v>
       </c>
       <c r="O95">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P95">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R95">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S95">
         <v>1.925</v>
@@ -8938,16 +8938,16 @@
         <v>3.25</v>
       </c>
       <c r="U95">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X95">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
@@ -8959,10 +8959,10 @@
         <v>-0</v>
       </c>
       <c r="AB95">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
         <v>34</v>
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7173186</v>
+        <v>7173185</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,76 +9160,76 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
         <v>1</v>
       </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
       <c r="J98" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K98">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="L98">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M98">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="N98">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="O98">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P98">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R98">
         <v>1.825</v>
       </c>
       <c r="S98">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T98">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U98">
         <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z98">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7173185</v>
+        <v>7173186</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,76 +9249,76 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
         <v>0</v>
       </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K99">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="L99">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M99">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="N99">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="O99">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P99">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q99">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
         <v>1.825</v>
       </c>
       <c r="S99">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T99">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U99">
         <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA99">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7173172</v>
+        <v>7173173</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,13 +9516,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -9531,43 +9531,43 @@
         <v>41</v>
       </c>
       <c r="K102">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L102">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M102">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N102">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="O102">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P102">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R102">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S102">
+        <v>2</v>
+      </c>
+      <c r="T102">
+        <v>4</v>
+      </c>
+      <c r="U102">
         <v>2.025</v>
       </c>
-      <c r="T102">
-        <v>3.5</v>
-      </c>
-      <c r="U102">
-        <v>1.875</v>
-      </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
-        <v>1.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9576,13 +9576,13 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7173173</v>
+        <v>7173172</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,13 +9605,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H103">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -9620,43 +9620,43 @@
         <v>41</v>
       </c>
       <c r="K103">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L103">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M103">
+        <v>2.6</v>
+      </c>
+      <c r="N103">
+        <v>2.25</v>
+      </c>
+      <c r="O103">
         <v>3.75</v>
       </c>
-      <c r="N103">
-        <v>1.533</v>
-      </c>
-      <c r="O103">
-        <v>4.75</v>
-      </c>
       <c r="P103">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R103">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S103">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T103">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U103">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V103">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W103">
-        <v>0.5329999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9665,13 +9665,13 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7173187</v>
+        <v>7173188</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H104">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K104">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L104">
+        <v>4.5</v>
+      </c>
+      <c r="M104">
+        <v>5.5</v>
+      </c>
+      <c r="N104">
+        <v>1.222</v>
+      </c>
+      <c r="O104">
+        <v>5.5</v>
+      </c>
+      <c r="P104">
+        <v>9</v>
+      </c>
+      <c r="Q104">
+        <v>-2</v>
+      </c>
+      <c r="R104">
+        <v>1.975</v>
+      </c>
+      <c r="S104">
+        <v>1.825</v>
+      </c>
+      <c r="T104">
         <v>3.75</v>
       </c>
-      <c r="M104">
-        <v>2.9</v>
-      </c>
-      <c r="N104">
-        <v>2.1</v>
-      </c>
-      <c r="O104">
-        <v>3.5</v>
-      </c>
-      <c r="P104">
-        <v>3</v>
-      </c>
-      <c r="Q104">
-        <v>-0.25</v>
-      </c>
-      <c r="R104">
-        <v>1.825</v>
-      </c>
-      <c r="S104">
-        <v>2.025</v>
-      </c>
-      <c r="T104">
-        <v>3.5</v>
-      </c>
       <c r="U104">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W104">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
+        <v>-1</v>
+      </c>
+      <c r="AA104">
         <v>0.825</v>
       </c>
-      <c r="AA104">
-        <v>-1</v>
-      </c>
       <c r="AB104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7173189</v>
+        <v>7173187</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,58 +9783,58 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H105">
+        <v>5</v>
+      </c>
+      <c r="I105">
         <v>1</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>41</v>
       </c>
       <c r="K105">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M105">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N105">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O105">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P105">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q105">
         <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S105">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T105">
         <v>3.5</v>
       </c>
       <c r="U105">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V105">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W105">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9843,16 +9843,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC105">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7173188</v>
+        <v>7173189</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,76 +9872,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H106">
         <v>1</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K106">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="L106">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M106">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N106">
-        <v>1.222</v>
+        <v>2.15</v>
       </c>
       <c r="O106">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P106">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="Q106">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
+        <v>1.9</v>
+      </c>
+      <c r="S106">
+        <v>1.9</v>
+      </c>
+      <c r="T106">
+        <v>3.5</v>
+      </c>
+      <c r="U106">
         <v>1.975</v>
       </c>
-      <c r="S106">
+      <c r="V106">
         <v>1.825</v>
       </c>
-      <c r="T106">
-        <v>3.75</v>
-      </c>
-      <c r="U106">
-        <v>1.9</v>
-      </c>
-      <c r="V106">
-        <v>1.9</v>
-      </c>
       <c r="W106">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X106">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA106">
+        <v>-1</v>
+      </c>
+      <c r="AB106">
+        <v>-1</v>
+      </c>
+      <c r="AC106">
         <v>0.825</v>
-      </c>
-      <c r="AB106">
-        <v>-1</v>
-      </c>
-      <c r="AC106">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:29">

--- a/Iceland Premier League/Iceland Premier League.xlsx
+++ b/Iceland Premier League/Iceland Premier League.xlsx
@@ -121,10 +121,10 @@
     <t>Breidablik</t>
   </si>
   <si>
-    <t>KR Reykjavik</t>
+    <t>KA Akureyri</t>
   </si>
   <si>
-    <t>KA Akureyri</t>
+    <t>KR Reykjavik</t>
   </si>
   <si>
     <t>FH Hafnarfjordur</t>
@@ -708,7 +708,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -797,7 +797,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6102177</v>
+        <v>6102176</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,73 +1153,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>1.833</v>
+        <v>1.6</v>
       </c>
       <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>4.333</v>
+      </c>
+      <c r="N8">
+        <v>1.8</v>
+      </c>
+      <c r="O8">
+        <v>3.8</v>
+      </c>
+      <c r="P8">
         <v>3.6</v>
-      </c>
-      <c r="M8">
-        <v>3.4</v>
-      </c>
-      <c r="N8">
-        <v>1.85</v>
-      </c>
-      <c r="O8">
-        <v>3.6</v>
-      </c>
-      <c r="P8">
-        <v>3.5</v>
       </c>
       <c r="Q8">
         <v>-0.5</v>
       </c>
       <c r="R8">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T8">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U8">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X8">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA8">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6102176</v>
+        <v>6102177</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,73 +1242,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>1.6</v>
+        <v>1.833</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M9">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N9">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O9">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P9">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q9">
         <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6102183</v>
+        <v>6102181</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,58 +1684,58 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>41</v>
       </c>
       <c r="K14">
-        <v>5.25</v>
+        <v>1.833</v>
       </c>
       <c r="L14">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M14">
-        <v>1.45</v>
+        <v>3.6</v>
       </c>
       <c r="N14">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="O14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P14">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="Q14">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R14">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S14">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T14">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U14">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V14">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W14">
-        <v>5</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1744,13 +1744,13 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6102182</v>
+        <v>6102183</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,76 +1773,76 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M15">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="N15">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P15">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="Q15">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R15">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S15">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X15">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.4</v>
+        <v>1.025</v>
       </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6102181</v>
+        <v>6102182</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,76 +1862,76 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K16">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="L16">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N16">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P16">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T16">
         <v>3</v>
       </c>
       <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="V16">
         <v>1.85</v>
       </c>
-      <c r="V16">
-        <v>2</v>
-      </c>
       <c r="W16">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB16">
+        <v>-1</v>
+      </c>
+      <c r="AC16">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC16">
-        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2040,10 +2040,10 @@
         <v>45101.58333333334</v>
       </c>
       <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
         <v>35</v>
-      </c>
-      <c r="G18" t="s">
-        <v>36</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2221,7 +2221,7 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2307,7 +2307,7 @@
         <v>45105.67708333334</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
         <v>40</v>
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6102190</v>
+        <v>6102189</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,49 +2485,49 @@
         <v>45106.67708333334</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23">
+        <v>2.1</v>
+      </c>
+      <c r="L23">
+        <v>3.4</v>
+      </c>
+      <c r="M23">
         <v>3</v>
       </c>
-      <c r="J23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23">
-        <v>5.25</v>
-      </c>
-      <c r="L23">
-        <v>4.333</v>
-      </c>
-      <c r="M23">
-        <v>1.45</v>
-      </c>
       <c r="N23">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="O23">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P23">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q23">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
+        <v>1.925</v>
+      </c>
+      <c r="S23">
         <v>1.875</v>
       </c>
-      <c r="S23">
-        <v>1.925</v>
-      </c>
       <c r="T23">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U23">
         <v>1.925</v>
@@ -2536,19 +2536,19 @@
         <v>1.875</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA23">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
         <v>0.925</v>
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6102189</v>
+        <v>6102190</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,49 +2574,49 @@
         <v>45106.67708333334</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="L24">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="N24">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="O24">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P24">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R24">
+        <v>1.875</v>
+      </c>
+      <c r="S24">
         <v>1.925</v>
       </c>
-      <c r="S24">
-        <v>1.875</v>
-      </c>
       <c r="T24">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U24">
         <v>1.925</v>
@@ -2625,19 +2625,19 @@
         <v>1.875</v>
       </c>
       <c r="W24">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z24">
+        <v>-1</v>
+      </c>
+      <c r="AA24">
         <v>0.925</v>
-      </c>
-      <c r="AA24">
-        <v>-1</v>
       </c>
       <c r="AB24">
         <v>0.925</v>
@@ -3022,7 +3022,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3375,7 +3375,7 @@
         <v>45125.70833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
@@ -3731,7 +3731,7 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
         <v>39</v>
@@ -3912,7 +3912,7 @@
         <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -4265,7 +4265,7 @@
         <v>45137.54166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
         <v>38</v>
@@ -4532,7 +4532,7 @@
         <v>45138.67708333334</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
         <v>33</v>
@@ -4713,7 +4713,7 @@
         <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -4802,7 +4802,7 @@
         <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H49">
         <v>4</v>
@@ -5155,7 +5155,7 @@
         <v>45151.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
         <v>34</v>
@@ -5422,7 +5422,7 @@
         <v>45151.63541666666</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
         <v>32</v>
@@ -5781,7 +5781,7 @@
         <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -6137,7 +6137,7 @@
         <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H64">
         <v>3</v>
@@ -6223,7 +6223,7 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
         <v>31</v>
@@ -6490,7 +6490,7 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
         <v>30</v>
@@ -6760,7 +6760,7 @@
         <v>37</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6102236</v>
+        <v>6102357</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,73 +6935,73 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K73">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="L73">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M73">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="N73">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="O73">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P73">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Q73">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R73">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S73">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T73">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U73">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V73">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X73">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA73">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6102357</v>
+        <v>6102233</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,16 +7024,16 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
         <v>41</v>
@@ -7048,34 +7048,34 @@
         <v>7</v>
       </c>
       <c r="N74">
-        <v>1.3</v>
+        <v>1.333</v>
       </c>
       <c r="O74">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="P74">
         <v>7</v>
       </c>
       <c r="Q74">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R74">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S74">
+        <v>1.925</v>
+      </c>
+      <c r="T74">
+        <v>3.25</v>
+      </c>
+      <c r="U74">
         <v>1.825</v>
       </c>
-      <c r="T74">
-        <v>3.75</v>
-      </c>
-      <c r="U74">
-        <v>1.875</v>
-      </c>
       <c r="V74">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W74">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7084,16 +7084,16 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA74">
         <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6102233</v>
+        <v>6102232</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,76 +7113,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75" t="s">
+        <v>42</v>
+      </c>
+      <c r="K75">
+        <v>2.6</v>
+      </c>
+      <c r="L75">
+        <v>3.6</v>
+      </c>
+      <c r="M75">
+        <v>2.3</v>
+      </c>
+      <c r="N75">
+        <v>2.5</v>
+      </c>
+      <c r="O75">
+        <v>3.6</v>
+      </c>
+      <c r="P75">
+        <v>2.45</v>
+      </c>
+      <c r="Q75">
         <v>0</v>
       </c>
-      <c r="J75" t="s">
-        <v>41</v>
-      </c>
-      <c r="K75">
-        <v>1.333</v>
-      </c>
-      <c r="L75">
-        <v>5</v>
-      </c>
-      <c r="M75">
-        <v>7</v>
-      </c>
-      <c r="N75">
-        <v>1.333</v>
-      </c>
-      <c r="O75">
-        <v>5</v>
-      </c>
-      <c r="P75">
-        <v>7</v>
-      </c>
-      <c r="Q75">
-        <v>-1.5</v>
-      </c>
       <c r="R75">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T75">
         <v>3.25</v>
       </c>
       <c r="U75">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V75">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W75">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6102232</v>
+        <v>6102236</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,55 +7202,55 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
         <v>36</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
         <v>42</v>
       </c>
       <c r="K76">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="L76">
         <v>3.6</v>
       </c>
       <c r="M76">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N76">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O76">
         <v>3.6</v>
       </c>
       <c r="P76">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R76">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S76">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T76">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7262,16 +7262,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA76">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC76">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7736,7 +7736,7 @@
         <v>45189.55208333334</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
         <v>40</v>
@@ -7828,7 +7828,7 @@
         <v>39</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -8003,7 +8003,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
         <v>33</v>
@@ -8273,7 +8273,7 @@
         <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8448,7 +8448,7 @@
         <v>45197.55208333334</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
         <v>29</v>
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7173182</v>
+        <v>7173167</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,13 +8537,13 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G91" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -8552,43 +8552,43 @@
         <v>41</v>
       </c>
       <c r="K91">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="L91">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M91">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N91">
-        <v>1.833</v>
+        <v>1.571</v>
       </c>
       <c r="O91">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P91">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R91">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S91">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T91">
         <v>3.25</v>
       </c>
       <c r="U91">
+        <v>1.775</v>
+      </c>
+      <c r="V91">
         <v>1.925</v>
       </c>
-      <c r="V91">
-        <v>1.875</v>
-      </c>
       <c r="W91">
-        <v>0.833</v>
+        <v>0.571</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8597,16 +8597,16 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB91">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7173168</v>
+        <v>7173166</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,58 +8626,58 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J92" t="s">
         <v>41</v>
       </c>
       <c r="K92">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L92">
+        <v>3.6</v>
+      </c>
+      <c r="M92">
+        <v>2.6</v>
+      </c>
+      <c r="N92">
+        <v>2.7</v>
+      </c>
+      <c r="O92">
+        <v>4</v>
+      </c>
+      <c r="P92">
+        <v>2.1</v>
+      </c>
+      <c r="Q92">
+        <v>0.25</v>
+      </c>
+      <c r="R92">
+        <v>1.925</v>
+      </c>
+      <c r="S92">
+        <v>1.875</v>
+      </c>
+      <c r="T92">
         <v>3.75</v>
       </c>
-      <c r="M92">
-        <v>3.2</v>
-      </c>
-      <c r="N92">
-        <v>1.85</v>
-      </c>
-      <c r="O92">
-        <v>3.8</v>
-      </c>
-      <c r="P92">
-        <v>3.4</v>
-      </c>
-      <c r="Q92">
-        <v>-0.5</v>
-      </c>
-      <c r="R92">
-        <v>1.825</v>
-      </c>
-      <c r="S92">
-        <v>1.975</v>
-      </c>
-      <c r="T92">
-        <v>3.25</v>
-      </c>
       <c r="U92">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V92">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W92">
-        <v>0.8500000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8686,16 +8686,16 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA92">
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC92">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7173183</v>
+        <v>7173182</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,73 +8715,73 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K93">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L93">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M93">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N93">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="O93">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P93">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R93">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S93">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T93">
         <v>3.25</v>
       </c>
       <c r="U93">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X93">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA93">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7173166</v>
+        <v>7173168</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,58 +8804,58 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
         <v>41</v>
       </c>
       <c r="K94">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L94">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M94">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N94">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="O94">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P94">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q94">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R94">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S94">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T94">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U94">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V94">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W94">
-        <v>1.7</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8864,16 +8864,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7173167</v>
+        <v>7173183</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,43 +8893,43 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K95">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M95">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N95">
-        <v>1.571</v>
+        <v>2.45</v>
       </c>
       <c r="O95">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P95">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q95">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S95">
         <v>1.925</v>
@@ -8938,16 +8938,16 @@
         <v>3.25</v>
       </c>
       <c r="U95">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V95">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y95">
         <v>-1</v>
@@ -8959,10 +8959,10 @@
         <v>-0</v>
       </c>
       <c r="AB95">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC95">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
         <v>34</v>
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7173185</v>
+        <v>7173186</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,76 +9160,76 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
         <v>0</v>
       </c>
-      <c r="I98">
-        <v>1</v>
-      </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K98">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="L98">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M98">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="N98">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="O98">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P98">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q98">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
         <v>1.825</v>
       </c>
       <c r="S98">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T98">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U98">
         <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA98">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7173186</v>
+        <v>7173185</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,76 +9249,76 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
         <v>1</v>
       </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
       <c r="J99" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K99">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="L99">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M99">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="N99">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="O99">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P99">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R99">
         <v>1.825</v>
       </c>
       <c r="S99">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T99">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U99">
         <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z99">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7173173</v>
+        <v>7173172</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,13 +9516,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -9531,43 +9531,43 @@
         <v>41</v>
       </c>
       <c r="K102">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L102">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M102">
+        <v>2.6</v>
+      </c>
+      <c r="N102">
+        <v>2.25</v>
+      </c>
+      <c r="O102">
         <v>3.75</v>
       </c>
-      <c r="N102">
-        <v>1.533</v>
-      </c>
-      <c r="O102">
-        <v>4.75</v>
-      </c>
       <c r="P102">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q102">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S102">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T102">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U102">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
-        <v>0.5329999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9576,13 +9576,13 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7173172</v>
+        <v>7173173</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,13 +9605,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -9620,43 +9620,43 @@
         <v>41</v>
       </c>
       <c r="K103">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L103">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M103">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N103">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="O103">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P103">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="Q103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R103">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S103">
+        <v>2</v>
+      </c>
+      <c r="T103">
+        <v>4</v>
+      </c>
+      <c r="U103">
         <v>2.025</v>
       </c>
-      <c r="T103">
-        <v>3.5</v>
-      </c>
-      <c r="U103">
-        <v>1.875</v>
-      </c>
       <c r="V103">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
-        <v>1.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9665,13 +9665,13 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7173188</v>
+        <v>7173187</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K104">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L104">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M104">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="N104">
-        <v>1.222</v>
+        <v>2.1</v>
       </c>
       <c r="O104">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P104">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q104">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S104">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T104">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V104">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X104">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA104">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC104">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7173187</v>
+        <v>7173189</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,58 +9783,58 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H105">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>41</v>
       </c>
       <c r="K105">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L105">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M105">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N105">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O105">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P105">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q105">
         <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S105">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T105">
         <v>3.5</v>
       </c>
       <c r="U105">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V105">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W105">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9843,16 +9843,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA105">
+        <v>-1</v>
+      </c>
+      <c r="AB105">
+        <v>-1</v>
+      </c>
+      <c r="AC105">
         <v>0.825</v>
-      </c>
-      <c r="AA105">
-        <v>-1</v>
-      </c>
-      <c r="AB105">
-        <v>1</v>
-      </c>
-      <c r="AC105">
-        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7173189</v>
+        <v>7173188</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,76 +9872,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H106">
         <v>1</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K106">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M106">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N106">
-        <v>2.15</v>
+        <v>1.222</v>
       </c>
       <c r="O106">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P106">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R106">
+        <v>1.975</v>
+      </c>
+      <c r="S106">
+        <v>1.825</v>
+      </c>
+      <c r="T106">
+        <v>3.75</v>
+      </c>
+      <c r="U106">
         <v>1.9</v>
       </c>
-      <c r="S106">
+      <c r="V106">
         <v>1.9</v>
       </c>
-      <c r="T106">
-        <v>3.5</v>
-      </c>
-      <c r="U106">
-        <v>1.975</v>
-      </c>
-      <c r="V106">
-        <v>1.825</v>
-      </c>
       <c r="W106">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
+        <v>-1</v>
+      </c>
+      <c r="AA106">
+        <v>0.825</v>
+      </c>
+      <c r="AB106">
+        <v>-1</v>
+      </c>
+      <c r="AC106">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA106">
-        <v>-1</v>
-      </c>
-      <c r="AB106">
-        <v>-1</v>
-      </c>
-      <c r="AC106">
-        <v>0.825</v>
       </c>
     </row>
     <row r="107" spans="1:29">

--- a/Iceland Premier League/Iceland Premier League.xlsx
+++ b/Iceland Premier League/Iceland Premier League.xlsx
@@ -115,10 +115,10 @@
     <t>Fram Reykjavik</t>
   </si>
   <si>
-    <t>Valur Reykjavik</t>
+    <t>Breidablik</t>
   </si>
   <si>
-    <t>Breidablik</t>
+    <t>Valur Reykjavik</t>
   </si>
   <si>
     <t>KA Akureyri</t>
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6102346</v>
+        <v>6102174</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,73 +975,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
         <v>42</v>
       </c>
       <c r="K6">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M6">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N6">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="O6">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P6">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S6">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T6">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U6">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA6">
-        <v>0.8</v>
+        <v>0.3875</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1049,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6102174</v>
+        <v>6102346</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1064,73 +1064,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
         <v>42</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L7">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N7">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O7">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P7">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R7">
+        <v>2.05</v>
+      </c>
+      <c r="S7">
+        <v>1.8</v>
+      </c>
+      <c r="T7">
+        <v>3.25</v>
+      </c>
+      <c r="U7">
         <v>2.025</v>
       </c>
-      <c r="S7">
-        <v>1.775</v>
-      </c>
-      <c r="T7">
-        <v>2.75</v>
-      </c>
-      <c r="U7">
-        <v>1.9</v>
-      </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.3875</v>
+        <v>0.8</v>
       </c>
       <c r="AB7">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1331,7 +1331,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1420,7 +1420,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6102181</v>
+        <v>6102183</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,58 +1684,58 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
         <v>41</v>
       </c>
       <c r="K14">
-        <v>1.833</v>
+        <v>5.25</v>
       </c>
       <c r="L14">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M14">
-        <v>3.6</v>
+        <v>1.45</v>
       </c>
       <c r="N14">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="O14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P14">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R14">
+        <v>2.025</v>
+      </c>
+      <c r="S14">
+        <v>1.825</v>
+      </c>
+      <c r="T14">
+        <v>3.25</v>
+      </c>
+      <c r="U14">
         <v>1.975</v>
       </c>
-      <c r="S14">
+      <c r="V14">
         <v>1.875</v>
       </c>
-      <c r="T14">
-        <v>3</v>
-      </c>
-      <c r="U14">
-        <v>1.85</v>
-      </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
       <c r="W14">
-        <v>0.7270000000000001</v>
+        <v>5</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1744,13 +1744,13 @@
         <v>-1</v>
       </c>
       <c r="Z14">
+        <v>1.025</v>
+      </c>
+      <c r="AA14">
+        <v>-1</v>
+      </c>
+      <c r="AB14">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA14">
-        <v>-1</v>
-      </c>
-      <c r="AB14">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6102183</v>
+        <v>6102181</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,58 +1773,58 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>41</v>
       </c>
       <c r="K15">
-        <v>5.25</v>
+        <v>1.833</v>
       </c>
       <c r="L15">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M15">
-        <v>1.45</v>
+        <v>3.6</v>
       </c>
       <c r="N15">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="O15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P15">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="Q15">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R15">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S15">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T15">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U15">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V15">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>5</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1833,13 +1833,13 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1954,7 +1954,7 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6102189</v>
+        <v>6102190</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,49 +2485,49 @@
         <v>45106.67708333334</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K23">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="L23">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="N23">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="O23">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P23">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R23">
+        <v>1.875</v>
+      </c>
+      <c r="S23">
         <v>1.925</v>
       </c>
-      <c r="S23">
-        <v>1.875</v>
-      </c>
       <c r="T23">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U23">
         <v>1.925</v>
@@ -2536,19 +2536,19 @@
         <v>1.875</v>
       </c>
       <c r="W23">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z23">
+        <v>-1</v>
+      </c>
+      <c r="AA23">
         <v>0.925</v>
-      </c>
-      <c r="AA23">
-        <v>-1</v>
       </c>
       <c r="AB23">
         <v>0.925</v>
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6102190</v>
+        <v>6102189</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,49 +2574,49 @@
         <v>45106.67708333334</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24">
+        <v>2.1</v>
+      </c>
+      <c r="L24">
+        <v>3.4</v>
+      </c>
+      <c r="M24">
         <v>3</v>
       </c>
-      <c r="J24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24">
-        <v>5.25</v>
-      </c>
-      <c r="L24">
-        <v>4.333</v>
-      </c>
-      <c r="M24">
-        <v>1.45</v>
-      </c>
       <c r="N24">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="O24">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P24">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q24">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
+        <v>1.925</v>
+      </c>
+      <c r="S24">
         <v>1.875</v>
       </c>
-      <c r="S24">
-        <v>1.925</v>
-      </c>
       <c r="T24">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U24">
         <v>1.925</v>
@@ -2625,19 +2625,19 @@
         <v>1.875</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA24">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
         <v>0.925</v>
@@ -2663,7 +2663,7 @@
         <v>45114.67708333334</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
         <v>30</v>
@@ -2930,7 +2930,7 @@
         <v>45119.67708333334</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
         <v>30</v>
@@ -3111,7 +3111,7 @@
         <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6102200</v>
+        <v>6922578</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,76 +3375,76 @@
         <v>45125.70833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K33">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L33">
         <v>3.6</v>
       </c>
       <c r="M33">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N33">
         <v>2.05</v>
       </c>
       <c r="O33">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P33">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q33">
         <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S33">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T33">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U33">
         <v>1.925</v>
       </c>
       <c r="V33">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W33">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB33">
         <v>-1</v>
       </c>
       <c r="AC33">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6922578</v>
+        <v>6102200</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,76 +3464,76 @@
         <v>45125.70833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K34">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L34">
         <v>3.6</v>
       </c>
       <c r="M34">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N34">
         <v>2.05</v>
       </c>
       <c r="O34">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P34">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q34">
         <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S34">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T34">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U34">
         <v>1.925</v>
       </c>
       <c r="V34">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X34">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA34">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>45128.625</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
         <v>29</v>
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6102206</v>
+        <v>6102207</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,76 +3642,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K36">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M36">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="N36">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="O36">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P36">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="Q36">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R36">
         <v>1.925</v>
       </c>
       <c r="S36">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T36">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U36">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V36">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W36">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA36">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6542524</v>
+        <v>6102206</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,76 +3731,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K37">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="L37">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M37">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N37">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="O37">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P37">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="Q37">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R37">
+        <v>1.925</v>
+      </c>
+      <c r="S37">
         <v>1.775</v>
       </c>
-      <c r="S37">
-        <v>2.025</v>
-      </c>
       <c r="T37">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U37">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB37">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6102207</v>
+        <v>6542524</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,76 +3820,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K38">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L38">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M38">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="N38">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="O38">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P38">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="Q38">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R38">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S38">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T38">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U38">
+        <v>1.825</v>
+      </c>
+      <c r="V38">
         <v>1.975</v>
       </c>
-      <c r="V38">
-        <v>1.825</v>
-      </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z38">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC38">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4176,7 +4176,7 @@
         <v>45136.63541666666</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
         <v>31</v>
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6102350</v>
+        <v>6102213</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,43 +4443,43 @@
         <v>45138.67708333334</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J45" t="s">
         <v>43</v>
       </c>
       <c r="K45">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="L45">
+        <v>3.5</v>
+      </c>
+      <c r="M45">
+        <v>2.3</v>
+      </c>
+      <c r="N45">
+        <v>2.7</v>
+      </c>
+      <c r="O45">
         <v>3.6</v>
       </c>
-      <c r="M45">
-        <v>1.909</v>
-      </c>
-      <c r="N45">
-        <v>3.8</v>
-      </c>
-      <c r="O45">
-        <v>3.75</v>
-      </c>
       <c r="P45">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="Q45">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S45">
         <v>1.85</v>
@@ -4488,10 +4488,10 @@
         <v>3</v>
       </c>
       <c r="U45">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V45">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W45">
         <v>-1</v>
@@ -4500,7 +4500,7 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>0.8500000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="Z45">
         <v>-1</v>
@@ -4509,7 +4509,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB45">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6102213</v>
+        <v>6102350</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,43 +4532,43 @@
         <v>45138.67708333334</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J46" t="s">
         <v>43</v>
       </c>
       <c r="K46">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="L46">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M46">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N46">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="O46">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P46">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S46">
         <v>1.85</v>
@@ -4577,10 +4577,10 @@
         <v>3</v>
       </c>
       <c r="U46">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V46">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W46">
         <v>-1</v>
@@ -4589,7 +4589,7 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z46">
         <v>-1</v>
@@ -4598,7 +4598,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB46">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4710,7 +4710,7 @@
         <v>45144.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
         <v>36</v>
@@ -4799,7 +4799,7 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
         <v>35</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6102216</v>
+        <v>6102217</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,76 +4888,76 @@
         <v>45146.67708333334</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K50">
+        <v>2.05</v>
+      </c>
+      <c r="L50">
         <v>3.6</v>
       </c>
-      <c r="L50">
-        <v>3.75</v>
-      </c>
       <c r="M50">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="N50">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="O50">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P50">
+        <v>3.25</v>
+      </c>
+      <c r="Q50">
+        <v>-0.25</v>
+      </c>
+      <c r="R50">
+        <v>1.85</v>
+      </c>
+      <c r="S50">
         <v>1.95</v>
       </c>
-      <c r="Q50">
-        <v>0.5</v>
-      </c>
-      <c r="R50">
-        <v>1.875</v>
-      </c>
-      <c r="S50">
-        <v>1.925</v>
-      </c>
       <c r="T50">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U50">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA50">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AB50">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6102217</v>
+        <v>6102216</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,76 +4977,76 @@
         <v>45146.67708333334</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K51">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="L51">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M51">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="N51">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="O51">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P51">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R51">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S51">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T51">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U51">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z51">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC51">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5158,7 +5158,7 @@
         <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6102352</v>
+        <v>6102353</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,76 +5244,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K54">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="L54">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M54">
-        <v>1.363</v>
+        <v>4.333</v>
       </c>
       <c r="N54">
-        <v>5.25</v>
+        <v>1.727</v>
       </c>
       <c r="O54">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P54">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q54">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R54">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S54">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T54">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U54">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V54">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X54">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC54">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6102353</v>
+        <v>6102352</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,76 +5333,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55">
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K55">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="L55">
+        <v>4.75</v>
+      </c>
+      <c r="M55">
+        <v>1.363</v>
+      </c>
+      <c r="N55">
+        <v>5.25</v>
+      </c>
+      <c r="O55">
+        <v>4.75</v>
+      </c>
+      <c r="P55">
+        <v>1.4</v>
+      </c>
+      <c r="Q55">
+        <v>1.25</v>
+      </c>
+      <c r="R55">
+        <v>1.9</v>
+      </c>
+      <c r="S55">
+        <v>1.9</v>
+      </c>
+      <c r="T55">
+        <v>3.25</v>
+      </c>
+      <c r="U55">
+        <v>1.85</v>
+      </c>
+      <c r="V55">
+        <v>1.95</v>
+      </c>
+      <c r="W55">
+        <v>-1</v>
+      </c>
+      <c r="X55">
         <v>3.75</v>
       </c>
-      <c r="M55">
-        <v>4.333</v>
-      </c>
-      <c r="N55">
-        <v>1.727</v>
-      </c>
-      <c r="O55">
-        <v>3.6</v>
-      </c>
-      <c r="P55">
-        <v>4.2</v>
-      </c>
-      <c r="Q55">
-        <v>-0.75</v>
-      </c>
-      <c r="R55">
-        <v>1.975</v>
-      </c>
-      <c r="S55">
-        <v>1.825</v>
-      </c>
-      <c r="T55">
-        <v>2.75</v>
-      </c>
-      <c r="U55">
-        <v>1.825</v>
-      </c>
-      <c r="V55">
-        <v>1.975</v>
-      </c>
-      <c r="W55">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X55">
-        <v>-1</v>
-      </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5867,7 +5867,7 @@
         <v>45158.625</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
         <v>40</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6102354</v>
+        <v>6102225</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,40 +5956,40 @@
         <v>45158.67708333334</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K62">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="L62">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M62">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="N62">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="O62">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P62">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="Q62">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R62">
         <v>1.9</v>
@@ -5998,31 +5998,31 @@
         <v>1.9</v>
       </c>
       <c r="T62">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U62">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V62">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z62">
+        <v>-1</v>
+      </c>
+      <c r="AA62">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA62">
-        <v>-1</v>
-      </c>
       <c r="AB62">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6102225</v>
+        <v>6102354</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,40 +6045,40 @@
         <v>45158.67708333334</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63" t="s">
+        <v>42</v>
+      </c>
+      <c r="K63">
+        <v>2.75</v>
+      </c>
+      <c r="L63">
+        <v>3.75</v>
+      </c>
+      <c r="M63">
+        <v>2.25</v>
+      </c>
+      <c r="N63">
+        <v>3.3</v>
+      </c>
+      <c r="O63">
         <v>4</v>
       </c>
-      <c r="J63" t="s">
-        <v>43</v>
-      </c>
-      <c r="K63">
-        <v>2.45</v>
-      </c>
-      <c r="L63">
-        <v>3.6</v>
-      </c>
-      <c r="M63">
-        <v>2.45</v>
-      </c>
-      <c r="N63">
-        <v>2.9</v>
-      </c>
-      <c r="O63">
-        <v>3.6</v>
-      </c>
       <c r="P63">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q63">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R63">
         <v>1.9</v>
@@ -6087,31 +6087,31 @@
         <v>1.9</v>
       </c>
       <c r="T63">
+        <v>3.25</v>
+      </c>
+      <c r="U63">
+        <v>1.95</v>
+      </c>
+      <c r="V63">
+        <v>1.85</v>
+      </c>
+      <c r="W63">
+        <v>-1</v>
+      </c>
+      <c r="X63">
         <v>3</v>
       </c>
-      <c r="U63">
-        <v>1.875</v>
-      </c>
-      <c r="V63">
-        <v>1.925</v>
-      </c>
-      <c r="W63">
-        <v>-1</v>
-      </c>
-      <c r="X63">
-        <v>-1</v>
-      </c>
       <c r="Y63">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA63">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6315,7 +6315,7 @@
         <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H66">
         <v>3</v>
@@ -6389,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6102230</v>
+        <v>6102229</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6401,76 +6401,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K67">
-        <v>2.55</v>
+        <v>1.55</v>
       </c>
       <c r="L67">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M67">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N67">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O67">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P67">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R67">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S67">
         <v>1.825</v>
       </c>
       <c r="T67">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U67">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V67">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X67">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA67">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6102229</v>
+        <v>6102230</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,76 +6490,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K68">
-        <v>1.55</v>
+        <v>2.55</v>
       </c>
       <c r="L68">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M68">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="N68">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="O68">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P68">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q68">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S68">
         <v>1.825</v>
       </c>
       <c r="T68">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U68">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6582,7 +6582,7 @@
         <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H69">
         <v>5</v>
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6102234</v>
+        <v>6102235</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,55 +6846,55 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
         <v>43</v>
       </c>
       <c r="K72">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="L72">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M72">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="N72">
-        <v>7</v>
+        <v>1.65</v>
       </c>
       <c r="O72">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P72">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="Q72">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R72">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S72">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T72">
         <v>3.5</v>
       </c>
       <c r="U72">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V72">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W72">
         <v>-1</v>
@@ -6903,19 +6903,19 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0.363</v>
+        <v>3</v>
       </c>
       <c r="Z72">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB72">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6935,7 +6935,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
         <v>38</v>
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6102233</v>
+        <v>6102236</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,76 +7024,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G74" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K74">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="L74">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M74">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="N74">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="O74">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P74">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="Q74">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S74">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T74">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
         <v>1.825</v>
       </c>
       <c r="V74">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W74">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB74">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC74">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6102236</v>
+        <v>6102234</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,73 +7202,73 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H76">
         <v>2</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K76">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="L76">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M76">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="N76">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P76">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="Q76">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R76">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S76">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z76">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
       <c r="AA76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC76">
         <v>-1</v>
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6102235</v>
+        <v>6102233</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,76 +7291,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H77">
+        <v>3</v>
+      </c>
+      <c r="I77">
         <v>0</v>
       </c>
-      <c r="I77">
-        <v>2</v>
-      </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K77">
-        <v>1.6</v>
+        <v>1.333</v>
       </c>
       <c r="L77">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M77">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="N77">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O77">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P77">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S77">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T77">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U77">
         <v>1.825</v>
       </c>
       <c r="V77">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA77">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC77">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7469,7 +7469,7 @@
         <v>45186.625</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
         <v>37</v>
@@ -7558,7 +7558,7 @@
         <v>45186.67708333334</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
         <v>31</v>
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7173164</v>
+        <v>7173179</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8003,76 +8003,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H85">
         <v>2</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K85">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L85">
         <v>3.6</v>
       </c>
       <c r="M85">
+        <v>2.45</v>
+      </c>
+      <c r="N85">
         <v>2.375</v>
       </c>
-      <c r="N85">
-        <v>2.25</v>
-      </c>
       <c r="O85">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P85">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R85">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S85">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T85">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U85">
+        <v>1.975</v>
+      </c>
+      <c r="V85">
         <v>1.825</v>
       </c>
-      <c r="V85">
-        <v>1.975</v>
-      </c>
       <c r="W85">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X85">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
+        <v>0.8</v>
+      </c>
+      <c r="AA85">
+        <v>-1</v>
+      </c>
+      <c r="AB85">
         <v>-0.5</v>
       </c>
-      <c r="AA85">
-        <v>0.375</v>
-      </c>
-      <c r="AB85">
-        <v>0.825</v>
-      </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7173179</v>
+        <v>7173164</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8092,76 +8092,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H86">
         <v>2</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K86">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L86">
         <v>3.6</v>
       </c>
       <c r="M86">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="N86">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O86">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P86">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="Q86">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S86">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T86">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U86">
+        <v>1.825</v>
+      </c>
+      <c r="V86">
         <v>1.975</v>
       </c>
-      <c r="V86">
-        <v>1.825</v>
-      </c>
       <c r="W86">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB86">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC86">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>45194.67708333334</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
         <v>39</v>
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7173167</v>
+        <v>7173183</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,43 +8537,43 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H91">
         <v>2</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K91">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M91">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N91">
-        <v>1.571</v>
+        <v>2.45</v>
       </c>
       <c r="O91">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P91">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q91">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S91">
         <v>1.925</v>
@@ -8582,16 +8582,16 @@
         <v>3.25</v>
       </c>
       <c r="U91">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V91">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W91">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y91">
         <v>-1</v>
@@ -8603,10 +8603,10 @@
         <v>-0</v>
       </c>
       <c r="AB91">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC91">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8626,10 +8626,10 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F92" t="s">
+        <v>34</v>
+      </c>
+      <c r="G92" t="s">
         <v>33</v>
-      </c>
-      <c r="G92" t="s">
-        <v>34</v>
       </c>
       <c r="H92">
         <v>4</v>
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7173182</v>
+        <v>7173168</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,37 +8715,37 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
         <v>41</v>
       </c>
       <c r="K93">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L93">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M93">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N93">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="O93">
         <v>3.8</v>
       </c>
       <c r="P93">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q93">
         <v>-0.5</v>
@@ -8760,13 +8760,13 @@
         <v>3.25</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W93">
-        <v>0.833</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8781,10 +8781,10 @@
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7173168</v>
+        <v>7173167</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,58 +8804,58 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H94">
         <v>2</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
         <v>41</v>
       </c>
       <c r="K94">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="L94">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M94">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N94">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="O94">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P94">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R94">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S94">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T94">
         <v>3.25</v>
       </c>
       <c r="U94">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V94">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W94">
-        <v>0.8500000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8864,16 +8864,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC94">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7173183</v>
+        <v>7173182</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,73 +8893,73 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K95">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L95">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M95">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N95">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="O95">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P95">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S95">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T95">
         <v>3.25</v>
       </c>
       <c r="U95">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X95">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA95">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -8985,7 +8985,7 @@
         <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H96">
         <v>4</v>
@@ -9338,7 +9338,7 @@
         <v>45200.67708333334</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7173172</v>
+        <v>7173188</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,76 +9516,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K102">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L102">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M102">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="N102">
-        <v>2.25</v>
+        <v>1.222</v>
       </c>
       <c r="O102">
+        <v>5.5</v>
+      </c>
+      <c r="P102">
+        <v>9</v>
+      </c>
+      <c r="Q102">
+        <v>-2</v>
+      </c>
+      <c r="R102">
+        <v>1.975</v>
+      </c>
+      <c r="S102">
+        <v>1.825</v>
+      </c>
+      <c r="T102">
         <v>3.75</v>
       </c>
-      <c r="P102">
-        <v>2.55</v>
-      </c>
-      <c r="Q102">
-        <v>0</v>
-      </c>
-      <c r="R102">
-        <v>1.775</v>
-      </c>
-      <c r="S102">
-        <v>2.025</v>
-      </c>
-      <c r="T102">
-        <v>3.5</v>
-      </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W102">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB102">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7173173</v>
+        <v>7173189</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,58 +9605,58 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>41</v>
       </c>
       <c r="K103">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="L103">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M103">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N103">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="O103">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P103">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q103">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S103">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T103">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U103">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V103">
         <v>1.825</v>
       </c>
       <c r="W103">
-        <v>0.5329999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9665,16 +9665,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7173187</v>
+        <v>7173173</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,10 +9694,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H104">
         <v>5</v>
@@ -9709,43 +9709,43 @@
         <v>41</v>
       </c>
       <c r="K104">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L104">
+        <v>4.333</v>
+      </c>
+      <c r="M104">
         <v>3.75</v>
       </c>
-      <c r="M104">
-        <v>2.9</v>
-      </c>
       <c r="N104">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="O104">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P104">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R104">
+        <v>1.85</v>
+      </c>
+      <c r="S104">
+        <v>2</v>
+      </c>
+      <c r="T104">
+        <v>4</v>
+      </c>
+      <c r="U104">
+        <v>2.025</v>
+      </c>
+      <c r="V104">
         <v>1.825</v>
       </c>
-      <c r="S104">
-        <v>2.025</v>
-      </c>
-      <c r="T104">
-        <v>3.5</v>
-      </c>
-      <c r="U104">
-        <v>2</v>
-      </c>
-      <c r="V104">
-        <v>1.85</v>
-      </c>
       <c r="W104">
-        <v>1.1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9754,13 +9754,13 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7173189</v>
+        <v>7173187</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,58 +9783,58 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H105">
+        <v>5</v>
+      </c>
+      <c r="I105">
         <v>1</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>41</v>
       </c>
       <c r="K105">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M105">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N105">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O105">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P105">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q105">
         <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S105">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T105">
         <v>3.5</v>
       </c>
       <c r="U105">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V105">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W105">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9843,16 +9843,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC105">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7173188</v>
+        <v>7173172</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,76 +9872,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I106">
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K106">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L106">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M106">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="N106">
-        <v>1.222</v>
+        <v>2.25</v>
       </c>
       <c r="O106">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="P106">
-        <v>9</v>
+        <v>2.55</v>
       </c>
       <c r="Q106">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R106">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S106">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T106">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U106">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V106">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X106">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA106">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC106">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9961,7 +9961,7 @@
         <v>45207.45833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
         <v>31</v>

--- a/Iceland Premier League/Iceland Premier League.xlsx
+++ b/Iceland Premier League/Iceland Premier League.xlsx
@@ -112,13 +112,13 @@
     <t>Stjarnan</t>
   </si>
   <si>
-    <t>Fram Reykjavik</t>
+    <t>Valur Reykjavik</t>
   </si>
   <si>
     <t>Breidablik</t>
   </si>
   <si>
-    <t>Valur Reykjavik</t>
+    <t>Fram Reykjavik</t>
   </si>
   <si>
     <t>KA Akureyri</t>
@@ -133,10 +133,10 @@
     <t>HK Kopavogur</t>
   </si>
   <si>
-    <t>Vikingur Reykjavik</t>
+    <t>Keflavik</t>
   </si>
   <si>
-    <t>Keflavik</t>
+    <t>Vikingur Reykjavik</t>
   </si>
   <si>
     <t>H</t>
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6102175</v>
+        <v>6102346</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L5">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M5">
+        <v>4.2</v>
+      </c>
+      <c r="N5">
+        <v>1.615</v>
+      </c>
+      <c r="O5">
+        <v>4.2</v>
+      </c>
+      <c r="P5">
+        <v>4.333</v>
+      </c>
+      <c r="Q5">
+        <v>-1</v>
+      </c>
+      <c r="R5">
+        <v>2.05</v>
+      </c>
+      <c r="S5">
+        <v>1.8</v>
+      </c>
+      <c r="T5">
         <v>3.25</v>
       </c>
-      <c r="N5">
-        <v>1.909</v>
-      </c>
-      <c r="O5">
-        <v>3.6</v>
-      </c>
-      <c r="P5">
-        <v>3.5</v>
-      </c>
-      <c r="Q5">
-        <v>-0.5</v>
-      </c>
-      <c r="R5">
-        <v>1.95</v>
-      </c>
-      <c r="S5">
-        <v>1.85</v>
-      </c>
-      <c r="T5">
-        <v>2.75</v>
-      </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W5">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB5">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -975,7 +975,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1049,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6102346</v>
+        <v>6102175</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1064,73 +1064,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M7">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N7">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O7">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P7">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S7">
+        <v>1.85</v>
+      </c>
+      <c r="T7">
+        <v>2.75</v>
+      </c>
+      <c r="U7">
         <v>1.8</v>
       </c>
-      <c r="T7">
-        <v>3.25</v>
-      </c>
-      <c r="U7">
-        <v>2.025</v>
-      </c>
       <c r="V7">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X7">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA7">
+        <v>-1</v>
+      </c>
+      <c r="AB7">
         <v>0.8</v>
       </c>
-      <c r="AB7">
-        <v>-1</v>
-      </c>
       <c r="AC7">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1420,7 +1420,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6102179</v>
+        <v>6102180</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1509,73 +1509,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="L12">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M12">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="N12">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="O12">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P12">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q12">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R12">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T12">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V12">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W12">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6102180</v>
+        <v>6102179</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1598,73 +1598,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="L13">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M13">
+        <v>5.5</v>
+      </c>
+      <c r="N13">
+        <v>1.3</v>
+      </c>
+      <c r="O13">
+        <v>5.25</v>
+      </c>
+      <c r="P13">
+        <v>6.5</v>
+      </c>
+      <c r="Q13">
+        <v>-1.5</v>
+      </c>
+      <c r="R13">
         <v>1.85</v>
       </c>
-      <c r="N13">
-        <v>4.2</v>
-      </c>
-      <c r="O13">
+      <c r="S13">
+        <v>1.95</v>
+      </c>
+      <c r="T13">
         <v>3.5</v>
       </c>
-      <c r="P13">
-        <v>1.727</v>
-      </c>
-      <c r="Q13">
-        <v>0.75</v>
-      </c>
-      <c r="R13">
-        <v>1.8</v>
-      </c>
-      <c r="S13">
-        <v>2</v>
-      </c>
-      <c r="T13">
-        <v>2.75</v>
-      </c>
       <c r="U13">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V13">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X13">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6102181</v>
+        <v>6102182</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,76 +1773,76 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K15">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="L15">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N15">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P15">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R15">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S15">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T15">
         <v>3</v>
       </c>
       <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="V15">
         <v>1.85</v>
       </c>
-      <c r="V15">
-        <v>2</v>
-      </c>
       <c r="W15">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB15">
+        <v>-1</v>
+      </c>
+      <c r="AC15">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC15">
-        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6102182</v>
+        <v>6102181</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,76 +1862,76 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L16">
+        <v>3.75</v>
+      </c>
+      <c r="M16">
         <v>3.6</v>
       </c>
-      <c r="M16">
-        <v>2.625</v>
-      </c>
       <c r="N16">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="O16">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P16">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T16">
         <v>3</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V16">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X16">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC16">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1954,7 +1954,7 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>45101.67708333334</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
         <v>31</v>
@@ -2310,7 +2310,7 @@
         <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2396,7 +2396,7 @@
         <v>45105.67708333334</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
         <v>38</v>
@@ -2488,7 +2488,7 @@
         <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2755,7 +2755,7 @@
         <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2841,10 +2841,10 @@
         <v>45115.58333333334</v>
       </c>
       <c r="F27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" t="s">
         <v>40</v>
-      </c>
-      <c r="G27" t="s">
-        <v>39</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2930,7 +2930,7 @@
         <v>45119.67708333334</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
         <v>30</v>
@@ -3108,7 +3108,7 @@
         <v>45121.71875</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
         <v>33</v>
@@ -3200,7 +3200,7 @@
         <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3289,7 +3289,7 @@
         <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6102207</v>
+        <v>6102206</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,76 +3642,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="L36">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M36">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="N36">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="O36">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P36">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="Q36">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R36">
         <v>1.925</v>
       </c>
       <c r="S36">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T36">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U36">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V36">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X36">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6102206</v>
+        <v>6542524</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,76 +3731,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K37">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="L37">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M37">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N37">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="O37">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P37">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="Q37">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R37">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S37">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T37">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V37">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W37">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC37">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6542524</v>
+        <v>6102207</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,76 +3820,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K38">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L38">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M38">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="N38">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="O38">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P38">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="Q38">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R38">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S38">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T38">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U38">
+        <v>1.975</v>
+      </c>
+      <c r="V38">
         <v>1.825</v>
       </c>
-      <c r="V38">
-        <v>1.975</v>
-      </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y38">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA38">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3909,7 +3909,7 @@
         <v>45131.625</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s">
         <v>35</v>
@@ -4090,7 +4090,7 @@
         <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H41">
         <v>4</v>
@@ -4354,7 +4354,7 @@
         <v>45137.58333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
         <v>29</v>
@@ -4446,7 +4446,7 @@
         <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4532,7 +4532,7 @@
         <v>45138.67708333334</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G46" t="s">
         <v>37</v>
@@ -4799,7 +4799,7 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
         <v>35</v>
@@ -4888,7 +4888,7 @@
         <v>45146.67708333334</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
         <v>30</v>
@@ -4980,7 +4980,7 @@
         <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5069,7 +5069,7 @@
         <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6102353</v>
+        <v>6102352</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,76 +5244,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K54">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="L54">
+        <v>4.75</v>
+      </c>
+      <c r="M54">
+        <v>1.363</v>
+      </c>
+      <c r="N54">
+        <v>5.25</v>
+      </c>
+      <c r="O54">
+        <v>4.75</v>
+      </c>
+      <c r="P54">
+        <v>1.4</v>
+      </c>
+      <c r="Q54">
+        <v>1.25</v>
+      </c>
+      <c r="R54">
+        <v>1.9</v>
+      </c>
+      <c r="S54">
+        <v>1.9</v>
+      </c>
+      <c r="T54">
+        <v>3.25</v>
+      </c>
+      <c r="U54">
+        <v>1.85</v>
+      </c>
+      <c r="V54">
+        <v>1.95</v>
+      </c>
+      <c r="W54">
+        <v>-1</v>
+      </c>
+      <c r="X54">
         <v>3.75</v>
       </c>
-      <c r="M54">
-        <v>4.333</v>
-      </c>
-      <c r="N54">
-        <v>1.727</v>
-      </c>
-      <c r="O54">
-        <v>3.6</v>
-      </c>
-      <c r="P54">
-        <v>4.2</v>
-      </c>
-      <c r="Q54">
-        <v>-0.75</v>
-      </c>
-      <c r="R54">
-        <v>1.975</v>
-      </c>
-      <c r="S54">
-        <v>1.825</v>
-      </c>
-      <c r="T54">
-        <v>2.75</v>
-      </c>
-      <c r="U54">
-        <v>1.825</v>
-      </c>
-      <c r="V54">
-        <v>1.975</v>
-      </c>
-      <c r="W54">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X54">
-        <v>-1</v>
-      </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6102352</v>
+        <v>6102353</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,76 +5333,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55">
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K55">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="L55">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M55">
-        <v>1.363</v>
+        <v>4.333</v>
       </c>
       <c r="N55">
-        <v>5.25</v>
+        <v>1.727</v>
       </c>
       <c r="O55">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P55">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q55">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R55">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S55">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T55">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X55">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC55">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5425,7 +5425,7 @@
         <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -5511,7 +5511,7 @@
         <v>45151.67708333334</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
         <v>38</v>
@@ -5778,7 +5778,7 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
         <v>35</v>
@@ -5870,7 +5870,7 @@
         <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5956,10 +5956,10 @@
         <v>45158.67708333334</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -6315,7 +6315,7 @@
         <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H66">
         <v>3</v>
@@ -6490,10 +6490,10 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6579,7 +6579,7 @@
         <v>45165.67708333334</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G69" t="s">
         <v>33</v>
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6102235</v>
+        <v>6102357</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K72">
-        <v>1.6</v>
+        <v>1.333</v>
       </c>
       <c r="L72">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M72">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="N72">
-        <v>1.65</v>
+        <v>1.3</v>
       </c>
       <c r="O72">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P72">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q72">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R72">
+        <v>1.975</v>
+      </c>
+      <c r="S72">
         <v>1.825</v>
       </c>
-      <c r="S72">
-        <v>1.975</v>
-      </c>
       <c r="T72">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U72">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V72">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA72">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC72">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6102357</v>
+        <v>6102236</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,73 +6935,73 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K73">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="L73">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M73">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="N73">
-        <v>1.3</v>
+        <v>2.625</v>
       </c>
       <c r="O73">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P73">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="Q73">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R73">
+        <v>1.775</v>
+      </c>
+      <c r="S73">
+        <v>2.025</v>
+      </c>
+      <c r="T73">
+        <v>2.75</v>
+      </c>
+      <c r="U73">
+        <v>1.825</v>
+      </c>
+      <c r="V73">
         <v>1.975</v>
       </c>
-      <c r="S73">
-        <v>1.825</v>
-      </c>
-      <c r="T73">
-        <v>3.75</v>
-      </c>
-      <c r="U73">
-        <v>1.875</v>
-      </c>
-      <c r="V73">
-        <v>1.925</v>
-      </c>
       <c r="W73">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB73">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6102236</v>
+        <v>6102235</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,49 +7024,49 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K74">
-        <v>2.625</v>
+        <v>1.6</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M74">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="N74">
-        <v>2.625</v>
+        <v>1.65</v>
       </c>
       <c r="O74">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P74">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S74">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T74">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U74">
         <v>1.825</v>
@@ -7078,22 +7078,22 @@
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z74">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB74">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6102234</v>
+        <v>6102233</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,76 +7202,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
         <v>39</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K76">
-        <v>6</v>
+        <v>1.333</v>
       </c>
       <c r="L76">
         <v>5</v>
       </c>
       <c r="M76">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="N76">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="O76">
         <v>5</v>
       </c>
       <c r="P76">
-        <v>1.363</v>
+        <v>7</v>
       </c>
       <c r="Q76">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R76">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S76">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T76">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U76">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6102233</v>
+        <v>6102234</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,76 +7291,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
         <v>40</v>
       </c>
       <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77">
         <v>3</v>
       </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
       <c r="J77" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K77">
-        <v>1.333</v>
+        <v>6</v>
       </c>
       <c r="L77">
         <v>5</v>
       </c>
       <c r="M77">
+        <v>1.4</v>
+      </c>
+      <c r="N77">
         <v>7</v>
-      </c>
-      <c r="N77">
-        <v>1.333</v>
       </c>
       <c r="O77">
         <v>5</v>
       </c>
       <c r="P77">
-        <v>7</v>
+        <v>1.363</v>
       </c>
       <c r="Q77">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="R77">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S77">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T77">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U77">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V77">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W77">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z77">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC77">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7558,7 +7558,7 @@
         <v>45186.67708333334</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G80" t="s">
         <v>31</v>
@@ -7650,7 +7650,7 @@
         <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7739,7 +7739,7 @@
         <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H82">
         <v>4</v>
@@ -7825,7 +7825,7 @@
         <v>45189.67708333334</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G83" t="s">
         <v>36</v>
@@ -7917,7 +7917,7 @@
         <v>29</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7173179</v>
+        <v>7173163</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8003,76 +8003,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J85" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K85">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="L85">
         <v>3.6</v>
       </c>
       <c r="M85">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="N85">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="O85">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P85">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S85">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T85">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U85">
+        <v>1.825</v>
+      </c>
+      <c r="V85">
         <v>1.975</v>
       </c>
-      <c r="V85">
-        <v>1.825</v>
-      </c>
       <c r="W85">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB85">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC85">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8095,7 +8095,7 @@
         <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7173163</v>
+        <v>7173179</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,76 +8181,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="I87">
         <v>1</v>
       </c>
-      <c r="I87">
-        <v>3</v>
-      </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K87">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="L87">
         <v>3.6</v>
       </c>
       <c r="M87">
+        <v>2.45</v>
+      </c>
+      <c r="N87">
         <v>2.375</v>
       </c>
-      <c r="N87">
-        <v>2.7</v>
-      </c>
       <c r="O87">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P87">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q87">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R87">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S87">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T87">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U87">
+        <v>1.975</v>
+      </c>
+      <c r="V87">
         <v>1.825</v>
       </c>
-      <c r="V87">
-        <v>1.975</v>
-      </c>
       <c r="W87">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA87">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8362,7 +8362,7 @@
         <v>33</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H89">
         <v>3</v>
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7173183</v>
+        <v>7173168</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,76 +8537,76 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H91">
         <v>2</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K91">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L91">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M91">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="N91">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O91">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P91">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R91">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S91">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T91">
         <v>3.25</v>
       </c>
       <c r="U91">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V91">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X91">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA91">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7173166</v>
+        <v>7173183</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,73 +8626,73 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I92">
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K92">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L92">
         <v>3.6</v>
       </c>
       <c r="M92">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="N92">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="O92">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P92">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R92">
         <v>1.925</v>
       </c>
       <c r="S92">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T92">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U92">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V92">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W92">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB92">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7173168</v>
+        <v>7173166</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,58 +8715,58 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
         <v>41</v>
       </c>
       <c r="K93">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L93">
+        <v>3.6</v>
+      </c>
+      <c r="M93">
+        <v>2.6</v>
+      </c>
+      <c r="N93">
+        <v>2.7</v>
+      </c>
+      <c r="O93">
+        <v>4</v>
+      </c>
+      <c r="P93">
+        <v>2.1</v>
+      </c>
+      <c r="Q93">
+        <v>0.25</v>
+      </c>
+      <c r="R93">
+        <v>1.925</v>
+      </c>
+      <c r="S93">
+        <v>1.875</v>
+      </c>
+      <c r="T93">
         <v>3.75</v>
       </c>
-      <c r="M93">
-        <v>3.2</v>
-      </c>
-      <c r="N93">
-        <v>1.85</v>
-      </c>
-      <c r="O93">
-        <v>3.8</v>
-      </c>
-      <c r="P93">
-        <v>3.4</v>
-      </c>
-      <c r="Q93">
-        <v>-0.5</v>
-      </c>
-      <c r="R93">
-        <v>1.825</v>
-      </c>
-      <c r="S93">
-        <v>1.975</v>
-      </c>
-      <c r="T93">
-        <v>3.25</v>
-      </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W93">
-        <v>0.8500000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8775,16 +8775,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC93">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G94" t="s">
         <v>37</v>
@@ -8893,10 +8893,10 @@
         <v>45197.67708333334</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H95">
         <v>3</v>
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7173169</v>
+        <v>7173184</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,73 +8982,73 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I96">
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K96">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="L96">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M96">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="N96">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O96">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P96">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="Q96">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R96">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S96">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T96">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U96">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V96">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W96">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z96">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB96">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7173184</v>
+        <v>7173169</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,73 +9071,73 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I97">
         <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K97">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="L97">
+        <v>3.6</v>
+      </c>
+      <c r="M97">
+        <v>2.45</v>
+      </c>
+      <c r="N97">
+        <v>3</v>
+      </c>
+      <c r="O97">
+        <v>3.6</v>
+      </c>
+      <c r="P97">
+        <v>2.05</v>
+      </c>
+      <c r="Q97">
+        <v>0.25</v>
+      </c>
+      <c r="R97">
+        <v>1.975</v>
+      </c>
+      <c r="S97">
+        <v>1.825</v>
+      </c>
+      <c r="T97">
         <v>3.5</v>
       </c>
-      <c r="M97">
-        <v>2.15</v>
-      </c>
-      <c r="N97">
-        <v>3.4</v>
-      </c>
-      <c r="O97">
-        <v>3.75</v>
-      </c>
-      <c r="P97">
-        <v>1.85</v>
-      </c>
-      <c r="Q97">
-        <v>0.5</v>
-      </c>
-      <c r="R97">
-        <v>1.875</v>
-      </c>
-      <c r="S97">
-        <v>1.925</v>
-      </c>
-      <c r="T97">
-        <v>3.25</v>
-      </c>
       <c r="U97">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V97">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA97">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7173186</v>
+        <v>7173185</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,76 +9160,76 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
         <v>1</v>
       </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
       <c r="J98" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K98">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="L98">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M98">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="N98">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="O98">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P98">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R98">
         <v>1.825</v>
       </c>
       <c r="S98">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T98">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U98">
         <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z98">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7173185</v>
+        <v>7173186</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,76 +9249,76 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
         <v>0</v>
       </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K99">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="L99">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M99">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="N99">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="O99">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P99">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q99">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
         <v>1.825</v>
       </c>
       <c r="S99">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T99">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U99">
         <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA99">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>45200.67708333334</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9430,7 +9430,7 @@
         <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H101">
         <v>3</v>
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7173188</v>
+        <v>7173173</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,76 +9516,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G102" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K102">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="L102">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M102">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N102">
-        <v>1.222</v>
+        <v>1.533</v>
       </c>
       <c r="O102">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="P102">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="Q102">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R102">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S102">
+        <v>2</v>
+      </c>
+      <c r="T102">
+        <v>4</v>
+      </c>
+      <c r="U102">
+        <v>2.025</v>
+      </c>
+      <c r="V102">
         <v>1.825</v>
       </c>
-      <c r="T102">
-        <v>3.75</v>
-      </c>
-      <c r="U102">
-        <v>1.9</v>
-      </c>
-      <c r="V102">
-        <v>1.9</v>
-      </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X102">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA102">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC102">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7173189</v>
+        <v>7173172</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,58 +9605,58 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H103">
+        <v>3</v>
+      </c>
+      <c r="I103">
         <v>1</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>41</v>
       </c>
       <c r="K103">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M103">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N103">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O103">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P103">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q103">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R103">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S103">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T103">
         <v>3.5</v>
       </c>
       <c r="U103">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V103">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W103">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9665,16 +9665,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC103">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7173173</v>
+        <v>7173188</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F104" t="s">
+        <v>29</v>
+      </c>
+      <c r="G104" t="s">
         <v>39</v>
       </c>
-      <c r="G104" t="s">
-        <v>34</v>
-      </c>
       <c r="H104">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K104">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="L104">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M104">
+        <v>5.5</v>
+      </c>
+      <c r="N104">
+        <v>1.222</v>
+      </c>
+      <c r="O104">
+        <v>5.5</v>
+      </c>
+      <c r="P104">
+        <v>9</v>
+      </c>
+      <c r="Q104">
+        <v>-2</v>
+      </c>
+      <c r="R104">
+        <v>1.975</v>
+      </c>
+      <c r="S104">
+        <v>1.825</v>
+      </c>
+      <c r="T104">
         <v>3.75</v>
       </c>
-      <c r="N104">
-        <v>1.533</v>
-      </c>
-      <c r="O104">
-        <v>4.75</v>
-      </c>
-      <c r="P104">
-        <v>4.333</v>
-      </c>
-      <c r="Q104">
-        <v>-1</v>
-      </c>
-      <c r="R104">
-        <v>1.85</v>
-      </c>
-      <c r="S104">
-        <v>2</v>
-      </c>
-      <c r="T104">
-        <v>4</v>
-      </c>
       <c r="U104">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W104">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB104">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7173187</v>
+        <v>7173189</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,58 +9783,58 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H105">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>41</v>
       </c>
       <c r="K105">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L105">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M105">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N105">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O105">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P105">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q105">
         <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S105">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T105">
         <v>3.5</v>
       </c>
       <c r="U105">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V105">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W105">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9843,16 +9843,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA105">
+        <v>-1</v>
+      </c>
+      <c r="AB105">
+        <v>-1</v>
+      </c>
+      <c r="AC105">
         <v>0.825</v>
-      </c>
-      <c r="AA105">
-        <v>-1</v>
-      </c>
-      <c r="AB105">
-        <v>1</v>
-      </c>
-      <c r="AC105">
-        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7173172</v>
+        <v>7173187</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,13 +9872,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I106">
         <v>1</v>
@@ -9887,28 +9887,28 @@
         <v>41</v>
       </c>
       <c r="K106">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L106">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M106">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="N106">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O106">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P106">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S106">
         <v>2.025</v>
@@ -9917,13 +9917,13 @@
         <v>3.5</v>
       </c>
       <c r="U106">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V106">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W106">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9932,13 +9932,13 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC106">
         <v>-1</v>

--- a/Iceland Premier League/Iceland Premier League.xlsx
+++ b/Iceland Premier League/Iceland Premier League.xlsx
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6102183</v>
+        <v>6102182</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,76 +1684,76 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="L14">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M14">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="N14">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="O14">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P14">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="Q14">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R14">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S14">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T14">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U14">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V14">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W14">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB14">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6102182</v>
+        <v>6102183</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,76 +1773,76 @@
         <v>45100.67708333334</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M15">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="N15">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P15">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="Q15">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R15">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S15">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X15">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.4</v>
+        <v>1.025</v>
       </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6102190</v>
+        <v>6102189</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,49 +2485,49 @@
         <v>45106.67708333334</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23">
+        <v>2.1</v>
+      </c>
+      <c r="L23">
+        <v>3.4</v>
+      </c>
+      <c r="M23">
         <v>3</v>
       </c>
-      <c r="J23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23">
-        <v>5.25</v>
-      </c>
-      <c r="L23">
-        <v>4.333</v>
-      </c>
-      <c r="M23">
-        <v>1.45</v>
-      </c>
       <c r="N23">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="O23">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P23">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q23">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
+        <v>1.925</v>
+      </c>
+      <c r="S23">
         <v>1.875</v>
       </c>
-      <c r="S23">
-        <v>1.925</v>
-      </c>
       <c r="T23">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U23">
         <v>1.925</v>
@@ -2536,19 +2536,19 @@
         <v>1.875</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA23">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
         <v>0.925</v>
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6102189</v>
+        <v>6102190</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,49 +2574,49 @@
         <v>45106.67708333334</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="L24">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="N24">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="O24">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P24">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R24">
+        <v>1.875</v>
+      </c>
+      <c r="S24">
         <v>1.925</v>
       </c>
-      <c r="S24">
-        <v>1.875</v>
-      </c>
       <c r="T24">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U24">
         <v>1.925</v>
@@ -2625,19 +2625,19 @@
         <v>1.875</v>
       </c>
       <c r="W24">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z24">
+        <v>-1</v>
+      </c>
+      <c r="AA24">
         <v>0.925</v>
-      </c>
-      <c r="AA24">
-        <v>-1</v>
       </c>
       <c r="AB24">
         <v>0.925</v>
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6922578</v>
+        <v>6102200</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,76 +3375,76 @@
         <v>45125.70833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K33">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L33">
         <v>3.6</v>
       </c>
       <c r="M33">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N33">
         <v>2.05</v>
       </c>
       <c r="O33">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P33">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q33">
         <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S33">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T33">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U33">
         <v>1.925</v>
       </c>
       <c r="V33">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X33">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA33">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
         <v>-1</v>
       </c>
       <c r="AC33">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6102200</v>
+        <v>6922578</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,76 +3464,76 @@
         <v>45125.70833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K34">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L34">
         <v>3.6</v>
       </c>
       <c r="M34">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N34">
         <v>2.05</v>
       </c>
       <c r="O34">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P34">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q34">
         <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S34">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U34">
         <v>1.925</v>
       </c>
       <c r="V34">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W34">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6102206</v>
+        <v>6102207</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,76 +3642,76 @@
         <v>45130.67708333334</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K36">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M36">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="N36">
-        <v>1.4</v>
+        <